--- a/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
+++ b/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KvotaSite\калькулятор 5 - блокноты, деколь\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="силиконовые браслеты" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="298">
   <si>
     <t>Количество</t>
   </si>
@@ -2639,51 +2639,6 @@
   </si>
   <si>
     <r>
-      <t>12, 15 мм (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color rgb="FF36B0F4"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>сатин</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color rgb="FFFF3877"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color rgb="FF36B0F4"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>полиэстер</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color rgb="FFFF3877"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Материал: </t>
     </r>
     <r>
@@ -3340,9 +3295,6 @@
     </r>
   </si>
   <si>
-    <t>Цна за шт</t>
-  </si>
-  <si>
     <r>
       <t>7</t>
     </r>
@@ -3543,6 +3495,51 @@
         <charset val="204"/>
       </rPr>
       <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12, 15 мм (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF36B0F4"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>сатин</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FFFF3877"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FF36B0F4"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>полиэстер</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color rgb="FFFF3877"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>) 561</t>
     </r>
   </si>
 </sst>
@@ -3926,7 +3923,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3939,8 +3936,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -4076,6 +4085,21 @@
       </top>
       <bottom style="thick">
         <color rgb="FFF9F9F9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4338,12 +4362,6 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4355,108 +4373,9 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4491,14 +4410,113 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -6120,13 +6138,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>628332</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>190227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6158,13 +6176,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>628272</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>21177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6196,13 +6214,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6238,13 +6256,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3238129</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>113998</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6276,14 +6294,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3066681</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>171165</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>94965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6314,14 +6332,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3085759</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>294959</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>228284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6352,13 +6370,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6394,13 +6412,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6436,14 +6454,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3381030</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>342617</xdr:rowOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>314042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6474,13 +6492,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1457325</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>579806</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>18733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6516,15 +6534,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>406299</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130074</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6541,7 +6559,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5600700" y="2019300"/>
+          <a:off x="5943600" y="2524125"/>
           <a:ext cx="3676650" cy="2739924"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7549,8 +7567,8 @@
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="104"/>
-      <c r="B16" s="104"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="143"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -7566,55 +7584,55 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="126" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="29" t="s">
         <v>268</v>
-      </c>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="29" t="s">
-        <v>269</v>
       </c>
       <c r="G22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="V22" s="132"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="V22" s="102"/>
     </row>
     <row r="23" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106" t="s">
+      <c r="C23" s="124"/>
+      <c r="D23" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106" t="s">
+      <c r="E23" s="124"/>
+      <c r="F23" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106" t="s">
+      <c r="G23" s="124"/>
+      <c r="H23" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="106"/>
+      <c r="I23" s="124"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="M23" s="23"/>
@@ -7625,22 +7643,22 @@
       <c r="A24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134" t="s">
+      <c r="C24" s="125"/>
+      <c r="D24" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134" t="s">
+      <c r="E24" s="125"/>
+      <c r="F24" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134" t="s">
+      <c r="G24" s="125"/>
+      <c r="H24" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="134"/>
+      <c r="I24" s="125"/>
       <c r="J24" s="22"/>
       <c r="K24" s="21"/>
       <c r="M24" s="21"/>
@@ -7651,22 +7669,22 @@
       <c r="A25" s="21">
         <v>100</v>
       </c>
-      <c r="B25" s="136" t="s">
+      <c r="B25" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136" t="s">
+      <c r="C25" s="123"/>
+      <c r="D25" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136" t="s">
+      <c r="E25" s="123"/>
+      <c r="F25" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136" t="s">
+      <c r="G25" s="123"/>
+      <c r="H25" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="136"/>
+      <c r="I25" s="123"/>
       <c r="J25" s="22"/>
       <c r="K25" s="21"/>
       <c r="M25" s="21"/>
@@ -7677,22 +7695,22 @@
       <c r="A26" s="21">
         <v>200</v>
       </c>
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137" t="s">
+      <c r="C26" s="121"/>
+      <c r="D26" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137" t="s">
+      <c r="E26" s="121"/>
+      <c r="F26" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137" t="s">
+      <c r="G26" s="121"/>
+      <c r="H26" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="137"/>
+      <c r="I26" s="121"/>
       <c r="J26" s="22"/>
       <c r="K26" s="21"/>
       <c r="M26" s="21"/>
@@ -7703,22 +7721,22 @@
       <c r="A27" s="21">
         <v>300</v>
       </c>
-      <c r="B27" s="137" t="s">
+      <c r="B27" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137" t="s">
+      <c r="C27" s="121"/>
+      <c r="D27" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137" t="s">
+      <c r="E27" s="121"/>
+      <c r="F27" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137" t="s">
+      <c r="G27" s="121"/>
+      <c r="H27" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="137"/>
+      <c r="I27" s="121"/>
       <c r="J27" s="22"/>
       <c r="K27" s="21"/>
       <c r="M27" s="21"/>
@@ -7729,22 +7747,22 @@
       <c r="A28" s="21">
         <v>500</v>
       </c>
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137" t="s">
+      <c r="C28" s="121"/>
+      <c r="D28" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137" t="s">
+      <c r="E28" s="121"/>
+      <c r="F28" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137" t="s">
+      <c r="G28" s="121"/>
+      <c r="H28" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="137"/>
+      <c r="I28" s="121"/>
       <c r="J28" s="22"/>
       <c r="K28" s="21"/>
       <c r="M28" s="21"/>
@@ -7755,22 +7773,22 @@
       <c r="A29" s="21">
         <v>1000</v>
       </c>
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="137"/>
-      <c r="D29" s="137" t="s">
+      <c r="C29" s="121"/>
+      <c r="D29" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137" t="s">
+      <c r="E29" s="121"/>
+      <c r="F29" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137" t="s">
+      <c r="G29" s="121"/>
+      <c r="H29" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="137"/>
+      <c r="I29" s="121"/>
       <c r="J29" s="22"/>
       <c r="K29" s="21"/>
       <c r="M29" s="21"/>
@@ -7781,22 +7799,22 @@
       <c r="A30" s="21">
         <v>3000</v>
       </c>
-      <c r="B30" s="137" t="s">
+      <c r="B30" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="137"/>
-      <c r="D30" s="137" t="s">
+      <c r="C30" s="121"/>
+      <c r="D30" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137" t="s">
+      <c r="E30" s="121"/>
+      <c r="F30" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137" t="s">
+      <c r="G30" s="121"/>
+      <c r="H30" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="137"/>
+      <c r="I30" s="121"/>
       <c r="M30" s="21"/>
       <c r="N30" s="22"/>
       <c r="O30" s="21"/>
@@ -7805,39 +7823,39 @@
       <c r="A31" s="21">
         <v>5000</v>
       </c>
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="137"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="137" t="s">
+      <c r="C31" s="121"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="137"/>
+      <c r="I31" s="121"/>
     </row>
     <row r="32" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>10000</v>
       </c>
-      <c r="B32" s="137" t="s">
+      <c r="B32" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="137"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="138"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
@@ -7907,21 +7925,21 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="108"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="127"/>
+      <c r="F46" s="127"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="127"/>
+      <c r="K46" s="127"/>
+      <c r="L46" s="127"/>
+      <c r="M46" s="127"/>
     </row>
     <row r="47" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
@@ -7933,17 +7951,17 @@
       <c r="D47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
-    <row r="48" spans="1:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23" t="s">
         <v>0</v>
       </c>
@@ -7964,10 +7982,10 @@
       <c r="K48" s="23"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="139">
+      <c r="A49" s="104">
         <v>100</v>
       </c>
-      <c r="B49" s="140">
+      <c r="B49" s="105">
         <v>40</v>
       </c>
       <c r="C49" s="40" t="s">
@@ -7976,12 +7994,12 @@
       <c r="D49" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="135"/>
-      <c r="F49" s="135"/>
-      <c r="G49" s="135"/>
-      <c r="I49" s="135"/>
-      <c r="J49" s="135"/>
-      <c r="K49" s="135"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+      <c r="K49" s="103"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
@@ -8104,28 +8122,28 @@
     </row>
     <row r="57" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="110"/>
-    </row>
-    <row r="60" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="135"/>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="111" t="s">
+      <c r="A61" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="111"/>
+      <c r="B61" s="141"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -8134,12 +8152,12 @@
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
     </row>
-    <row r="62" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -8149,7 +8167,7 @@
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:11" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
         <v>6</v>
       </c>
@@ -8157,12 +8175,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
         <v>49</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8193,8 +8211,8 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="105"/>
-      <c r="B70" s="105"/>
+      <c r="A70" s="129"/>
+      <c r="B70" s="129"/>
     </row>
     <row r="71" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
@@ -8205,25 +8223,25 @@
       <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:17" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="108" t="s">
+      <c r="A73" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="108"/>
-      <c r="C73" s="108"/>
-      <c r="D73" s="108"/>
-      <c r="E73" s="108"/>
-      <c r="F73" s="108"/>
-      <c r="G73" s="108"/>
-      <c r="H73" s="108"/>
-      <c r="I73" s="108"/>
-      <c r="J73" s="108"/>
-      <c r="K73" s="108"/>
-      <c r="L73" s="108"/>
-      <c r="M73" s="108"/>
-      <c r="N73" s="108"/>
-      <c r="O73" s="108"/>
-      <c r="P73" s="108"/>
-      <c r="Q73" s="108"/>
+      <c r="B73" s="127"/>
+      <c r="C73" s="127"/>
+      <c r="D73" s="127"/>
+      <c r="E73" s="127"/>
+      <c r="F73" s="127"/>
+      <c r="G73" s="127"/>
+      <c r="H73" s="127"/>
+      <c r="I73" s="127"/>
+      <c r="J73" s="127"/>
+      <c r="K73" s="127"/>
+      <c r="L73" s="127"/>
+      <c r="M73" s="127"/>
+      <c r="N73" s="127"/>
+      <c r="O73" s="127"/>
+      <c r="P73" s="127"/>
+      <c r="Q73" s="127"/>
     </row>
     <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
@@ -8242,10 +8260,10 @@
       <c r="G75" s="46"/>
     </row>
     <row r="76" spans="1:17" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="112" t="s">
+      <c r="A76" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="112"/>
+      <c r="B76" s="142"/>
       <c r="C76" s="36"/>
       <c r="E76" s="47">
         <v>100</v>
@@ -8260,7 +8278,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C77" s="36"/>
       <c r="E77" s="47">
@@ -8272,10 +8290,10 @@
       <c r="G77" s="47"/>
     </row>
     <row r="78" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="113" t="s">
+      <c r="A78" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="113"/>
+      <c r="B78" s="132"/>
       <c r="C78" s="36"/>
       <c r="E78" s="47">
         <v>500</v>
@@ -8285,12 +8303,12 @@
       </c>
       <c r="G78" s="47"/>
     </row>
-    <row r="79" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B79" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C79" s="36"/>
       <c r="E79" s="47">
@@ -8301,12 +8319,12 @@
       </c>
       <c r="G79" s="47"/>
     </row>
-    <row r="80" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B80" s="49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C80" s="36"/>
       <c r="E80" s="47">
@@ -8386,33 +8404,33 @@
       <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="108" t="s">
+      <c r="A92" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="108"/>
-      <c r="C92" s="108"/>
-      <c r="D92" s="108"/>
-      <c r="E92" s="108"/>
-      <c r="F92" s="108"/>
-      <c r="G92" s="108"/>
-      <c r="H92" s="108"/>
-      <c r="I92" s="108"/>
-      <c r="J92" s="108"/>
-      <c r="K92" s="108"/>
-      <c r="L92" s="108"/>
-      <c r="M92" s="108"/>
-      <c r="N92" s="108"/>
-      <c r="O92" s="108"/>
-      <c r="P92" s="108"/>
-      <c r="Q92" s="108"/>
-      <c r="R92" s="108"/>
-      <c r="S92" s="108"/>
+      <c r="B92" s="127"/>
+      <c r="C92" s="127"/>
+      <c r="D92" s="127"/>
+      <c r="E92" s="127"/>
+      <c r="F92" s="127"/>
+      <c r="G92" s="127"/>
+      <c r="H92" s="127"/>
+      <c r="I92" s="127"/>
+      <c r="J92" s="127"/>
+      <c r="K92" s="127"/>
+      <c r="L92" s="127"/>
+      <c r="M92" s="127"/>
+      <c r="N92" s="127"/>
+      <c r="O92" s="127"/>
+      <c r="P92" s="127"/>
+      <c r="Q92" s="127"/>
+      <c r="R92" s="127"/>
+      <c r="S92" s="127"/>
     </row>
     <row r="93" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="109" t="s">
+      <c r="A93" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="B93" s="109"/>
+      <c r="B93" s="140"/>
       <c r="E93" s="45" t="s">
         <v>0</v>
       </c>
@@ -8426,7 +8444,7 @@
         <v>4</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E94" s="34">
         <v>100</v>
@@ -8437,10 +8455,10 @@
       <c r="G94" s="36"/>
     </row>
     <row r="95" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="113" t="s">
+      <c r="A95" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="113"/>
+      <c r="B95" s="132"/>
       <c r="E95" s="34">
         <v>300</v>
       </c>
@@ -8449,12 +8467,12 @@
       </c>
       <c r="G95" s="36"/>
     </row>
-    <row r="96" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E96" s="34">
         <v>500</v>
@@ -8464,7 +8482,7 @@
       </c>
       <c r="G96" s="36"/>
     </row>
-    <row r="97" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="34" t="s">
         <v>6</v>
       </c>
@@ -8537,57 +8555,57 @@
       <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:17" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="108" t="s">
+      <c r="A108" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="B108" s="108"/>
-      <c r="C108" s="108"/>
-      <c r="D108" s="108"/>
-      <c r="E108" s="108"/>
-      <c r="F108" s="108"/>
-      <c r="G108" s="108"/>
-      <c r="H108" s="108"/>
-      <c r="I108" s="108"/>
-      <c r="J108" s="108"/>
-      <c r="K108" s="108"/>
-      <c r="L108" s="108"/>
-      <c r="M108" s="108"/>
-      <c r="N108" s="108"/>
-      <c r="O108" s="108"/>
-      <c r="P108" s="108"/>
-      <c r="Q108" s="108"/>
+      <c r="B108" s="127"/>
+      <c r="C108" s="127"/>
+      <c r="D108" s="127"/>
+      <c r="E108" s="127"/>
+      <c r="F108" s="127"/>
+      <c r="G108" s="127"/>
+      <c r="H108" s="127"/>
+      <c r="I108" s="127"/>
+      <c r="J108" s="127"/>
+      <c r="K108" s="127"/>
+      <c r="L108" s="127"/>
+      <c r="M108" s="127"/>
+      <c r="N108" s="127"/>
+      <c r="O108" s="127"/>
+      <c r="P108" s="127"/>
+      <c r="Q108" s="127"/>
     </row>
     <row r="109" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
-      <c r="E109" s="150"/>
+      <c r="E109" s="115"/>
       <c r="F109" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G109" s="150"/>
+      <c r="G109" s="115"/>
       <c r="H109" s="44"/>
-      <c r="I109" s="150"/>
-      <c r="J109" s="150"/>
-      <c r="K109" s="150"/>
+      <c r="I109" s="115"/>
+      <c r="J109" s="115"/>
+      <c r="K109" s="115"/>
       <c r="L109" s="44"/>
-      <c r="M109" s="150"/>
-      <c r="N109" s="150"/>
-      <c r="O109" s="150"/>
+      <c r="M109" s="115"/>
+      <c r="N109" s="115"/>
+      <c r="O109" s="115"/>
     </row>
     <row r="110" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="109" t="s">
+      <c r="A110" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="B110" s="109"/>
+      <c r="B110" s="140"/>
       <c r="E110" s="23"/>
-      <c r="F110" s="141" t="s">
-        <v>277</v>
-      </c>
-      <c r="G110" s="141" t="s">
+      <c r="F110" s="106" t="s">
+        <v>276</v>
+      </c>
+      <c r="G110" s="106" t="s">
+        <v>274</v>
+      </c>
+      <c r="H110" s="106" t="s">
         <v>275</v>
-      </c>
-      <c r="H110" s="141" t="s">
-        <v>276</v>
       </c>
       <c r="I110" s="56"/>
       <c r="J110" s="56"/>
@@ -8603,15 +8621,15 @@
         <v>5</v>
       </c>
       <c r="B111" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="F111" s="142" t="s">
+        <v>273</v>
+      </c>
+      <c r="F111" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="G111" s="142" t="s">
+      <c r="G111" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="H111" s="142" t="s">
+      <c r="H111" s="107" t="s">
         <v>57</v>
       </c>
       <c r="I111" s="59"/>
@@ -8624,10 +8642,10 @@
       <c r="P111" s="24"/>
     </row>
     <row r="112" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="113" t="s">
+      <c r="A112" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B112" s="113"/>
+      <c r="B112" s="132"/>
       <c r="E112" s="23" t="s">
         <v>0</v>
       </c>
@@ -8775,71 +8793,71 @@
       <c r="A122" s="28"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="117"/>
-      <c r="B127" s="107"/>
-      <c r="C127" s="107"/>
-      <c r="D127" s="107"/>
-      <c r="E127" s="107"/>
-      <c r="F127" s="107"/>
-      <c r="G127" s="107"/>
-      <c r="H127" s="107"/>
+      <c r="A127" s="137"/>
+      <c r="B127" s="119"/>
+      <c r="C127" s="119"/>
+      <c r="D127" s="119"/>
+      <c r="E127" s="119"/>
+      <c r="F127" s="119"/>
+      <c r="G127" s="119"/>
+      <c r="H127" s="119"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="107"/>
-      <c r="B128" s="107"/>
-      <c r="C128" s="107"/>
-      <c r="D128" s="107"/>
-      <c r="E128" s="107"/>
-      <c r="F128" s="107"/>
-      <c r="G128" s="107"/>
-      <c r="H128" s="107"/>
+      <c r="A128" s="119"/>
+      <c r="B128" s="119"/>
+      <c r="C128" s="119"/>
+      <c r="D128" s="119"/>
+      <c r="E128" s="119"/>
+      <c r="F128" s="119"/>
+      <c r="G128" s="119"/>
+      <c r="H128" s="119"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="107"/>
-      <c r="B129" s="107"/>
-      <c r="C129" s="107"/>
-      <c r="D129" s="107"/>
-      <c r="E129" s="107"/>
-      <c r="F129" s="107"/>
-      <c r="G129" s="107"/>
-      <c r="H129" s="107"/>
+      <c r="A129" s="119"/>
+      <c r="B129" s="119"/>
+      <c r="C129" s="119"/>
+      <c r="D129" s="119"/>
+      <c r="E129" s="119"/>
+      <c r="F129" s="119"/>
+      <c r="G129" s="119"/>
+      <c r="H129" s="119"/>
     </row>
     <row r="130" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A130" s="116"/>
-      <c r="B130" s="116"/>
-      <c r="C130" s="116"/>
-      <c r="D130" s="116"/>
-      <c r="E130" s="116"/>
+      <c r="A130" s="136"/>
+      <c r="B130" s="136"/>
+      <c r="C130" s="136"/>
+      <c r="D130" s="136"/>
+      <c r="E130" s="136"/>
       <c r="R130" s="44"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="107"/>
-      <c r="B134" s="107"/>
-      <c r="C134" s="107"/>
-      <c r="D134" s="107"/>
-      <c r="E134" s="107"/>
-      <c r="F134" s="107"/>
-      <c r="G134" s="107"/>
+      <c r="A134" s="119"/>
+      <c r="B134" s="119"/>
+      <c r="C134" s="119"/>
+      <c r="D134" s="119"/>
+      <c r="E134" s="119"/>
+      <c r="F134" s="119"/>
+      <c r="G134" s="119"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A135" s="107"/>
-      <c r="B135" s="107"/>
-      <c r="C135" s="107"/>
-      <c r="D135" s="107"/>
-      <c r="E135" s="107"/>
-      <c r="F135" s="107"/>
-      <c r="G135" s="107"/>
+      <c r="A135" s="119"/>
+      <c r="B135" s="119"/>
+      <c r="C135" s="119"/>
+      <c r="D135" s="119"/>
+      <c r="E135" s="119"/>
+      <c r="F135" s="119"/>
+      <c r="G135" s="119"/>
     </row>
     <row r="137" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="108" t="s">
+      <c r="A137" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="B137" s="108"/>
-      <c r="C137" s="108"/>
-      <c r="D137" s="108"/>
-      <c r="E137" s="108"/>
-      <c r="F137" s="108"/>
-      <c r="G137" s="108"/>
+      <c r="B137" s="127"/>
+      <c r="C137" s="127"/>
+      <c r="D137" s="127"/>
+      <c r="E137" s="127"/>
+      <c r="F137" s="127"/>
+      <c r="G137" s="127"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F138" s="29" t="s">
@@ -8847,10 +8865,10 @@
       </c>
     </row>
     <row r="139" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="115" t="s">
+      <c r="A139" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B139" s="115"/>
+      <c r="B139" s="130"/>
       <c r="F139" s="86" t="s">
         <v>25</v>
       </c>
@@ -8860,13 +8878,13 @@
       <c r="H139" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="I139" s="114"/>
-      <c r="J139" s="114"/>
-      <c r="K139" s="114"/>
+      <c r="I139" s="139"/>
+      <c r="J139" s="139"/>
+      <c r="K139" s="139"/>
       <c r="L139" s="69"/>
-      <c r="M139" s="114"/>
-      <c r="N139" s="114"/>
-      <c r="O139" s="114"/>
+      <c r="M139" s="139"/>
+      <c r="N139" s="139"/>
+      <c r="O139" s="139"/>
     </row>
     <row r="140" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="34" t="s">
@@ -8884,7 +8902,7 @@
       <c r="G140" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H140" s="147" t="s">
+      <c r="H140" s="112" t="s">
         <v>24</v>
       </c>
       <c r="I140" s="66"/>
@@ -8896,31 +8914,31 @@
       <c r="O140" s="66"/>
     </row>
     <row r="141" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="143"/>
-      <c r="B141" s="144"/>
-      <c r="E141" s="135">
+      <c r="A141" s="108"/>
+      <c r="B141" s="109"/>
+      <c r="E141" s="103">
         <v>100</v>
       </c>
-      <c r="F141" s="135"/>
+      <c r="F141" s="103"/>
       <c r="G141" s="71">
         <v>76</v>
       </c>
       <c r="H141" s="71">
         <v>76</v>
       </c>
-      <c r="I141" s="145"/>
-      <c r="J141" s="145"/>
-      <c r="K141" s="145"/>
+      <c r="I141" s="110"/>
+      <c r="J141" s="110"/>
+      <c r="K141" s="110"/>
       <c r="L141" s="53"/>
-      <c r="M141" s="145"/>
-      <c r="N141" s="145"/>
-      <c r="O141" s="145"/>
+      <c r="M141" s="110"/>
+      <c r="N141" s="110"/>
+      <c r="O141" s="110"/>
     </row>
     <row r="142" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="113" t="s">
+      <c r="A142" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B142" s="113"/>
+      <c r="B142" s="132"/>
       <c r="E142" s="55">
         <v>200</v>
       </c>
@@ -8946,7 +8964,7 @@
         <v>5</v>
       </c>
       <c r="B143" s="49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E143" s="55">
         <v>300</v>
@@ -8968,12 +8986,12 @@
       <c r="N143" s="71"/>
       <c r="O143" s="67"/>
     </row>
-    <row r="144" spans="1:18" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B144" s="49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E144" s="55">
         <v>500</v>
@@ -8995,12 +9013,12 @@
       <c r="N144" s="71"/>
       <c r="O144" s="67"/>
     </row>
-    <row r="145" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="51" t="s">
         <v>49</v>
       </c>
       <c r="B145" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E145" s="55">
         <v>1000</v>
@@ -9076,87 +9094,87 @@
       <c r="N149" s="72"/>
     </row>
     <row r="152" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="120" t="s">
+      <c r="A152" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="B152" s="120"/>
-      <c r="C152" s="120"/>
-      <c r="D152" s="120"/>
-      <c r="E152" s="120"/>
-      <c r="F152" s="120"/>
-      <c r="G152" s="120"/>
-      <c r="H152" s="120"/>
-      <c r="I152" s="120"/>
-      <c r="J152" s="120"/>
-      <c r="K152" s="120"/>
-      <c r="L152" s="120"/>
-      <c r="M152" s="120"/>
-      <c r="N152" s="120"/>
-      <c r="O152" s="120"/>
-      <c r="P152" s="120"/>
-      <c r="Q152" s="120"/>
+      <c r="B152" s="138"/>
+      <c r="C152" s="138"/>
+      <c r="D152" s="138"/>
+      <c r="E152" s="138"/>
+      <c r="F152" s="138"/>
+      <c r="G152" s="138"/>
+      <c r="H152" s="138"/>
+      <c r="I152" s="138"/>
+      <c r="J152" s="138"/>
+      <c r="K152" s="138"/>
+      <c r="L152" s="138"/>
+      <c r="M152" s="138"/>
+      <c r="N152" s="138"/>
+      <c r="O152" s="138"/>
+      <c r="P152" s="138"/>
+      <c r="Q152" s="138"/>
     </row>
     <row r="155" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="B155" s="108"/>
-      <c r="C155" s="108"/>
-      <c r="D155" s="108"/>
-      <c r="E155" s="108"/>
-      <c r="F155" s="108"/>
-      <c r="G155" s="108"/>
-      <c r="H155" s="108"/>
-      <c r="I155" s="108"/>
-      <c r="J155" s="108"/>
-      <c r="K155" s="108"/>
-      <c r="L155" s="108"/>
-      <c r="M155" s="108"/>
-      <c r="N155" s="108"/>
-      <c r="O155" s="108"/>
+      <c r="B155" s="127"/>
+      <c r="C155" s="127"/>
+      <c r="D155" s="127"/>
+      <c r="E155" s="127"/>
+      <c r="F155" s="127"/>
+      <c r="G155" s="127"/>
+      <c r="H155" s="127"/>
+      <c r="I155" s="127"/>
+      <c r="J155" s="127"/>
+      <c r="K155" s="127"/>
+      <c r="L155" s="127"/>
+      <c r="M155" s="127"/>
+      <c r="N155" s="127"/>
+      <c r="O155" s="127"/>
     </row>
     <row r="156" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A156" s="118"/>
-      <c r="B156" s="119"/>
-      <c r="C156" s="119"/>
-      <c r="D156" s="119"/>
+      <c r="A156" s="133"/>
+      <c r="B156" s="134"/>
+      <c r="C156" s="134"/>
+      <c r="D156" s="134"/>
       <c r="E156" s="29" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F157" s="132" t="s">
+      <c r="F157" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="G157" s="132" t="s">
+      <c r="G157" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="H157" s="132" t="s">
+      <c r="H157" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="I157" s="107"/>
-      <c r="J157" s="107"/>
-      <c r="K157" s="107"/>
-      <c r="M157" s="107"/>
-      <c r="N157" s="107"/>
-      <c r="O157" s="107"/>
+      <c r="I157" s="119"/>
+      <c r="J157" s="119"/>
+      <c r="K157" s="119"/>
+      <c r="M157" s="119"/>
+      <c r="N157" s="119"/>
+      <c r="O157" s="119"/>
     </row>
     <row r="158" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="110" t="s">
+      <c r="B158" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C158" s="110"/>
+      <c r="C158" s="135"/>
       <c r="E158" s="74" t="s">
         <v>0</v>
       </c>
       <c r="F158" s="74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G158" s="74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H158" s="53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I158" s="74"/>
       <c r="J158" s="74"/>
@@ -9168,12 +9186,12 @@
       <c r="P158" s="20"/>
     </row>
     <row r="159" spans="1:17" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="148"/>
-      <c r="C159" s="148"/>
-      <c r="E159" s="149">
+      <c r="B159" s="113"/>
+      <c r="C159" s="113"/>
+      <c r="E159" s="114">
         <v>100</v>
       </c>
-      <c r="F159" s="149">
+      <c r="F159" s="114">
         <v>35</v>
       </c>
       <c r="G159" s="71">
@@ -9182,13 +9200,13 @@
       <c r="H159" s="61">
         <v>70</v>
       </c>
-      <c r="I159" s="149"/>
-      <c r="J159" s="149"/>
-      <c r="K159" s="149"/>
+      <c r="I159" s="114"/>
+      <c r="J159" s="114"/>
+      <c r="K159" s="114"/>
       <c r="L159" s="53"/>
-      <c r="M159" s="135"/>
-      <c r="N159" s="135"/>
-      <c r="O159" s="135"/>
+      <c r="M159" s="103"/>
+      <c r="N159" s="103"/>
+      <c r="O159" s="103"/>
       <c r="P159" s="85"/>
     </row>
     <row r="160" spans="1:17" ht="38.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9196,7 +9214,7 @@
         <v>5</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E160" s="76">
         <v>200</v>
@@ -9219,7 +9237,7 @@
       <c r="O160" s="39"/>
       <c r="P160" s="20"/>
     </row>
-    <row r="161" spans="1:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B161" s="19" t="s">
         <v>6</v>
       </c>
@@ -9247,12 +9265,12 @@
       <c r="O161" s="39"/>
       <c r="P161" s="20"/>
     </row>
-    <row r="162" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="43" t="s">
         <v>49</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E162" s="76">
         <v>500</v>
@@ -9406,30 +9424,30 @@
       </c>
     </row>
     <row r="175" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="108" t="s">
+      <c r="A175" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="B175" s="108"/>
-      <c r="C175" s="108"/>
-      <c r="D175" s="108"/>
-      <c r="E175" s="108"/>
-      <c r="F175" s="108"/>
-      <c r="G175" s="108"/>
-      <c r="H175" s="108"/>
-      <c r="I175" s="108"/>
-      <c r="J175" s="108"/>
-      <c r="K175" s="108"/>
-      <c r="L175" s="108"/>
-      <c r="M175" s="108"/>
-      <c r="N175" s="108"/>
-      <c r="O175" s="108"/>
-      <c r="P175" s="108"/>
+      <c r="B175" s="127"/>
+      <c r="C175" s="127"/>
+      <c r="D175" s="127"/>
+      <c r="E175" s="127"/>
+      <c r="F175" s="127"/>
+      <c r="G175" s="127"/>
+      <c r="H175" s="127"/>
+      <c r="I175" s="127"/>
+      <c r="J175" s="127"/>
+      <c r="K175" s="127"/>
+      <c r="L175" s="127"/>
+      <c r="M175" s="127"/>
+      <c r="N175" s="127"/>
+      <c r="O175" s="127"/>
+      <c r="P175" s="127"/>
     </row>
     <row r="176" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="115" t="s">
+      <c r="A176" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B176" s="115"/>
+      <c r="B176" s="130"/>
       <c r="E176" s="63" t="s">
         <v>0</v>
       </c>
@@ -9438,7 +9456,7 @@
       </c>
       <c r="G176" s="64"/>
     </row>
-    <row r="177" spans="1:14" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="34" t="s">
         <v>4</v>
       </c>
@@ -9454,10 +9472,10 @@
       <c r="G177" s="65"/>
     </row>
     <row r="178" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="113" t="s">
+      <c r="A178" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B178" s="113"/>
+      <c r="B178" s="132"/>
       <c r="E178" s="77">
         <v>300</v>
       </c>
@@ -9466,7 +9484,7 @@
       </c>
       <c r="G178" s="65"/>
     </row>
-    <row r="179" spans="1:14" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="51" t="s">
         <v>8</v>
       </c>
@@ -9481,12 +9499,12 @@
       </c>
       <c r="G179" s="65"/>
     </row>
-    <row r="180" spans="1:14" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B180" s="49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E180" s="77">
         <v>1000</v>
@@ -9550,22 +9568,22 @@
       </c>
     </row>
     <row r="190" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="108" t="s">
+      <c r="A190" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="B190" s="108"/>
-      <c r="C190" s="108"/>
-      <c r="D190" s="108"/>
-      <c r="E190" s="108"/>
-      <c r="F190" s="108"/>
-      <c r="G190" s="108"/>
-      <c r="H190" s="108"/>
-      <c r="I190" s="108"/>
-      <c r="J190" s="108"/>
-      <c r="K190" s="108"/>
-      <c r="L190" s="108"/>
-      <c r="M190" s="108"/>
-      <c r="N190" s="108"/>
+      <c r="B190" s="127"/>
+      <c r="C190" s="127"/>
+      <c r="D190" s="127"/>
+      <c r="E190" s="127"/>
+      <c r="F190" s="127"/>
+      <c r="G190" s="127"/>
+      <c r="H190" s="127"/>
+      <c r="I190" s="127"/>
+      <c r="J190" s="127"/>
+      <c r="K190" s="127"/>
+      <c r="L190" s="127"/>
+      <c r="M190" s="127"/>
+      <c r="N190" s="127"/>
     </row>
     <row r="191" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D191" s="78" t="s">
@@ -9573,17 +9591,17 @@
       </c>
     </row>
     <row r="192" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="115" t="s">
+      <c r="A192" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B192" s="115"/>
-    </row>
-    <row r="193" spans="1:15" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="130"/>
+    </row>
+    <row r="193" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B193" s="49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E193" s="83" t="s">
         <v>0</v>
@@ -9593,12 +9611,12 @@
       </c>
       <c r="G193" s="83"/>
     </row>
-    <row r="194" spans="1:15" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B194" s="49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E194" s="47">
         <v>100</v>
@@ -9665,29 +9683,29 @@
       </c>
     </row>
     <row r="205" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="108" t="s">
+      <c r="A205" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="B205" s="108"/>
-      <c r="C205" s="108"/>
-      <c r="D205" s="108"/>
-      <c r="E205" s="108"/>
-      <c r="F205" s="108"/>
-      <c r="G205" s="108"/>
-      <c r="H205" s="108"/>
-      <c r="I205" s="108"/>
-      <c r="J205" s="108"/>
-      <c r="K205" s="108"/>
-      <c r="L205" s="108"/>
-      <c r="M205" s="108"/>
-      <c r="N205" s="108"/>
-      <c r="O205" s="108"/>
+      <c r="B205" s="127"/>
+      <c r="C205" s="127"/>
+      <c r="D205" s="127"/>
+      <c r="E205" s="127"/>
+      <c r="F205" s="127"/>
+      <c r="G205" s="127"/>
+      <c r="H205" s="127"/>
+      <c r="I205" s="127"/>
+      <c r="J205" s="127"/>
+      <c r="K205" s="127"/>
+      <c r="L205" s="127"/>
+      <c r="M205" s="127"/>
+      <c r="N205" s="127"/>
+      <c r="O205" s="127"/>
     </row>
     <row r="206" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K206" s="152"/>
-      <c r="L206" s="152"/>
-      <c r="M206" s="105"/>
-      <c r="N206" s="105"/>
+      <c r="K206" s="120"/>
+      <c r="L206" s="120"/>
+      <c r="M206" s="129"/>
+      <c r="N206" s="129"/>
     </row>
     <row r="207" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="29" t="s">
@@ -9701,7 +9719,7 @@
       </c>
       <c r="I207" s="80"/>
       <c r="K207" s="33"/>
-      <c r="L207" s="151"/>
+      <c r="L207" s="116"/>
       <c r="M207" s="34"/>
       <c r="N207" s="36"/>
     </row>
@@ -9713,8 +9731,8 @@
         <v>15</v>
       </c>
       <c r="I208" s="35"/>
-      <c r="K208" s="153"/>
-      <c r="L208" s="153"/>
+      <c r="K208" s="131"/>
+      <c r="L208" s="131"/>
       <c r="M208" s="34"/>
       <c r="N208" s="36"/>
     </row>
@@ -9727,7 +9745,7 @@
       </c>
       <c r="I209" s="35"/>
       <c r="K209" s="51"/>
-      <c r="L209" s="151"/>
+      <c r="L209" s="116"/>
     </row>
     <row r="210" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G210" s="33">
@@ -9738,10 +9756,10 @@
       </c>
       <c r="I210" s="35"/>
       <c r="K210" s="33"/>
-      <c r="L210" s="151"/>
+      <c r="L210" s="116"/>
     </row>
     <row r="211" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="K211" s="103" t="s">
+      <c r="K211" s="101" t="s">
         <v>6</v>
       </c>
       <c r="O211">
@@ -9749,8 +9767,8 @@
       </c>
     </row>
     <row r="213" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="105"/>
-      <c r="B213" s="105"/>
+      <c r="A213" s="129"/>
+      <c r="B213" s="129"/>
     </row>
     <row r="214" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="34"/>
@@ -9762,20 +9780,20 @@
     </row>
     <row r="216" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="219" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="108" t="s">
+      <c r="A219" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="B219" s="108"/>
-      <c r="C219" s="108"/>
-      <c r="D219" s="108"/>
-      <c r="E219" s="108"/>
-      <c r="F219" s="108"/>
-      <c r="G219" s="108"/>
-      <c r="H219" s="108"/>
-      <c r="I219" s="108"/>
-      <c r="J219" s="108"/>
-      <c r="K219" s="108"/>
-      <c r="L219" s="108"/>
+      <c r="B219" s="127"/>
+      <c r="C219" s="127"/>
+      <c r="D219" s="127"/>
+      <c r="E219" s="127"/>
+      <c r="F219" s="127"/>
+      <c r="G219" s="127"/>
+      <c r="H219" s="127"/>
+      <c r="I219" s="127"/>
+      <c r="J219" s="127"/>
+      <c r="K219" s="127"/>
+      <c r="L219" s="127"/>
     </row>
     <row r="220" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G220" s="79" t="s">
@@ -9787,10 +9805,10 @@
       <c r="I220" s="80"/>
     </row>
     <row r="221" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="105" t="s">
+      <c r="A221" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="105"/>
+      <c r="B221" s="129"/>
       <c r="G221" s="33">
         <v>100</v>
       </c>
@@ -9849,19 +9867,19 @@
       </c>
     </row>
     <row r="230" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="108" t="s">
+      <c r="A230" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="B230" s="108"/>
-      <c r="C230" s="108"/>
-      <c r="D230" s="108"/>
-      <c r="E230" s="108"/>
-      <c r="F230" s="108"/>
-      <c r="G230" s="108"/>
-      <c r="H230" s="108"/>
-      <c r="I230" s="108"/>
-      <c r="J230" s="108"/>
-      <c r="K230" s="108"/>
+      <c r="B230" s="127"/>
+      <c r="C230" s="127"/>
+      <c r="D230" s="127"/>
+      <c r="E230" s="127"/>
+      <c r="F230" s="127"/>
+      <c r="G230" s="127"/>
+      <c r="H230" s="127"/>
+      <c r="I230" s="127"/>
+      <c r="J230" s="127"/>
+      <c r="K230" s="127"/>
     </row>
     <row r="231" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C231" s="10" t="s">
@@ -9918,10 +9936,10 @@
       <c r="E236" s="36"/>
     </row>
     <row r="237" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="105" t="s">
+      <c r="A237" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="105"/>
+      <c r="B237" s="129"/>
     </row>
     <row r="238" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="34" t="s">
@@ -9971,24 +9989,24 @@
     </row>
     <row r="243" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="245" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="108" t="s">
+      <c r="A245" s="127" t="s">
         <v>102</v>
       </c>
-      <c r="B245" s="108"/>
-      <c r="C245" s="108"/>
-      <c r="D245" s="108"/>
-      <c r="E245" s="108"/>
-      <c r="F245" s="108"/>
-      <c r="G245" s="108"/>
-      <c r="H245" s="108"/>
-      <c r="I245" s="108"/>
-      <c r="J245" s="108"/>
-      <c r="K245" s="108"/>
-      <c r="L245" s="108"/>
-      <c r="M245" s="108"/>
-      <c r="N245" s="108"/>
-      <c r="O245" s="108"/>
-      <c r="P245" s="108"/>
+      <c r="B245" s="127"/>
+      <c r="C245" s="127"/>
+      <c r="D245" s="127"/>
+      <c r="E245" s="127"/>
+      <c r="F245" s="127"/>
+      <c r="G245" s="127"/>
+      <c r="H245" s="127"/>
+      <c r="I245" s="127"/>
+      <c r="J245" s="127"/>
+      <c r="K245" s="127"/>
+      <c r="L245" s="127"/>
+      <c r="M245" s="127"/>
+      <c r="N245" s="127"/>
+      <c r="O245" s="127"/>
+      <c r="P245" s="127"/>
     </row>
     <row r="247" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C247" s="10" t="s">
@@ -10033,12 +10051,12 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="105" t="s">
+      <c r="A254" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="105"/>
-    </row>
-    <row r="255" spans="1:16" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="129"/>
+    </row>
+    <row r="255" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="34" t="s">
         <v>107</v>
       </c>
@@ -10075,25 +10093,25 @@
       </c>
     </row>
     <row r="262" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="108" t="s">
+      <c r="A262" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="B262" s="108"/>
-      <c r="C262" s="108"/>
-      <c r="D262" s="108"/>
-      <c r="E262" s="108"/>
-      <c r="F262" s="108"/>
-      <c r="G262" s="108"/>
-      <c r="H262" s="108"/>
-      <c r="I262" s="108"/>
-      <c r="J262" s="108"/>
-      <c r="K262" s="108"/>
-      <c r="L262" s="108"/>
-      <c r="M262" s="108"/>
-      <c r="N262" s="108"/>
-      <c r="O262" s="108"/>
-      <c r="P262" s="108"/>
-      <c r="Q262" s="108"/>
+      <c r="B262" s="127"/>
+      <c r="C262" s="127"/>
+      <c r="D262" s="127"/>
+      <c r="E262" s="127"/>
+      <c r="F262" s="127"/>
+      <c r="G262" s="127"/>
+      <c r="H262" s="127"/>
+      <c r="I262" s="127"/>
+      <c r="J262" s="127"/>
+      <c r="K262" s="127"/>
+      <c r="L262" s="127"/>
+      <c r="M262" s="127"/>
+      <c r="N262" s="127"/>
+      <c r="O262" s="127"/>
+      <c r="P262" s="127"/>
+      <c r="Q262" s="127"/>
     </row>
     <row r="264" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C264" s="10" t="s">
@@ -10103,10 +10121,10 @@
         <v>7</v>
       </c>
       <c r="E264" s="81"/>
-      <c r="G264" s="105" t="s">
+      <c r="G264" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="H264" s="105"/>
+      <c r="H264" s="129"/>
     </row>
     <row r="265" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C265" s="34">
@@ -10152,11 +10170,11 @@
       </c>
     </row>
     <row r="268" spans="1:17" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C268" s="121" t="s">
+      <c r="C268" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="D268" s="121"/>
-      <c r="E268" s="121"/>
+      <c r="D268" s="128"/>
+      <c r="E268" s="128"/>
     </row>
     <row r="269" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
@@ -10176,84 +10194,8 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A262:Q262"/>
-    <mergeCell ref="C268:E268"/>
-    <mergeCell ref="G264:H264"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A245:P245"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A230:K230"/>
-    <mergeCell ref="A190:N190"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A205:O205"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="A175:P175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A219:L219"/>
-    <mergeCell ref="I157:K157"/>
-    <mergeCell ref="M157:O157"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="A127:H129"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A155:O155"/>
-    <mergeCell ref="A152:Q152"/>
-    <mergeCell ref="A134:G135"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="I139:K139"/>
-    <mergeCell ref="M139:O139"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A92:S92"/>
-    <mergeCell ref="A108:Q108"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A70:B70"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="A46:M46"/>
@@ -10268,8 +10210,84 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A92:S92"/>
+    <mergeCell ref="A108:Q108"/>
+    <mergeCell ref="A127:H129"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A155:O155"/>
+    <mergeCell ref="A152:Q152"/>
+    <mergeCell ref="A134:G135"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="I139:K139"/>
+    <mergeCell ref="M139:O139"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A230:K230"/>
+    <mergeCell ref="A190:N190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A205:O205"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A219:L219"/>
+    <mergeCell ref="A262:Q262"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="G264:H264"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A245:P245"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A175:P175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="I157:K157"/>
+    <mergeCell ref="M157:O157"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="A130:E130"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A38" r:id="rId1" display="https://rubraslet.ru/silicon/2-site/121-segmentatsiya-svirl-202kh12kh2.html?ml=1"/>
@@ -10292,10 +10310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U143"/>
+  <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView topLeftCell="B122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N137" sqref="N137:N138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10315,255 +10333,256 @@
     <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="155">
+        <v>417</v>
+      </c>
+      <c r="G1" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$1&amp;",'"&amp;A10&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(417,'Лента для бейджа 15 мм БЕЗ НАНЕСЕНИЯ');</v>
+      </c>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
+      <c r="G2" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$1&amp;",'"&amp;A31&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(417,'Лента для бейджа с логотипом (сублимация)');</v>
+      </c>
     </row>
     <row r="3" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:21" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="G3" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$1&amp;",'"&amp;A56&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(417,'Лента для бейджа с логотипом (шелкография)');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="G4" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$1&amp;",'"&amp;A89&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(417,'Лента для бейджа жаккардовая (вышивка)');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="G5" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$1&amp;",'"&amp;A113&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(417,'Шнурок для бейджа с логотипом 10, 12, 15 мм');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="G6" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$1&amp;",'"&amp;A132&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(417,'Ретракторы для бейджей под нанесение логотипа');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="G10" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="127" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="127"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="127"/>
+      <c r="U10" s="127"/>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="G11" s="34">
-        <v>50</v>
-      </c>
-      <c r="H11" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="36"/>
-      <c r="K11" t="s">
-        <v>280</v>
-      </c>
-      <c r="M11">
-        <v>18</v>
-      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="34">
-        <v>100</v>
-      </c>
-      <c r="H12" s="82" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="36"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
-      <c r="G13" s="34">
-        <v>200</v>
-      </c>
-      <c r="H13" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" s="36"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
-      <c r="G14" s="34">
-        <v>500</v>
-      </c>
-      <c r="H14" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" s="36"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="G14" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="46">
+        <v>532</v>
+      </c>
+      <c r="I14" s="46"/>
+      <c r="N14" s="154" t="str">
+        <f>"delete price where catId="&amp;H14&amp;" and firma=10;"</f>
+        <v>delete price where catId=532 and firma=10;</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="G15" s="34">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="H15" s="82" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I15" s="36"/>
+      <c r="K15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M15" s="153">
+        <v>18</v>
+      </c>
+      <c r="N15" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$14&amp;","&amp;$G15&amp;","&amp;SUBSTITUTE(TEXT(H15,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,532,50, 27);</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G16" s="34">
+        <v>100</v>
+      </c>
+      <c r="H16" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="N16" s="154" t="str">
+        <f t="shared" ref="N16:N20" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$14&amp;","&amp;$G16&amp;","&amp;SUBSTITUTE(TEXT(H16,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,532,100, 26);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="G17" s="34">
+        <v>200</v>
+      </c>
+      <c r="H17" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="N17" s="154" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,532,200, 25);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="G18" s="34">
+        <v>500</v>
+      </c>
+      <c r="H18" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="N18" s="154" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,532,500, 24);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="G19" s="34">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="36"/>
+      <c r="N19" s="154" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,532,1000, 23);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="34">
         <v>2000</v>
       </c>
-      <c r="H16" s="82" t="s">
+      <c r="H20" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="I16" s="36"/>
-    </row>
-    <row r="17" spans="1:19" ht="27" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="13"/>
+      <c r="I20" s="36"/>
+      <c r="N20" s="154" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,532,2000, 22);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="27" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -10573,691 +10592,933 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="88" t="s">
+        <v>122</v>
+      </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="28" t="s">
+        <v>123</v>
+      </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
     </row>
     <row r="25" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="29" t="s">
+        <v>124</v>
+      </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-    </row>
-    <row r="27" spans="1:19" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="108" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="155">
+        <v>533</v>
+      </c>
+      <c r="G28" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$28&amp;",'"&amp;H33&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(533,'15 мм');</v>
+      </c>
+      <c r="H28" s="154" t="str">
+        <f t="shared" ref="H28:I28" si="1">"insert into Category (parentId,tip) values("&amp;$F$28&amp;",'"&amp;I33&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(533,'20 мм');</v>
+      </c>
+      <c r="I28" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$28&amp;",'"&amp;J33&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(533,'25мм');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="G29" s="154"/>
+    </row>
+    <row r="30" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="G30" s="154"/>
+    </row>
+    <row r="31" spans="1:19" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="108"/>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="108"/>
-      <c r="R27" s="108"/>
-      <c r="S27" s="108"/>
-    </row>
-    <row r="28" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="108" t="s">
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+    </row>
+    <row r="32" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="108"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="108"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="108"/>
-    </row>
-    <row r="29" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="15"/>
-      <c r="B29" s="6"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154" t="s">
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="127"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="127"/>
+      <c r="P32" s="127"/>
+      <c r="Q32" s="127"/>
+    </row>
+    <row r="33" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="15"/>
+      <c r="B33" s="6"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="154" t="s">
+      <c r="I33" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="G29" s="91" t="s">
+      <c r="J33" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-    </row>
-    <row r="30" spans="1:19" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="D30" s="83" t="s">
+      <c r="K33" s="91"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+    </row>
+    <row r="34" spans="1:16" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="G34" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-    </row>
-    <row r="31" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="D31" s="47">
+      <c r="H34">
+        <v>538</v>
+      </c>
+      <c r="I34">
+        <v>539</v>
+      </c>
+      <c r="J34">
+        <v>540</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="154" t="str">
+        <f>"delete price where catId="&amp;H34&amp;" and firma=10;"</f>
+        <v>delete price where catId=538 and firma=10;</v>
+      </c>
+      <c r="O34" s="154" t="str">
+        <f t="shared" ref="O34:P34" si="2">"delete price where catId="&amp;I34&amp;" and firma=10;"</f>
+        <v>delete price where catId=539 and firma=10;</v>
+      </c>
+      <c r="P34" s="154" t="str">
+        <f t="shared" si="2"/>
+        <v>delete price where catId=540 and firma=10;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="G35" s="47">
         <v>100</v>
       </c>
-      <c r="E31" s="84" t="s">
+      <c r="H35" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="84" t="s">
+      <c r="I35" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="47">
+      <c r="J35" s="47">
         <v>120</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-    </row>
-    <row r="32" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="47">
-        <v>200</v>
-      </c>
-      <c r="E32" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="84" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="47">
-        <v>100</v>
-      </c>
-      <c r="H32" s="47"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-    </row>
-    <row r="33" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="47">
-        <v>350</v>
-      </c>
-      <c r="E33" s="84" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G33" s="47">
-        <v>87</v>
-      </c>
-      <c r="H33" s="47"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-    </row>
-    <row r="34" spans="1:14" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="1"/>
-      <c r="D34" s="47">
-        <v>500</v>
-      </c>
-      <c r="E34" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="F34" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="47">
-        <v>81</v>
-      </c>
-      <c r="H34" s="47"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-    </row>
-    <row r="35" spans="1:14" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="1"/>
-      <c r="D35" s="47">
-        <v>1000</v>
-      </c>
-      <c r="E35" s="84" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="47">
-        <v>74</v>
-      </c>
-      <c r="H35" s="47"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="47"/>
       <c r="K35" s="30"/>
       <c r="L35" s="47"/>
       <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-    </row>
-    <row r="36" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="47">
-        <v>2000</v>
-      </c>
-      <c r="E36" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="47">
-        <v>68</v>
-      </c>
+      <c r="N35" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$34&amp;","&amp;$G35&amp;","&amp;SUBSTITUTE(TEXT(H35,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,538,100, 88);</v>
+      </c>
+      <c r="O35" s="154" t="str">
+        <f t="shared" ref="O35:P41" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;I$34&amp;","&amp;$G35&amp;","&amp;SUBSTITUTE(TEXT(I35,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,539,100, 103);</v>
+      </c>
+      <c r="P35" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,540,100,120.00);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16"/>
+      <c r="C36" s="16"/>
       <c r="G36" s="47">
-        <v>69</v>
-      </c>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
+        <v>200</v>
+      </c>
+      <c r="H36" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="47">
+        <v>100</v>
+      </c>
       <c r="K36" s="30"/>
       <c r="L36" s="47"/>
       <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-    </row>
-    <row r="37" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="47">
-        <v>3000</v>
-      </c>
-      <c r="E37" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="47">
-        <v>64</v>
-      </c>
+      <c r="N36" s="154" t="str">
+        <f t="shared" ref="N36:N41" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$34&amp;","&amp;$G36&amp;","&amp;SUBSTITUTE(TEXT(H36,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,538,200, 79);</v>
+      </c>
+      <c r="O36" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,539,200, 87);</v>
+      </c>
+      <c r="P36" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,540,200,100.00);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G37" s="47">
-        <v>66</v>
-      </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
+        <v>350</v>
+      </c>
+      <c r="H37" s="84" t="s">
+        <v>129</v>
+      </c>
+      <c r="I37" s="84" t="s">
+        <v>128</v>
+      </c>
+      <c r="J37" s="47">
+        <v>87</v>
+      </c>
       <c r="K37" s="30"/>
       <c r="L37" s="47"/>
       <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-    </row>
-    <row r="38" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="123" t="s">
+      <c r="N37" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,538,350, 68);</v>
+      </c>
+      <c r="O37" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,539,350, 79);</v>
+      </c>
+      <c r="P37" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,540,350,87.00);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1"/>
+      <c r="G38" s="47">
+        <v>500</v>
+      </c>
+      <c r="H38" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="47">
+        <v>81</v>
+      </c>
+      <c r="K38" s="30"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,538,500, 63);</v>
+      </c>
+      <c r="O38" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,539,500, 74);</v>
+      </c>
+      <c r="P38" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,540,500,81.00);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="1"/>
+      <c r="G39" s="47">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="84" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="J39" s="47">
+        <v>74</v>
+      </c>
+      <c r="K39" s="30"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,538,1000, 58);</v>
+      </c>
+      <c r="O39" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,539,1000, 70);</v>
+      </c>
+      <c r="P39" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,540,1000,74.00);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="G40" s="47">
+        <v>2000</v>
+      </c>
+      <c r="H40" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" s="47">
+        <v>68</v>
+      </c>
+      <c r="J40" s="47">
+        <v>69</v>
+      </c>
+      <c r="K40" s="30"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,538,2000, 57);</v>
+      </c>
+      <c r="O40" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,539,2000,68.00);</v>
+      </c>
+      <c r="P40" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,540,2000,69.00);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="G41" s="47">
+        <v>3000</v>
+      </c>
+      <c r="H41" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" s="47">
+        <v>64</v>
+      </c>
+      <c r="J41" s="47">
+        <v>66</v>
+      </c>
+      <c r="K41" s="30"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,538,3000, 55);</v>
+      </c>
+      <c r="O41" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,539,3000,64.00);</v>
+      </c>
+      <c r="P41" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,540,3000,66.00);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="123"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="B44" s="146"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="5"/>
-      <c r="F41" s="28" t="s">
+      <c r="B45" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="5"/>
+      <c r="F45" s="28" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19" t="s">
+    <row r="46" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B42" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="F42" s="28" t="s">
+      <c r="B46" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="F46" s="28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+    <row r="47" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="F43" s="29" t="s">
+      <c r="B47" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="F47" s="29" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+    <row r="48" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B48" s="41">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+    <row r="49" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="92"/>
-    </row>
-    <row r="46" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="B49" s="92"/>
+    </row>
+    <row r="50" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="108"/>
-      <c r="C52" s="108"/>
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="108"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="108"/>
-      <c r="P52" s="108"/>
-    </row>
-    <row r="53" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" s="108"/>
-      <c r="C53" s="108"/>
-      <c r="D53" s="108"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="108"/>
-      <c r="K53" s="108"/>
-      <c r="L53" s="108"/>
-      <c r="M53" s="108"/>
-      <c r="N53" s="108"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="108"/>
-    </row>
-    <row r="54" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="15"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="93" t="s">
+    <row r="56" spans="1:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="127" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" s="127"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="127"/>
+      <c r="M56" s="127"/>
+      <c r="N56" s="127"/>
+      <c r="O56" s="127"/>
+      <c r="P56" s="127"/>
+    </row>
+    <row r="57" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="127" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="127"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="127"/>
+      <c r="M57" s="127"/>
+      <c r="N57" s="127"/>
+      <c r="O57" s="127"/>
+      <c r="P57" s="127"/>
+      <c r="Q57" s="127"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="155">
+        <v>534</v>
+      </c>
+      <c r="G59" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$F$59&amp;",'"&amp;H61&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(534,'12 мм');</v>
+      </c>
+      <c r="H59" s="154" t="str">
+        <f t="shared" ref="H59:J59" si="5">"insert into Category (parentId,tip) values("&amp;$F$59&amp;",'"&amp;I61&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(534,'15 мм');</v>
+      </c>
+      <c r="I59" s="154" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Category (parentId,tip) values(534,'20 мм');</v>
+      </c>
+      <c r="J59" s="154" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into Category (parentId,tip) values(534,'25 мм');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="15"/>
+      <c r="G61" s="93"/>
+      <c r="H61" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="F57" s="93" t="s">
+      <c r="I61" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="G57" s="85" t="s">
+      <c r="J61" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="H57" s="85" t="s">
+      <c r="K61" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="I57" s="132"/>
-    </row>
-    <row r="58" spans="1:17" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="D58" s="83" t="s">
+    </row>
+    <row r="62" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+      <c r="G62" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E58" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" s="83" t="s">
-        <v>24</v>
-      </c>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46"/>
-    </row>
-    <row r="59" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
-      <c r="D59" s="47">
+      <c r="H62">
+        <v>541</v>
+      </c>
+      <c r="I62">
+        <v>542</v>
+      </c>
+      <c r="J62">
+        <v>543</v>
+      </c>
+      <c r="K62">
+        <v>544</v>
+      </c>
+      <c r="N62" s="154" t="str">
+        <f>"delete price where catId="&amp;H62&amp;" and firma=10;"</f>
+        <v>delete price where catId=541 and firma=10;</v>
+      </c>
+      <c r="O62" s="154" t="str">
+        <f t="shared" ref="O62:Q62" si="6">"delete price where catId="&amp;I62&amp;" and firma=10;"</f>
+        <v>delete price where catId=542 and firma=10;</v>
+      </c>
+      <c r="P62" s="154" t="str">
+        <f t="shared" si="6"/>
+        <v>delete price where catId=543 and firma=10;</v>
+      </c>
+      <c r="Q62" s="154" t="str">
+        <f t="shared" si="6"/>
+        <v>delete price where catId=544 and firma=10;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="G63" s="47">
         <v>100</v>
       </c>
-      <c r="E59" s="47">
+      <c r="H63" s="47">
         <v>74</v>
       </c>
-      <c r="F59" s="47">
+      <c r="I63" s="47">
         <v>77</v>
       </c>
-      <c r="G59" s="21">
+      <c r="J63" s="21">
         <v>81</v>
       </c>
-      <c r="H59" s="21">
+      <c r="K63" s="21">
         <v>84</v>
       </c>
-      <c r="I59" s="36"/>
-      <c r="J59" s="36"/>
-    </row>
-    <row r="60" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="124" t="s">
+      <c r="N63" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$62&amp;","&amp;$G63&amp;","&amp;SUBSTITUTE(TEXT(H63,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,541,100,74.00);</v>
+      </c>
+      <c r="O63" s="154" t="str">
+        <f t="shared" ref="O63:Q69" si="7">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;I$62&amp;","&amp;$G63&amp;","&amp;SUBSTITUTE(TEXT(I63,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,542,100,77.00);</v>
+      </c>
+      <c r="P63" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,543,100,81.00);</v>
+      </c>
+      <c r="Q63" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,544,100,84.00);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="124"/>
-      <c r="D60" s="47">
+      <c r="B64" s="144"/>
+      <c r="G64" s="47">
         <v>200</v>
       </c>
-      <c r="E60" s="47">
+      <c r="H64" s="47">
         <v>61</v>
       </c>
-      <c r="F60" s="47">
+      <c r="I64" s="47">
         <v>64</v>
       </c>
-      <c r="G60" s="21">
+      <c r="J64" s="21">
         <v>68</v>
       </c>
-      <c r="H60" s="21">
+      <c r="K64" s="21">
         <v>71</v>
       </c>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-    </row>
-    <row r="61" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="34" t="s">
+      <c r="N64" s="154" t="str">
+        <f t="shared" ref="N64:N69" si="8">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$62&amp;","&amp;$G64&amp;","&amp;SUBSTITUTE(TEXT(H64,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,541,200,61.00);</v>
+      </c>
+      <c r="O64" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,542,200,64.00);</v>
+      </c>
+      <c r="P64" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,543,200,68.00);</v>
+      </c>
+      <c r="Q64" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,544,200,71.00);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B65" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="G65" s="47">
+        <v>350</v>
+      </c>
+      <c r="H65" s="47">
+        <v>56</v>
+      </c>
+      <c r="I65" s="47">
+        <v>60</v>
+      </c>
+      <c r="J65" s="21">
+        <v>63</v>
+      </c>
+      <c r="K65" s="21">
+        <v>67</v>
+      </c>
+      <c r="N65" s="154" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,541,350,56.00);</v>
+      </c>
+      <c r="O65" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,542,350,60.00);</v>
+      </c>
+      <c r="P65" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,543,350,63.00);</v>
+      </c>
+      <c r="Q65" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,544,350,67.00);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="G66" s="47">
+        <v>500</v>
+      </c>
+      <c r="H66" s="47">
+        <v>48</v>
+      </c>
+      <c r="I66" s="47">
+        <v>51</v>
+      </c>
+      <c r="J66" s="21">
+        <v>55</v>
+      </c>
+      <c r="K66" s="21">
+        <v>58</v>
+      </c>
+      <c r="N66" s="154" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,541,500,48.00);</v>
+      </c>
+      <c r="O66" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,542,500,51.00);</v>
+      </c>
+      <c r="P66" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,543,500,55.00);</v>
+      </c>
+      <c r="Q66" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,544,500,58.00);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="49">
+        <v>8</v>
+      </c>
+      <c r="G67" s="47">
+        <v>1000</v>
+      </c>
+      <c r="H67" s="47">
+        <v>41</v>
+      </c>
+      <c r="I67" s="47">
+        <v>45</v>
+      </c>
+      <c r="J67" s="21">
+        <v>48</v>
+      </c>
+      <c r="K67" s="21">
+        <v>52</v>
+      </c>
+      <c r="N67" s="154" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,541,1000,41.00);</v>
+      </c>
+      <c r="O67" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,542,1000,45.00);</v>
+      </c>
+      <c r="P67" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,543,1000,48.00);</v>
+      </c>
+      <c r="Q67" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,544,1000,52.00);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="D61" s="47">
-        <v>350</v>
-      </c>
-      <c r="E61" s="47">
-        <v>56</v>
-      </c>
-      <c r="F61" s="47">
-        <v>60</v>
-      </c>
-      <c r="G61" s="21">
-        <v>63</v>
-      </c>
-      <c r="H61" s="21">
-        <v>67</v>
-      </c>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-    </row>
-    <row r="62" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="D62" s="47">
-        <v>500</v>
-      </c>
-      <c r="E62" s="47">
-        <v>48</v>
-      </c>
-      <c r="F62" s="47">
-        <v>51</v>
-      </c>
-      <c r="G62" s="21">
-        <v>55</v>
-      </c>
-      <c r="H62" s="21">
-        <v>58</v>
-      </c>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-    </row>
-    <row r="63" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="49">
-        <v>8</v>
-      </c>
-      <c r="D63" s="47">
-        <v>1000</v>
-      </c>
-      <c r="E63" s="47">
-        <v>41</v>
-      </c>
-      <c r="F63" s="47">
-        <v>45</v>
-      </c>
-      <c r="G63" s="21">
-        <v>48</v>
-      </c>
-      <c r="H63" s="21">
-        <v>52</v>
-      </c>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-    </row>
-    <row r="64" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="49" t="s">
-        <v>282</v>
-      </c>
-      <c r="D64" s="47">
+      <c r="G68" s="47">
         <v>2000</v>
       </c>
-      <c r="E64" s="47">
+      <c r="H68" s="47">
         <v>39</v>
       </c>
-      <c r="F64" s="47">
+      <c r="I68" s="47">
         <v>43</v>
       </c>
-      <c r="G64" s="21">
+      <c r="J68" s="21">
         <v>46</v>
       </c>
-      <c r="H64" s="21">
+      <c r="K68" s="21">
         <v>49</v>
       </c>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-    </row>
-    <row r="65" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="47">
+      <c r="N68" s="154" t="str">
+        <f t="shared" si="8"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,541,2000,39.00);</v>
+      </c>
+      <c r="O68" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,542,2000,43.00);</v>
+      </c>
+      <c r="P68" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,543,2000,46.00);</v>
+      </c>
+      <c r="Q68" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,544,2000,49.00);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="47">
         <v>3000</v>
       </c>
-      <c r="E65" s="47">
+      <c r="H69" s="47">
         <v>36</v>
       </c>
-      <c r="F65" s="47">
+      <c r="I69" s="47">
         <v>39</v>
       </c>
-      <c r="G65" s="21">
+      <c r="J69" s="21">
         <v>43</v>
       </c>
-      <c r="H65" s="21">
+      <c r="K69" s="21">
         <v>47</v>
       </c>
-      <c r="I65" s="36"/>
-      <c r="J65" s="36"/>
-    </row>
-    <row r="66" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D68" s="107"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="107"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="107"/>
-    </row>
-    <row r="69" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D69" s="42"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="94"/>
-    </row>
-    <row r="70" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D70" s="19"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="92"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="92"/>
-      <c r="J70" s="92"/>
-    </row>
-    <row r="71" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D71" s="19"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="92"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="92"/>
-      <c r="J71" s="92"/>
-    </row>
-    <row r="72" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D72" s="19"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="92"/>
-      <c r="J72" s="92"/>
-    </row>
-    <row r="73" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D73" s="19"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="92"/>
-      <c r="J73" s="92"/>
-    </row>
-    <row r="74" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N69" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$62&amp;","&amp;$G69&amp;","&amp;SUBSTITUTE(TEXT(H69,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,541,3000,36.00);</v>
+      </c>
+      <c r="O69" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,542,3000,39.00);</v>
+      </c>
+      <c r="P69" s="154" t="str">
+        <f t="shared" si="7"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,543,3000,43.00);</v>
+      </c>
+      <c r="Q69" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;K$62&amp;","&amp;$G69&amp;","&amp;SUBSTITUTE(TEXT(K69,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,544,3000,47.00);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D72" s="119"/>
+      <c r="E72" s="119"/>
+      <c r="F72" s="119"/>
+      <c r="H72" s="119"/>
+      <c r="I72" s="119"/>
+      <c r="J72" s="119"/>
+    </row>
+    <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="42"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="94"/>
+    </row>
+    <row r="74" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="19"/>
       <c r="E74" s="92"/>
       <c r="F74" s="92"/>
@@ -11265,7 +11526,7 @@
       <c r="I74" s="92"/>
       <c r="J74" s="92"/>
     </row>
-    <row r="75" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D75" s="19"/>
       <c r="E75" s="92"/>
       <c r="F75" s="92"/>
@@ -11273,7 +11534,7 @@
       <c r="I75" s="92"/>
       <c r="J75" s="92"/>
     </row>
-    <row r="76" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D76" s="19"/>
       <c r="E76" s="92"/>
       <c r="F76" s="92"/>
@@ -11281,370 +11542,397 @@
       <c r="I76" s="92"/>
       <c r="J76" s="92"/>
     </row>
-    <row r="77" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D78" s="88" t="s">
+    <row r="77" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="19"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="92"/>
+    </row>
+    <row r="78" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="19"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
+    </row>
+    <row r="79" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="19"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="92"/>
+    </row>
+    <row r="80" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="19"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="92"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="92"/>
+      <c r="J80" s="92"/>
+    </row>
+    <row r="81" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D82" s="88" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D79" s="27" t="s">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D83" s="27" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D80" s="28" t="s">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D84" s="28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D81" s="29" t="s">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D85" s="29" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="108" t="s">
+    <row r="89" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="127" t="s">
         <v>157</v>
       </c>
-      <c r="B85" s="108"/>
-      <c r="C85" s="108"/>
-      <c r="D85" s="108"/>
-      <c r="E85" s="108"/>
-      <c r="F85" s="108"/>
-      <c r="G85" s="108"/>
-      <c r="H85" s="108"/>
-      <c r="I85" s="108"/>
-      <c r="J85" s="108"/>
-      <c r="K85" s="108"/>
-      <c r="L85" s="108"/>
-      <c r="M85" s="108"/>
-      <c r="N85" s="108"/>
-      <c r="O85" s="108"/>
-    </row>
-    <row r="86" spans="1:17" ht="27" x14ac:dyDescent="0.25">
-      <c r="A86" s="108" t="s">
+      <c r="B89" s="127"/>
+      <c r="C89" s="127"/>
+      <c r="D89" s="127"/>
+      <c r="E89" s="127"/>
+      <c r="F89" s="127"/>
+      <c r="G89" s="127"/>
+      <c r="H89" s="127"/>
+      <c r="I89" s="127"/>
+      <c r="J89" s="127"/>
+      <c r="K89" s="127"/>
+      <c r="L89" s="127"/>
+      <c r="M89" s="127"/>
+      <c r="N89" s="127"/>
+      <c r="O89" s="127"/>
+    </row>
+    <row r="90" spans="1:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="B86" s="108"/>
-      <c r="C86" s="108"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="108"/>
-      <c r="F86" s="108"/>
-      <c r="G86" s="108"/>
-      <c r="H86" s="108"/>
-      <c r="I86" s="108"/>
-      <c r="J86" s="108"/>
-      <c r="K86" s="108"/>
-      <c r="L86" s="108"/>
-      <c r="M86" s="108"/>
-      <c r="N86" s="108"/>
-      <c r="O86" s="108"/>
-      <c r="P86" s="108"/>
-      <c r="Q86" s="108"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="30"/>
-    </row>
-    <row r="88" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B88" s="146"/>
-      <c r="C88" s="86" t="s">
+      <c r="B90" s="127"/>
+      <c r="C90" s="127"/>
+      <c r="D90" s="127"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="127"/>
+      <c r="G90" s="127"/>
+      <c r="H90" s="127"/>
+      <c r="I90" s="127"/>
+      <c r="J90" s="127"/>
+      <c r="K90" s="127"/>
+      <c r="L90" s="127"/>
+      <c r="M90" s="127"/>
+      <c r="N90" s="127"/>
+      <c r="O90" s="127"/>
+      <c r="P90" s="127"/>
+      <c r="Q90" s="127"/>
+    </row>
+    <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="155">
+        <v>535</v>
+      </c>
+      <c r="H91" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$G$91&amp;",'"&amp;H93&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(535,'15 мм');</v>
+      </c>
+      <c r="I91" s="154" t="str">
+        <f t="shared" ref="I91:J91" si="9">"insert into Category (parentId,tip) values("&amp;$G$91&amp;",'"&amp;I93&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(535,'20 мм');</v>
+      </c>
+      <c r="J91" s="154" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into Category (parentId,tip) values(535,'25 мм');</v>
+      </c>
+      <c r="K91" s="30"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="30"/>
+    </row>
+    <row r="92" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F92" s="139"/>
+      <c r="G92" s="139"/>
+      <c r="H92" s="139"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="139"/>
+      <c r="K92" s="139"/>
+      <c r="L92" s="139"/>
+      <c r="M92" s="30"/>
+    </row>
+    <row r="93" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F93" s="83"/>
+      <c r="G93" s="111"/>
+      <c r="H93" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="D88" s="86" t="s">
+      <c r="I93" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="E88" s="86" t="s">
+      <c r="J93" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="F88" s="114"/>
-      <c r="G88" s="114"/>
-      <c r="H88" s="114"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="114"/>
-      <c r="K88" s="114"/>
-      <c r="L88" s="114"/>
-      <c r="M88" s="30"/>
-    </row>
-    <row r="89" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="83" t="s">
+      <c r="K93" s="83"/>
+      <c r="L93" s="83"/>
+      <c r="M93" s="30"/>
+    </row>
+    <row r="94" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="47"/>
+      <c r="G94" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="D89" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="E89" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="83"/>
-      <c r="K89" s="83"/>
-      <c r="L89" s="83"/>
-      <c r="M89" s="30"/>
-    </row>
-    <row r="90" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="47">
-        <v>100</v>
-      </c>
-      <c r="C90" s="47">
-        <v>120</v>
-      </c>
-      <c r="D90" s="47">
-        <v>125</v>
-      </c>
-      <c r="E90" s="47">
-        <v>130</v>
-      </c>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="47"/>
-      <c r="K90" s="47"/>
-      <c r="L90" s="47"/>
-      <c r="M90" s="30"/>
-    </row>
-    <row r="91" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="47">
-        <v>200</v>
-      </c>
-      <c r="C91" s="47">
-        <v>92</v>
-      </c>
-      <c r="D91" s="47">
-        <v>97</v>
-      </c>
-      <c r="E91" s="47">
-        <v>102</v>
-      </c>
-      <c r="F91" s="47"/>
-      <c r="G91" s="47"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="47"/>
-      <c r="K91" s="47"/>
-      <c r="L91" s="47"/>
-      <c r="M91" s="30"/>
-    </row>
-    <row r="92" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="47">
-        <v>350</v>
-      </c>
-      <c r="C92" s="47">
-        <v>76</v>
-      </c>
-      <c r="D92" s="47">
-        <v>81</v>
-      </c>
-      <c r="E92" s="47">
-        <v>86</v>
-      </c>
-      <c r="F92" s="47"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="30"/>
-    </row>
-    <row r="93" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="47">
-        <v>500</v>
-      </c>
-      <c r="C93" s="47">
-        <v>67</v>
-      </c>
-      <c r="D93" s="47">
-        <v>72</v>
-      </c>
-      <c r="E93" s="47">
-        <v>77</v>
-      </c>
-      <c r="F93" s="47"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="47"/>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="30"/>
-    </row>
-    <row r="94" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="47">
-        <v>1000</v>
-      </c>
-      <c r="C94" s="47">
-        <v>51</v>
-      </c>
-      <c r="D94" s="47">
-        <v>56</v>
-      </c>
-      <c r="E94" s="47">
-        <v>62</v>
-      </c>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="47"/>
+      <c r="H94">
+        <v>545</v>
+      </c>
+      <c r="I94">
+        <v>546</v>
+      </c>
+      <c r="J94">
+        <v>547</v>
+      </c>
       <c r="K94" s="47"/>
       <c r="L94" s="47"/>
       <c r="M94" s="30"/>
+      <c r="N94" s="154" t="str">
+        <f>"delete price where catId="&amp;H94&amp;" and firma=10;"</f>
+        <v>delete price where catId=545 and firma=10;</v>
+      </c>
+      <c r="O94" s="154" t="str">
+        <f t="shared" ref="O94:P94" si="10">"delete price where catId="&amp;I94&amp;" and firma=10;"</f>
+        <v>delete price where catId=546 and firma=10;</v>
+      </c>
+      <c r="P94" s="154" t="str">
+        <f t="shared" si="10"/>
+        <v>delete price where catId=547 and firma=10;</v>
+      </c>
     </row>
     <row r="95" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="47">
-        <v>2000</v>
-      </c>
-      <c r="C95" s="47">
-        <v>46</v>
-      </c>
-      <c r="D95" s="47">
-        <v>51</v>
-      </c>
-      <c r="E95" s="47">
-        <v>56</v>
-      </c>
       <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="47"/>
+      <c r="G95" s="47">
+        <v>100</v>
+      </c>
+      <c r="H95" s="47">
+        <v>120</v>
+      </c>
+      <c r="I95" s="47">
+        <v>125</v>
+      </c>
+      <c r="J95" s="47">
+        <v>130</v>
+      </c>
       <c r="K95" s="47"/>
       <c r="L95" s="47"/>
       <c r="M95" s="30"/>
+      <c r="N95" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$94&amp;","&amp;$G95&amp;","&amp;SUBSTITUTE(TEXT(H95,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,545,100,120.00);</v>
+      </c>
+      <c r="O95" s="154" t="str">
+        <f t="shared" ref="O95:P101" si="11">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;I$94&amp;","&amp;$G95&amp;","&amp;SUBSTITUTE(TEXT(I95,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,546,100,125.00);</v>
+      </c>
+      <c r="P95" s="154" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,547,100,130.00);</v>
+      </c>
     </row>
     <row r="96" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="47">
-        <v>3000</v>
-      </c>
-      <c r="C96" s="47">
-        <v>37</v>
-      </c>
-      <c r="D96" s="47">
-        <v>41</v>
-      </c>
-      <c r="E96" s="47">
-        <v>44</v>
-      </c>
       <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="47"/>
+      <c r="G96" s="47">
+        <v>200</v>
+      </c>
+      <c r="H96" s="47">
+        <v>92</v>
+      </c>
+      <c r="I96" s="47">
+        <v>97</v>
+      </c>
+      <c r="J96" s="47">
+        <v>102</v>
+      </c>
       <c r="K96" s="47"/>
       <c r="L96" s="47"/>
       <c r="M96" s="30"/>
-    </row>
-    <row r="97" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="30"/>
-      <c r="K97" s="30"/>
-      <c r="L97" s="30"/>
+      <c r="N96" s="154" t="str">
+        <f t="shared" ref="N96:N101" si="12">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$94&amp;","&amp;$G96&amp;","&amp;SUBSTITUTE(TEXT(H96,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,545,200,92.00);</v>
+      </c>
+      <c r="O96" s="154" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,546,200,97.00);</v>
+      </c>
+      <c r="P96" s="154" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,547,200,102.00);</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="47"/>
+      <c r="G97" s="47">
+        <v>350</v>
+      </c>
+      <c r="H97" s="47">
+        <v>76</v>
+      </c>
+      <c r="I97" s="47">
+        <v>81</v>
+      </c>
+      <c r="J97" s="47">
+        <v>86</v>
+      </c>
+      <c r="K97" s="47"/>
+      <c r="L97" s="47"/>
       <c r="M97" s="30"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="30"/>
-      <c r="L98" s="30"/>
+      <c r="N97" s="154" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,545,350,76.00);</v>
+      </c>
+      <c r="O97" s="154" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,546,350,81.00);</v>
+      </c>
+      <c r="P97" s="154" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,547,350,86.00);</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="47"/>
+      <c r="G98" s="47">
+        <v>500</v>
+      </c>
+      <c r="H98" s="47">
+        <v>67</v>
+      </c>
+      <c r="I98" s="47">
+        <v>72</v>
+      </c>
+      <c r="J98" s="47">
+        <v>77</v>
+      </c>
+      <c r="K98" s="47"/>
+      <c r="L98" s="47"/>
       <c r="M98" s="30"/>
-    </row>
-    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="C99" s="110"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="30"/>
-      <c r="L99" s="30"/>
+      <c r="N98" s="154" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,545,500,67.00);</v>
+      </c>
+      <c r="O98" s="154" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,546,500,72.00);</v>
+      </c>
+      <c r="P98" s="154" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,547,500,77.00);</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="47"/>
+      <c r="G99" s="47">
+        <v>1000</v>
+      </c>
+      <c r="H99" s="47">
+        <v>51</v>
+      </c>
+      <c r="I99" s="47">
+        <v>56</v>
+      </c>
+      <c r="J99" s="47">
+        <v>62</v>
+      </c>
+      <c r="K99" s="47"/>
+      <c r="L99" s="47"/>
       <c r="M99" s="30"/>
-    </row>
-    <row r="100" spans="1:14" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C100" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="G100" s="30"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
+      <c r="N99" s="154" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,545,1000,51.00);</v>
+      </c>
+      <c r="O99" s="154" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,546,1000,56.00);</v>
+      </c>
+      <c r="P99" s="154" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,547,1000,62.00);</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="47"/>
+      <c r="G100" s="47">
+        <v>2000</v>
+      </c>
+      <c r="H100" s="47">
+        <v>46</v>
+      </c>
+      <c r="I100" s="47">
+        <v>51</v>
+      </c>
+      <c r="J100" s="47">
+        <v>56</v>
+      </c>
+      <c r="K100" s="47"/>
+      <c r="L100" s="47"/>
       <c r="M100" s="30"/>
-    </row>
-    <row r="101" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C101" s="41" t="s">
-        <v>279</v>
-      </c>
+      <c r="N100" s="154" t="str">
+        <f t="shared" si="12"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,545,2000,46.00);</v>
+      </c>
+      <c r="O100" s="154" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,546,2000,51.00);</v>
+      </c>
+      <c r="P100" s="154" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,547,2000,56.00);</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
       <c r="D101" s="30"/>
       <c r="E101" s="30"/>
-      <c r="F101" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="47">
+        <v>3000</v>
+      </c>
+      <c r="H101" s="47">
+        <v>37</v>
+      </c>
+      <c r="I101" s="47">
+        <v>41</v>
+      </c>
+      <c r="J101" s="47">
+        <v>44</v>
+      </c>
       <c r="K101" s="30"/>
       <c r="L101" s="30"/>
       <c r="M101" s="30"/>
-    </row>
-    <row r="102" spans="1:14" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C102" s="41" t="s">
-        <v>279</v>
-      </c>
+      <c r="N101" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$94&amp;","&amp;$G101&amp;","&amp;SUBSTITUTE(TEXT(H101,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,545,3000,37.00);</v>
+      </c>
+      <c r="O101" s="154" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,546,3000,41.00);</v>
+      </c>
+      <c r="P101" s="154" t="str">
+        <f t="shared" si="11"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,547,3000,44.00);</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
       <c r="D102" s="30"/>
       <c r="E102" s="30"/>
       <c r="F102" s="30"/>
@@ -11656,445 +11944,657 @@
       <c r="L102" s="30"/>
       <c r="M102" s="30"/>
     </row>
-    <row r="103" spans="1:14" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="19" t="s">
+    <row r="103" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="135"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="30"/>
+      <c r="M103" s="30"/>
+    </row>
+    <row r="104" spans="2:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C104" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="30"/>
+    </row>
+    <row r="105" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
+      <c r="M105" s="30"/>
+    </row>
+    <row r="106" spans="2:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="30"/>
+      <c r="M106" s="30"/>
+    </row>
+    <row r="107" spans="2:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C103" s="41">
+      <c r="C107" s="41">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="108" t="s">
+    <row r="108" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="B109" s="108"/>
-      <c r="C109" s="108"/>
-      <c r="D109" s="108"/>
-      <c r="E109" s="108"/>
-      <c r="F109" s="108"/>
-      <c r="G109" s="108"/>
-      <c r="H109" s="108"/>
-      <c r="I109" s="108"/>
-      <c r="J109" s="108"/>
-      <c r="K109" s="108"/>
-      <c r="L109" s="108"/>
-      <c r="M109" s="108"/>
-      <c r="N109" s="108"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B110" s="132"/>
-      <c r="C110" s="132" t="s">
+      <c r="B113" s="127"/>
+      <c r="C113" s="127"/>
+      <c r="D113" s="127"/>
+      <c r="E113" s="127"/>
+      <c r="F113" s="127"/>
+      <c r="G113" s="127"/>
+      <c r="H113" s="127"/>
+      <c r="I113" s="127"/>
+      <c r="J113" s="127"/>
+      <c r="K113" s="127"/>
+      <c r="L113" s="127"/>
+      <c r="M113" s="127"/>
+      <c r="N113" s="127"/>
+    </row>
+    <row r="114" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="119"/>
+      <c r="G114" s="119"/>
+      <c r="H114" s="119"/>
+      <c r="J114" s="119"/>
+      <c r="K114" s="119"/>
+      <c r="L114" s="119"/>
+    </row>
+    <row r="115" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="97"/>
+      <c r="G115" s="155">
+        <v>536</v>
+      </c>
+      <c r="H115" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$G$115&amp;",'"&amp;H117&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(536,'10 мм');</v>
+      </c>
+      <c r="I115" s="154" t="str">
+        <f t="shared" ref="I115:J115" si="13">"insert into Category (parentId,tip) values("&amp;$G$115&amp;",'"&amp;I117&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(536,'12 мм');</v>
+      </c>
+      <c r="J115" s="154" t="str">
+        <f t="shared" si="13"/>
+        <v>insert into Category (parentId,tip) values(536,'15 мм');</v>
+      </c>
+      <c r="L115" s="66"/>
+    </row>
+    <row r="116" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="98"/>
+      <c r="H116" s="98"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="99"/>
+      <c r="L116" s="99"/>
+    </row>
+    <row r="117" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="98"/>
+      <c r="G117" s="102"/>
+      <c r="H117" s="102" t="s">
         <v>163</v>
       </c>
-      <c r="D110" s="132" t="s">
+      <c r="I117" s="102" t="s">
         <v>151</v>
       </c>
-      <c r="E110" t="s">
+      <c r="J117" t="s">
         <v>134</v>
       </c>
-      <c r="F110" s="107"/>
-      <c r="G110" s="107"/>
-      <c r="H110" s="107"/>
-      <c r="J110" s="107"/>
-      <c r="K110" s="107"/>
-      <c r="L110" s="107"/>
-    </row>
-    <row r="111" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="23" t="s">
+      <c r="L117" s="99"/>
+    </row>
+    <row r="118" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="98"/>
+      <c r="G118" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C111" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="99"/>
-      <c r="H111" s="99"/>
-      <c r="I111" s="30"/>
-      <c r="J111" s="66"/>
-      <c r="L111" s="66"/>
-    </row>
-    <row r="112" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="21">
+      <c r="H118">
+        <v>548</v>
+      </c>
+      <c r="I118">
+        <v>549</v>
+      </c>
+      <c r="J118">
+        <v>550</v>
+      </c>
+      <c r="L118" s="99"/>
+      <c r="N118" s="154" t="str">
+        <f>"delete price where catId="&amp;H118&amp;" and firma=10;"</f>
+        <v>delete price where catId=548 and firma=10;</v>
+      </c>
+      <c r="O118" s="154" t="str">
+        <f t="shared" ref="O118:P118" si="14">"delete price where catId="&amp;I118&amp;" and firma=10;"</f>
+        <v>delete price where catId=549 and firma=10;</v>
+      </c>
+      <c r="P118" s="154" t="str">
+        <f t="shared" si="14"/>
+        <v>delete price where catId=550 and firma=10;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="98"/>
+      <c r="G119" s="21">
         <v>100</v>
       </c>
-      <c r="C112" s="21">
+      <c r="H119" s="21">
         <v>71</v>
       </c>
-      <c r="D112" s="100">
+      <c r="I119" s="98">
         <v>75</v>
       </c>
-      <c r="E112" s="101">
+      <c r="J119" s="99">
         <v>83</v>
       </c>
-      <c r="F112" s="100"/>
-      <c r="H112" s="100"/>
-      <c r="I112" s="30"/>
-      <c r="J112" s="101"/>
-      <c r="L112" s="101"/>
-    </row>
-    <row r="113" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="21">
+      <c r="L119" s="99"/>
+      <c r="N119" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$118&amp;","&amp;$G119&amp;","&amp;SUBSTITUTE(TEXT(H119,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,548,100,71.00);</v>
+      </c>
+      <c r="O119" s="154" t="str">
+        <f t="shared" ref="O119:P125" si="15">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;I$118&amp;","&amp;$G119&amp;","&amp;SUBSTITUTE(TEXT(I119,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,549,100,75.00);</v>
+      </c>
+      <c r="P119" s="154" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,550,100,83.00);</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="98"/>
+      <c r="G120" s="21">
         <v>200</v>
       </c>
-      <c r="C113" s="21">
+      <c r="H120" s="21">
         <v>62</v>
       </c>
-      <c r="D113" s="100">
+      <c r="I120" s="98">
         <v>65</v>
       </c>
-      <c r="E113" s="101">
+      <c r="J120" s="99">
         <v>71</v>
       </c>
-      <c r="F113" s="100"/>
-      <c r="H113" s="100"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="101"/>
-      <c r="L113" s="101"/>
-    </row>
-    <row r="114" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="21">
+      <c r="L120" s="99"/>
+      <c r="N120" s="154" t="str">
+        <f t="shared" ref="N120:N125" si="16">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$118&amp;","&amp;$G120&amp;","&amp;SUBSTITUTE(TEXT(H120,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,548,200,62.00);</v>
+      </c>
+      <c r="O120" s="154" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,549,200,65.00);</v>
+      </c>
+      <c r="P120" s="154" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,550,200,71.00);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="98"/>
+      <c r="G121" s="21">
         <v>350</v>
       </c>
-      <c r="C114" s="21">
+      <c r="H121" s="21">
         <v>57</v>
       </c>
-      <c r="D114" s="100">
+      <c r="I121" s="98">
         <v>61</v>
       </c>
-      <c r="E114" s="101">
+      <c r="J121" s="99">
         <v>67</v>
       </c>
-      <c r="F114" s="100"/>
-      <c r="H114" s="100"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="101"/>
-      <c r="L114" s="101"/>
-    </row>
-    <row r="115" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="21">
+      <c r="L121" s="99"/>
+      <c r="N121" s="154" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,548,350,57.00);</v>
+      </c>
+      <c r="O121" s="154" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,549,350,61.00);</v>
+      </c>
+      <c r="P121" s="154" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,550,350,67.00);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="98"/>
+      <c r="G122" s="21">
         <v>500</v>
       </c>
-      <c r="C115" s="21">
+      <c r="H122" s="21">
         <v>51</v>
       </c>
-      <c r="D115" s="100">
+      <c r="I122" s="98">
         <v>54</v>
       </c>
-      <c r="E115" s="101">
+      <c r="J122" s="99">
         <v>60</v>
       </c>
-      <c r="F115" s="100"/>
-      <c r="H115" s="100"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="101"/>
-      <c r="L115" s="101"/>
-    </row>
-    <row r="116" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="21">
+      <c r="L122" s="99"/>
+      <c r="N122" s="154" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,548,500,51.00);</v>
+      </c>
+      <c r="O122" s="154" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,549,500,54.00);</v>
+      </c>
+      <c r="P122" s="154" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,550,500,60.00);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G123" s="21">
         <v>1000</v>
       </c>
-      <c r="C116" s="21">
+      <c r="H123" s="21">
         <v>43</v>
       </c>
-      <c r="D116" s="100">
+      <c r="I123" s="98">
         <v>47</v>
       </c>
-      <c r="E116" s="101">
+      <c r="J123" s="99">
         <v>52</v>
       </c>
-      <c r="F116" s="100"/>
-      <c r="H116" s="100"/>
-      <c r="I116" s="30"/>
-      <c r="J116" s="101"/>
-      <c r="L116" s="101"/>
-    </row>
-    <row r="117" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="21">
+      <c r="N123" s="154" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,548,1000,43.00);</v>
+      </c>
+      <c r="O123" s="154" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,549,1000,47.00);</v>
+      </c>
+      <c r="P123" s="154" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,550,1000,52.00);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G124" s="21">
         <v>2000</v>
       </c>
-      <c r="C117" s="21">
+      <c r="H124" s="21">
         <v>41</v>
       </c>
-      <c r="D117" s="100">
+      <c r="I124" s="98">
         <v>44</v>
       </c>
-      <c r="E117" s="101">
+      <c r="J124" s="99">
         <v>49</v>
       </c>
-      <c r="F117" s="100"/>
-      <c r="H117" s="100"/>
-      <c r="I117" s="30"/>
-      <c r="J117" s="101"/>
-      <c r="L117" s="101"/>
-    </row>
-    <row r="118" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="21">
+      <c r="N124" s="154" t="str">
+        <f t="shared" si="16"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,548,2000,41.00);</v>
+      </c>
+      <c r="O124" s="154" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,549,2000,44.00);</v>
+      </c>
+      <c r="P124" s="154" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,550,2000,49.00);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125" s="135"/>
+      <c r="G125" s="21">
         <v>3000</v>
       </c>
-      <c r="C118" s="21">
+      <c r="H125" s="21">
         <v>37</v>
       </c>
-      <c r="D118" s="100">
+      <c r="I125" s="98">
         <v>40</v>
       </c>
-      <c r="E118" s="101">
+      <c r="J125" s="99">
         <v>47</v>
       </c>
-      <c r="F118" s="100"/>
-      <c r="H118" s="100"/>
-      <c r="I118" s="30"/>
-      <c r="J118" s="101"/>
-      <c r="L118" s="101"/>
-    </row>
-    <row r="119" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="110" t="s">
+      <c r="N125" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$118&amp;","&amp;$G125&amp;","&amp;SUBSTITUTE(TEXT(H125,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,548,3000,37.00);</v>
+      </c>
+      <c r="O125" s="154" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,549,3000,40.00);</v>
+      </c>
+      <c r="P125" s="154" t="str">
+        <f t="shared" si="15"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,550,3000,47.00);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E126" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C127" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C128" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C129" s="41">
+        <v>18</v>
+      </c>
+      <c r="E129" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A132" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="B132" s="119"/>
+      <c r="C132" s="119"/>
+      <c r="D132" s="119"/>
+      <c r="E132" s="119"/>
+      <c r="F132" s="119"/>
+      <c r="G132" s="119"/>
+      <c r="H132" s="119"/>
+      <c r="I132" s="119"/>
+      <c r="J132" s="119"/>
+      <c r="K132" s="119"/>
+      <c r="L132" s="119"/>
+      <c r="M132" s="119"/>
+      <c r="N132" s="119"/>
+      <c r="O132" s="119"/>
+    </row>
+    <row r="133" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="100"/>
+      <c r="G134" s="155">
+        <v>537</v>
+      </c>
+      <c r="H134" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$G$134&amp;",'"&amp;H136&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(537,'Круглые');</v>
+      </c>
+      <c r="I134" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$G$134&amp;",'"&amp;I136&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(537,'Овальные');</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="90"/>
+      <c r="G135" s="95"/>
+      <c r="H135" s="96"/>
+      <c r="I135" s="96"/>
+    </row>
+    <row r="136" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F136" s="90"/>
+      <c r="G136" s="118"/>
+      <c r="H136" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="I136" s="118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="90"/>
+      <c r="G137" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="H137" s="66">
+        <v>551</v>
+      </c>
+      <c r="I137" s="66">
+        <v>552</v>
+      </c>
+      <c r="N137" s="154" t="str">
+        <f>"delete price where catId="&amp;H137&amp;" and firma=10;"</f>
+        <v>delete price where catId=551 and firma=10;</v>
+      </c>
+      <c r="O137" s="154" t="str">
+        <f>"delete price where catId="&amp;I137&amp;" and firma=10;"</f>
+        <v>delete price where catId=552 and firma=10;</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="90"/>
+      <c r="G138" s="67">
+        <v>10</v>
+      </c>
+      <c r="H138" s="67">
+        <v>70</v>
+      </c>
+      <c r="I138" s="98">
+        <v>105</v>
+      </c>
+      <c r="N138" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$137&amp;","&amp;$G138&amp;","&amp;SUBSTITUTE(TEXT(H138,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,551,10,70.00);</v>
+      </c>
+      <c r="O138" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;I$137&amp;","&amp;$G138&amp;","&amp;SUBSTITUTE(TEXT(I138,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,552,10,105.00);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="90"/>
+      <c r="G139" s="67">
+        <v>50</v>
+      </c>
+      <c r="H139" s="67">
+        <v>65</v>
+      </c>
+      <c r="I139" s="98">
+        <v>100</v>
+      </c>
+      <c r="N139" s="154" t="str">
+        <f t="shared" ref="N139:O142" si="17">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$137&amp;","&amp;$G139&amp;","&amp;SUBSTITUTE(TEXT(H139,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,551,50,65.00);</v>
+      </c>
+      <c r="O139" s="154" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,552,50,100.00);</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="90"/>
+      <c r="G140" s="67">
+        <v>100</v>
+      </c>
+      <c r="H140" s="67">
+        <v>60</v>
+      </c>
+      <c r="I140" s="98">
+        <v>95</v>
+      </c>
+      <c r="N140" s="154" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,551,100,60.00);</v>
+      </c>
+      <c r="O140" s="154" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,552,100,95.00);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G141" s="67">
+        <v>300</v>
+      </c>
+      <c r="H141" s="67">
+        <v>55</v>
+      </c>
+      <c r="I141" s="98">
+        <v>90</v>
+      </c>
+      <c r="N141" s="154" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,551,300,55.00);</v>
+      </c>
+      <c r="O141" s="154" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,552,300,90.00);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G142" s="67">
+        <v>500</v>
+      </c>
+      <c r="H142" s="67">
+        <v>50</v>
+      </c>
+      <c r="I142" s="98">
+        <v>85</v>
+      </c>
+      <c r="N142" s="154" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,551,500,50.00);</v>
+      </c>
+      <c r="O142" s="154" t="str">
+        <f t="shared" si="17"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,552,500,85.00);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C143" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="D143" s="135"/>
+    </row>
+    <row r="144" spans="1:15" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C144" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D144" s="92">
+        <v>20</v>
+      </c>
+      <c r="F144" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C145" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="C121" s="110"/>
-    </row>
-    <row r="122" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C122" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E122" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C123" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E123" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C124" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E124" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C125" s="41">
-        <v>18</v>
-      </c>
-      <c r="E125" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A128" s="117" t="s">
-        <v>168</v>
-      </c>
-      <c r="B128" s="107"/>
-      <c r="C128" s="107"/>
-      <c r="D128" s="107"/>
-      <c r="E128" s="107"/>
-      <c r="F128" s="107"/>
-      <c r="G128" s="107"/>
-      <c r="H128" s="107"/>
-      <c r="I128" s="107"/>
-      <c r="J128" s="107"/>
-      <c r="K128" s="107"/>
-      <c r="L128" s="107"/>
-      <c r="M128" s="107"/>
-      <c r="N128" s="107"/>
-      <c r="O128" s="107"/>
-    </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C130" s="155"/>
-      <c r="D130" s="155" t="s">
-        <v>169</v>
-      </c>
-      <c r="E130" s="155" t="s">
-        <v>170</v>
-      </c>
-      <c r="F130" s="102"/>
-      <c r="G130" s="122"/>
-      <c r="H130" s="122"/>
-      <c r="I130" s="122"/>
-    </row>
-    <row r="131" spans="3:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C131" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="D131" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F131" s="90"/>
-      <c r="G131" s="95"/>
-      <c r="H131" s="96"/>
-      <c r="I131" s="96"/>
-    </row>
-    <row r="132" spans="3:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C132" s="67">
-        <v>10</v>
-      </c>
-      <c r="D132" s="67">
-        <v>70</v>
-      </c>
-      <c r="E132" s="100">
-        <v>105</v>
-      </c>
-      <c r="F132" s="90"/>
-      <c r="G132" s="97"/>
-      <c r="H132" s="98"/>
-      <c r="I132" s="98"/>
-    </row>
-    <row r="133" spans="3:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C133" s="67">
-        <v>50</v>
-      </c>
-      <c r="D133" s="67">
-        <v>65</v>
-      </c>
-      <c r="E133" s="100">
-        <v>100</v>
-      </c>
-      <c r="F133" s="90"/>
-      <c r="G133" s="97"/>
-      <c r="H133" s="98"/>
-      <c r="I133" s="98"/>
-    </row>
-    <row r="134" spans="3:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="67">
-        <v>100</v>
-      </c>
-      <c r="D134" s="67">
-        <v>60</v>
-      </c>
-      <c r="E134" s="100">
-        <v>95</v>
-      </c>
-      <c r="F134" s="90"/>
-      <c r="G134" s="97"/>
-      <c r="H134" s="98"/>
-      <c r="I134" s="98"/>
-    </row>
-    <row r="135" spans="3:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C135" s="67">
-        <v>300</v>
-      </c>
-      <c r="D135" s="67">
-        <v>55</v>
-      </c>
-      <c r="E135" s="100">
-        <v>90</v>
-      </c>
-      <c r="F135" s="90"/>
-      <c r="G135" s="97"/>
-      <c r="H135" s="98"/>
-      <c r="I135" s="98"/>
-    </row>
-    <row r="136" spans="3:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C136" s="67">
-        <v>500</v>
-      </c>
-      <c r="D136" s="67">
-        <v>50</v>
-      </c>
-      <c r="E136" s="100">
-        <v>85</v>
-      </c>
-      <c r="F136" s="90"/>
-      <c r="G136" s="97"/>
-      <c r="H136" s="98"/>
-      <c r="I136" s="98"/>
-    </row>
-    <row r="137" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="110" t="s">
-        <v>47</v>
-      </c>
-      <c r="D139" s="110"/>
-    </row>
-    <row r="140" spans="3:9" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D140" s="92">
-        <v>20</v>
-      </c>
-      <c r="F140" s="27" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="141" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="D141" s="111"/>
-      <c r="F141" s="28" t="s">
+      <c r="D145" s="141"/>
+      <c r="F145" s="28" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="142" spans="3:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C142" s="19" t="s">
+    <row r="146" spans="3:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C146" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="D142" s="92"/>
-      <c r="F142" s="29" t="s">
+      <c r="D146" s="92"/>
+      <c r="F146" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A6:U6"/>
-    <mergeCell ref="A27:S27"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A52:P52"/>
-    <mergeCell ref="A53:Q53"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="A85:O85"/>
-    <mergeCell ref="A86:Q86"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="J88:L88"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="A109:N109"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="A128:O128"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C141:D141"/>
+  <mergeCells count="22">
+    <mergeCell ref="A132:O132"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="A89:O89"/>
+    <mergeCell ref="A90:Q90"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="A113:N113"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A10:U10"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:Q57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A19" r:id="rId2" display="https://rubraslet.ru/lanyards/2-site/94-glavnye-otlichiya-lent-nejlon-poliester-satin.html?ml=1"/>
-    <hyperlink ref="D78" r:id="rId3" display="https://rubraslet.ru/lanyards/2-site/94-glavnye-otlichiya-lent-nejlon-poliester-satin.html?ml=1"/>
+    <hyperlink ref="A23" r:id="rId2" display="https://rubraslet.ru/lanyards/2-site/94-glavnye-otlichiya-lent-nejlon-poliester-satin.html?ml=1"/>
+    <hyperlink ref="D82" r:id="rId3" display="https://rubraslet.ru/lanyards/2-site/94-glavnye-otlichiya-lent-nejlon-poliester-satin.html?ml=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -12106,8 +12606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12118,45 +12618,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="127" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83" t="s">
-        <v>11</v>
+      <c r="B2" s="83">
+        <v>553</v>
       </c>
       <c r="C2" s="83"/>
+      <c r="D2" s="154" t="str">
+        <f>"delete price where catId="&amp;B2&amp;" and firma=10;"</f>
+        <v>delete price where catId=553 and firma=10;</v>
+      </c>
     </row>
     <row r="3" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47">
@@ -12166,6 +12670,10 @@
         <v>176</v>
       </c>
       <c r="C3" s="47"/>
+      <c r="D3" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A3&amp;","&amp;SUBSTITUTE(TEXT(B3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,553,50, 34);</v>
+      </c>
     </row>
     <row r="4" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47">
@@ -12175,6 +12683,10 @@
         <v>177</v>
       </c>
       <c r="C4" s="47"/>
+      <c r="D4" s="154" t="str">
+        <f t="shared" ref="D4:D8" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A4&amp;","&amp;SUBSTITUTE(TEXT(B4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,553,100, 32);</v>
+      </c>
       <c r="G4" s="28" t="s">
         <v>182</v>
       </c>
@@ -12187,6 +12699,10 @@
         <v>178</v>
       </c>
       <c r="C5" s="47"/>
+      <c r="D5" s="154" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,553,300, 30);</v>
+      </c>
       <c r="G5" s="29" t="s">
         <v>23</v>
       </c>
@@ -12199,6 +12715,17 @@
         <v>179</v>
       </c>
       <c r="C6" s="47"/>
+      <c r="D6" s="154" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,553,500, 28);</v>
+      </c>
+      <c r="S6" s="155">
+        <v>421</v>
+      </c>
+      <c r="T6" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$S$6&amp;",'"&amp;A1&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(421,'Светоотражающие слэп (slap) браслеты под нанесение логотипа');</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47">
@@ -12208,6 +12735,14 @@
         <v>117</v>
       </c>
       <c r="C7" s="47"/>
+      <c r="D7" s="154" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,553,1000, 26);</v>
+      </c>
+      <c r="T7" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$S$6&amp;",'"&amp;A19&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(421,'Силиконовые слэп (slap) браслеты под нанесение логотипа');</v>
+      </c>
     </row>
     <row r="8" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47">
@@ -12217,20 +12752,31 @@
         <v>119</v>
       </c>
       <c r="C8" s="47"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D8" s="154" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,553,3000, 24);</v>
+      </c>
+      <c r="T8" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$S$6&amp;",'"&amp;A36&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(421,'Тканевые слэп (slap) браслеты с логотипом');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="154"/>
+    </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="130"/>
+      <c r="T10" s="154"/>
     </row>
     <row r="11" spans="1:28" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>180</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12238,7 +12784,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12250,57 +12796,61 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="113"/>
+      <c r="B14" s="132"/>
     </row>
     <row r="15" spans="1:28" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="108"/>
-      <c r="T19" s="108"/>
-      <c r="U19" s="108"/>
-      <c r="V19" s="108"/>
-      <c r="W19" s="108"/>
-      <c r="X19" s="108"/>
-      <c r="Y19" s="108"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="127"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="127"/>
+      <c r="O19" s="127"/>
+      <c r="P19" s="127"/>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="127"/>
+      <c r="V19" s="127"/>
+      <c r="W19" s="127"/>
+      <c r="X19" s="127"/>
+      <c r="Y19" s="127"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="83" t="s">
-        <v>11</v>
+      <c r="B21" s="83">
+        <v>554</v>
       </c>
       <c r="C21" s="83"/>
+      <c r="D21" s="154" t="str">
+        <f>"delete price where catId="&amp;B21&amp;" and firma=10;"</f>
+        <v>delete price where catId=554 and firma=10;</v>
+      </c>
       <c r="F21" s="28" t="s">
         <v>187</v>
       </c>
@@ -12313,6 +12863,10 @@
         <v>184</v>
       </c>
       <c r="C22" s="47"/>
+      <c r="D22" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$21&amp;","&amp;A22&amp;","&amp;SUBSTITUTE(TEXT(B22,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,554,50, 40);</v>
+      </c>
       <c r="F22" s="27" t="s">
         <v>61</v>
       </c>
@@ -12325,6 +12879,10 @@
         <v>185</v>
       </c>
       <c r="C23" s="47"/>
+      <c r="D23" s="154" t="str">
+        <f t="shared" ref="D23:D27" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$21&amp;","&amp;A23&amp;","&amp;SUBSTITUTE(TEXT(B23,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,554,100, 38);</v>
+      </c>
       <c r="F23" s="28" t="s">
         <v>188</v>
       </c>
@@ -12337,6 +12895,10 @@
         <v>186</v>
       </c>
       <c r="C24" s="47"/>
+      <c r="D24" s="154" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,554,300, 36);</v>
+      </c>
       <c r="F24" s="29" t="s">
         <v>23</v>
       </c>
@@ -12349,6 +12911,10 @@
         <v>176</v>
       </c>
       <c r="C25" s="47"/>
+      <c r="D25" s="154" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,554,500, 34);</v>
+      </c>
     </row>
     <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47">
@@ -12358,6 +12924,10 @@
         <v>177</v>
       </c>
       <c r="C26" s="47"/>
+      <c r="D26" s="154" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,554,1000, 32);</v>
+      </c>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47">
@@ -12367,20 +12937,24 @@
         <v>178</v>
       </c>
       <c r="C27" s="47"/>
+      <c r="D27" s="154" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,554,3000, 30);</v>
+      </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="115"/>
+      <c r="B29" s="130"/>
     </row>
     <row r="30" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>80</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12388,55 +12962,59 @@
         <v>4</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="113"/>
+      <c r="B32" s="132"/>
     </row>
     <row r="33" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="108" t="s">
+      <c r="A36" s="127" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="108"/>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="108"/>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="108"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="108"/>
-      <c r="P36" s="108"/>
-      <c r="Q36" s="108"/>
-      <c r="R36" s="108"/>
-      <c r="S36" s="108"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="127"/>
+      <c r="O36" s="127"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="127"/>
+      <c r="S36" s="127"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="46" t="s">
-        <v>11</v>
+      <c r="B38" s="46">
+        <v>555</v>
       </c>
       <c r="C38" s="46"/>
+      <c r="D38" s="154" t="str">
+        <f>"delete price where catId="&amp;B38&amp;" and firma=10;"</f>
+        <v>delete price where catId=555 and firma=10;</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="34">
@@ -12446,6 +13024,10 @@
         <v>48</v>
       </c>
       <c r="C39" s="36"/>
+      <c r="D39" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$38&amp;","&amp;A39&amp;","&amp;SUBSTITUTE(TEXT(B39,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,555,1000,48.00);</v>
+      </c>
       <c r="E39" s="28" t="s">
         <v>192</v>
       </c>
@@ -12458,6 +13040,10 @@
         <v>46</v>
       </c>
       <c r="C40" s="36"/>
+      <c r="D40" s="154" t="str">
+        <f t="shared" ref="D40:D41" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$38&amp;","&amp;A40&amp;","&amp;SUBSTITUTE(TEXT(B40,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,555,1500,46.00);</v>
+      </c>
       <c r="E40" s="28" t="s">
         <v>193</v>
       </c>
@@ -12470,54 +13056,59 @@
         <v>44</v>
       </c>
       <c r="C41" s="36"/>
+      <c r="D41" s="154" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,555,2000,44.00);</v>
+      </c>
       <c r="E41" s="29" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="115" t="s">
+      <c r="A43" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="115"/>
+      <c r="B43" s="130"/>
     </row>
     <row r="44" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34" t="s">
         <v>190</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="113" t="s">
+      <c r="A45" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="113"/>
+      <c r="B45" s="132"/>
     </row>
     <row r="46" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34" t="s">
         <v>191</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A36:S36"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A45:B45"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A19:Y19"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A36:S36"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A45:B45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12525,8 +13116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43:P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12539,42 +13130,53 @@
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:22" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="127" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="83"/>
+      <c r="B2" s="83">
+        <v>559</v>
+      </c>
+      <c r="C2" s="154" t="str">
+        <f>"delete price where catId="&amp;B2&amp;" and firma=10;"</f>
+        <v>delete price where catId=559 and firma=10;</v>
+      </c>
+      <c r="J2" s="155">
+        <v>438</v>
+      </c>
+      <c r="K2" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$J$2&amp;",'"&amp;A1&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(438,'Бумажные контрольные браслеты (Премиум)');</v>
+      </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47">
@@ -12583,7 +13185,14 @@
       <c r="B3" s="47">
         <v>2</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A3&amp;","&amp;SUBSTITUTE(TEXT(B3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,559,500,2.00);</v>
+      </c>
+      <c r="K3" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$J$2&amp;",'"&amp;A22&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(438,'Виниловые контрольные браслеты');</v>
+      </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47">
@@ -12592,7 +13201,14 @@
       <c r="B4" s="47">
         <v>1.8</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="154" t="str">
+        <f t="shared" ref="C4:C7" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A4&amp;","&amp;SUBSTITUTE(TEXT(B4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,559,2500,1.80);</v>
+      </c>
+      <c r="K4" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$J$2&amp;",'"&amp;A40&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(438,'Тканевые контрольные браслеты с логотипом (сублимация, вышивка)');</v>
+      </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47">
@@ -12601,7 +13217,10 @@
       <c r="B5" s="47">
         <v>1.6</v>
       </c>
-      <c r="C5" s="47"/>
+      <c r="C5" s="154" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,559,5000,1.60);</v>
+      </c>
     </row>
     <row r="6" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47">
@@ -12610,7 +13229,10 @@
       <c r="B6" s="47">
         <v>1.4</v>
       </c>
-      <c r="C6" s="47"/>
+      <c r="C6" s="154" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,559,10000,1.40);</v>
+      </c>
     </row>
     <row r="7" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47">
@@ -12619,49 +13241,52 @@
       <c r="B7" s="47">
         <v>1.2</v>
       </c>
-      <c r="C7" s="47"/>
+      <c r="C7" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A7&amp;","&amp;SUBSTITUTE(TEXT(B7,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,559,30000,1.20);</v>
+      </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="115"/>
+      <c r="B9" s="130"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="127" t="s">
-        <v>286</v>
+      <c r="B10" s="147" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="148"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="129" t="s">
-        <v>287</v>
+      <c r="B12" s="149" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="148"/>
     </row>
     <row r="14" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>199</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -12686,37 +13311,40 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="127" t="s">
         <v>204</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="108"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="127"/>
+      <c r="L22" s="127"/>
+      <c r="M22" s="127"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="127"/>
+      <c r="P22" s="127"/>
+      <c r="Q22" s="127"/>
+      <c r="R22" s="127"/>
+      <c r="S22" s="127"/>
+      <c r="T22" s="127"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="83"/>
+      <c r="B23" s="83">
+        <v>560</v>
+      </c>
+      <c r="C23" s="154" t="str">
+        <f>"delete price where catId="&amp;B23&amp;" and firma=10;"</f>
+        <v>delete price where catId=560 and firma=10;</v>
+      </c>
     </row>
     <row r="24" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47">
@@ -12725,7 +13353,10 @@
       <c r="B24" s="47">
         <v>5</v>
       </c>
-      <c r="C24" s="47"/>
+      <c r="C24" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$23&amp;","&amp;A24&amp;","&amp;SUBSTITUTE(TEXT(B24,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,560,500,5.00);</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
@@ -12734,7 +13365,10 @@
       <c r="B25" s="47">
         <v>4.8</v>
       </c>
-      <c r="C25" s="47"/>
+      <c r="C25" s="154" t="str">
+        <f t="shared" ref="C25:C28" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$23&amp;","&amp;A25&amp;","&amp;SUBSTITUTE(TEXT(B25,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,560,1000,4.80);</v>
+      </c>
     </row>
     <row r="26" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="47">
@@ -12743,7 +13377,10 @@
       <c r="B26" s="47">
         <v>4.7</v>
       </c>
-      <c r="C26" s="47"/>
+      <c r="C26" s="154" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,560,2500,4.70);</v>
+      </c>
     </row>
     <row r="27" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47">
@@ -12752,7 +13389,10 @@
       <c r="B27" s="47">
         <v>4.5</v>
       </c>
-      <c r="C27" s="47"/>
+      <c r="C27" s="154" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,560,5000,4.50);</v>
+      </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47">
@@ -12761,21 +13401,24 @@
       <c r="B28" s="47">
         <v>4.3</v>
       </c>
-      <c r="C28" s="47"/>
+      <c r="C28" s="154" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,560,10000,4.30);</v>
+      </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="115"/>
+      <c r="B30" s="130"/>
     </row>
     <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>80</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -12804,85 +13447,122 @@
         <v>209</v>
       </c>
     </row>
+    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="155">
+        <v>561</v>
+      </c>
+      <c r="E39" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$D$39&amp;",'"&amp;D42&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(561,'Сублимация 12 мм');</v>
+      </c>
+      <c r="F39" s="154" t="str">
+        <f t="shared" ref="F39:H39" si="2">"insert into Category (parentId,tip) values("&amp;$D$39&amp;",'"&amp;E42&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(561,'Сублимация 15 мм');</v>
+      </c>
+      <c r="G39" s="154" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into Category (parentId,tip) values(561,'Вышивка  12мм');</v>
+      </c>
+      <c r="H39" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$D$39&amp;",'"&amp;G42&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(561,'Вышивка 15 мм');</v>
+      </c>
+    </row>
     <row r="40" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="108" t="s">
+      <c r="A40" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="B40" s="108"/>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="108"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="108"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
-      <c r="O40" s="108"/>
-      <c r="P40" s="108"/>
-      <c r="Q40" s="108"/>
-      <c r="R40" s="108"/>
-      <c r="S40" s="108"/>
+      <c r="B40" s="127"/>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="127"/>
+      <c r="G40" s="127"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
+      <c r="M40" s="127"/>
+      <c r="N40" s="127"/>
+      <c r="O40" s="127"/>
+      <c r="P40" s="127"/>
+      <c r="Q40" s="127"/>
+      <c r="R40" s="127"/>
+      <c r="S40" s="127"/>
     </row>
     <row r="41" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="108" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41" s="108"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="108"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="108"/>
-      <c r="R41" s="108"/>
-      <c r="S41" s="108"/>
+      <c r="A41" s="127" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="127"/>
+      <c r="C41" s="127"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="127"/>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="127"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="127"/>
+      <c r="N41" s="127"/>
+      <c r="O41" s="127"/>
+      <c r="P41" s="127"/>
+      <c r="Q41" s="127"/>
+      <c r="R41" s="127"/>
+      <c r="S41" s="127"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D42" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="E42" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="E42" s="85" t="s">
+      <c r="F42" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="F42" s="85" t="s">
+      <c r="G42" s="102" t="s">
         <v>215</v>
       </c>
-      <c r="G42" s="132" t="s">
-        <v>216</v>
-      </c>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
     </row>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C43" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="46"/>
+      <c r="D43">
+        <v>562</v>
+      </c>
+      <c r="E43">
+        <v>563</v>
+      </c>
+      <c r="F43">
+        <v>564</v>
+      </c>
+      <c r="G43">
+        <v>565</v>
+      </c>
+      <c r="I43" s="154" t="str">
+        <f>"delete price where catId="&amp;D43&amp;" and firma=10;"</f>
+        <v>delete price where catId=562 and firma=10;</v>
+      </c>
+      <c r="J43" s="154" t="str">
+        <f t="shared" ref="J43:L43" si="3">"delete price where catId="&amp;E43&amp;" and firma=10;"</f>
+        <v>delete price where catId=563 and firma=10;</v>
+      </c>
+      <c r="K43" s="154" t="str">
+        <f t="shared" si="3"/>
+        <v>delete price where catId=564 and firma=10;</v>
+      </c>
+      <c r="L43" s="154" t="str">
+        <f>"delete price where catId="&amp;G43&amp;" and firma=10;"</f>
+        <v>delete price where catId=565 and firma=10;</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C44" s="47">
@@ -12900,7 +13580,22 @@
       <c r="G44" s="47">
         <v>47</v>
       </c>
-      <c r="I44" s="36"/>
+      <c r="I44" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;D$43&amp;","&amp;$C44&amp;","&amp;SUBSTITUTE(TEXT(D44,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,562,100,37.00);</v>
+      </c>
+      <c r="J44" s="154" t="str">
+        <f t="shared" ref="J44:L49" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;E$43&amp;","&amp;$C44&amp;","&amp;SUBSTITUTE(TEXT(E44,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,563,100,38.00);</v>
+      </c>
+      <c r="K44" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,564,100,46.00);</v>
+      </c>
+      <c r="L44" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,565,100,47.00);</v>
+      </c>
     </row>
     <row r="45" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C45" s="47">
@@ -12918,7 +13613,22 @@
       <c r="G45" s="47">
         <v>31</v>
       </c>
-      <c r="I45" s="36"/>
+      <c r="I45" s="154" t="str">
+        <f t="shared" ref="I45:I49" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;D$43&amp;","&amp;$C45&amp;","&amp;SUBSTITUTE(TEXT(D45,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,562,300,30.00);</v>
+      </c>
+      <c r="J45" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,563,300,31.00);</v>
+      </c>
+      <c r="K45" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,564,300,29.00);</v>
+      </c>
+      <c r="L45" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,565,300,31.00);</v>
+      </c>
     </row>
     <row r="46" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C46" s="47">
@@ -12936,7 +13646,22 @@
       <c r="G46" s="47">
         <v>28</v>
       </c>
-      <c r="I46" s="36"/>
+      <c r="I46" s="154" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,562,500,28.00);</v>
+      </c>
+      <c r="J46" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,563,500,29.00);</v>
+      </c>
+      <c r="K46" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,564,500,27.00);</v>
+      </c>
+      <c r="L46" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,565,500,28.00);</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C47" s="47">
@@ -12954,7 +13679,22 @@
       <c r="G47" s="47">
         <v>25</v>
       </c>
-      <c r="I47" s="36"/>
+      <c r="I47" s="154" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,562,1000,23.00);</v>
+      </c>
+      <c r="J47" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,563,1000,25.00);</v>
+      </c>
+      <c r="K47" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,564,1000,25.00);</v>
+      </c>
+      <c r="L47" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,565,1000,25.00);</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C48" s="47">
@@ -12972,9 +13712,24 @@
       <c r="G48" s="47">
         <v>23</v>
       </c>
-      <c r="I48" s="36"/>
-    </row>
-    <row r="49" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="154" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,562,3000,21.00);</v>
+      </c>
+      <c r="J48" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,563,3000,22.00);</v>
+      </c>
+      <c r="K48" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,564,3000,23.00);</v>
+      </c>
+      <c r="L48" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,565,3000,23.00);</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="47">
         <v>5000</v>
       </c>
@@ -12990,119 +13745,128 @@
       <c r="G49" s="47">
         <v>22</v>
       </c>
-      <c r="I49" s="36"/>
-    </row>
-    <row r="50" spans="3:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="126" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="103" t="s">
-        <v>217</v>
-      </c>
-      <c r="G50" s="103"/>
-    </row>
-    <row r="51" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-    </row>
-    <row r="53" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I49" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;D$43&amp;","&amp;$C49&amp;","&amp;SUBSTITUTE(TEXT(D49,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,562,5000,20.00);</v>
+      </c>
+      <c r="J49" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,563,5000,21.00);</v>
+      </c>
+      <c r="K49" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,564,5000,21.00);</v>
+      </c>
+      <c r="L49" s="154" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,565,5000,22.00);</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="150" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" s="150"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="G50" s="101"/>
+    </row>
+    <row r="51" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C52" s="119"/>
+      <c r="D52" s="119"/>
+      <c r="E52" s="119"/>
+      <c r="G52" s="119"/>
+      <c r="H52" s="119"/>
+      <c r="I52" s="119"/>
+    </row>
+    <row r="53" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="50"/>
       <c r="D53" s="46"/>
       <c r="E53" s="46"/>
       <c r="G53" s="50"/>
       <c r="I53" s="46"/>
     </row>
-    <row r="54" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" s="34"/>
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
       <c r="G54" s="34"/>
       <c r="I54" s="36"/>
     </row>
-    <row r="55" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C55" s="34"/>
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
       <c r="G55" s="34"/>
       <c r="I55" s="36"/>
     </row>
-    <row r="56" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" s="34"/>
       <c r="D56" s="36"/>
       <c r="E56" s="36"/>
       <c r="G56" s="34"/>
       <c r="I56" s="36"/>
     </row>
-    <row r="57" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" s="34"/>
       <c r="D57" s="36"/>
       <c r="E57" s="36"/>
       <c r="G57" s="34"/>
       <c r="I57" s="36"/>
     </row>
-    <row r="58" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C58" s="34"/>
       <c r="D58" s="36"/>
       <c r="E58" s="36"/>
       <c r="G58" s="34"/>
       <c r="I58" s="36"/>
     </row>
-    <row r="59" spans="3:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C59" s="34"/>
       <c r="D59" s="36"/>
       <c r="E59" s="36"/>
       <c r="G59" s="34"/>
       <c r="I59" s="36"/>
     </row>
-    <row r="60" spans="3:9" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="126"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="G60" s="103"/>
-    </row>
-    <row r="61" spans="3:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="110" t="s">
+    <row r="60" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="150"/>
+      <c r="D60" s="150"/>
+      <c r="E60" s="150"/>
+      <c r="G60" s="101"/>
+    </row>
+    <row r="61" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="110"/>
-    </row>
-    <row r="63" spans="3:9" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="135"/>
+    </row>
+    <row r="63" spans="3:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="G63" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="64" spans="3:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="D64" s="92"/>
       <c r="G64" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A22:T22"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="A40:S40"/>
     <mergeCell ref="A41:S41"/>
@@ -13110,6 +13874,12 @@
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="G52:I52"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A22:T22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" display="https://rubraslet.ru/bumaga.html"/>
@@ -13117,7 +13887,8 @@
     <hyperlink ref="A14" r:id="rId3" display="https://rubraslet.ru/bumaga.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -13125,7 +13896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
@@ -13141,34 +13912,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
+      <c r="A1" s="127" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -13184,11 +13955,11 @@
         <v>104</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="47"/>
       <c r="F3" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13196,11 +13967,11 @@
         <v>304</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="47"/>
       <c r="F4" s="88" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13208,11 +13979,11 @@
         <v>504</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="47"/>
       <c r="F5" s="88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13220,7 +13991,7 @@
         <v>1000</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="47"/>
       <c r="F6" s="29" t="s">
@@ -13232,30 +14003,30 @@
         <v>3000</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" s="47"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
+      <c r="A8" s="151" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="130"/>
     </row>
     <row r="11" spans="1:26" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>180</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13263,7 +14034,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13271,34 +14042,34 @@
         <v>181</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108" t="s">
-        <v>233</v>
-      </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="108"/>
-      <c r="S16" s="108"/>
-      <c r="T16" s="108"/>
-      <c r="U16" s="108"/>
+      <c r="A16" s="127" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="127"/>
+      <c r="U16" s="127"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
@@ -13309,7 +14080,7 @@
       </c>
       <c r="C18" s="46"/>
       <c r="F18" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13321,7 +14092,7 @@
       </c>
       <c r="C19" s="36"/>
       <c r="F19" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13374,17 +14145,17 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="115"/>
+      <c r="B27" s="130"/>
     </row>
     <row r="28" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>180</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13392,7 +14163,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13400,14 +14171,14 @@
         <v>181</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="113" t="s">
+      <c r="A31" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="113"/>
+      <c r="B31" s="132"/>
     </row>
     <row r="32" spans="1:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
@@ -13419,50 +14190,50 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:25" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="127" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="127"/>
+      <c r="M35" s="127"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="127"/>
+      <c r="P35" s="127"/>
+      <c r="Q35" s="127"/>
+      <c r="R35" s="127"/>
+      <c r="S35" s="127"/>
+      <c r="T35" s="127"/>
+      <c r="U35" s="127"/>
+      <c r="V35" s="127"/>
+      <c r="W35" s="127"/>
+      <c r="X35" s="127"/>
+      <c r="Y35" s="127"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B36" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="108"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="108"/>
-      <c r="T35" s="108"/>
-      <c r="U35" s="108"/>
-      <c r="V35" s="108"/>
-      <c r="W35" s="108"/>
-      <c r="X35" s="108"/>
-      <c r="Y35" s="108"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B36" s="132" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="132" t="s">
+      <c r="D36" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="132" t="s">
-        <v>238</v>
-      </c>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="119"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="83" t="s">
@@ -13549,13 +14320,13 @@
         <v>500</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C41" s="84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D41" s="84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E41" s="34"/>
       <c r="F41" s="87"/>
@@ -13569,13 +14340,13 @@
         <v>1000</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C42" s="84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D42" s="84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E42" s="34"/>
       <c r="F42" s="87"/>
@@ -13589,13 +14360,13 @@
         <v>3000</v>
       </c>
       <c r="B43" s="84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C43" s="84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D43" s="84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E43" s="34"/>
       <c r="F43" s="87"/>
@@ -13605,28 +14376,28 @@
       <c r="K43" s="36"/>
     </row>
     <row r="44" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="130" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" s="130"/>
-      <c r="C44" s="130"/>
+      <c r="A44" s="151" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
     </row>
     <row r="45" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="110"/>
+      <c r="B59" s="135"/>
     </row>
     <row r="60" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>180</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13637,7 +14408,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13645,63 +14416,63 @@
         <v>181</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="111" t="s">
+      <c r="A63" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="111"/>
+      <c r="B63" s="141"/>
     </row>
     <row r="64" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="108" t="s">
+      <c r="A67" s="127" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="127"/>
+      <c r="C67" s="127"/>
+      <c r="D67" s="127"/>
+      <c r="E67" s="127"/>
+      <c r="F67" s="127"/>
+      <c r="G67" s="127"/>
+      <c r="H67" s="127"/>
+      <c r="I67" s="127"/>
+      <c r="J67" s="127"/>
+      <c r="K67" s="127"/>
+      <c r="L67" s="127"/>
+      <c r="M67" s="127"/>
+      <c r="N67" s="127"/>
+      <c r="O67" s="127"/>
+      <c r="P67" s="127"/>
+      <c r="Q67" s="127"/>
+      <c r="R67" s="127"/>
+      <c r="S67" s="127"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="B67" s="108"/>
-      <c r="C67" s="108"/>
-      <c r="D67" s="108"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="108"/>
-      <c r="H67" s="108"/>
-      <c r="I67" s="108"/>
-      <c r="J67" s="108"/>
-      <c r="K67" s="108"/>
-      <c r="L67" s="108"/>
-      <c r="M67" s="108"/>
-      <c r="N67" s="108"/>
-      <c r="O67" s="108"/>
-      <c r="P67" s="108"/>
-      <c r="Q67" s="108"/>
-      <c r="R67" s="108"/>
-      <c r="S67" s="108"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="132" t="s">
-        <v>243</v>
-      </c>
       <c r="B68" s="85" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C68" s="85" t="s">
-        <v>295</v>
-      </c>
-      <c r="E68" s="107"/>
-      <c r="F68" s="107"/>
-      <c r="G68" s="107"/>
+        <v>293</v>
+      </c>
+      <c r="E68" s="119"/>
+      <c r="F68" s="119"/>
+      <c r="G68" s="119"/>
     </row>
     <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50" t="s">
@@ -13760,10 +14531,10 @@
         <v>500</v>
       </c>
       <c r="B73" s="82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C73" s="82" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E73" s="34"/>
       <c r="G73" s="36"/>
@@ -13796,10 +14567,10 @@
     </row>
     <row r="76" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="110" t="s">
+      <c r="E77" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="F77" s="110"/>
+      <c r="F77" s="135"/>
     </row>
     <row r="78" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E78" s="19" t="s">
@@ -13809,7 +14580,7 @@
         <v>5</v>
       </c>
       <c r="H78" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13817,7 +14588,7 @@
         <v>4</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H79" s="29" t="s">
         <v>23</v>
@@ -13832,14 +14603,14 @@
       </c>
     </row>
     <row r="81" spans="5:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="111" t="s">
+      <c r="E81" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="F81" s="111"/>
+      <c r="F81" s="141"/>
     </row>
     <row r="82" spans="5:6" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E82" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F82" s="41">
         <v>2</v>
@@ -13848,22 +14619,22 @@
     <row r="83" spans="5:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:U16"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A35:Y35"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="I36:K36"/>
     <mergeCell ref="E81:F81"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A67:S67"/>
     <mergeCell ref="E68:G68"/>
     <mergeCell ref="E77:F77"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A35:Y35"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:U16"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" display="https://rubraslet.ru/reflectors/2-site/79-fasovka-svetootrazhayushchikh-nakleek.html?ml=1"/>
@@ -13878,8 +14649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:D54"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D22" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13889,43 +14660,54 @@
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
-        <v>247</v>
-      </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
+    <row r="1" spans="1:25" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="127" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>11</v>
+      <c r="B2" s="46">
+        <v>556</v>
       </c>
       <c r="C2" s="46"/>
+      <c r="D2" s="154" t="str">
+        <f>"delete price where catId="&amp;B2&amp;" and firma=10;"</f>
+        <v>delete price where catId=556 and firma=10;</v>
+      </c>
+      <c r="S2" s="155">
+        <v>422</v>
+      </c>
+      <c r="T2" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$S$2&amp;",'"&amp;A1&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(422,'Силиконовые слэп-часы под нанесение логотипа');</v>
+      </c>
     </row>
     <row r="3" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34">
@@ -13935,6 +14717,14 @@
         <v>320</v>
       </c>
       <c r="C3" s="36"/>
+      <c r="D3" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A3&amp;","&amp;SUBSTITUTE(TEXT(B3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,556,10,320.00);</v>
+      </c>
+      <c r="T3" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$S$2&amp;",'"&amp;A18&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(422,'Силиконовые слэп-часы (комбинированные) под нанесение логотипа');</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34">
@@ -13944,8 +14734,16 @@
         <v>270</v>
       </c>
       <c r="C4" s="36"/>
+      <c r="D4" s="154" t="str">
+        <f t="shared" ref="D4:D7" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A4&amp;","&amp;SUBSTITUTE(TEXT(B4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,556,50,270.00);</v>
+      </c>
       <c r="F4" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="T4" s="154" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$S$2&amp;",'"&amp;A39&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(422,'Силиконовые слэп часы-флешки под нанесение логотипа');</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13956,9 +14754,14 @@
         <v>260</v>
       </c>
       <c r="C5" s="36"/>
+      <c r="D5" s="154" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,556,100,260.00);</v>
+      </c>
       <c r="F5" s="27" t="s">
-        <v>254</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="T5" s="154"/>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
@@ -13968,9 +14771,14 @@
         <v>250</v>
       </c>
       <c r="C6" s="36"/>
+      <c r="D6" s="154" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,556,300,250.00);</v>
+      </c>
       <c r="F6" s="28" t="s">
-        <v>255</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="T6" s="154"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34">
@@ -13980,109 +14788,117 @@
         <v>240</v>
       </c>
       <c r="C7" s="36"/>
+      <c r="D7" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A7&amp;","&amp;SUBSTITUTE(TEXT(B7,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,556,500,240.00);</v>
+      </c>
       <c r="F7" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="131" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
+      <c r="A8" s="152" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
       <c r="F8" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F9" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="115"/>
+      <c r="B10" s="130"/>
       <c r="F10" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="113"/>
+      <c r="B14" s="132"/>
     </row>
     <row r="15" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="108"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="108"/>
-      <c r="U18" s="108"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="108"/>
+      <c r="A18" s="127" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="127"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>11</v>
+      <c r="B20" s="46">
+        <v>557</v>
       </c>
       <c r="C20" s="46"/>
+      <c r="D20" s="154" t="str">
+        <f>"delete price where catId="&amp;B20&amp;" and firma=10;"</f>
+        <v>delete price where catId=557 and firma=10;</v>
+      </c>
     </row>
     <row r="21" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
@@ -14092,8 +14908,12 @@
         <v>320</v>
       </c>
       <c r="C21" s="36"/>
+      <c r="D21" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$20&amp;","&amp;A21&amp;","&amp;SUBSTITUTE(TEXT(B21,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,557,10,320.00);</v>
+      </c>
       <c r="F21" s="28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14104,8 +14924,12 @@
         <v>270</v>
       </c>
       <c r="C22" s="36"/>
+      <c r="D22" s="154" t="str">
+        <f t="shared" ref="D22:D25" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$20&amp;","&amp;A22&amp;","&amp;SUBSTITUTE(TEXT(B22,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,557,50,270.00);</v>
+      </c>
       <c r="F22" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14116,8 +14940,12 @@
         <v>260</v>
       </c>
       <c r="C23" s="36"/>
+      <c r="D23" s="154" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,557,100,260.00);</v>
+      </c>
       <c r="F23" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14128,6 +14956,10 @@
         <v>250</v>
       </c>
       <c r="C24" s="36"/>
+      <c r="D24" s="154" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,557,300,250.00);</v>
+      </c>
       <c r="F24" s="29" t="s">
         <v>23</v>
       </c>
@@ -14140,107 +14972,115 @@
         <v>240</v>
       </c>
       <c r="C25" s="36"/>
+      <c r="D25" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$20&amp;","&amp;A25&amp;","&amp;SUBSTITUTE(TEXT(B25,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,557,500,240.00);</v>
+      </c>
       <c r="F25" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="128" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="F26" s="29" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="121" t="s">
-        <v>259</v>
-      </c>
-      <c r="B26" s="121"/>
-      <c r="C26" s="121"/>
-      <c r="F26" s="29" t="s">
-        <v>257</v>
-      </c>
-    </row>
     <row r="27" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="131" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
+      <c r="A27" s="152" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="115"/>
+      <c r="B29" s="130"/>
     </row>
     <row r="30" spans="1:24" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="113"/>
+      <c r="B33" s="132"/>
     </row>
     <row r="34" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="108" t="s">
-        <v>262</v>
-      </c>
-      <c r="B39" s="108"/>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="108"/>
-      <c r="L39" s="108"/>
-      <c r="M39" s="108"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="108"/>
-      <c r="P39" s="108"/>
-      <c r="Q39" s="108"/>
-      <c r="R39" s="108"/>
-      <c r="S39" s="108"/>
-      <c r="T39" s="108"/>
-      <c r="U39" s="108"/>
-      <c r="V39" s="108"/>
+      <c r="A39" s="127" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="127"/>
+      <c r="O39" s="127"/>
+      <c r="P39" s="127"/>
+      <c r="Q39" s="127"/>
+      <c r="R39" s="127"/>
+      <c r="S39" s="127"/>
+      <c r="T39" s="127"/>
+      <c r="U39" s="127"/>
+      <c r="V39" s="127"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="46" t="s">
-        <v>11</v>
+      <c r="B40" s="46">
+        <v>558</v>
       </c>
       <c r="C40" s="46"/>
+      <c r="D40" s="154" t="str">
+        <f>"delete price where catId="&amp;B40&amp;" and firma=10;"</f>
+        <v>delete price where catId=558 and firma=10;</v>
+      </c>
     </row>
     <row r="41" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="34">
@@ -14250,6 +15090,10 @@
         <v>500</v>
       </c>
       <c r="C41" s="36"/>
+      <c r="D41" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$40&amp;","&amp;A41&amp;","&amp;SUBSTITUTE(TEXT(B41,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,558,10,500.00);</v>
+      </c>
     </row>
     <row r="42" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="34">
@@ -14259,6 +15103,10 @@
         <v>495</v>
       </c>
       <c r="C42" s="36"/>
+      <c r="D42" s="154" t="str">
+        <f t="shared" ref="D42:D45" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$40&amp;","&amp;A42&amp;","&amp;SUBSTITUTE(TEXT(B42,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,558,50,495.00);</v>
+      </c>
     </row>
     <row r="43" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="34">
@@ -14268,6 +15116,10 @@
         <v>490</v>
       </c>
       <c r="C43" s="36"/>
+      <c r="D43" s="154" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,558,100,490.00);</v>
+      </c>
     </row>
     <row r="44" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34">
@@ -14277,6 +15129,10 @@
         <v>480</v>
       </c>
       <c r="C44" s="36"/>
+      <c r="D44" s="154" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,558,300,480.00);</v>
+      </c>
     </row>
     <row r="45" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="34">
@@ -14286,101 +15142,99 @@
         <v>470</v>
       </c>
       <c r="C45" s="36"/>
+      <c r="D45" s="154" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$40&amp;","&amp;A45&amp;","&amp;SUBSTITUTE(TEXT(B45,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,558,500,470.00);</v>
+      </c>
     </row>
     <row r="46" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="121" t="s">
-        <v>263</v>
-      </c>
-      <c r="B46" s="121"/>
-      <c r="C46" s="121"/>
+      <c r="A46" s="128" t="s">
+        <v>262</v>
+      </c>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
     </row>
     <row r="47" spans="1:22" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="131" t="s">
-        <v>248</v>
-      </c>
-      <c r="B47" s="131"/>
-      <c r="C47" s="131"/>
+      <c r="A47" s="152" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="152"/>
+      <c r="C47" s="152"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="115" t="s">
+      <c r="A49" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="115"/>
+      <c r="B49" s="130"/>
     </row>
     <row r="50" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B52" s="49">
         <v>40</v>
       </c>
       <c r="E52" s="28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="132"/>
+      <c r="E53" s="29" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="113" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="113"/>
-      <c r="E53" s="29" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B54" s="49">
         <v>25</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:X18"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A27:C27"/>
@@ -14389,6 +15243,12 @@
     <mergeCell ref="A39:V39"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:X18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://rubraslet.ru/slap-watches.html?id=92&amp;ml=1"/>
@@ -14396,6 +15256,7 @@
     <hyperlink ref="A55" r:id="rId3" display="https://rubraslet.ru/slap-watches.html?id=92&amp;ml=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
+++ b/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KvotaSite\калькулятор 5 - блокноты, деколь\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" firstSheet="1" activeTab="4"/>
   </bookViews>
@@ -19,7 +14,7 @@
     <sheet name="светоотражатели" sheetId="7" r:id="rId5"/>
     <sheet name="слэп-часы" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="298">
   <si>
     <t>Количество</t>
   </si>
@@ -3546,7 +3541,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4108,7 +4103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4412,19 +4407,19 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4433,17 +4428,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4451,7 +4467,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4460,32 +4485,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4494,6 +4495,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4505,18 +4509,21 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -6813,13 +6820,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>780699</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>75914</xdr:rowOff>
@@ -6851,13 +6858,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>142509</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>533148</xdr:rowOff>
@@ -6934,7 +6941,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>752154</xdr:colOff>
+      <xdr:colOff>399729</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -6965,13 +6972,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>971277</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>123552</xdr:rowOff>
@@ -7004,15 +7011,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>790286</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>247349</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180686</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>142574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7029,7 +7036,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="21526500"/>
+          <a:off x="819150" y="23355300"/>
           <a:ext cx="2314286" cy="2409524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7204,7 +7211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -7256,7 +7263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -7450,7 +7457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7567,8 +7574,8 @@
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="143"/>
-      <c r="B16" s="143"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="123"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -7584,25 +7591,25 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="127" t="s">
+      <c r="A21" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="142" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
       <c r="F22" s="29" t="s">
         <v>268</v>
       </c>
@@ -7611,28 +7618,28 @@
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="126"/>
       <c r="V22" s="102"/>
     </row>
     <row r="23" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124" t="s">
+      <c r="C23" s="126"/>
+      <c r="D23" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124" t="s">
+      <c r="E23" s="126"/>
+      <c r="F23" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124" t="s">
+      <c r="G23" s="126"/>
+      <c r="H23" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="124"/>
+      <c r="I23" s="126"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="M23" s="23"/>
@@ -7643,22 +7650,22 @@
       <c r="A24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="125"/>
-      <c r="D24" s="125" t="s">
+      <c r="C24" s="127"/>
+      <c r="D24" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="125"/>
-      <c r="F24" s="125" t="s">
+      <c r="E24" s="127"/>
+      <c r="F24" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125" t="s">
+      <c r="G24" s="127"/>
+      <c r="H24" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="125"/>
+      <c r="I24" s="127"/>
       <c r="J24" s="22"/>
       <c r="K24" s="21"/>
       <c r="M24" s="21"/>
@@ -7669,22 +7676,22 @@
       <c r="A25" s="21">
         <v>100</v>
       </c>
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123" t="s">
+      <c r="C25" s="129"/>
+      <c r="D25" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123" t="s">
+      <c r="E25" s="129"/>
+      <c r="F25" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123" t="s">
+      <c r="G25" s="129"/>
+      <c r="H25" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="123"/>
+      <c r="I25" s="129"/>
       <c r="J25" s="22"/>
       <c r="K25" s="21"/>
       <c r="M25" s="21"/>
@@ -7695,22 +7702,22 @@
       <c r="A26" s="21">
         <v>200</v>
       </c>
-      <c r="B26" s="121" t="s">
+      <c r="B26" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="121"/>
-      <c r="D26" s="121" t="s">
+      <c r="C26" s="128"/>
+      <c r="D26" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121" t="s">
+      <c r="E26" s="128"/>
+      <c r="F26" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121" t="s">
+      <c r="G26" s="128"/>
+      <c r="H26" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="121"/>
+      <c r="I26" s="128"/>
       <c r="J26" s="22"/>
       <c r="K26" s="21"/>
       <c r="M26" s="21"/>
@@ -7721,22 +7728,22 @@
       <c r="A27" s="21">
         <v>300</v>
       </c>
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121" t="s">
+      <c r="C27" s="128"/>
+      <c r="D27" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121" t="s">
+      <c r="E27" s="128"/>
+      <c r="F27" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121" t="s">
+      <c r="G27" s="128"/>
+      <c r="H27" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="121"/>
+      <c r="I27" s="128"/>
       <c r="J27" s="22"/>
       <c r="K27" s="21"/>
       <c r="M27" s="21"/>
@@ -7747,22 +7754,22 @@
       <c r="A28" s="21">
         <v>500</v>
       </c>
-      <c r="B28" s="121" t="s">
+      <c r="B28" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121" t="s">
+      <c r="C28" s="128"/>
+      <c r="D28" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121" t="s">
+      <c r="E28" s="128"/>
+      <c r="F28" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="121"/>
-      <c r="H28" s="121" t="s">
+      <c r="G28" s="128"/>
+      <c r="H28" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="121"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="22"/>
       <c r="K28" s="21"/>
       <c r="M28" s="21"/>
@@ -7773,22 +7780,22 @@
       <c r="A29" s="21">
         <v>1000</v>
       </c>
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121" t="s">
+      <c r="C29" s="128"/>
+      <c r="D29" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121" t="s">
+      <c r="E29" s="128"/>
+      <c r="F29" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="121"/>
-      <c r="H29" s="121" t="s">
+      <c r="G29" s="128"/>
+      <c r="H29" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="121"/>
+      <c r="I29" s="128"/>
       <c r="J29" s="22"/>
       <c r="K29" s="21"/>
       <c r="M29" s="21"/>
@@ -7799,22 +7806,22 @@
       <c r="A30" s="21">
         <v>3000</v>
       </c>
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121" t="s">
+      <c r="C30" s="128"/>
+      <c r="D30" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121" t="s">
+      <c r="E30" s="128"/>
+      <c r="F30" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121" t="s">
+      <c r="G30" s="128"/>
+      <c r="H30" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="121"/>
+      <c r="I30" s="128"/>
       <c r="M30" s="21"/>
       <c r="N30" s="22"/>
       <c r="O30" s="21"/>
@@ -7823,39 +7830,39 @@
       <c r="A31" s="21">
         <v>5000</v>
       </c>
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="121" t="s">
+      <c r="C31" s="128"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="121"/>
+      <c r="I31" s="128"/>
     </row>
     <row r="32" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>10000</v>
       </c>
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
@@ -7925,21 +7932,21 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="127" t="s">
+      <c r="A46" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="127"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="127"/>
-      <c r="K46" s="127"/>
-      <c r="L46" s="127"/>
-      <c r="M46" s="127"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="125"/>
     </row>
     <row r="47" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
@@ -7951,13 +7958,13 @@
       <c r="D47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="124"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="126"/>
+      <c r="G47" s="126"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
+      <c r="I47" s="126"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="126"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
@@ -8126,10 +8133,10 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="135" t="s">
+      <c r="A59" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="135"/>
+      <c r="B59" s="131"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
@@ -8140,10 +8147,10 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="141" t="s">
+      <c r="A61" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="141"/>
+      <c r="B61" s="132"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -8211,8 +8218,8 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="129"/>
-      <c r="B70" s="129"/>
+      <c r="A70" s="124"/>
+      <c r="B70" s="124"/>
     </row>
     <row r="71" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
@@ -8223,25 +8230,25 @@
       <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:17" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="127" t="s">
+      <c r="A73" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="127"/>
-      <c r="C73" s="127"/>
-      <c r="D73" s="127"/>
-      <c r="E73" s="127"/>
-      <c r="F73" s="127"/>
-      <c r="G73" s="127"/>
-      <c r="H73" s="127"/>
-      <c r="I73" s="127"/>
-      <c r="J73" s="127"/>
-      <c r="K73" s="127"/>
-      <c r="L73" s="127"/>
-      <c r="M73" s="127"/>
-      <c r="N73" s="127"/>
-      <c r="O73" s="127"/>
-      <c r="P73" s="127"/>
-      <c r="Q73" s="127"/>
+      <c r="B73" s="125"/>
+      <c r="C73" s="125"/>
+      <c r="D73" s="125"/>
+      <c r="E73" s="125"/>
+      <c r="F73" s="125"/>
+      <c r="G73" s="125"/>
+      <c r="H73" s="125"/>
+      <c r="I73" s="125"/>
+      <c r="J73" s="125"/>
+      <c r="K73" s="125"/>
+      <c r="L73" s="125"/>
+      <c r="M73" s="125"/>
+      <c r="N73" s="125"/>
+      <c r="O73" s="125"/>
+      <c r="P73" s="125"/>
+      <c r="Q73" s="125"/>
     </row>
     <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
@@ -8260,10 +8267,10 @@
       <c r="G75" s="46"/>
     </row>
     <row r="76" spans="1:17" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="142" t="s">
+      <c r="A76" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="142"/>
+      <c r="B76" s="133"/>
       <c r="C76" s="36"/>
       <c r="E76" s="47">
         <v>100</v>
@@ -8290,10 +8297,10 @@
       <c r="G77" s="47"/>
     </row>
     <row r="78" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="132" t="s">
+      <c r="A78" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="132"/>
+      <c r="B78" s="134"/>
       <c r="C78" s="36"/>
       <c r="E78" s="47">
         <v>500</v>
@@ -8404,33 +8411,33 @@
       <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="127" t="s">
+      <c r="A92" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="127"/>
-      <c r="C92" s="127"/>
-      <c r="D92" s="127"/>
-      <c r="E92" s="127"/>
-      <c r="F92" s="127"/>
-      <c r="G92" s="127"/>
-      <c r="H92" s="127"/>
-      <c r="I92" s="127"/>
-      <c r="J92" s="127"/>
-      <c r="K92" s="127"/>
-      <c r="L92" s="127"/>
-      <c r="M92" s="127"/>
-      <c r="N92" s="127"/>
-      <c r="O92" s="127"/>
-      <c r="P92" s="127"/>
-      <c r="Q92" s="127"/>
-      <c r="R92" s="127"/>
-      <c r="S92" s="127"/>
+      <c r="B92" s="125"/>
+      <c r="C92" s="125"/>
+      <c r="D92" s="125"/>
+      <c r="E92" s="125"/>
+      <c r="F92" s="125"/>
+      <c r="G92" s="125"/>
+      <c r="H92" s="125"/>
+      <c r="I92" s="125"/>
+      <c r="J92" s="125"/>
+      <c r="K92" s="125"/>
+      <c r="L92" s="125"/>
+      <c r="M92" s="125"/>
+      <c r="N92" s="125"/>
+      <c r="O92" s="125"/>
+      <c r="P92" s="125"/>
+      <c r="Q92" s="125"/>
+      <c r="R92" s="125"/>
+      <c r="S92" s="125"/>
     </row>
     <row r="93" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="140" t="s">
+      <c r="A93" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B93" s="140"/>
+      <c r="B93" s="130"/>
       <c r="E93" s="45" t="s">
         <v>0</v>
       </c>
@@ -8455,10 +8462,10 @@
       <c r="G94" s="36"/>
     </row>
     <row r="95" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="132" t="s">
+      <c r="A95" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="132"/>
+      <c r="B95" s="134"/>
       <c r="E95" s="34">
         <v>300</v>
       </c>
@@ -8555,25 +8562,25 @@
       <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:17" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="127" t="s">
+      <c r="A108" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="B108" s="127"/>
-      <c r="C108" s="127"/>
-      <c r="D108" s="127"/>
-      <c r="E108" s="127"/>
-      <c r="F108" s="127"/>
-      <c r="G108" s="127"/>
-      <c r="H108" s="127"/>
-      <c r="I108" s="127"/>
-      <c r="J108" s="127"/>
-      <c r="K108" s="127"/>
-      <c r="L108" s="127"/>
-      <c r="M108" s="127"/>
-      <c r="N108" s="127"/>
-      <c r="O108" s="127"/>
-      <c r="P108" s="127"/>
-      <c r="Q108" s="127"/>
+      <c r="B108" s="125"/>
+      <c r="C108" s="125"/>
+      <c r="D108" s="125"/>
+      <c r="E108" s="125"/>
+      <c r="F108" s="125"/>
+      <c r="G108" s="125"/>
+      <c r="H108" s="125"/>
+      <c r="I108" s="125"/>
+      <c r="J108" s="125"/>
+      <c r="K108" s="125"/>
+      <c r="L108" s="125"/>
+      <c r="M108" s="125"/>
+      <c r="N108" s="125"/>
+      <c r="O108" s="125"/>
+      <c r="P108" s="125"/>
+      <c r="Q108" s="125"/>
     </row>
     <row r="109" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
@@ -8593,10 +8600,10 @@
       <c r="O109" s="115"/>
     </row>
     <row r="110" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="140" t="s">
+      <c r="A110" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="B110" s="140"/>
+      <c r="B110" s="130"/>
       <c r="E110" s="23"/>
       <c r="F110" s="106" t="s">
         <v>276</v>
@@ -8642,10 +8649,10 @@
       <c r="P111" s="24"/>
     </row>
     <row r="112" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="132" t="s">
+      <c r="A112" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B112" s="132"/>
+      <c r="B112" s="134"/>
       <c r="E112" s="23" t="s">
         <v>0</v>
       </c>
@@ -8793,71 +8800,71 @@
       <c r="A122" s="28"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="137"/>
-      <c r="B127" s="119"/>
-      <c r="C127" s="119"/>
-      <c r="D127" s="119"/>
-      <c r="E127" s="119"/>
-      <c r="F127" s="119"/>
-      <c r="G127" s="119"/>
-      <c r="H127" s="119"/>
+      <c r="A127" s="135"/>
+      <c r="B127" s="136"/>
+      <c r="C127" s="136"/>
+      <c r="D127" s="136"/>
+      <c r="E127" s="136"/>
+      <c r="F127" s="136"/>
+      <c r="G127" s="136"/>
+      <c r="H127" s="136"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="119"/>
-      <c r="B128" s="119"/>
-      <c r="C128" s="119"/>
-      <c r="D128" s="119"/>
-      <c r="E128" s="119"/>
-      <c r="F128" s="119"/>
-      <c r="G128" s="119"/>
-      <c r="H128" s="119"/>
+      <c r="A128" s="136"/>
+      <c r="B128" s="136"/>
+      <c r="C128" s="136"/>
+      <c r="D128" s="136"/>
+      <c r="E128" s="136"/>
+      <c r="F128" s="136"/>
+      <c r="G128" s="136"/>
+      <c r="H128" s="136"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="119"/>
-      <c r="B129" s="119"/>
-      <c r="C129" s="119"/>
-      <c r="D129" s="119"/>
-      <c r="E129" s="119"/>
-      <c r="F129" s="119"/>
-      <c r="G129" s="119"/>
-      <c r="H129" s="119"/>
+      <c r="A129" s="136"/>
+      <c r="B129" s="136"/>
+      <c r="C129" s="136"/>
+      <c r="D129" s="136"/>
+      <c r="E129" s="136"/>
+      <c r="F129" s="136"/>
+      <c r="G129" s="136"/>
+      <c r="H129" s="136"/>
     </row>
     <row r="130" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A130" s="136"/>
-      <c r="B130" s="136"/>
-      <c r="C130" s="136"/>
-      <c r="D130" s="136"/>
-      <c r="E130" s="136"/>
+      <c r="A130" s="147"/>
+      <c r="B130" s="147"/>
+      <c r="C130" s="147"/>
+      <c r="D130" s="147"/>
+      <c r="E130" s="147"/>
       <c r="R130" s="44"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="119"/>
-      <c r="B134" s="119"/>
-      <c r="C134" s="119"/>
-      <c r="D134" s="119"/>
-      <c r="E134" s="119"/>
-      <c r="F134" s="119"/>
-      <c r="G134" s="119"/>
+      <c r="A134" s="136"/>
+      <c r="B134" s="136"/>
+      <c r="C134" s="136"/>
+      <c r="D134" s="136"/>
+      <c r="E134" s="136"/>
+      <c r="F134" s="136"/>
+      <c r="G134" s="136"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A135" s="119"/>
-      <c r="B135" s="119"/>
-      <c r="C135" s="119"/>
-      <c r="D135" s="119"/>
-      <c r="E135" s="119"/>
-      <c r="F135" s="119"/>
-      <c r="G135" s="119"/>
+      <c r="A135" s="136"/>
+      <c r="B135" s="136"/>
+      <c r="C135" s="136"/>
+      <c r="D135" s="136"/>
+      <c r="E135" s="136"/>
+      <c r="F135" s="136"/>
+      <c r="G135" s="136"/>
     </row>
     <row r="137" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="127" t="s">
+      <c r="A137" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="B137" s="127"/>
-      <c r="C137" s="127"/>
-      <c r="D137" s="127"/>
-      <c r="E137" s="127"/>
-      <c r="F137" s="127"/>
-      <c r="G137" s="127"/>
+      <c r="B137" s="125"/>
+      <c r="C137" s="125"/>
+      <c r="D137" s="125"/>
+      <c r="E137" s="125"/>
+      <c r="F137" s="125"/>
+      <c r="G137" s="125"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F138" s="29" t="s">
@@ -8865,10 +8872,10 @@
       </c>
     </row>
     <row r="139" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="130" t="s">
+      <c r="A139" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B139" s="130"/>
+      <c r="B139" s="139"/>
       <c r="F139" s="86" t="s">
         <v>25</v>
       </c>
@@ -8878,13 +8885,13 @@
       <c r="H139" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="I139" s="139"/>
-      <c r="J139" s="139"/>
-      <c r="K139" s="139"/>
+      <c r="I139" s="138"/>
+      <c r="J139" s="138"/>
+      <c r="K139" s="138"/>
       <c r="L139" s="69"/>
-      <c r="M139" s="139"/>
-      <c r="N139" s="139"/>
-      <c r="O139" s="139"/>
+      <c r="M139" s="138"/>
+      <c r="N139" s="138"/>
+      <c r="O139" s="138"/>
     </row>
     <row r="140" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="34" t="s">
@@ -8935,10 +8942,10 @@
       <c r="O141" s="110"/>
     </row>
     <row r="142" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="132" t="s">
+      <c r="A142" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B142" s="132"/>
+      <c r="B142" s="134"/>
       <c r="E142" s="55">
         <v>200</v>
       </c>
@@ -9094,50 +9101,50 @@
       <c r="N149" s="72"/>
     </row>
     <row r="152" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="138" t="s">
+      <c r="A152" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="B152" s="138"/>
-      <c r="C152" s="138"/>
-      <c r="D152" s="138"/>
-      <c r="E152" s="138"/>
-      <c r="F152" s="138"/>
-      <c r="G152" s="138"/>
-      <c r="H152" s="138"/>
-      <c r="I152" s="138"/>
-      <c r="J152" s="138"/>
-      <c r="K152" s="138"/>
-      <c r="L152" s="138"/>
-      <c r="M152" s="138"/>
-      <c r="N152" s="138"/>
-      <c r="O152" s="138"/>
-      <c r="P152" s="138"/>
-      <c r="Q152" s="138"/>
+      <c r="B152" s="137"/>
+      <c r="C152" s="137"/>
+      <c r="D152" s="137"/>
+      <c r="E152" s="137"/>
+      <c r="F152" s="137"/>
+      <c r="G152" s="137"/>
+      <c r="H152" s="137"/>
+      <c r="I152" s="137"/>
+      <c r="J152" s="137"/>
+      <c r="K152" s="137"/>
+      <c r="L152" s="137"/>
+      <c r="M152" s="137"/>
+      <c r="N152" s="137"/>
+      <c r="O152" s="137"/>
+      <c r="P152" s="137"/>
+      <c r="Q152" s="137"/>
     </row>
     <row r="155" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="127" t="s">
+      <c r="A155" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="B155" s="127"/>
-      <c r="C155" s="127"/>
-      <c r="D155" s="127"/>
-      <c r="E155" s="127"/>
-      <c r="F155" s="127"/>
-      <c r="G155" s="127"/>
-      <c r="H155" s="127"/>
-      <c r="I155" s="127"/>
-      <c r="J155" s="127"/>
-      <c r="K155" s="127"/>
-      <c r="L155" s="127"/>
-      <c r="M155" s="127"/>
-      <c r="N155" s="127"/>
-      <c r="O155" s="127"/>
+      <c r="B155" s="125"/>
+      <c r="C155" s="125"/>
+      <c r="D155" s="125"/>
+      <c r="E155" s="125"/>
+      <c r="F155" s="125"/>
+      <c r="G155" s="125"/>
+      <c r="H155" s="125"/>
+      <c r="I155" s="125"/>
+      <c r="J155" s="125"/>
+      <c r="K155" s="125"/>
+      <c r="L155" s="125"/>
+      <c r="M155" s="125"/>
+      <c r="N155" s="125"/>
+      <c r="O155" s="125"/>
     </row>
     <row r="156" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A156" s="133"/>
-      <c r="B156" s="134"/>
-      <c r="C156" s="134"/>
-      <c r="D156" s="134"/>
+      <c r="A156" s="145"/>
+      <c r="B156" s="146"/>
+      <c r="C156" s="146"/>
+      <c r="D156" s="146"/>
       <c r="E156" s="29" t="s">
         <v>71</v>
       </c>
@@ -9152,18 +9159,18 @@
       <c r="H157" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="I157" s="119"/>
-      <c r="J157" s="119"/>
-      <c r="K157" s="119"/>
-      <c r="M157" s="119"/>
-      <c r="N157" s="119"/>
-      <c r="O157" s="119"/>
+      <c r="I157" s="136"/>
+      <c r="J157" s="136"/>
+      <c r="K157" s="136"/>
+      <c r="M157" s="136"/>
+      <c r="N157" s="136"/>
+      <c r="O157" s="136"/>
     </row>
     <row r="158" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="135" t="s">
+      <c r="B158" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C158" s="135"/>
+      <c r="C158" s="131"/>
       <c r="E158" s="74" t="s">
         <v>0</v>
       </c>
@@ -9424,30 +9431,30 @@
       </c>
     </row>
     <row r="175" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="127" t="s">
+      <c r="A175" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="B175" s="127"/>
-      <c r="C175" s="127"/>
-      <c r="D175" s="127"/>
-      <c r="E175" s="127"/>
-      <c r="F175" s="127"/>
-      <c r="G175" s="127"/>
-      <c r="H175" s="127"/>
-      <c r="I175" s="127"/>
-      <c r="J175" s="127"/>
-      <c r="K175" s="127"/>
-      <c r="L175" s="127"/>
-      <c r="M175" s="127"/>
-      <c r="N175" s="127"/>
-      <c r="O175" s="127"/>
-      <c r="P175" s="127"/>
+      <c r="B175" s="125"/>
+      <c r="C175" s="125"/>
+      <c r="D175" s="125"/>
+      <c r="E175" s="125"/>
+      <c r="F175" s="125"/>
+      <c r="G175" s="125"/>
+      <c r="H175" s="125"/>
+      <c r="I175" s="125"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="125"/>
+      <c r="L175" s="125"/>
+      <c r="M175" s="125"/>
+      <c r="N175" s="125"/>
+      <c r="O175" s="125"/>
+      <c r="P175" s="125"/>
     </row>
     <row r="176" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="130" t="s">
+      <c r="A176" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B176" s="130"/>
+      <c r="B176" s="139"/>
       <c r="E176" s="63" t="s">
         <v>0</v>
       </c>
@@ -9472,10 +9479,10 @@
       <c r="G177" s="65"/>
     </row>
     <row r="178" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="132" t="s">
+      <c r="A178" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B178" s="132"/>
+      <c r="B178" s="134"/>
       <c r="E178" s="77">
         <v>300</v>
       </c>
@@ -9568,22 +9575,22 @@
       </c>
     </row>
     <row r="190" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="127" t="s">
+      <c r="A190" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="B190" s="127"/>
-      <c r="C190" s="127"/>
-      <c r="D190" s="127"/>
-      <c r="E190" s="127"/>
-      <c r="F190" s="127"/>
-      <c r="G190" s="127"/>
-      <c r="H190" s="127"/>
-      <c r="I190" s="127"/>
-      <c r="J190" s="127"/>
-      <c r="K190" s="127"/>
-      <c r="L190" s="127"/>
-      <c r="M190" s="127"/>
-      <c r="N190" s="127"/>
+      <c r="B190" s="125"/>
+      <c r="C190" s="125"/>
+      <c r="D190" s="125"/>
+      <c r="E190" s="125"/>
+      <c r="F190" s="125"/>
+      <c r="G190" s="125"/>
+      <c r="H190" s="125"/>
+      <c r="I190" s="125"/>
+      <c r="J190" s="125"/>
+      <c r="K190" s="125"/>
+      <c r="L190" s="125"/>
+      <c r="M190" s="125"/>
+      <c r="N190" s="125"/>
     </row>
     <row r="191" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D191" s="78" t="s">
@@ -9591,10 +9598,10 @@
       </c>
     </row>
     <row r="192" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="130" t="s">
+      <c r="A192" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="B192" s="130"/>
+      <c r="B192" s="139"/>
     </row>
     <row r="193" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="51" t="s">
@@ -9683,29 +9690,29 @@
       </c>
     </row>
     <row r="205" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="127" t="s">
+      <c r="A205" s="125" t="s">
         <v>79</v>
       </c>
-      <c r="B205" s="127"/>
-      <c r="C205" s="127"/>
-      <c r="D205" s="127"/>
-      <c r="E205" s="127"/>
-      <c r="F205" s="127"/>
-      <c r="G205" s="127"/>
-      <c r="H205" s="127"/>
-      <c r="I205" s="127"/>
-      <c r="J205" s="127"/>
-      <c r="K205" s="127"/>
-      <c r="L205" s="127"/>
-      <c r="M205" s="127"/>
-      <c r="N205" s="127"/>
-      <c r="O205" s="127"/>
+      <c r="B205" s="125"/>
+      <c r="C205" s="125"/>
+      <c r="D205" s="125"/>
+      <c r="E205" s="125"/>
+      <c r="F205" s="125"/>
+      <c r="G205" s="125"/>
+      <c r="H205" s="125"/>
+      <c r="I205" s="125"/>
+      <c r="J205" s="125"/>
+      <c r="K205" s="125"/>
+      <c r="L205" s="125"/>
+      <c r="M205" s="125"/>
+      <c r="N205" s="125"/>
+      <c r="O205" s="125"/>
     </row>
     <row r="206" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K206" s="120"/>
-      <c r="L206" s="120"/>
-      <c r="M206" s="129"/>
-      <c r="N206" s="129"/>
+      <c r="K206" s="144"/>
+      <c r="L206" s="144"/>
+      <c r="M206" s="124"/>
+      <c r="N206" s="124"/>
     </row>
     <row r="207" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="29" t="s">
@@ -9731,8 +9738,8 @@
         <v>15</v>
       </c>
       <c r="I208" s="35"/>
-      <c r="K208" s="131"/>
-      <c r="L208" s="131"/>
+      <c r="K208" s="140"/>
+      <c r="L208" s="140"/>
       <c r="M208" s="34"/>
       <c r="N208" s="36"/>
     </row>
@@ -9767,8 +9774,8 @@
       </c>
     </row>
     <row r="213" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="129"/>
-      <c r="B213" s="129"/>
+      <c r="A213" s="124"/>
+      <c r="B213" s="124"/>
     </row>
     <row r="214" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="34"/>
@@ -9780,20 +9787,20 @@
     </row>
     <row r="216" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="219" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="127" t="s">
+      <c r="A219" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="B219" s="127"/>
-      <c r="C219" s="127"/>
-      <c r="D219" s="127"/>
-      <c r="E219" s="127"/>
-      <c r="F219" s="127"/>
-      <c r="G219" s="127"/>
-      <c r="H219" s="127"/>
-      <c r="I219" s="127"/>
-      <c r="J219" s="127"/>
-      <c r="K219" s="127"/>
-      <c r="L219" s="127"/>
+      <c r="B219" s="125"/>
+      <c r="C219" s="125"/>
+      <c r="D219" s="125"/>
+      <c r="E219" s="125"/>
+      <c r="F219" s="125"/>
+      <c r="G219" s="125"/>
+      <c r="H219" s="125"/>
+      <c r="I219" s="125"/>
+      <c r="J219" s="125"/>
+      <c r="K219" s="125"/>
+      <c r="L219" s="125"/>
     </row>
     <row r="220" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G220" s="79" t="s">
@@ -9805,10 +9812,10 @@
       <c r="I220" s="80"/>
     </row>
     <row r="221" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="129" t="s">
+      <c r="A221" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="129"/>
+      <c r="B221" s="124"/>
       <c r="G221" s="33">
         <v>100</v>
       </c>
@@ -9867,19 +9874,19 @@
       </c>
     </row>
     <row r="230" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="127" t="s">
+      <c r="A230" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="B230" s="127"/>
-      <c r="C230" s="127"/>
-      <c r="D230" s="127"/>
-      <c r="E230" s="127"/>
-      <c r="F230" s="127"/>
-      <c r="G230" s="127"/>
-      <c r="H230" s="127"/>
-      <c r="I230" s="127"/>
-      <c r="J230" s="127"/>
-      <c r="K230" s="127"/>
+      <c r="B230" s="125"/>
+      <c r="C230" s="125"/>
+      <c r="D230" s="125"/>
+      <c r="E230" s="125"/>
+      <c r="F230" s="125"/>
+      <c r="G230" s="125"/>
+      <c r="H230" s="125"/>
+      <c r="I230" s="125"/>
+      <c r="J230" s="125"/>
+      <c r="K230" s="125"/>
     </row>
     <row r="231" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C231" s="10" t="s">
@@ -9936,10 +9943,10 @@
       <c r="E236" s="36"/>
     </row>
     <row r="237" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="129" t="s">
+      <c r="A237" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="129"/>
+      <c r="B237" s="124"/>
     </row>
     <row r="238" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="34" t="s">
@@ -9989,24 +9996,24 @@
     </row>
     <row r="243" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="245" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="127" t="s">
+      <c r="A245" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="B245" s="127"/>
-      <c r="C245" s="127"/>
-      <c r="D245" s="127"/>
-      <c r="E245" s="127"/>
-      <c r="F245" s="127"/>
-      <c r="G245" s="127"/>
-      <c r="H245" s="127"/>
-      <c r="I245" s="127"/>
-      <c r="J245" s="127"/>
-      <c r="K245" s="127"/>
-      <c r="L245" s="127"/>
-      <c r="M245" s="127"/>
-      <c r="N245" s="127"/>
-      <c r="O245" s="127"/>
-      <c r="P245" s="127"/>
+      <c r="B245" s="125"/>
+      <c r="C245" s="125"/>
+      <c r="D245" s="125"/>
+      <c r="E245" s="125"/>
+      <c r="F245" s="125"/>
+      <c r="G245" s="125"/>
+      <c r="H245" s="125"/>
+      <c r="I245" s="125"/>
+      <c r="J245" s="125"/>
+      <c r="K245" s="125"/>
+      <c r="L245" s="125"/>
+      <c r="M245" s="125"/>
+      <c r="N245" s="125"/>
+      <c r="O245" s="125"/>
+      <c r="P245" s="125"/>
     </row>
     <row r="247" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C247" s="10" t="s">
@@ -10051,10 +10058,10 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="129" t="s">
+      <c r="A254" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="129"/>
+      <c r="B254" s="124"/>
     </row>
     <row r="255" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="34" t="s">
@@ -10093,25 +10100,25 @@
       </c>
     </row>
     <row r="262" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="127" t="s">
+      <c r="A262" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="B262" s="127"/>
-      <c r="C262" s="127"/>
-      <c r="D262" s="127"/>
-      <c r="E262" s="127"/>
-      <c r="F262" s="127"/>
-      <c r="G262" s="127"/>
-      <c r="H262" s="127"/>
-      <c r="I262" s="127"/>
-      <c r="J262" s="127"/>
-      <c r="K262" s="127"/>
-      <c r="L262" s="127"/>
-      <c r="M262" s="127"/>
-      <c r="N262" s="127"/>
-      <c r="O262" s="127"/>
-      <c r="P262" s="127"/>
-      <c r="Q262" s="127"/>
+      <c r="B262" s="125"/>
+      <c r="C262" s="125"/>
+      <c r="D262" s="125"/>
+      <c r="E262" s="125"/>
+      <c r="F262" s="125"/>
+      <c r="G262" s="125"/>
+      <c r="H262" s="125"/>
+      <c r="I262" s="125"/>
+      <c r="J262" s="125"/>
+      <c r="K262" s="125"/>
+      <c r="L262" s="125"/>
+      <c r="M262" s="125"/>
+      <c r="N262" s="125"/>
+      <c r="O262" s="125"/>
+      <c r="P262" s="125"/>
+      <c r="Q262" s="125"/>
     </row>
     <row r="264" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C264" s="10" t="s">
@@ -10121,10 +10128,10 @@
         <v>7</v>
       </c>
       <c r="E264" s="81"/>
-      <c r="G264" s="129" t="s">
+      <c r="G264" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="H264" s="129"/>
+      <c r="H264" s="124"/>
     </row>
     <row r="265" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C265" s="34">
@@ -10170,11 +10177,11 @@
       </c>
     </row>
     <row r="268" spans="1:17" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C268" s="128" t="s">
+      <c r="C268" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="D268" s="128"/>
-      <c r="E268" s="128"/>
+      <c r="D268" s="141"/>
+      <c r="E268" s="141"/>
     </row>
     <row r="269" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
@@ -10194,6 +10201,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A175:P175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="I157:K157"/>
+    <mergeCell ref="M157:O157"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A262:Q262"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="G264:H264"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A245:P245"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A230:K230"/>
+    <mergeCell ref="A190:N190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A205:O205"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A219:L219"/>
+    <mergeCell ref="A127:H129"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A155:O155"/>
+    <mergeCell ref="A152:Q152"/>
+    <mergeCell ref="A134:G135"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="I139:K139"/>
+    <mergeCell ref="M139:O139"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A92:S92"/>
+    <mergeCell ref="A108:Q108"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A21:I21"/>
@@ -10210,84 +10295,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A92:S92"/>
-    <mergeCell ref="A108:Q108"/>
-    <mergeCell ref="A127:H129"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A155:O155"/>
-    <mergeCell ref="A152:Q152"/>
-    <mergeCell ref="A134:G135"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="I139:K139"/>
-    <mergeCell ref="M139:O139"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A230:K230"/>
-    <mergeCell ref="A190:N190"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A205:O205"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A219:L219"/>
-    <mergeCell ref="A262:Q262"/>
-    <mergeCell ref="C268:E268"/>
-    <mergeCell ref="G264:H264"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A245:P245"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A175:P175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="I157:K157"/>
-    <mergeCell ref="M157:O157"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="A130:E130"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A38" r:id="rId1" display="https://rubraslet.ru/silicon/2-site/121-segmentatsiya-svirl-202kh12kh2.html?ml=1"/>
@@ -10312,7 +10319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView topLeftCell="B122" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N137" sqref="N137:N138"/>
     </sheetView>
   </sheetViews>
@@ -10337,45 +10344,45 @@
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="155">
+      <c r="F1" s="122">
         <v>417</v>
       </c>
-      <c r="G1" s="154" t="str">
+      <c r="G1" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$F$1&amp;",'"&amp;A10&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(417,'Лента для бейджа 15 мм БЕЗ НАНЕСЕНИЯ');</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="G2" s="154" t="str">
+      <c r="G2" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$F$1&amp;",'"&amp;A31&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(417,'Лента для бейджа с логотипом (сублимация)');</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
-      <c r="G3" s="154" t="str">
+      <c r="G3" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$F$1&amp;",'"&amp;A56&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(417,'Лента для бейджа с логотипом (шелкография)');</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
-      <c r="G4" s="154" t="str">
+      <c r="G4" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$F$1&amp;",'"&amp;A89&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(417,'Лента для бейджа жаккардовая (вышивка)');</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="G5" s="154" t="str">
+      <c r="G5" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$F$1&amp;",'"&amp;A113&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(417,'Шнурок для бейджа с логотипом 10, 12, 15 мм');</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="G6" s="154" t="str">
+      <c r="G6" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$F$1&amp;",'"&amp;A132&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(417,'Ретракторы для бейджей под нанесение логотипа');</v>
       </c>
@@ -10412,29 +10419,29 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:21" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -10474,7 +10481,7 @@
         <v>532</v>
       </c>
       <c r="I14" s="46"/>
-      <c r="N14" s="154" t="str">
+      <c r="N14" s="121" t="str">
         <f>"delete price where catId="&amp;H14&amp;" and firma=10;"</f>
         <v>delete price where catId=532 and firma=10;</v>
       </c>
@@ -10494,10 +10501,10 @@
       <c r="K15" t="s">
         <v>279</v>
       </c>
-      <c r="M15" s="153">
+      <c r="M15" s="120">
         <v>18</v>
       </c>
-      <c r="N15" s="154" t="str">
+      <c r="N15" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$14&amp;","&amp;$G15&amp;","&amp;SUBSTITUTE(TEXT(H15,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,532,50, 27);</v>
       </c>
@@ -10510,7 +10517,7 @@
         <v>117</v>
       </c>
       <c r="I16" s="36"/>
-      <c r="N16" s="154" t="str">
+      <c r="N16" s="121" t="str">
         <f t="shared" ref="N16:N20" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$14&amp;","&amp;$G16&amp;","&amp;SUBSTITUTE(TEXT(H16,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,532,100, 26);</v>
       </c>
@@ -10525,7 +10532,7 @@
         <v>118</v>
       </c>
       <c r="I17" s="36"/>
-      <c r="N17" s="154" t="str">
+      <c r="N17" s="121" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,532,200, 25);</v>
       </c>
@@ -10540,7 +10547,7 @@
         <v>119</v>
       </c>
       <c r="I18" s="36"/>
-      <c r="N18" s="154" t="str">
+      <c r="N18" s="121" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,532,500, 24);</v>
       </c>
@@ -10555,7 +10562,7 @@
         <v>120</v>
       </c>
       <c r="I19" s="36"/>
-      <c r="N19" s="154" t="str">
+      <c r="N19" s="121" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,532,1000, 23);</v>
       </c>
@@ -10568,7 +10575,7 @@
         <v>121</v>
       </c>
       <c r="I20" s="36"/>
-      <c r="N20" s="154" t="str">
+      <c r="N20" s="121" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,532,2000, 22);</v>
       </c>
@@ -10670,18 +10677,18 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="155">
+      <c r="F28" s="122">
         <v>533</v>
       </c>
-      <c r="G28" s="154" t="str">
+      <c r="G28" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$F$28&amp;",'"&amp;H33&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(533,'15 мм');</v>
       </c>
-      <c r="H28" s="154" t="str">
-        <f t="shared" ref="H28:I28" si="1">"insert into Category (parentId,tip) values("&amp;$F$28&amp;",'"&amp;I33&amp;"');"</f>
+      <c r="H28" s="121" t="str">
+        <f t="shared" ref="H28" si="1">"insert into Category (parentId,tip) values("&amp;$F$28&amp;",'"&amp;I33&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(533,'20 мм');</v>
       </c>
-      <c r="I28" s="154" t="str">
+      <c r="I28" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$F$28&amp;",'"&amp;J33&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(533,'25мм');</v>
       </c>
@@ -10692,56 +10699,56 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="G29" s="154"/>
+      <c r="G29" s="121"/>
     </row>
     <row r="30" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="G30" s="154"/>
+      <c r="G30" s="121"/>
     </row>
     <row r="31" spans="1:19" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="127" t="s">
+      <c r="A31" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="125"/>
+      <c r="N31" s="125"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="125"/>
+      <c r="Q31" s="125"/>
+      <c r="R31" s="125"/>
+      <c r="S31" s="125"/>
     </row>
     <row r="32" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="127" t="s">
+      <c r="A32" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="125"/>
     </row>
     <row r="33" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="15"/>
@@ -10757,9 +10764,9 @@
         <v>152</v>
       </c>
       <c r="K33" s="91"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="145"/>
-      <c r="N33" s="145"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="149"/>
     </row>
     <row r="34" spans="1:16" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
@@ -10779,15 +10786,15 @@
       <c r="K34" s="30"/>
       <c r="L34" s="83"/>
       <c r="M34" s="83"/>
-      <c r="N34" s="154" t="str">
+      <c r="N34" s="121" t="str">
         <f>"delete price where catId="&amp;H34&amp;" and firma=10;"</f>
         <v>delete price where catId=538 and firma=10;</v>
       </c>
-      <c r="O34" s="154" t="str">
+      <c r="O34" s="121" t="str">
         <f t="shared" ref="O34:P34" si="2">"delete price where catId="&amp;I34&amp;" and firma=10;"</f>
         <v>delete price where catId=539 and firma=10;</v>
       </c>
-      <c r="P34" s="154" t="str">
+      <c r="P34" s="121" t="str">
         <f t="shared" si="2"/>
         <v>delete price where catId=540 and firma=10;</v>
       </c>
@@ -10810,15 +10817,15 @@
       <c r="K35" s="30"/>
       <c r="L35" s="47"/>
       <c r="M35" s="47"/>
-      <c r="N35" s="154" t="str">
+      <c r="N35" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$34&amp;","&amp;$G35&amp;","&amp;SUBSTITUTE(TEXT(H35,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,538,100, 88);</v>
       </c>
-      <c r="O35" s="154" t="str">
+      <c r="O35" s="121" t="str">
         <f t="shared" ref="O35:P41" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;I$34&amp;","&amp;$G35&amp;","&amp;SUBSTITUTE(TEXT(I35,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,539,100, 103);</v>
       </c>
-      <c r="P35" s="154" t="str">
+      <c r="P35" s="121" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,540,100,120.00);</v>
       </c>
@@ -10841,15 +10848,15 @@
       <c r="K36" s="30"/>
       <c r="L36" s="47"/>
       <c r="M36" s="47"/>
-      <c r="N36" s="154" t="str">
+      <c r="N36" s="121" t="str">
         <f t="shared" ref="N36:N41" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$34&amp;","&amp;$G36&amp;","&amp;SUBSTITUTE(TEXT(H36,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,538,200, 79);</v>
       </c>
-      <c r="O36" s="154" t="str">
+      <c r="O36" s="121" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,539,200, 87);</v>
       </c>
-      <c r="P36" s="154" t="str">
+      <c r="P36" s="121" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,540,200,100.00);</v>
       </c>
@@ -10870,15 +10877,15 @@
       <c r="K37" s="30"/>
       <c r="L37" s="47"/>
       <c r="M37" s="47"/>
-      <c r="N37" s="154" t="str">
+      <c r="N37" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,538,350, 68);</v>
       </c>
-      <c r="O37" s="154" t="str">
+      <c r="O37" s="121" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,539,350, 79);</v>
       </c>
-      <c r="P37" s="154" t="str">
+      <c r="P37" s="121" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,540,350,87.00);</v>
       </c>
@@ -10900,15 +10907,15 @@
       <c r="K38" s="30"/>
       <c r="L38" s="47"/>
       <c r="M38" s="47"/>
-      <c r="N38" s="154" t="str">
+      <c r="N38" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,538,500, 63);</v>
       </c>
-      <c r="O38" s="154" t="str">
+      <c r="O38" s="121" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,539,500, 74);</v>
       </c>
-      <c r="P38" s="154" t="str">
+      <c r="P38" s="121" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,540,500,81.00);</v>
       </c>
@@ -10930,15 +10937,15 @@
       <c r="K39" s="30"/>
       <c r="L39" s="47"/>
       <c r="M39" s="47"/>
-      <c r="N39" s="154" t="str">
+      <c r="N39" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,538,1000, 58);</v>
       </c>
-      <c r="O39" s="154" t="str">
+      <c r="O39" s="121" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,539,1000, 70);</v>
       </c>
-      <c r="P39" s="154" t="str">
+      <c r="P39" s="121" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,540,1000,74.00);</v>
       </c>
@@ -10962,15 +10969,15 @@
       <c r="K40" s="30"/>
       <c r="L40" s="47"/>
       <c r="M40" s="47"/>
-      <c r="N40" s="154" t="str">
+      <c r="N40" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,538,2000, 57);</v>
       </c>
-      <c r="O40" s="154" t="str">
+      <c r="O40" s="121" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,539,2000,68.00);</v>
       </c>
-      <c r="P40" s="154" t="str">
+      <c r="P40" s="121" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,540,2000,69.00);</v>
       </c>
@@ -10994,15 +11001,15 @@
       <c r="K41" s="30"/>
       <c r="L41" s="47"/>
       <c r="M41" s="47"/>
-      <c r="N41" s="154" t="str">
+      <c r="N41" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,538,3000, 55);</v>
       </c>
-      <c r="O41" s="154" t="str">
+      <c r="O41" s="121" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,539,3000,64.00);</v>
       </c>
-      <c r="P41" s="154" t="str">
+      <c r="P41" s="121" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,540,3000,66.00);</v>
       </c>
@@ -11020,10 +11027,10 @@
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="146" t="s">
+      <c r="A44" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="146"/>
+      <c r="B44" s="150"/>
       <c r="C44" s="6"/>
       <c r="D44" s="5"/>
     </row>
@@ -11107,45 +11114,45 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="127" t="s">
+      <c r="A56" s="125" t="s">
         <v>149</v>
       </c>
-      <c r="B56" s="127"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="127"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="127"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="127"/>
-      <c r="M56" s="127"/>
-      <c r="N56" s="127"/>
-      <c r="O56" s="127"/>
-      <c r="P56" s="127"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="125"/>
+      <c r="M56" s="125"/>
+      <c r="N56" s="125"/>
+      <c r="O56" s="125"/>
+      <c r="P56" s="125"/>
     </row>
     <row r="57" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="127" t="s">
+      <c r="A57" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="127"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="127"/>
-      <c r="K57" s="127"/>
-      <c r="L57" s="127"/>
-      <c r="M57" s="127"/>
-      <c r="N57" s="127"/>
-      <c r="O57" s="127"/>
-      <c r="P57" s="127"/>
-      <c r="Q57" s="127"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="125"/>
+      <c r="K57" s="125"/>
+      <c r="L57" s="125"/>
+      <c r="M57" s="125"/>
+      <c r="N57" s="125"/>
+      <c r="O57" s="125"/>
+      <c r="P57" s="125"/>
+      <c r="Q57" s="125"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
@@ -11160,22 +11167,22 @@
       <c r="C59" s="15"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="155">
+      <c r="F59" s="122">
         <v>534</v>
       </c>
-      <c r="G59" s="154" t="str">
+      <c r="G59" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$F$59&amp;",'"&amp;H61&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(534,'12 мм');</v>
       </c>
-      <c r="H59" s="154" t="str">
+      <c r="H59" s="121" t="str">
         <f t="shared" ref="H59:J59" si="5">"insert into Category (parentId,tip) values("&amp;$F$59&amp;",'"&amp;I61&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(534,'15 мм');</v>
       </c>
-      <c r="I59" s="154" t="str">
+      <c r="I59" s="121" t="str">
         <f t="shared" si="5"/>
         <v>insert into Category (parentId,tip) values(534,'20 мм');</v>
       </c>
-      <c r="J59" s="154" t="str">
+      <c r="J59" s="121" t="str">
         <f t="shared" si="5"/>
         <v>insert into Category (parentId,tip) values(534,'25 мм');</v>
       </c>
@@ -11223,19 +11230,19 @@
       <c r="K62">
         <v>544</v>
       </c>
-      <c r="N62" s="154" t="str">
+      <c r="N62" s="121" t="str">
         <f>"delete price where catId="&amp;H62&amp;" and firma=10;"</f>
         <v>delete price where catId=541 and firma=10;</v>
       </c>
-      <c r="O62" s="154" t="str">
+      <c r="O62" s="121" t="str">
         <f t="shared" ref="O62:Q62" si="6">"delete price where catId="&amp;I62&amp;" and firma=10;"</f>
         <v>delete price where catId=542 and firma=10;</v>
       </c>
-      <c r="P62" s="154" t="str">
+      <c r="P62" s="121" t="str">
         <f t="shared" si="6"/>
         <v>delete price where catId=543 and firma=10;</v>
       </c>
-      <c r="Q62" s="154" t="str">
+      <c r="Q62" s="121" t="str">
         <f t="shared" si="6"/>
         <v>delete price where catId=544 and firma=10;</v>
       </c>
@@ -11258,28 +11265,28 @@
       <c r="K63" s="21">
         <v>84</v>
       </c>
-      <c r="N63" s="154" t="str">
+      <c r="N63" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$62&amp;","&amp;$G63&amp;","&amp;SUBSTITUTE(TEXT(H63,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,541,100,74.00);</v>
       </c>
-      <c r="O63" s="154" t="str">
+      <c r="O63" s="121" t="str">
         <f t="shared" ref="O63:Q69" si="7">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;I$62&amp;","&amp;$G63&amp;","&amp;SUBSTITUTE(TEXT(I63,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,542,100,77.00);</v>
       </c>
-      <c r="P63" s="154" t="str">
+      <c r="P63" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,543,100,81.00);</v>
       </c>
-      <c r="Q63" s="154" t="str">
+      <c r="Q63" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,544,100,84.00);</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="144" t="s">
+      <c r="A64" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="144"/>
+      <c r="B64" s="148"/>
       <c r="G64" s="47">
         <v>200</v>
       </c>
@@ -11295,19 +11302,19 @@
       <c r="K64" s="21">
         <v>71</v>
       </c>
-      <c r="N64" s="154" t="str">
-        <f t="shared" ref="N64:N69" si="8">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$62&amp;","&amp;$G64&amp;","&amp;SUBSTITUTE(TEXT(H64,"0,00"),",",".")&amp;");"</f>
+      <c r="N64" s="121" t="str">
+        <f t="shared" ref="N64:N68" si="8">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$62&amp;","&amp;$G64&amp;","&amp;SUBSTITUTE(TEXT(H64,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,541,200,61.00);</v>
       </c>
-      <c r="O64" s="154" t="str">
+      <c r="O64" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,542,200,64.00);</v>
       </c>
-      <c r="P64" s="154" t="str">
+      <c r="P64" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,543,200,68.00);</v>
       </c>
-      <c r="Q64" s="154" t="str">
+      <c r="Q64" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,544,200,71.00);</v>
       </c>
@@ -11334,19 +11341,19 @@
       <c r="K65" s="21">
         <v>67</v>
       </c>
-      <c r="N65" s="154" t="str">
+      <c r="N65" s="121" t="str">
         <f t="shared" si="8"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,541,350,56.00);</v>
       </c>
-      <c r="O65" s="154" t="str">
+      <c r="O65" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,542,350,60.00);</v>
       </c>
-      <c r="P65" s="154" t="str">
+      <c r="P65" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,543,350,63.00);</v>
       </c>
-      <c r="Q65" s="154" t="str">
+      <c r="Q65" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,544,350,67.00);</v>
       </c>
@@ -11373,19 +11380,19 @@
       <c r="K66" s="21">
         <v>58</v>
       </c>
-      <c r="N66" s="154" t="str">
+      <c r="N66" s="121" t="str">
         <f t="shared" si="8"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,541,500,48.00);</v>
       </c>
-      <c r="O66" s="154" t="str">
+      <c r="O66" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,542,500,51.00);</v>
       </c>
-      <c r="P66" s="154" t="str">
+      <c r="P66" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,543,500,55.00);</v>
       </c>
-      <c r="Q66" s="154" t="str">
+      <c r="Q66" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,544,500,58.00);</v>
       </c>
@@ -11412,19 +11419,19 @@
       <c r="K67" s="21">
         <v>52</v>
       </c>
-      <c r="N67" s="154" t="str">
+      <c r="N67" s="121" t="str">
         <f t="shared" si="8"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,541,1000,41.00);</v>
       </c>
-      <c r="O67" s="154" t="str">
+      <c r="O67" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,542,1000,45.00);</v>
       </c>
-      <c r="P67" s="154" t="str">
+      <c r="P67" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,543,1000,48.00);</v>
       </c>
-      <c r="Q67" s="154" t="str">
+      <c r="Q67" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,544,1000,52.00);</v>
       </c>
@@ -11451,19 +11458,19 @@
       <c r="K68" s="21">
         <v>49</v>
       </c>
-      <c r="N68" s="154" t="str">
+      <c r="N68" s="121" t="str">
         <f t="shared" si="8"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,541,2000,39.00);</v>
       </c>
-      <c r="O68" s="154" t="str">
+      <c r="O68" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,542,2000,43.00);</v>
       </c>
-      <c r="P68" s="154" t="str">
+      <c r="P68" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,543,2000,46.00);</v>
       </c>
-      <c r="Q68" s="154" t="str">
+      <c r="Q68" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,544,2000,49.00);</v>
       </c>
@@ -11484,31 +11491,31 @@
       <c r="K69" s="21">
         <v>47</v>
       </c>
-      <c r="N69" s="154" t="str">
+      <c r="N69" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$62&amp;","&amp;$G69&amp;","&amp;SUBSTITUTE(TEXT(H69,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,541,3000,36.00);</v>
       </c>
-      <c r="O69" s="154" t="str">
+      <c r="O69" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,542,3000,39.00);</v>
       </c>
-      <c r="P69" s="154" t="str">
+      <c r="P69" s="121" t="str">
         <f t="shared" si="7"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,543,3000,43.00);</v>
       </c>
-      <c r="Q69" s="154" t="str">
+      <c r="Q69" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;K$62&amp;","&amp;$G69&amp;","&amp;SUBSTITUTE(TEXT(K69,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,544,3000,47.00);</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D72" s="119"/>
-      <c r="E72" s="119"/>
-      <c r="F72" s="119"/>
-      <c r="H72" s="119"/>
-      <c r="I72" s="119"/>
-      <c r="J72" s="119"/>
+      <c r="D72" s="136"/>
+      <c r="E72" s="136"/>
+      <c r="F72" s="136"/>
+      <c r="H72" s="136"/>
+      <c r="I72" s="136"/>
+      <c r="J72" s="136"/>
     </row>
     <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="42"/>
@@ -11596,44 +11603,44 @@
       </c>
     </row>
     <row r="89" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="127" t="s">
+      <c r="A89" s="125" t="s">
         <v>157</v>
       </c>
-      <c r="B89" s="127"/>
-      <c r="C89" s="127"/>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="127"/>
-      <c r="G89" s="127"/>
-      <c r="H89" s="127"/>
-      <c r="I89" s="127"/>
-      <c r="J89" s="127"/>
-      <c r="K89" s="127"/>
-      <c r="L89" s="127"/>
-      <c r="M89" s="127"/>
-      <c r="N89" s="127"/>
-      <c r="O89" s="127"/>
+      <c r="B89" s="125"/>
+      <c r="C89" s="125"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="125"/>
+      <c r="F89" s="125"/>
+      <c r="G89" s="125"/>
+      <c r="H89" s="125"/>
+      <c r="I89" s="125"/>
+      <c r="J89" s="125"/>
+      <c r="K89" s="125"/>
+      <c r="L89" s="125"/>
+      <c r="M89" s="125"/>
+      <c r="N89" s="125"/>
+      <c r="O89" s="125"/>
     </row>
     <row r="90" spans="1:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="127" t="s">
+      <c r="A90" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="B90" s="127"/>
-      <c r="C90" s="127"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="127"/>
-      <c r="G90" s="127"/>
-      <c r="H90" s="127"/>
-      <c r="I90" s="127"/>
-      <c r="J90" s="127"/>
-      <c r="K90" s="127"/>
-      <c r="L90" s="127"/>
-      <c r="M90" s="127"/>
-      <c r="N90" s="127"/>
-      <c r="O90" s="127"/>
-      <c r="P90" s="127"/>
-      <c r="Q90" s="127"/>
+      <c r="B90" s="125"/>
+      <c r="C90" s="125"/>
+      <c r="D90" s="125"/>
+      <c r="E90" s="125"/>
+      <c r="F90" s="125"/>
+      <c r="G90" s="125"/>
+      <c r="H90" s="125"/>
+      <c r="I90" s="125"/>
+      <c r="J90" s="125"/>
+      <c r="K90" s="125"/>
+      <c r="L90" s="125"/>
+      <c r="M90" s="125"/>
+      <c r="N90" s="125"/>
+      <c r="O90" s="125"/>
+      <c r="P90" s="125"/>
+      <c r="Q90" s="125"/>
     </row>
     <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="30"/>
@@ -11641,18 +11648,18 @@
       <c r="D91" s="30"/>
       <c r="E91" s="30"/>
       <c r="F91" s="30"/>
-      <c r="G91" s="155">
+      <c r="G91" s="122">
         <v>535</v>
       </c>
-      <c r="H91" s="154" t="str">
+      <c r="H91" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$G$91&amp;",'"&amp;H93&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(535,'15 мм');</v>
       </c>
-      <c r="I91" s="154" t="str">
+      <c r="I91" s="121" t="str">
         <f t="shared" ref="I91:J91" si="9">"insert into Category (parentId,tip) values("&amp;$G$91&amp;",'"&amp;I93&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(535,'20 мм');</v>
       </c>
-      <c r="J91" s="154" t="str">
+      <c r="J91" s="121" t="str">
         <f t="shared" si="9"/>
         <v>insert into Category (parentId,tip) values(535,'25 мм');</v>
       </c>
@@ -11661,13 +11668,13 @@
       <c r="M91" s="30"/>
     </row>
     <row r="92" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F92" s="139"/>
-      <c r="G92" s="139"/>
-      <c r="H92" s="139"/>
+      <c r="F92" s="138"/>
+      <c r="G92" s="138"/>
+      <c r="H92" s="138"/>
       <c r="I92" s="68"/>
-      <c r="J92" s="139"/>
-      <c r="K92" s="139"/>
-      <c r="L92" s="139"/>
+      <c r="J92" s="138"/>
+      <c r="K92" s="138"/>
+      <c r="L92" s="138"/>
       <c r="M92" s="30"/>
     </row>
     <row r="93" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -11703,15 +11710,15 @@
       <c r="K94" s="47"/>
       <c r="L94" s="47"/>
       <c r="M94" s="30"/>
-      <c r="N94" s="154" t="str">
+      <c r="N94" s="121" t="str">
         <f>"delete price where catId="&amp;H94&amp;" and firma=10;"</f>
         <v>delete price where catId=545 and firma=10;</v>
       </c>
-      <c r="O94" s="154" t="str">
+      <c r="O94" s="121" t="str">
         <f t="shared" ref="O94:P94" si="10">"delete price where catId="&amp;I94&amp;" and firma=10;"</f>
         <v>delete price where catId=546 and firma=10;</v>
       </c>
-      <c r="P94" s="154" t="str">
+      <c r="P94" s="121" t="str">
         <f t="shared" si="10"/>
         <v>delete price where catId=547 and firma=10;</v>
       </c>
@@ -11733,15 +11740,15 @@
       <c r="K95" s="47"/>
       <c r="L95" s="47"/>
       <c r="M95" s="30"/>
-      <c r="N95" s="154" t="str">
+      <c r="N95" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$94&amp;","&amp;$G95&amp;","&amp;SUBSTITUTE(TEXT(H95,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,545,100,120.00);</v>
       </c>
-      <c r="O95" s="154" t="str">
+      <c r="O95" s="121" t="str">
         <f t="shared" ref="O95:P101" si="11">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;I$94&amp;","&amp;$G95&amp;","&amp;SUBSTITUTE(TEXT(I95,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,546,100,125.00);</v>
       </c>
-      <c r="P95" s="154" t="str">
+      <c r="P95" s="121" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,547,100,130.00);</v>
       </c>
@@ -11763,15 +11770,15 @@
       <c r="K96" s="47"/>
       <c r="L96" s="47"/>
       <c r="M96" s="30"/>
-      <c r="N96" s="154" t="str">
-        <f t="shared" ref="N96:N101" si="12">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$94&amp;","&amp;$G96&amp;","&amp;SUBSTITUTE(TEXT(H96,"0,00"),",",".")&amp;");"</f>
+      <c r="N96" s="121" t="str">
+        <f t="shared" ref="N96:N100" si="12">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$94&amp;","&amp;$G96&amp;","&amp;SUBSTITUTE(TEXT(H96,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,545,200,92.00);</v>
       </c>
-      <c r="O96" s="154" t="str">
+      <c r="O96" s="121" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,546,200,97.00);</v>
       </c>
-      <c r="P96" s="154" t="str">
+      <c r="P96" s="121" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,547,200,102.00);</v>
       </c>
@@ -11793,15 +11800,15 @@
       <c r="K97" s="47"/>
       <c r="L97" s="47"/>
       <c r="M97" s="30"/>
-      <c r="N97" s="154" t="str">
+      <c r="N97" s="121" t="str">
         <f t="shared" si="12"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,545,350,76.00);</v>
       </c>
-      <c r="O97" s="154" t="str">
+      <c r="O97" s="121" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,546,350,81.00);</v>
       </c>
-      <c r="P97" s="154" t="str">
+      <c r="P97" s="121" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,547,350,86.00);</v>
       </c>
@@ -11823,15 +11830,15 @@
       <c r="K98" s="47"/>
       <c r="L98" s="47"/>
       <c r="M98" s="30"/>
-      <c r="N98" s="154" t="str">
+      <c r="N98" s="121" t="str">
         <f t="shared" si="12"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,545,500,67.00);</v>
       </c>
-      <c r="O98" s="154" t="str">
+      <c r="O98" s="121" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,546,500,72.00);</v>
       </c>
-      <c r="P98" s="154" t="str">
+      <c r="P98" s="121" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,547,500,77.00);</v>
       </c>
@@ -11853,15 +11860,15 @@
       <c r="K99" s="47"/>
       <c r="L99" s="47"/>
       <c r="M99" s="30"/>
-      <c r="N99" s="154" t="str">
+      <c r="N99" s="121" t="str">
         <f t="shared" si="12"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,545,1000,51.00);</v>
       </c>
-      <c r="O99" s="154" t="str">
+      <c r="O99" s="121" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,546,1000,56.00);</v>
       </c>
-      <c r="P99" s="154" t="str">
+      <c r="P99" s="121" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,547,1000,62.00);</v>
       </c>
@@ -11883,15 +11890,15 @@
       <c r="K100" s="47"/>
       <c r="L100" s="47"/>
       <c r="M100" s="30"/>
-      <c r="N100" s="154" t="str">
+      <c r="N100" s="121" t="str">
         <f t="shared" si="12"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,545,2000,46.00);</v>
       </c>
-      <c r="O100" s="154" t="str">
+      <c r="O100" s="121" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,546,2000,51.00);</v>
       </c>
-      <c r="P100" s="154" t="str">
+      <c r="P100" s="121" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,547,2000,56.00);</v>
       </c>
@@ -11917,15 +11924,15 @@
       <c r="K101" s="30"/>
       <c r="L101" s="30"/>
       <c r="M101" s="30"/>
-      <c r="N101" s="154" t="str">
+      <c r="N101" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$94&amp;","&amp;$G101&amp;","&amp;SUBSTITUTE(TEXT(H101,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,545,3000,37.00);</v>
       </c>
-      <c r="O101" s="154" t="str">
+      <c r="O101" s="121" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,546,3000,41.00);</v>
       </c>
-      <c r="P101" s="154" t="str">
+      <c r="P101" s="121" t="str">
         <f t="shared" si="11"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,547,3000,44.00);</v>
       </c>
@@ -11945,10 +11952,10 @@
       <c r="M102" s="30"/>
     </row>
     <row r="103" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="135" t="s">
+      <c r="B103" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="135"/>
+      <c r="C103" s="131"/>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
       <c r="F103" s="28" t="s">
@@ -12030,45 +12037,45 @@
     </row>
     <row r="108" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="127" t="s">
+      <c r="A113" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="B113" s="127"/>
-      <c r="C113" s="127"/>
-      <c r="D113" s="127"/>
-      <c r="E113" s="127"/>
-      <c r="F113" s="127"/>
-      <c r="G113" s="127"/>
-      <c r="H113" s="127"/>
-      <c r="I113" s="127"/>
-      <c r="J113" s="127"/>
-      <c r="K113" s="127"/>
-      <c r="L113" s="127"/>
-      <c r="M113" s="127"/>
-      <c r="N113" s="127"/>
+      <c r="B113" s="125"/>
+      <c r="C113" s="125"/>
+      <c r="D113" s="125"/>
+      <c r="E113" s="125"/>
+      <c r="F113" s="125"/>
+      <c r="G113" s="125"/>
+      <c r="H113" s="125"/>
+      <c r="I113" s="125"/>
+      <c r="J113" s="125"/>
+      <c r="K113" s="125"/>
+      <c r="L113" s="125"/>
+      <c r="M113" s="125"/>
+      <c r="N113" s="125"/>
     </row>
     <row r="114" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F114" s="119"/>
-      <c r="G114" s="119"/>
-      <c r="H114" s="119"/>
-      <c r="J114" s="119"/>
-      <c r="K114" s="119"/>
-      <c r="L114" s="119"/>
+      <c r="F114" s="136"/>
+      <c r="G114" s="136"/>
+      <c r="H114" s="136"/>
+      <c r="J114" s="136"/>
+      <c r="K114" s="136"/>
+      <c r="L114" s="136"/>
     </row>
     <row r="115" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F115" s="97"/>
-      <c r="G115" s="155">
+      <c r="G115" s="122">
         <v>536</v>
       </c>
-      <c r="H115" s="154" t="str">
+      <c r="H115" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$G$115&amp;",'"&amp;H117&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(536,'10 мм');</v>
       </c>
-      <c r="I115" s="154" t="str">
+      <c r="I115" s="121" t="str">
         <f t="shared" ref="I115:J115" si="13">"insert into Category (parentId,tip) values("&amp;$G$115&amp;",'"&amp;I117&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(536,'12 мм');</v>
       </c>
-      <c r="J115" s="154" t="str">
+      <c r="J115" s="121" t="str">
         <f t="shared" si="13"/>
         <v>insert into Category (parentId,tip) values(536,'15 мм');</v>
       </c>
@@ -12110,15 +12117,15 @@
         <v>550</v>
       </c>
       <c r="L118" s="99"/>
-      <c r="N118" s="154" t="str">
+      <c r="N118" s="121" t="str">
         <f>"delete price where catId="&amp;H118&amp;" and firma=10;"</f>
         <v>delete price where catId=548 and firma=10;</v>
       </c>
-      <c r="O118" s="154" t="str">
+      <c r="O118" s="121" t="str">
         <f t="shared" ref="O118:P118" si="14">"delete price where catId="&amp;I118&amp;" and firma=10;"</f>
         <v>delete price where catId=549 and firma=10;</v>
       </c>
-      <c r="P118" s="154" t="str">
+      <c r="P118" s="121" t="str">
         <f t="shared" si="14"/>
         <v>delete price where catId=550 and firma=10;</v>
       </c>
@@ -12138,15 +12145,15 @@
         <v>83</v>
       </c>
       <c r="L119" s="99"/>
-      <c r="N119" s="154" t="str">
+      <c r="N119" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$118&amp;","&amp;$G119&amp;","&amp;SUBSTITUTE(TEXT(H119,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,548,100,71.00);</v>
       </c>
-      <c r="O119" s="154" t="str">
+      <c r="O119" s="121" t="str">
         <f t="shared" ref="O119:P125" si="15">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;I$118&amp;","&amp;$G119&amp;","&amp;SUBSTITUTE(TEXT(I119,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,549,100,75.00);</v>
       </c>
-      <c r="P119" s="154" t="str">
+      <c r="P119" s="121" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,550,100,83.00);</v>
       </c>
@@ -12166,15 +12173,15 @@
         <v>71</v>
       </c>
       <c r="L120" s="99"/>
-      <c r="N120" s="154" t="str">
-        <f t="shared" ref="N120:N125" si="16">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$118&amp;","&amp;$G120&amp;","&amp;SUBSTITUTE(TEXT(H120,"0,00"),",",".")&amp;");"</f>
+      <c r="N120" s="121" t="str">
+        <f t="shared" ref="N120:N124" si="16">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$118&amp;","&amp;$G120&amp;","&amp;SUBSTITUTE(TEXT(H120,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,548,200,62.00);</v>
       </c>
-      <c r="O120" s="154" t="str">
+      <c r="O120" s="121" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,549,200,65.00);</v>
       </c>
-      <c r="P120" s="154" t="str">
+      <c r="P120" s="121" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,550,200,71.00);</v>
       </c>
@@ -12194,15 +12201,15 @@
         <v>67</v>
       </c>
       <c r="L121" s="99"/>
-      <c r="N121" s="154" t="str">
+      <c r="N121" s="121" t="str">
         <f t="shared" si="16"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,548,350,57.00);</v>
       </c>
-      <c r="O121" s="154" t="str">
+      <c r="O121" s="121" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,549,350,61.00);</v>
       </c>
-      <c r="P121" s="154" t="str">
+      <c r="P121" s="121" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,550,350,67.00);</v>
       </c>
@@ -12222,15 +12229,15 @@
         <v>60</v>
       </c>
       <c r="L122" s="99"/>
-      <c r="N122" s="154" t="str">
+      <c r="N122" s="121" t="str">
         <f t="shared" si="16"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,548,500,51.00);</v>
       </c>
-      <c r="O122" s="154" t="str">
+      <c r="O122" s="121" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,549,500,54.00);</v>
       </c>
-      <c r="P122" s="154" t="str">
+      <c r="P122" s="121" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,550,500,60.00);</v>
       </c>
@@ -12248,15 +12255,15 @@
       <c r="J123" s="99">
         <v>52</v>
       </c>
-      <c r="N123" s="154" t="str">
+      <c r="N123" s="121" t="str">
         <f t="shared" si="16"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,548,1000,43.00);</v>
       </c>
-      <c r="O123" s="154" t="str">
+      <c r="O123" s="121" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,549,1000,47.00);</v>
       </c>
-      <c r="P123" s="154" t="str">
+      <c r="P123" s="121" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,550,1000,52.00);</v>
       </c>
@@ -12274,24 +12281,24 @@
       <c r="J124" s="99">
         <v>49</v>
       </c>
-      <c r="N124" s="154" t="str">
+      <c r="N124" s="121" t="str">
         <f t="shared" si="16"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,548,2000,41.00);</v>
       </c>
-      <c r="O124" s="154" t="str">
+      <c r="O124" s="121" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,549,2000,44.00);</v>
       </c>
-      <c r="P124" s="154" t="str">
+      <c r="P124" s="121" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,550,2000,49.00);</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="135" t="s">
+      <c r="B125" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C125" s="135"/>
+      <c r="C125" s="131"/>
       <c r="G125" s="21">
         <v>3000</v>
       </c>
@@ -12304,15 +12311,15 @@
       <c r="J125" s="99">
         <v>47</v>
       </c>
-      <c r="N125" s="154" t="str">
+      <c r="N125" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$118&amp;","&amp;$G125&amp;","&amp;SUBSTITUTE(TEXT(H125,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,548,3000,37.00);</v>
       </c>
-      <c r="O125" s="154" t="str">
+      <c r="O125" s="121" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,549,3000,40.00);</v>
       </c>
-      <c r="P125" s="154" t="str">
+      <c r="P125" s="121" t="str">
         <f t="shared" si="15"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,550,3000,47.00);</v>
       </c>
@@ -12363,35 +12370,35 @@
     </row>
     <row r="130" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A132" s="137" t="s">
+      <c r="A132" s="135" t="s">
         <v>168</v>
       </c>
-      <c r="B132" s="119"/>
-      <c r="C132" s="119"/>
-      <c r="D132" s="119"/>
-      <c r="E132" s="119"/>
-      <c r="F132" s="119"/>
-      <c r="G132" s="119"/>
-      <c r="H132" s="119"/>
-      <c r="I132" s="119"/>
-      <c r="J132" s="119"/>
-      <c r="K132" s="119"/>
-      <c r="L132" s="119"/>
-      <c r="M132" s="119"/>
-      <c r="N132" s="119"/>
-      <c r="O132" s="119"/>
+      <c r="B132" s="136"/>
+      <c r="C132" s="136"/>
+      <c r="D132" s="136"/>
+      <c r="E132" s="136"/>
+      <c r="F132" s="136"/>
+      <c r="G132" s="136"/>
+      <c r="H132" s="136"/>
+      <c r="I132" s="136"/>
+      <c r="J132" s="136"/>
+      <c r="K132" s="136"/>
+      <c r="L132" s="136"/>
+      <c r="M132" s="136"/>
+      <c r="N132" s="136"/>
+      <c r="O132" s="136"/>
     </row>
     <row r="133" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F134" s="100"/>
-      <c r="G134" s="155">
+      <c r="G134" s="122">
         <v>537</v>
       </c>
-      <c r="H134" s="154" t="str">
+      <c r="H134" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$G$134&amp;",'"&amp;H136&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(537,'Круглые');</v>
       </c>
-      <c r="I134" s="154" t="str">
+      <c r="I134" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$G$134&amp;",'"&amp;I136&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(537,'Овальные');</v>
       </c>
@@ -12423,11 +12430,11 @@
       <c r="I137" s="66">
         <v>552</v>
       </c>
-      <c r="N137" s="154" t="str">
+      <c r="N137" s="121" t="str">
         <f>"delete price where catId="&amp;H137&amp;" and firma=10;"</f>
         <v>delete price where catId=551 and firma=10;</v>
       </c>
-      <c r="O137" s="154" t="str">
+      <c r="O137" s="121" t="str">
         <f>"delete price where catId="&amp;I137&amp;" and firma=10;"</f>
         <v>delete price where catId=552 and firma=10;</v>
       </c>
@@ -12443,11 +12450,11 @@
       <c r="I138" s="98">
         <v>105</v>
       </c>
-      <c r="N138" s="154" t="str">
+      <c r="N138" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$137&amp;","&amp;$G138&amp;","&amp;SUBSTITUTE(TEXT(H138,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,551,10,70.00);</v>
       </c>
-      <c r="O138" s="154" t="str">
+      <c r="O138" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;I$137&amp;","&amp;$G138&amp;","&amp;SUBSTITUTE(TEXT(I138,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,552,10,105.00);</v>
       </c>
@@ -12463,11 +12470,11 @@
       <c r="I139" s="98">
         <v>100</v>
       </c>
-      <c r="N139" s="154" t="str">
+      <c r="N139" s="121" t="str">
         <f t="shared" ref="N139:O142" si="17">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;H$137&amp;","&amp;$G139&amp;","&amp;SUBSTITUTE(TEXT(H139,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,551,50,65.00);</v>
       </c>
-      <c r="O139" s="154" t="str">
+      <c r="O139" s="121" t="str">
         <f t="shared" si="17"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,552,50,100.00);</v>
       </c>
@@ -12483,11 +12490,11 @@
       <c r="I140" s="98">
         <v>95</v>
       </c>
-      <c r="N140" s="154" t="str">
+      <c r="N140" s="121" t="str">
         <f t="shared" si="17"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,551,100,60.00);</v>
       </c>
-      <c r="O140" s="154" t="str">
+      <c r="O140" s="121" t="str">
         <f t="shared" si="17"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,552,100,95.00);</v>
       </c>
@@ -12502,11 +12509,11 @@
       <c r="I141" s="98">
         <v>90</v>
       </c>
-      <c r="N141" s="154" t="str">
+      <c r="N141" s="121" t="str">
         <f t="shared" si="17"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,551,300,55.00);</v>
       </c>
-      <c r="O141" s="154" t="str">
+      <c r="O141" s="121" t="str">
         <f t="shared" si="17"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,552,300,90.00);</v>
       </c>
@@ -12521,20 +12528,20 @@
       <c r="I142" s="98">
         <v>85</v>
       </c>
-      <c r="N142" s="154" t="str">
+      <c r="N142" s="121" t="str">
         <f t="shared" si="17"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,551,500,50.00);</v>
       </c>
-      <c r="O142" s="154" t="str">
+      <c r="O142" s="121" t="str">
         <f t="shared" si="17"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,552,500,85.00);</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="135" t="s">
+      <c r="C143" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="D143" s="135"/>
+      <c r="D143" s="131"/>
     </row>
     <row r="144" spans="1:15" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C144" s="19" t="s">
@@ -12548,10 +12555,10 @@
       </c>
     </row>
     <row r="145" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="141" t="s">
+      <c r="C145" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="D145" s="141"/>
+      <c r="D145" s="132"/>
       <c r="F145" s="28" t="s">
         <v>174</v>
       </c>
@@ -12568,6 +12575,16 @@
     <row r="147" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A10:U10"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:Q57"/>
     <mergeCell ref="A132:O132"/>
     <mergeCell ref="C143:D143"/>
     <mergeCell ref="C145:D145"/>
@@ -12580,16 +12597,6 @@
     <mergeCell ref="A113:N113"/>
     <mergeCell ref="F114:H114"/>
     <mergeCell ref="J114:L114"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A10:U10"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:Q57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -12618,36 +12625,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="125" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -12657,7 +12664,7 @@
         <v>553</v>
       </c>
       <c r="C2" s="83"/>
-      <c r="D2" s="154" t="str">
+      <c r="D2" s="121" t="str">
         <f>"delete price where catId="&amp;B2&amp;" and firma=10;"</f>
         <v>delete price where catId=553 and firma=10;</v>
       </c>
@@ -12670,7 +12677,7 @@
         <v>176</v>
       </c>
       <c r="C3" s="47"/>
-      <c r="D3" s="154" t="str">
+      <c r="D3" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A3&amp;","&amp;SUBSTITUTE(TEXT(B3,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,553,50, 34);</v>
       </c>
@@ -12683,7 +12690,7 @@
         <v>177</v>
       </c>
       <c r="C4" s="47"/>
-      <c r="D4" s="154" t="str">
+      <c r="D4" s="121" t="str">
         <f t="shared" ref="D4:D8" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A4&amp;","&amp;SUBSTITUTE(TEXT(B4,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,553,100, 32);</v>
       </c>
@@ -12699,7 +12706,7 @@
         <v>178</v>
       </c>
       <c r="C5" s="47"/>
-      <c r="D5" s="154" t="str">
+      <c r="D5" s="121" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,553,300, 30);</v>
       </c>
@@ -12715,14 +12722,14 @@
         <v>179</v>
       </c>
       <c r="C6" s="47"/>
-      <c r="D6" s="154" t="str">
+      <c r="D6" s="121" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,553,500, 28);</v>
       </c>
-      <c r="S6" s="155">
+      <c r="S6" s="122">
         <v>421</v>
       </c>
-      <c r="T6" s="154" t="str">
+      <c r="T6" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$S$6&amp;",'"&amp;A1&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(421,'Светоотражающие слэп (slap) браслеты под нанесение логотипа');</v>
       </c>
@@ -12735,11 +12742,11 @@
         <v>117</v>
       </c>
       <c r="C7" s="47"/>
-      <c r="D7" s="154" t="str">
+      <c r="D7" s="121" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,553,1000, 26);</v>
       </c>
-      <c r="T7" s="154" t="str">
+      <c r="T7" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$S$6&amp;",'"&amp;A19&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(421,'Силиконовые слэп (slap) браслеты под нанесение логотипа');</v>
       </c>
@@ -12752,24 +12759,24 @@
         <v>119</v>
       </c>
       <c r="C8" s="47"/>
-      <c r="D8" s="154" t="str">
+      <c r="D8" s="121" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,553,3000, 24);</v>
       </c>
-      <c r="T8" s="154" t="str">
+      <c r="T8" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$S$6&amp;",'"&amp;A36&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(421,'Тканевые слэп (slap) браслеты с логотипом');</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="T9" s="154"/>
+      <c r="T9" s="121"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="T10" s="154"/>
+      <c r="B10" s="139"/>
+      <c r="T10" s="121"/>
     </row>
     <row r="11" spans="1:28" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
@@ -12796,10 +12803,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="132"/>
+      <c r="B14" s="134"/>
     </row>
     <row r="15" spans="1:28" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
@@ -12811,33 +12818,33 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="125" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="127"/>
-      <c r="T19" s="127"/>
-      <c r="U19" s="127"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="125"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83" t="s">
@@ -12847,7 +12854,7 @@
         <v>554</v>
       </c>
       <c r="C21" s="83"/>
-      <c r="D21" s="154" t="str">
+      <c r="D21" s="121" t="str">
         <f>"delete price where catId="&amp;B21&amp;" and firma=10;"</f>
         <v>delete price where catId=554 and firma=10;</v>
       </c>
@@ -12863,7 +12870,7 @@
         <v>184</v>
       </c>
       <c r="C22" s="47"/>
-      <c r="D22" s="154" t="str">
+      <c r="D22" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$21&amp;","&amp;A22&amp;","&amp;SUBSTITUTE(TEXT(B22,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,554,50, 40);</v>
       </c>
@@ -12879,7 +12886,7 @@
         <v>185</v>
       </c>
       <c r="C23" s="47"/>
-      <c r="D23" s="154" t="str">
+      <c r="D23" s="121" t="str">
         <f t="shared" ref="D23:D27" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$21&amp;","&amp;A23&amp;","&amp;SUBSTITUTE(TEXT(B23,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,554,100, 38);</v>
       </c>
@@ -12895,7 +12902,7 @@
         <v>186</v>
       </c>
       <c r="C24" s="47"/>
-      <c r="D24" s="154" t="str">
+      <c r="D24" s="121" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,554,300, 36);</v>
       </c>
@@ -12911,7 +12918,7 @@
         <v>176</v>
       </c>
       <c r="C25" s="47"/>
-      <c r="D25" s="154" t="str">
+      <c r="D25" s="121" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,554,500, 34);</v>
       </c>
@@ -12924,7 +12931,7 @@
         <v>177</v>
       </c>
       <c r="C26" s="47"/>
-      <c r="D26" s="154" t="str">
+      <c r="D26" s="121" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,554,1000, 32);</v>
       </c>
@@ -12937,17 +12944,17 @@
         <v>178</v>
       </c>
       <c r="C27" s="47"/>
-      <c r="D27" s="154" t="str">
+      <c r="D27" s="121" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,554,3000, 30);</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="130"/>
+      <c r="B29" s="139"/>
     </row>
     <row r="30" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
@@ -12966,10 +12973,10 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="132"/>
+      <c r="B32" s="134"/>
     </row>
     <row r="33" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
@@ -12981,27 +12988,27 @@
     </row>
     <row r="34" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="127" t="s">
+      <c r="A36" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="127"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
-      <c r="O36" s="127"/>
-      <c r="P36" s="127"/>
-      <c r="Q36" s="127"/>
-      <c r="R36" s="127"/>
-      <c r="S36" s="127"/>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="125"/>
+      <c r="N36" s="125"/>
+      <c r="O36" s="125"/>
+      <c r="P36" s="125"/>
+      <c r="Q36" s="125"/>
+      <c r="R36" s="125"/>
+      <c r="S36" s="125"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
@@ -13011,7 +13018,7 @@
         <v>555</v>
       </c>
       <c r="C38" s="46"/>
-      <c r="D38" s="154" t="str">
+      <c r="D38" s="121" t="str">
         <f>"delete price where catId="&amp;B38&amp;" and firma=10;"</f>
         <v>delete price where catId=555 and firma=10;</v>
       </c>
@@ -13024,7 +13031,7 @@
         <v>48</v>
       </c>
       <c r="C39" s="36"/>
-      <c r="D39" s="154" t="str">
+      <c r="D39" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$38&amp;","&amp;A39&amp;","&amp;SUBSTITUTE(TEXT(B39,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,555,1000,48.00);</v>
       </c>
@@ -13040,7 +13047,7 @@
         <v>46</v>
       </c>
       <c r="C40" s="36"/>
-      <c r="D40" s="154" t="str">
+      <c r="D40" s="121" t="str">
         <f t="shared" ref="D40:D41" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$38&amp;","&amp;A40&amp;","&amp;SUBSTITUTE(TEXT(B40,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,555,1500,46.00);</v>
       </c>
@@ -13056,7 +13063,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="36"/>
-      <c r="D41" s="154" t="str">
+      <c r="D41" s="121" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,555,2000,44.00);</v>
       </c>
@@ -13066,10 +13073,10 @@
     </row>
     <row r="42" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="130" t="s">
+      <c r="A43" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="130"/>
+      <c r="B43" s="139"/>
     </row>
     <row r="44" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34" t="s">
@@ -13080,10 +13087,10 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="132"/>
+      <c r="B45" s="134"/>
     </row>
     <row r="46" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34" t="s">
@@ -13117,7 +13124,7 @@
   <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43:P50"/>
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13134,30 +13141,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -13166,14 +13173,14 @@
       <c r="B2" s="83">
         <v>559</v>
       </c>
-      <c r="C2" s="154" t="str">
+      <c r="C2" s="121" t="str">
         <f>"delete price where catId="&amp;B2&amp;" and firma=10;"</f>
         <v>delete price where catId=559 and firma=10;</v>
       </c>
-      <c r="J2" s="155">
+      <c r="J2" s="122">
         <v>438</v>
       </c>
-      <c r="K2" s="154" t="str">
+      <c r="K2" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$J$2&amp;",'"&amp;A1&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(438,'Бумажные контрольные браслеты (Премиум)');</v>
       </c>
@@ -13185,11 +13192,11 @@
       <c r="B3" s="47">
         <v>2</v>
       </c>
-      <c r="C3" s="154" t="str">
+      <c r="C3" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A3&amp;","&amp;SUBSTITUTE(TEXT(B3,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,559,500,2.00);</v>
       </c>
-      <c r="K3" s="154" t="str">
+      <c r="K3" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$J$2&amp;",'"&amp;A22&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(438,'Виниловые контрольные браслеты');</v>
       </c>
@@ -13201,11 +13208,11 @@
       <c r="B4" s="47">
         <v>1.8</v>
       </c>
-      <c r="C4" s="154" t="str">
-        <f t="shared" ref="C4:C7" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A4&amp;","&amp;SUBSTITUTE(TEXT(B4,"0,00"),",",".")&amp;");"</f>
+      <c r="C4" s="121" t="str">
+        <f t="shared" ref="C4:C6" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A4&amp;","&amp;SUBSTITUTE(TEXT(B4,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,559,2500,1.80);</v>
       </c>
-      <c r="K4" s="154" t="str">
+      <c r="K4" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$J$2&amp;",'"&amp;A40&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(438,'Тканевые контрольные браслеты с логотипом (сублимация, вышивка)');</v>
       </c>
@@ -13217,7 +13224,7 @@
       <c r="B5" s="47">
         <v>1.6</v>
       </c>
-      <c r="C5" s="154" t="str">
+      <c r="C5" s="121" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,559,5000,1.60);</v>
       </c>
@@ -13229,7 +13236,7 @@
       <c r="B6" s="47">
         <v>1.4</v>
       </c>
-      <c r="C6" s="154" t="str">
+      <c r="C6" s="121" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,559,10000,1.40);</v>
       </c>
@@ -13241,23 +13248,23 @@
       <c r="B7" s="47">
         <v>1.2</v>
       </c>
-      <c r="C7" s="154" t="str">
+      <c r="C7" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A7&amp;","&amp;SUBSTITUTE(TEXT(B7,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,559,30000,1.20);</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="130"/>
+      <c r="B9" s="139"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="152" t="s">
         <v>284</v>
       </c>
     </row>
@@ -13265,13 +13272,13 @@
       <c r="A11" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="148"/>
+      <c r="B11" s="153"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="154" t="s">
         <v>285</v>
       </c>
     </row>
@@ -13279,7 +13286,7 @@
       <c r="A13" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="148"/>
+      <c r="B13" s="153"/>
     </row>
     <row r="14" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
@@ -13311,28 +13318,28 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="127" t="s">
+      <c r="A22" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="125"/>
+      <c r="T22" s="125"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="83" t="s">
@@ -13341,7 +13348,7 @@
       <c r="B23" s="83">
         <v>560</v>
       </c>
-      <c r="C23" s="154" t="str">
+      <c r="C23" s="121" t="str">
         <f>"delete price where catId="&amp;B23&amp;" and firma=10;"</f>
         <v>delete price where catId=560 and firma=10;</v>
       </c>
@@ -13353,7 +13360,7 @@
       <c r="B24" s="47">
         <v>5</v>
       </c>
-      <c r="C24" s="154" t="str">
+      <c r="C24" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$23&amp;","&amp;A24&amp;","&amp;SUBSTITUTE(TEXT(B24,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,560,500,5.00);</v>
       </c>
@@ -13365,7 +13372,7 @@
       <c r="B25" s="47">
         <v>4.8</v>
       </c>
-      <c r="C25" s="154" t="str">
+      <c r="C25" s="121" t="str">
         <f t="shared" ref="C25:C28" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$23&amp;","&amp;A25&amp;","&amp;SUBSTITUTE(TEXT(B25,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,560,1000,4.80);</v>
       </c>
@@ -13377,7 +13384,7 @@
       <c r="B26" s="47">
         <v>4.7</v>
       </c>
-      <c r="C26" s="154" t="str">
+      <c r="C26" s="121" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,560,2500,4.70);</v>
       </c>
@@ -13389,7 +13396,7 @@
       <c r="B27" s="47">
         <v>4.5</v>
       </c>
-      <c r="C27" s="154" t="str">
+      <c r="C27" s="121" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,560,5000,4.50);</v>
       </c>
@@ -13401,17 +13408,17 @@
       <c r="B28" s="47">
         <v>4.3</v>
       </c>
-      <c r="C28" s="154" t="str">
+      <c r="C28" s="121" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,560,10000,4.30);</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="130" t="s">
+      <c r="A30" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="130"/>
+      <c r="B30" s="139"/>
     </row>
     <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
@@ -13449,71 +13456,71 @@
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="155">
+      <c r="D39" s="122">
         <v>561</v>
       </c>
-      <c r="E39" s="154" t="str">
+      <c r="E39" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$D$39&amp;",'"&amp;D42&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(561,'Сублимация 12 мм');</v>
       </c>
-      <c r="F39" s="154" t="str">
-        <f t="shared" ref="F39:H39" si="2">"insert into Category (parentId,tip) values("&amp;$D$39&amp;",'"&amp;E42&amp;"');"</f>
+      <c r="F39" s="121" t="str">
+        <f t="shared" ref="F39:G39" si="2">"insert into Category (parentId,tip) values("&amp;$D$39&amp;",'"&amp;E42&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(561,'Сублимация 15 мм');</v>
       </c>
-      <c r="G39" s="154" t="str">
+      <c r="G39" s="121" t="str">
         <f t="shared" si="2"/>
         <v>insert into Category (parentId,tip) values(561,'Вышивка  12мм');</v>
       </c>
-      <c r="H39" s="154" t="str">
+      <c r="H39" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$D$39&amp;",'"&amp;G42&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(561,'Вышивка 15 мм');</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="127" t="s">
+      <c r="A40" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="B40" s="127"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="127"/>
-      <c r="N40" s="127"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="127"/>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="127"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="125"/>
+      <c r="N40" s="125"/>
+      <c r="O40" s="125"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="125"/>
+      <c r="R40" s="125"/>
+      <c r="S40" s="125"/>
     </row>
     <row r="41" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="127" t="s">
+      <c r="A41" s="125" t="s">
         <v>297</v>
       </c>
-      <c r="B41" s="127"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="127"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="127"/>
-      <c r="P41" s="127"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="127"/>
+      <c r="B41" s="125"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="125"/>
+      <c r="M41" s="125"/>
+      <c r="N41" s="125"/>
+      <c r="O41" s="125"/>
+      <c r="P41" s="125"/>
+      <c r="Q41" s="125"/>
+      <c r="R41" s="125"/>
+      <c r="S41" s="125"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D42" s="89" t="s">
@@ -13547,19 +13554,19 @@
       <c r="G43">
         <v>565</v>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="121" t="str">
         <f>"delete price where catId="&amp;D43&amp;" and firma=10;"</f>
         <v>delete price where catId=562 and firma=10;</v>
       </c>
-      <c r="J43" s="154" t="str">
-        <f t="shared" ref="J43:L43" si="3">"delete price where catId="&amp;E43&amp;" and firma=10;"</f>
+      <c r="J43" s="121" t="str">
+        <f t="shared" ref="J43:K43" si="3">"delete price where catId="&amp;E43&amp;" and firma=10;"</f>
         <v>delete price where catId=563 and firma=10;</v>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="121" t="str">
         <f t="shared" si="3"/>
         <v>delete price where catId=564 and firma=10;</v>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="121" t="str">
         <f>"delete price where catId="&amp;G43&amp;" and firma=10;"</f>
         <v>delete price where catId=565 and firma=10;</v>
       </c>
@@ -13580,19 +13587,19 @@
       <c r="G44" s="47">
         <v>47</v>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;D$43&amp;","&amp;$C44&amp;","&amp;SUBSTITUTE(TEXT(D44,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,562,100,37.00);</v>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="121" t="str">
         <f t="shared" ref="J44:L49" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;E$43&amp;","&amp;$C44&amp;","&amp;SUBSTITUTE(TEXT(E44,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,563,100,38.00);</v>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,564,100,46.00);</v>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,565,100,47.00);</v>
       </c>
@@ -13613,19 +13620,19 @@
       <c r="G45" s="47">
         <v>31</v>
       </c>
-      <c r="I45" s="154" t="str">
-        <f t="shared" ref="I45:I49" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;D$43&amp;","&amp;$C45&amp;","&amp;SUBSTITUTE(TEXT(D45,"0,00"),",",".")&amp;");"</f>
+      <c r="I45" s="121" t="str">
+        <f t="shared" ref="I45:I48" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;D$43&amp;","&amp;$C45&amp;","&amp;SUBSTITUTE(TEXT(D45,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,562,300,30.00);</v>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,563,300,31.00);</v>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,564,300,29.00);</v>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,565,300,31.00);</v>
       </c>
@@ -13646,19 +13653,19 @@
       <c r="G46" s="47">
         <v>28</v>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="121" t="str">
         <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,562,500,28.00);</v>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,563,500,29.00);</v>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,564,500,27.00);</v>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,565,500,28.00);</v>
       </c>
@@ -13679,19 +13686,19 @@
       <c r="G47" s="47">
         <v>25</v>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="121" t="str">
         <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,562,1000,23.00);</v>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,563,1000,25.00);</v>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,564,1000,25.00);</v>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,565,1000,25.00);</v>
       </c>
@@ -13712,19 +13719,19 @@
       <c r="G48" s="47">
         <v>23</v>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="121" t="str">
         <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,562,3000,21.00);</v>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,563,3000,22.00);</v>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,564,3000,23.00);</v>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,565,3000,23.00);</v>
       </c>
@@ -13745,29 +13752,29 @@
       <c r="G49" s="47">
         <v>22</v>
       </c>
-      <c r="I49" s="154" t="str">
+      <c r="I49" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;D$43&amp;","&amp;$C49&amp;","&amp;SUBSTITUTE(TEXT(D49,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,562,5000,20.00);</v>
       </c>
-      <c r="J49" s="154" t="str">
+      <c r="J49" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,563,5000,21.00);</v>
       </c>
-      <c r="K49" s="154" t="str">
+      <c r="K49" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,564,5000,21.00);</v>
       </c>
-      <c r="L49" s="154" t="str">
+      <c r="L49" s="121" t="str">
         <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,565,5000,22.00);</v>
       </c>
     </row>
     <row r="50" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="150" t="s">
+      <c r="C50" s="151" t="s">
         <v>211</v>
       </c>
-      <c r="D50" s="150"/>
-      <c r="E50" s="150"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="151"/>
       <c r="F50" s="101" t="s">
         <v>216</v>
       </c>
@@ -13775,12 +13782,12 @@
     </row>
     <row r="51" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
     </row>
     <row r="53" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="50"/>
@@ -13832,17 +13839,17 @@
       <c r="I59" s="36"/>
     </row>
     <row r="60" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="150"/>
-      <c r="D60" s="150"/>
-      <c r="E60" s="150"/>
+      <c r="C60" s="151"/>
+      <c r="D60" s="151"/>
+      <c r="E60" s="151"/>
       <c r="G60" s="101"/>
     </row>
     <row r="61" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="135" t="s">
+      <c r="C62" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="135"/>
+      <c r="D62" s="131"/>
     </row>
     <row r="63" spans="3:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="19" t="s">
@@ -13867,6 +13874,12 @@
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A22:T22"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="A40:S40"/>
     <mergeCell ref="A41:S41"/>
@@ -13874,12 +13887,6 @@
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="G52:I52"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A22:T22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" display="https://rubraslet.ru/bumaga.html"/>
@@ -13894,10 +13901,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z83"/>
+  <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I71" sqref="I71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B82" sqref="A77:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13905,52 +13912,62 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="5" max="8" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="125" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="83" t="s">
-        <v>11</v>
+      <c r="B2">
+        <v>566</v>
       </c>
       <c r="C2" s="83"/>
-    </row>
-    <row r="3" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="121" t="str">
+        <f>"delete price where catId="&amp;B2&amp;" and firma=10;"</f>
+        <v>delete price where catId=566 and firma=10;</v>
+      </c>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+    </row>
+    <row r="3" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47">
         <v>104</v>
       </c>
@@ -13958,11 +13975,18 @@
         <v>224</v>
       </c>
       <c r="C3" s="47"/>
-      <c r="F3" s="28" t="s">
+      <c r="E3" s="121" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;B$2&amp;","&amp;$A3&amp;","&amp;SUBSTITUTE(TEXT(B3,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,566,104, 20);</v>
+      </c>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="28" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47">
         <v>304</v>
       </c>
@@ -13970,11 +13994,15 @@
         <v>225</v>
       </c>
       <c r="C4" s="47"/>
-      <c r="F4" s="88" t="s">
+      <c r="E4" s="121" t="str">
+        <f t="shared" ref="E4:E7" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;B$2&amp;","&amp;$A4&amp;","&amp;SUBSTITUTE(TEXT(B4,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,566,304, 18);</v>
+      </c>
+      <c r="I4" s="88" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="47">
         <v>504</v>
       </c>
@@ -13982,11 +14010,15 @@
         <v>226</v>
       </c>
       <c r="C5" s="47"/>
-      <c r="F5" s="88" t="s">
+      <c r="E5" s="121" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,566,504, 16);</v>
+      </c>
+      <c r="I5" s="88" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47">
         <v>1000</v>
       </c>
@@ -13994,11 +14026,22 @@
         <v>227</v>
       </c>
       <c r="C6" s="47"/>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="121" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,566,1000, 14);</v>
+      </c>
+      <c r="I6" s="29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T6" s="122">
+        <v>439</v>
+      </c>
+      <c r="U6" s="121" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$T$6&amp;",'"&amp;A1&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(439,'Светоотражающие наклейки «Круглые» под нанесение логотипа');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47">
         <v>3000</v>
       </c>
@@ -14006,22 +14049,40 @@
         <v>228</v>
       </c>
       <c r="C7" s="47"/>
-    </row>
-    <row r="8" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="151" t="s">
+      <c r="E7" s="121" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,566,3000, 12);</v>
+      </c>
+      <c r="U7" s="121" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$T$6&amp;",'"&amp;A16&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(439,'Светоотражающие slap браслеты под нанесение логотипа');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="155" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="130" t="s">
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="U8" s="121" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$T$6&amp;",'"&amp;A35&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(439,'Светоотражающие брелки под нанесение логотипа');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="121" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$T$6&amp;",'"&amp;A67&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(439,'Светоотражающие значки под нанесение логотипа');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="130"/>
-    </row>
-    <row r="11" spans="1:26" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="139"/>
+      <c r="U10" s="121"/>
+    </row>
+    <row r="11" spans="1:29" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>180</v>
       </c>
@@ -14029,7 +14090,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>4</v>
       </c>
@@ -14037,7 +14098,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>181</v>
       </c>
@@ -14045,45 +14106,52 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="127" t="s">
+    <row r="14" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="125" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="46" t="s">
-        <v>11</v>
+      <c r="B18">
+        <v>567</v>
       </c>
       <c r="C18" s="46"/>
-      <c r="F18" s="28" t="s">
+      <c r="E18" s="121" t="str">
+        <f>"delete price where catId="&amp;B18&amp;" and firma=10;"</f>
+        <v>delete price where catId=567 and firma=10;</v>
+      </c>
+      <c r="I18" s="28" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34">
         <v>50</v>
       </c>
@@ -14091,11 +14159,15 @@
         <v>176</v>
       </c>
       <c r="C19" s="36"/>
-      <c r="F19" s="27" t="s">
+      <c r="E19" s="121" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;B$18&amp;","&amp;$A19&amp;","&amp;SUBSTITUTE(TEXT(B19,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,567,50, 34);</v>
+      </c>
+      <c r="I19" s="27" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="34">
         <v>100</v>
       </c>
@@ -14103,11 +14175,15 @@
         <v>177</v>
       </c>
       <c r="C20" s="36"/>
-      <c r="F20" s="29" t="s">
+      <c r="E20" s="121" t="str">
+        <f t="shared" ref="E20:E24" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;B$18&amp;","&amp;$A20&amp;","&amp;SUBSTITUTE(TEXT(B20,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,567,100, 32);</v>
+      </c>
+      <c r="I20" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34">
         <v>300</v>
       </c>
@@ -14115,8 +14191,12 @@
         <v>178</v>
       </c>
       <c r="C21" s="36"/>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,567,300, 30);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="34">
         <v>500</v>
       </c>
@@ -14124,8 +14204,12 @@
         <v>179</v>
       </c>
       <c r="C22" s="36"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,567,500, 28);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34">
         <v>1000</v>
       </c>
@@ -14133,8 +14217,12 @@
         <v>117</v>
       </c>
       <c r="C23" s="36"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,567,1000, 26);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34">
         <v>3000</v>
       </c>
@@ -14142,15 +14230,19 @@
         <v>119</v>
       </c>
       <c r="C24" s="36"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="130" t="s">
+      <c r="E24" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,567,3000, 24);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="130"/>
-    </row>
-    <row r="28" spans="1:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="139"/>
+    </row>
+    <row r="28" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>180</v>
       </c>
@@ -14158,7 +14250,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>4</v>
       </c>
@@ -14166,7 +14258,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>181</v>
       </c>
@@ -14174,13 +14266,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="132" t="s">
+    <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="132"/>
-    </row>
-    <row r="32" spans="1:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="134"/>
+    </row>
+    <row r="32" spans="1:9" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>6</v>
       </c>
@@ -14188,37 +14280,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:25" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="127" t="s">
+    <row r="33" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>568</v>
+      </c>
+      <c r="B34" s="121" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$A$34&amp;",'"&amp;B36&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(568,'Круглые');</v>
+      </c>
+      <c r="C34" s="121" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$A$34&amp;",'"&amp;C36&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(568,'Треугольные');</v>
+      </c>
+      <c r="D34" s="121" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$A$34&amp;",'"&amp;D36&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(568,'Прямоугольные');</v>
+      </c>
+      <c r="F34" s="121"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="121"/>
+    </row>
+    <row r="35" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="127"/>
-      <c r="P35" s="127"/>
-      <c r="Q35" s="127"/>
-      <c r="R35" s="127"/>
-      <c r="S35" s="127"/>
-      <c r="T35" s="127"/>
-      <c r="U35" s="127"/>
-      <c r="V35" s="127"/>
-      <c r="W35" s="127"/>
-      <c r="X35" s="127"/>
-      <c r="Y35" s="127"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
+      <c r="N35" s="125"/>
+      <c r="O35" s="125"/>
+      <c r="P35" s="125"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="125"/>
+      <c r="S35" s="125"/>
+      <c r="T35" s="125"/>
+      <c r="U35" s="125"/>
+      <c r="V35" s="125"/>
+      <c r="W35" s="125"/>
+      <c r="X35" s="125"/>
+      <c r="Y35" s="125"/>
+      <c r="Z35" s="125"/>
+      <c r="AA35" s="125"/>
+      <c r="AB35" s="125"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" s="102" t="s">
         <v>169</v>
       </c>
@@ -14228,34 +14343,49 @@
       <c r="D36" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="119"/>
-      <c r="K36" s="119"/>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="L36" s="136"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="136"/>
+    </row>
+    <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="I37" s="50"/>
+      <c r="B37" s="83">
+        <v>570</v>
+      </c>
+      <c r="C37" s="83">
+        <v>571</v>
+      </c>
+      <c r="D37" s="83">
+        <v>572</v>
+      </c>
+      <c r="E37" s="121" t="str">
+        <f>"delete price where catId="&amp;B37&amp;" and firma=10;"</f>
+        <v>delete price where catId=570 and firma=10;</v>
+      </c>
+      <c r="F37" s="121" t="str">
+        <f t="shared" ref="F37:G37" si="2">"delete price where catId="&amp;C37&amp;" and firma=10;"</f>
+        <v>delete price where catId=571 and firma=10;</v>
+      </c>
+      <c r="G37" s="121" t="str">
+        <f t="shared" si="2"/>
+        <v>delete price where catId=572 and firma=10;</v>
+      </c>
+      <c r="H37" s="119"/>
+      <c r="I37" s="46"/>
       <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-    </row>
-    <row r="38" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="50"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+    </row>
+    <row r="38" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47">
         <v>50</v>
       </c>
@@ -14268,14 +14398,26 @@
       <c r="D38" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="36"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="36"/>
-    </row>
-    <row r="39" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="121" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;B$37&amp;","&amp;$A38&amp;","&amp;SUBSTITUTE(TEXT(B38,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,570,50, 26);</v>
+      </c>
+      <c r="F38" s="121" t="str">
+        <f t="shared" ref="F38:G43" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;C$37&amp;","&amp;$A38&amp;","&amp;SUBSTITUTE(TEXT(C38,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,571,50, 26);</v>
+      </c>
+      <c r="G38" s="121" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,572,50, 26);</v>
+      </c>
+      <c r="H38" s="34"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="36"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="36"/>
+    </row>
+    <row r="39" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47">
         <v>100</v>
       </c>
@@ -14288,14 +14430,26 @@
       <c r="D39" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="36"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="36"/>
-    </row>
-    <row r="40" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="121" t="str">
+        <f t="shared" ref="E39:E43" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;B$37&amp;","&amp;$A39&amp;","&amp;SUBSTITUTE(TEXT(B39,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,570,100, 24);</v>
+      </c>
+      <c r="F39" s="121" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,571,100, 24);</v>
+      </c>
+      <c r="G39" s="121" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,572,100, 24);</v>
+      </c>
+      <c r="H39" s="34"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="36"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="36"/>
+    </row>
+    <row r="40" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47">
         <v>300</v>
       </c>
@@ -14308,14 +14462,26 @@
       <c r="D40" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="36"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="36"/>
-    </row>
-    <row r="41" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,570,300, 22);</v>
+      </c>
+      <c r="F40" s="121" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,571,300, 22);</v>
+      </c>
+      <c r="G40" s="121" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,572,300, 22);</v>
+      </c>
+      <c r="H40" s="34"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="36"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="87"/>
+      <c r="N40" s="36"/>
+    </row>
+    <row r="41" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47">
         <v>500</v>
       </c>
@@ -14328,14 +14494,26 @@
       <c r="D41" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="36"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="36"/>
-    </row>
-    <row r="42" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,570,500, 20);</v>
+      </c>
+      <c r="F41" s="121" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,571,500, 20);</v>
+      </c>
+      <c r="G41" s="121" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,572,500, 20);</v>
+      </c>
+      <c r="H41" s="34"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="36"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="36"/>
+    </row>
+    <row r="42" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47">
         <v>1000</v>
       </c>
@@ -14348,14 +14526,26 @@
       <c r="D42" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="36"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="36"/>
-    </row>
-    <row r="43" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,570,1000, 18);</v>
+      </c>
+      <c r="F42" s="121" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,571,1000, 18);</v>
+      </c>
+      <c r="G42" s="121" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,572,1000, 18);</v>
+      </c>
+      <c r="H42" s="34"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="36"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="36"/>
+    </row>
+    <row r="43" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47">
         <v>3000</v>
       </c>
@@ -14368,26 +14558,38 @@
       <c r="D43" s="84" t="s">
         <v>226</v>
       </c>
-      <c r="E43" s="34"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="36"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="36"/>
-    </row>
-    <row r="44" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="151" t="s">
+      <c r="E43" s="121" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,570,3000, 16);</v>
+      </c>
+      <c r="F43" s="121" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,571,3000, 16);</v>
+      </c>
+      <c r="G43" s="121" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,572,3000, 16);</v>
+      </c>
+      <c r="H43" s="34"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="36"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="36"/>
+    </row>
+    <row r="44" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="155" t="s">
         <v>223</v>
       </c>
-      <c r="B44" s="151"/>
-      <c r="C44" s="151"/>
-    </row>
-    <row r="45" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+    </row>
+    <row r="45" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="135" t="s">
+      <c r="A59" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="135"/>
+      <c r="B59" s="131"/>
     </row>
     <row r="60" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
@@ -14423,10 +14625,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="141" t="s">
+      <c r="A63" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="141"/>
+      <c r="B63" s="132"/>
     </row>
     <row r="64" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
@@ -14436,31 +14638,47 @@
         <v>271</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="127" t="s">
+    <row r="65" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>569</v>
+      </c>
+      <c r="C66" s="121" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$B$66&amp;",'"&amp;B68&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(569,'50мм');</v>
+      </c>
+      <c r="D66" s="121" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$B$66&amp;",'"&amp;C68&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(569,'30мм');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="125" t="s">
         <v>241</v>
       </c>
-      <c r="B67" s="127"/>
-      <c r="C67" s="127"/>
-      <c r="D67" s="127"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="127"/>
-      <c r="H67" s="127"/>
-      <c r="I67" s="127"/>
-      <c r="J67" s="127"/>
-      <c r="K67" s="127"/>
-      <c r="L67" s="127"/>
-      <c r="M67" s="127"/>
-      <c r="N67" s="127"/>
-      <c r="O67" s="127"/>
-      <c r="P67" s="127"/>
-      <c r="Q67" s="127"/>
-      <c r="R67" s="127"/>
-      <c r="S67" s="127"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B67" s="125"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="125"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="125"/>
+      <c r="K67" s="125"/>
+      <c r="L67" s="125"/>
+      <c r="M67" s="125"/>
+      <c r="N67" s="125"/>
+      <c r="O67" s="125"/>
+      <c r="P67" s="125"/>
+      <c r="Q67" s="125"/>
+      <c r="R67" s="125"/>
+      <c r="S67" s="125"/>
+      <c r="T67" s="125"/>
+      <c r="U67" s="125"/>
+      <c r="V67" s="125"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="102" t="s">
         <v>242</v>
       </c>
@@ -14470,24 +14688,36 @@
       <c r="C68" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="E68" s="119"/>
-      <c r="F68" s="119"/>
-      <c r="G68" s="119"/>
-    </row>
-    <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="136"/>
+      <c r="F68" s="136"/>
+      <c r="G68" s="136"/>
+      <c r="H68" s="136"/>
+      <c r="I68" s="136"/>
+      <c r="J68" s="136"/>
+    </row>
+    <row r="69" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="50"/>
-      <c r="G69" s="46"/>
-    </row>
-    <row r="70" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="46">
+        <v>573</v>
+      </c>
+      <c r="C69" s="46">
+        <v>574</v>
+      </c>
+      <c r="E69" s="121" t="str">
+        <f>"delete price where catId="&amp;B69&amp;" and firma=10;"</f>
+        <v>delete price where catId=573 and firma=10;</v>
+      </c>
+      <c r="F69" s="121" t="str">
+        <f>"delete price where catId="&amp;C69&amp;" and firma=10;"</f>
+        <v>delete price where catId=574 and firma=10;</v>
+      </c>
+      <c r="G69" s="157"/>
+      <c r="H69" s="157"/>
+      <c r="J69" s="46"/>
+    </row>
+    <row r="70" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="34">
         <v>50</v>
       </c>
@@ -14497,10 +14727,19 @@
       <c r="C70" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="E70" s="34"/>
-      <c r="G70" s="36"/>
-    </row>
-    <row r="71" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="121" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;B$69&amp;","&amp;$A70&amp;","&amp;SUBSTITUTE(TEXT(B70,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,573,50, 40);</v>
+      </c>
+      <c r="F70" s="121" t="str">
+        <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;C$69&amp;","&amp;$A70&amp;","&amp;SUBSTITUTE(TEXT(C70,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,574,50, 40);</v>
+      </c>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
+      <c r="J70" s="36"/>
+    </row>
+    <row r="71" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="34">
         <v>100</v>
       </c>
@@ -14510,10 +14749,19 @@
       <c r="C71" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="E71" s="34"/>
-      <c r="G71" s="36"/>
-    </row>
-    <row r="72" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="121" t="str">
+        <f t="shared" ref="E71:F75" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;B$69&amp;","&amp;$A71&amp;","&amp;SUBSTITUTE(TEXT(B71,"0,00"),",",".")&amp;");"</f>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,573,100, 38);</v>
+      </c>
+      <c r="F71" s="121" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,574,100, 38);</v>
+      </c>
+      <c r="G71" s="108"/>
+      <c r="H71" s="108"/>
+      <c r="J71" s="36"/>
+    </row>
+    <row r="72" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="34">
         <v>300</v>
       </c>
@@ -14523,10 +14771,19 @@
       <c r="C72" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="E72" s="34"/>
-      <c r="G72" s="36"/>
-    </row>
-    <row r="73" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="121" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,573,300, 36);</v>
+      </c>
+      <c r="F72" s="121" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,574,300, 36);</v>
+      </c>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
+      <c r="J72" s="36"/>
+    </row>
+    <row r="73" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="34">
         <v>500</v>
       </c>
@@ -14536,10 +14793,19 @@
       <c r="C73" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="E73" s="34"/>
-      <c r="G73" s="36"/>
-    </row>
-    <row r="74" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="121" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,573,500, 35);</v>
+      </c>
+      <c r="F73" s="121" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,574,500, 35);</v>
+      </c>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
+      <c r="J73" s="36"/>
+    </row>
+    <row r="74" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="34">
         <v>1000</v>
       </c>
@@ -14549,10 +14815,19 @@
       <c r="C74" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="E74" s="34"/>
-      <c r="G74" s="36"/>
-    </row>
-    <row r="75" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="121" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,573,1000, 34);</v>
+      </c>
+      <c r="F74" s="121" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,574,1000, 34);</v>
+      </c>
+      <c r="G74" s="108"/>
+      <c r="H74" s="108"/>
+      <c r="J74" s="36"/>
+    </row>
+    <row r="75" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="34">
         <v>3000</v>
       </c>
@@ -14562,86 +14837,106 @@
       <c r="C75" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="E75" s="34"/>
-      <c r="G75" s="36"/>
-    </row>
-    <row r="76" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="135" t="s">
+      <c r="E75" s="121" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,573,3000, 32);</v>
+      </c>
+      <c r="F75" s="121" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,574,3000, 32);</v>
+      </c>
+      <c r="G75" s="108"/>
+      <c r="H75" s="108"/>
+      <c r="J75" s="36"/>
+    </row>
+    <row r="76" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="F77" s="135"/>
-    </row>
-    <row r="78" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="19" t="s">
+      <c r="B77" s="158"/>
+      <c r="C77" s="158"/>
+      <c r="D77" s="158"/>
+      <c r="E77" s="158"/>
+    </row>
+    <row r="78" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F78" s="41">
+      <c r="B78" s="41">
         <v>5</v>
       </c>
-      <c r="H78" s="28" t="s">
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="K78" s="28" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="19" t="s">
+    <row r="79" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F79" s="41" t="s">
+      <c r="B79" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="H79" s="29" t="s">
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="K79" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="19" t="s">
+    <row r="80" spans="1:22" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="F80" s="41">
+      <c r="B80" s="41">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="5:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="141" t="s">
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="159" t="s">
         <v>48</v>
       </c>
-      <c r="F81" s="141"/>
-    </row>
-    <row r="82" spans="5:6" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="19" t="s">
+      <c r="B81" s="159"/>
+      <c r="C81" s="159"/>
+      <c r="D81" s="159"/>
+    </row>
+    <row r="82" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="F82" s="41">
+      <c r="B82" s="41">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="5:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E81:F81"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:X16"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A35:AB35"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A67:S67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A35:Y35"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="A1:Z1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:U16"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A67:V67"/>
+    <mergeCell ref="E68:J68"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="https://rubraslet.ru/reflectors/2-site/79-fasovka-svetootrazhayushchikh-nakleek.html?ml=1"/>
-    <hyperlink ref="F5" r:id="rId2" display="https://rubraslet.ru/administrator/index.php?option=com_content&amp;view=article&amp;layout=edit&amp;id=79&amp;ml=1"/>
+    <hyperlink ref="I4" r:id="rId1" display="https://rubraslet.ru/reflectors/2-site/79-fasovka-svetootrazhayushchikh-nakleek.html?ml=1"/>
+    <hyperlink ref="I5" r:id="rId2" display="https://rubraslet.ru/administrator/index.php?option=com_content&amp;view=article&amp;layout=edit&amp;id=79&amp;ml=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -14649,8 +14944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D22" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14661,33 +14956,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="125" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
@@ -14697,14 +14992,14 @@
         <v>556</v>
       </c>
       <c r="C2" s="46"/>
-      <c r="D2" s="154" t="str">
+      <c r="D2" s="121" t="str">
         <f>"delete price where catId="&amp;B2&amp;" and firma=10;"</f>
         <v>delete price where catId=556 and firma=10;</v>
       </c>
-      <c r="S2" s="155">
+      <c r="S2" s="122">
         <v>422</v>
       </c>
-      <c r="T2" s="154" t="str">
+      <c r="T2" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$S$2&amp;",'"&amp;A1&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(422,'Силиконовые слэп-часы под нанесение логотипа');</v>
       </c>
@@ -14717,11 +15012,11 @@
         <v>320</v>
       </c>
       <c r="C3" s="36"/>
-      <c r="D3" s="154" t="str">
+      <c r="D3" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A3&amp;","&amp;SUBSTITUTE(TEXT(B3,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,556,10,320.00);</v>
       </c>
-      <c r="T3" s="154" t="str">
+      <c r="T3" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$S$2&amp;",'"&amp;A18&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(422,'Силиконовые слэп-часы (комбинированные) под нанесение логотипа');</v>
       </c>
@@ -14734,14 +15029,14 @@
         <v>270</v>
       </c>
       <c r="C4" s="36"/>
-      <c r="D4" s="154" t="str">
-        <f t="shared" ref="D4:D7" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A4&amp;","&amp;SUBSTITUTE(TEXT(B4,"0,00"),",",".")&amp;");"</f>
+      <c r="D4" s="121" t="str">
+        <f t="shared" ref="D4:D6" si="0">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A4&amp;","&amp;SUBSTITUTE(TEXT(B4,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,556,50,270.00);</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="T4" s="154" t="str">
+      <c r="T4" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$S$2&amp;",'"&amp;A39&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(422,'Силиконовые слэп часы-флешки под нанесение логотипа');</v>
       </c>
@@ -14754,14 +15049,14 @@
         <v>260</v>
       </c>
       <c r="C5" s="36"/>
-      <c r="D5" s="154" t="str">
+      <c r="D5" s="121" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,556,100,260.00);</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="T5" s="154"/>
+      <c r="T5" s="121"/>
     </row>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34">
@@ -14771,14 +15066,14 @@
         <v>250</v>
       </c>
       <c r="C6" s="36"/>
-      <c r="D6" s="154" t="str">
+      <c r="D6" s="121" t="str">
         <f t="shared" si="0"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,556,300,250.00);</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="T6" s="154"/>
+      <c r="T6" s="121"/>
     </row>
     <row r="7" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34">
@@ -14788,7 +15083,7 @@
         <v>240</v>
       </c>
       <c r="C7" s="36"/>
-      <c r="D7" s="154" t="str">
+      <c r="D7" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$2&amp;","&amp;A7&amp;","&amp;SUBSTITUTE(TEXT(B7,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,556,500,240.00);</v>
       </c>
@@ -14797,11 +15092,11 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="156" t="s">
         <v>247</v>
       </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
       <c r="F8" s="29" t="s">
         <v>255</v>
       </c>
@@ -14812,10 +15107,10 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="130"/>
+      <c r="B10" s="139"/>
       <c r="F10" s="29" t="s">
         <v>53</v>
       </c>
@@ -14845,10 +15140,10 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="132"/>
+      <c r="B14" s="134"/>
     </row>
     <row r="15" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
@@ -14860,32 +15155,32 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="125" t="s">
         <v>257</v>
       </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
@@ -14895,7 +15190,7 @@
         <v>557</v>
       </c>
       <c r="C20" s="46"/>
-      <c r="D20" s="154" t="str">
+      <c r="D20" s="121" t="str">
         <f>"delete price where catId="&amp;B20&amp;" and firma=10;"</f>
         <v>delete price where catId=557 and firma=10;</v>
       </c>
@@ -14908,7 +15203,7 @@
         <v>320</v>
       </c>
       <c r="C21" s="36"/>
-      <c r="D21" s="154" t="str">
+      <c r="D21" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$20&amp;","&amp;A21&amp;","&amp;SUBSTITUTE(TEXT(B21,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,557,10,320.00);</v>
       </c>
@@ -14924,8 +15219,8 @@
         <v>270</v>
       </c>
       <c r="C22" s="36"/>
-      <c r="D22" s="154" t="str">
-        <f t="shared" ref="D22:D25" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$20&amp;","&amp;A22&amp;","&amp;SUBSTITUTE(TEXT(B22,"0,00"),",",".")&amp;");"</f>
+      <c r="D22" s="121" t="str">
+        <f t="shared" ref="D22:D24" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$20&amp;","&amp;A22&amp;","&amp;SUBSTITUTE(TEXT(B22,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,557,50,270.00);</v>
       </c>
       <c r="F22" s="27" t="s">
@@ -14940,7 +15235,7 @@
         <v>260</v>
       </c>
       <c r="C23" s="36"/>
-      <c r="D23" s="154" t="str">
+      <c r="D23" s="121" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,557,100,260.00);</v>
       </c>
@@ -14956,7 +15251,7 @@
         <v>250</v>
       </c>
       <c r="C24" s="36"/>
-      <c r="D24" s="154" t="str">
+      <c r="D24" s="121" t="str">
         <f t="shared" si="1"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,557,300,250.00);</v>
       </c>
@@ -14972,7 +15267,7 @@
         <v>240</v>
       </c>
       <c r="C25" s="36"/>
-      <c r="D25" s="154" t="str">
+      <c r="D25" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$20&amp;","&amp;A25&amp;","&amp;SUBSTITUTE(TEXT(B25,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,557,500,240.00);</v>
       </c>
@@ -14981,28 +15276,28 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="141" t="s">
         <v>258</v>
       </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
       <c r="F26" s="29" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="152" t="s">
+      <c r="A27" s="156" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="130"/>
+      <c r="B29" s="139"/>
     </row>
     <row r="30" spans="1:24" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
@@ -15029,10 +15324,10 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="132"/>
+      <c r="B33" s="134"/>
     </row>
     <row r="34" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
@@ -15044,30 +15339,30 @@
     </row>
     <row r="35" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="127" t="s">
+      <c r="A39" s="125" t="s">
         <v>261</v>
       </c>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="127"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="127"/>
-      <c r="N39" s="127"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="127"/>
-      <c r="Q39" s="127"/>
-      <c r="R39" s="127"/>
-      <c r="S39" s="127"/>
-      <c r="T39" s="127"/>
-      <c r="U39" s="127"/>
-      <c r="V39" s="127"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="125"/>
+      <c r="K39" s="125"/>
+      <c r="L39" s="125"/>
+      <c r="M39" s="125"/>
+      <c r="N39" s="125"/>
+      <c r="O39" s="125"/>
+      <c r="P39" s="125"/>
+      <c r="Q39" s="125"/>
+      <c r="R39" s="125"/>
+      <c r="S39" s="125"/>
+      <c r="T39" s="125"/>
+      <c r="U39" s="125"/>
+      <c r="V39" s="125"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
@@ -15077,7 +15372,7 @@
         <v>558</v>
       </c>
       <c r="C40" s="46"/>
-      <c r="D40" s="154" t="str">
+      <c r="D40" s="121" t="str">
         <f>"delete price where catId="&amp;B40&amp;" and firma=10;"</f>
         <v>delete price where catId=558 and firma=10;</v>
       </c>
@@ -15090,7 +15385,7 @@
         <v>500</v>
       </c>
       <c r="C41" s="36"/>
-      <c r="D41" s="154" t="str">
+      <c r="D41" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$40&amp;","&amp;A41&amp;","&amp;SUBSTITUTE(TEXT(B41,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,558,10,500.00);</v>
       </c>
@@ -15103,8 +15398,8 @@
         <v>495</v>
       </c>
       <c r="C42" s="36"/>
-      <c r="D42" s="154" t="str">
-        <f t="shared" ref="D42:D45" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$40&amp;","&amp;A42&amp;","&amp;SUBSTITUTE(TEXT(B42,"0,00"),",",".")&amp;");"</f>
+      <c r="D42" s="121" t="str">
+        <f t="shared" ref="D42:D44" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$40&amp;","&amp;A42&amp;","&amp;SUBSTITUTE(TEXT(B42,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,558,50,495.00);</v>
       </c>
     </row>
@@ -15116,7 +15411,7 @@
         <v>490</v>
       </c>
       <c r="C43" s="36"/>
-      <c r="D43" s="154" t="str">
+      <c r="D43" s="121" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,558,100,490.00);</v>
       </c>
@@ -15129,7 +15424,7 @@
         <v>480</v>
       </c>
       <c r="C44" s="36"/>
-      <c r="D44" s="154" t="str">
+      <c r="D44" s="121" t="str">
         <f t="shared" si="2"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,558,300,480.00);</v>
       </c>
@@ -15142,31 +15437,31 @@
         <v>470</v>
       </c>
       <c r="C45" s="36"/>
-      <c r="D45" s="154" t="str">
+      <c r="D45" s="121" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$40&amp;","&amp;A45&amp;","&amp;SUBSTITUTE(TEXT(B45,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,558,500,470.00);</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="128" t="s">
+      <c r="A46" s="141" t="s">
         <v>262</v>
       </c>
-      <c r="B46" s="128"/>
-      <c r="C46" s="128"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="141"/>
     </row>
     <row r="47" spans="1:22" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="152" t="s">
+      <c r="A47" s="156" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="152"/>
-      <c r="C47" s="152"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="156"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="130" t="s">
+      <c r="A49" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="130"/>
+      <c r="B49" s="139"/>
     </row>
     <row r="50" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
@@ -15202,10 +15497,10 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="132" t="s">
+      <c r="A53" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="132"/>
+      <c r="B53" s="134"/>
       <c r="E53" s="29" t="s">
         <v>266</v>
       </c>
@@ -15235,6 +15530,12 @@
     <row r="56" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:X18"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A27:C27"/>
@@ -15243,12 +15544,6 @@
     <mergeCell ref="A39:V39"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:X18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://rubraslet.ru/slap-watches.html?id=92&amp;ml=1"/>

--- a/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
+++ b/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KvotaSite\калькулятор 5 - блокноты, деколь\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" firstSheet="1" activeTab="4"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <sheet name="светоотражатели" sheetId="7" r:id="rId5"/>
     <sheet name="слэп-часы" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3541,7 +3546,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4413,13 +4418,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4428,16 +4469,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4446,47 +4499,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4495,9 +4509,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4509,20 +4520,14 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7457,7 +7462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7574,8 +7579,8 @@
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="123"/>
-      <c r="B16" s="123"/>
+      <c r="A16" s="150"/>
+      <c r="B16" s="150"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -7591,25 +7596,25 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="125"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="140" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
       <c r="F22" s="29" t="s">
         <v>268</v>
       </c>
@@ -7618,28 +7623,28 @@
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="126"/>
-      <c r="O22" s="126"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
       <c r="V22" s="102"/>
     </row>
     <row r="23" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126" t="s">
+      <c r="C23" s="138"/>
+      <c r="D23" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126" t="s">
+      <c r="E23" s="138"/>
+      <c r="F23" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126" t="s">
+      <c r="G23" s="138"/>
+      <c r="H23" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="126"/>
+      <c r="I23" s="138"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="M23" s="23"/>
@@ -7650,22 +7655,22 @@
       <c r="A24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="127" t="s">
+      <c r="B24" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127" t="s">
+      <c r="C24" s="139"/>
+      <c r="D24" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127" t="s">
+      <c r="E24" s="139"/>
+      <c r="F24" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127" t="s">
+      <c r="G24" s="139"/>
+      <c r="H24" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="127"/>
+      <c r="I24" s="139"/>
       <c r="J24" s="22"/>
       <c r="K24" s="21"/>
       <c r="M24" s="21"/>
@@ -7676,22 +7681,22 @@
       <c r="A25" s="21">
         <v>100</v>
       </c>
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129" t="s">
+      <c r="C25" s="137"/>
+      <c r="D25" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129" t="s">
+      <c r="E25" s="137"/>
+      <c r="F25" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129" t="s">
+      <c r="G25" s="137"/>
+      <c r="H25" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="129"/>
+      <c r="I25" s="137"/>
       <c r="J25" s="22"/>
       <c r="K25" s="21"/>
       <c r="M25" s="21"/>
@@ -7834,10 +7839,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="128"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
       <c r="H31" s="128" t="s">
         <v>14</v>
       </c>
@@ -7851,18 +7856,18 @@
         <v>12</v>
       </c>
       <c r="C32" s="128"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
@@ -7932,21 +7937,21 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="125" t="s">
+      <c r="A46" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="125"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="125"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="130"/>
     </row>
     <row r="47" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
@@ -7958,13 +7963,13 @@
       <c r="D47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="126"/>
-      <c r="K47" s="126"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="138"/>
+      <c r="K47" s="138"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
@@ -8133,10 +8138,10 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="131" t="s">
+      <c r="A59" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="131"/>
+      <c r="B59" s="135"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
@@ -8147,10 +8152,10 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="132" t="s">
+      <c r="A61" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="132"/>
+      <c r="B61" s="148"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -8218,8 +8223,8 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="124"/>
-      <c r="B70" s="124"/>
+      <c r="A70" s="142"/>
+      <c r="B70" s="142"/>
     </row>
     <row r="71" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
@@ -8230,25 +8235,25 @@
       <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:17" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="125" t="s">
+      <c r="A73" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="125"/>
-      <c r="C73" s="125"/>
-      <c r="D73" s="125"/>
-      <c r="E73" s="125"/>
-      <c r="F73" s="125"/>
-      <c r="G73" s="125"/>
-      <c r="H73" s="125"/>
-      <c r="I73" s="125"/>
-      <c r="J73" s="125"/>
-      <c r="K73" s="125"/>
-      <c r="L73" s="125"/>
-      <c r="M73" s="125"/>
-      <c r="N73" s="125"/>
-      <c r="O73" s="125"/>
-      <c r="P73" s="125"/>
-      <c r="Q73" s="125"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="130"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="130"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="130"/>
+      <c r="J73" s="130"/>
+      <c r="K73" s="130"/>
+      <c r="L73" s="130"/>
+      <c r="M73" s="130"/>
+      <c r="N73" s="130"/>
+      <c r="O73" s="130"/>
+      <c r="P73" s="130"/>
+      <c r="Q73" s="130"/>
     </row>
     <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
@@ -8267,10 +8272,10 @@
       <c r="G75" s="46"/>
     </row>
     <row r="76" spans="1:17" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="133" t="s">
+      <c r="A76" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="133"/>
+      <c r="B76" s="149"/>
       <c r="C76" s="36"/>
       <c r="E76" s="47">
         <v>100</v>
@@ -8297,10 +8302,10 @@
       <c r="G77" s="47"/>
     </row>
     <row r="78" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="134" t="s">
+      <c r="A78" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="134"/>
+      <c r="B78" s="132"/>
       <c r="C78" s="36"/>
       <c r="E78" s="47">
         <v>500</v>
@@ -8411,33 +8416,33 @@
       <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="125" t="s">
+      <c r="A92" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="125"/>
-      <c r="C92" s="125"/>
-      <c r="D92" s="125"/>
-      <c r="E92" s="125"/>
-      <c r="F92" s="125"/>
-      <c r="G92" s="125"/>
-      <c r="H92" s="125"/>
-      <c r="I92" s="125"/>
-      <c r="J92" s="125"/>
-      <c r="K92" s="125"/>
-      <c r="L92" s="125"/>
-      <c r="M92" s="125"/>
-      <c r="N92" s="125"/>
-      <c r="O92" s="125"/>
-      <c r="P92" s="125"/>
-      <c r="Q92" s="125"/>
-      <c r="R92" s="125"/>
-      <c r="S92" s="125"/>
+      <c r="B92" s="130"/>
+      <c r="C92" s="130"/>
+      <c r="D92" s="130"/>
+      <c r="E92" s="130"/>
+      <c r="F92" s="130"/>
+      <c r="G92" s="130"/>
+      <c r="H92" s="130"/>
+      <c r="I92" s="130"/>
+      <c r="J92" s="130"/>
+      <c r="K92" s="130"/>
+      <c r="L92" s="130"/>
+      <c r="M92" s="130"/>
+      <c r="N92" s="130"/>
+      <c r="O92" s="130"/>
+      <c r="P92" s="130"/>
+      <c r="Q92" s="130"/>
+      <c r="R92" s="130"/>
+      <c r="S92" s="130"/>
     </row>
     <row r="93" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="130" t="s">
+      <c r="A93" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="B93" s="130"/>
+      <c r="B93" s="147"/>
       <c r="E93" s="45" t="s">
         <v>0</v>
       </c>
@@ -8462,10 +8467,10 @@
       <c r="G94" s="36"/>
     </row>
     <row r="95" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="134" t="s">
+      <c r="A95" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="134"/>
+      <c r="B95" s="132"/>
       <c r="E95" s="34">
         <v>300</v>
       </c>
@@ -8562,25 +8567,25 @@
       <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:17" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="125" t="s">
+      <c r="A108" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="B108" s="125"/>
-      <c r="C108" s="125"/>
-      <c r="D108" s="125"/>
-      <c r="E108" s="125"/>
-      <c r="F108" s="125"/>
-      <c r="G108" s="125"/>
-      <c r="H108" s="125"/>
-      <c r="I108" s="125"/>
-      <c r="J108" s="125"/>
-      <c r="K108" s="125"/>
-      <c r="L108" s="125"/>
-      <c r="M108" s="125"/>
-      <c r="N108" s="125"/>
-      <c r="O108" s="125"/>
-      <c r="P108" s="125"/>
-      <c r="Q108" s="125"/>
+      <c r="B108" s="130"/>
+      <c r="C108" s="130"/>
+      <c r="D108" s="130"/>
+      <c r="E108" s="130"/>
+      <c r="F108" s="130"/>
+      <c r="G108" s="130"/>
+      <c r="H108" s="130"/>
+      <c r="I108" s="130"/>
+      <c r="J108" s="130"/>
+      <c r="K108" s="130"/>
+      <c r="L108" s="130"/>
+      <c r="M108" s="130"/>
+      <c r="N108" s="130"/>
+      <c r="O108" s="130"/>
+      <c r="P108" s="130"/>
+      <c r="Q108" s="130"/>
     </row>
     <row r="109" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
@@ -8600,10 +8605,10 @@
       <c r="O109" s="115"/>
     </row>
     <row r="110" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="130" t="s">
+      <c r="A110" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="B110" s="130"/>
+      <c r="B110" s="147"/>
       <c r="E110" s="23"/>
       <c r="F110" s="106" t="s">
         <v>276</v>
@@ -8649,10 +8654,10 @@
       <c r="P111" s="24"/>
     </row>
     <row r="112" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="134" t="s">
+      <c r="A112" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B112" s="134"/>
+      <c r="B112" s="132"/>
       <c r="E112" s="23" t="s">
         <v>0</v>
       </c>
@@ -8800,71 +8805,71 @@
       <c r="A122" s="28"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="135"/>
-      <c r="B127" s="136"/>
-      <c r="C127" s="136"/>
-      <c r="D127" s="136"/>
-      <c r="E127" s="136"/>
-      <c r="F127" s="136"/>
-      <c r="G127" s="136"/>
-      <c r="H127" s="136"/>
+      <c r="A127" s="144"/>
+      <c r="B127" s="126"/>
+      <c r="C127" s="126"/>
+      <c r="D127" s="126"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="126"/>
+      <c r="G127" s="126"/>
+      <c r="H127" s="126"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="136"/>
-      <c r="B128" s="136"/>
-      <c r="C128" s="136"/>
-      <c r="D128" s="136"/>
-      <c r="E128" s="136"/>
-      <c r="F128" s="136"/>
-      <c r="G128" s="136"/>
-      <c r="H128" s="136"/>
+      <c r="A128" s="126"/>
+      <c r="B128" s="126"/>
+      <c r="C128" s="126"/>
+      <c r="D128" s="126"/>
+      <c r="E128" s="126"/>
+      <c r="F128" s="126"/>
+      <c r="G128" s="126"/>
+      <c r="H128" s="126"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="136"/>
-      <c r="B129" s="136"/>
-      <c r="C129" s="136"/>
-      <c r="D129" s="136"/>
-      <c r="E129" s="136"/>
-      <c r="F129" s="136"/>
-      <c r="G129" s="136"/>
-      <c r="H129" s="136"/>
+      <c r="A129" s="126"/>
+      <c r="B129" s="126"/>
+      <c r="C129" s="126"/>
+      <c r="D129" s="126"/>
+      <c r="E129" s="126"/>
+      <c r="F129" s="126"/>
+      <c r="G129" s="126"/>
+      <c r="H129" s="126"/>
     </row>
     <row r="130" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A130" s="147"/>
-      <c r="B130" s="147"/>
-      <c r="C130" s="147"/>
-      <c r="D130" s="147"/>
-      <c r="E130" s="147"/>
+      <c r="A130" s="136"/>
+      <c r="B130" s="136"/>
+      <c r="C130" s="136"/>
+      <c r="D130" s="136"/>
+      <c r="E130" s="136"/>
       <c r="R130" s="44"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="136"/>
-      <c r="B134" s="136"/>
-      <c r="C134" s="136"/>
-      <c r="D134" s="136"/>
-      <c r="E134" s="136"/>
-      <c r="F134" s="136"/>
-      <c r="G134" s="136"/>
+      <c r="A134" s="126"/>
+      <c r="B134" s="126"/>
+      <c r="C134" s="126"/>
+      <c r="D134" s="126"/>
+      <c r="E134" s="126"/>
+      <c r="F134" s="126"/>
+      <c r="G134" s="126"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A135" s="136"/>
-      <c r="B135" s="136"/>
-      <c r="C135" s="136"/>
-      <c r="D135" s="136"/>
-      <c r="E135" s="136"/>
-      <c r="F135" s="136"/>
-      <c r="G135" s="136"/>
+      <c r="A135" s="126"/>
+      <c r="B135" s="126"/>
+      <c r="C135" s="126"/>
+      <c r="D135" s="126"/>
+      <c r="E135" s="126"/>
+      <c r="F135" s="126"/>
+      <c r="G135" s="126"/>
     </row>
     <row r="137" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="125" t="s">
+      <c r="A137" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B137" s="125"/>
-      <c r="C137" s="125"/>
-      <c r="D137" s="125"/>
-      <c r="E137" s="125"/>
-      <c r="F137" s="125"/>
-      <c r="G137" s="125"/>
+      <c r="B137" s="130"/>
+      <c r="C137" s="130"/>
+      <c r="D137" s="130"/>
+      <c r="E137" s="130"/>
+      <c r="F137" s="130"/>
+      <c r="G137" s="130"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F138" s="29" t="s">
@@ -8872,10 +8877,10 @@
       </c>
     </row>
     <row r="139" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="139" t="s">
+      <c r="A139" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B139" s="139"/>
+      <c r="B139" s="131"/>
       <c r="F139" s="86" t="s">
         <v>25</v>
       </c>
@@ -8885,13 +8890,13 @@
       <c r="H139" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="I139" s="138"/>
-      <c r="J139" s="138"/>
-      <c r="K139" s="138"/>
+      <c r="I139" s="146"/>
+      <c r="J139" s="146"/>
+      <c r="K139" s="146"/>
       <c r="L139" s="69"/>
-      <c r="M139" s="138"/>
-      <c r="N139" s="138"/>
-      <c r="O139" s="138"/>
+      <c r="M139" s="146"/>
+      <c r="N139" s="146"/>
+      <c r="O139" s="146"/>
     </row>
     <row r="140" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="34" t="s">
@@ -8942,10 +8947,10 @@
       <c r="O141" s="110"/>
     </row>
     <row r="142" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="134" t="s">
+      <c r="A142" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B142" s="134"/>
+      <c r="B142" s="132"/>
       <c r="E142" s="55">
         <v>200</v>
       </c>
@@ -9101,50 +9106,50 @@
       <c r="N149" s="72"/>
     </row>
     <row r="152" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="137" t="s">
+      <c r="A152" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="B152" s="137"/>
-      <c r="C152" s="137"/>
-      <c r="D152" s="137"/>
-      <c r="E152" s="137"/>
-      <c r="F152" s="137"/>
-      <c r="G152" s="137"/>
-      <c r="H152" s="137"/>
-      <c r="I152" s="137"/>
-      <c r="J152" s="137"/>
-      <c r="K152" s="137"/>
-      <c r="L152" s="137"/>
-      <c r="M152" s="137"/>
-      <c r="N152" s="137"/>
-      <c r="O152" s="137"/>
-      <c r="P152" s="137"/>
-      <c r="Q152" s="137"/>
+      <c r="B152" s="145"/>
+      <c r="C152" s="145"/>
+      <c r="D152" s="145"/>
+      <c r="E152" s="145"/>
+      <c r="F152" s="145"/>
+      <c r="G152" s="145"/>
+      <c r="H152" s="145"/>
+      <c r="I152" s="145"/>
+      <c r="J152" s="145"/>
+      <c r="K152" s="145"/>
+      <c r="L152" s="145"/>
+      <c r="M152" s="145"/>
+      <c r="N152" s="145"/>
+      <c r="O152" s="145"/>
+      <c r="P152" s="145"/>
+      <c r="Q152" s="145"/>
     </row>
     <row r="155" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="125" t="s">
+      <c r="A155" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="B155" s="125"/>
-      <c r="C155" s="125"/>
-      <c r="D155" s="125"/>
-      <c r="E155" s="125"/>
-      <c r="F155" s="125"/>
-      <c r="G155" s="125"/>
-      <c r="H155" s="125"/>
-      <c r="I155" s="125"/>
-      <c r="J155" s="125"/>
-      <c r="K155" s="125"/>
-      <c r="L155" s="125"/>
-      <c r="M155" s="125"/>
-      <c r="N155" s="125"/>
-      <c r="O155" s="125"/>
+      <c r="B155" s="130"/>
+      <c r="C155" s="130"/>
+      <c r="D155" s="130"/>
+      <c r="E155" s="130"/>
+      <c r="F155" s="130"/>
+      <c r="G155" s="130"/>
+      <c r="H155" s="130"/>
+      <c r="I155" s="130"/>
+      <c r="J155" s="130"/>
+      <c r="K155" s="130"/>
+      <c r="L155" s="130"/>
+      <c r="M155" s="130"/>
+      <c r="N155" s="130"/>
+      <c r="O155" s="130"/>
     </row>
     <row r="156" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A156" s="145"/>
-      <c r="B156" s="146"/>
-      <c r="C156" s="146"/>
-      <c r="D156" s="146"/>
+      <c r="A156" s="133"/>
+      <c r="B156" s="134"/>
+      <c r="C156" s="134"/>
+      <c r="D156" s="134"/>
       <c r="E156" s="29" t="s">
         <v>71</v>
       </c>
@@ -9159,18 +9164,18 @@
       <c r="H157" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="I157" s="136"/>
-      <c r="J157" s="136"/>
-      <c r="K157" s="136"/>
-      <c r="M157" s="136"/>
-      <c r="N157" s="136"/>
-      <c r="O157" s="136"/>
+      <c r="I157" s="126"/>
+      <c r="J157" s="126"/>
+      <c r="K157" s="126"/>
+      <c r="M157" s="126"/>
+      <c r="N157" s="126"/>
+      <c r="O157" s="126"/>
     </row>
     <row r="158" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="131" t="s">
+      <c r="B158" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C158" s="131"/>
+      <c r="C158" s="135"/>
       <c r="E158" s="74" t="s">
         <v>0</v>
       </c>
@@ -9431,30 +9436,30 @@
       </c>
     </row>
     <row r="175" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="125" t="s">
+      <c r="A175" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="B175" s="125"/>
-      <c r="C175" s="125"/>
-      <c r="D175" s="125"/>
-      <c r="E175" s="125"/>
-      <c r="F175" s="125"/>
-      <c r="G175" s="125"/>
-      <c r="H175" s="125"/>
-      <c r="I175" s="125"/>
-      <c r="J175" s="125"/>
-      <c r="K175" s="125"/>
-      <c r="L175" s="125"/>
-      <c r="M175" s="125"/>
-      <c r="N175" s="125"/>
-      <c r="O175" s="125"/>
-      <c r="P175" s="125"/>
+      <c r="B175" s="130"/>
+      <c r="C175" s="130"/>
+      <c r="D175" s="130"/>
+      <c r="E175" s="130"/>
+      <c r="F175" s="130"/>
+      <c r="G175" s="130"/>
+      <c r="H175" s="130"/>
+      <c r="I175" s="130"/>
+      <c r="J175" s="130"/>
+      <c r="K175" s="130"/>
+      <c r="L175" s="130"/>
+      <c r="M175" s="130"/>
+      <c r="N175" s="130"/>
+      <c r="O175" s="130"/>
+      <c r="P175" s="130"/>
     </row>
     <row r="176" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="139" t="s">
+      <c r="A176" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B176" s="139"/>
+      <c r="B176" s="131"/>
       <c r="E176" s="63" t="s">
         <v>0</v>
       </c>
@@ -9479,10 +9484,10 @@
       <c r="G177" s="65"/>
     </row>
     <row r="178" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="134" t="s">
+      <c r="A178" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B178" s="134"/>
+      <c r="B178" s="132"/>
       <c r="E178" s="77">
         <v>300</v>
       </c>
@@ -9575,22 +9580,22 @@
       </c>
     </row>
     <row r="190" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="125" t="s">
+      <c r="A190" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="B190" s="125"/>
-      <c r="C190" s="125"/>
-      <c r="D190" s="125"/>
-      <c r="E190" s="125"/>
-      <c r="F190" s="125"/>
-      <c r="G190" s="125"/>
-      <c r="H190" s="125"/>
-      <c r="I190" s="125"/>
-      <c r="J190" s="125"/>
-      <c r="K190" s="125"/>
-      <c r="L190" s="125"/>
-      <c r="M190" s="125"/>
-      <c r="N190" s="125"/>
+      <c r="B190" s="130"/>
+      <c r="C190" s="130"/>
+      <c r="D190" s="130"/>
+      <c r="E190" s="130"/>
+      <c r="F190" s="130"/>
+      <c r="G190" s="130"/>
+      <c r="H190" s="130"/>
+      <c r="I190" s="130"/>
+      <c r="J190" s="130"/>
+      <c r="K190" s="130"/>
+      <c r="L190" s="130"/>
+      <c r="M190" s="130"/>
+      <c r="N190" s="130"/>
     </row>
     <row r="191" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D191" s="78" t="s">
@@ -9598,10 +9603,10 @@
       </c>
     </row>
     <row r="192" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="139" t="s">
+      <c r="A192" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="B192" s="139"/>
+      <c r="B192" s="131"/>
     </row>
     <row r="193" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="51" t="s">
@@ -9690,29 +9695,29 @@
       </c>
     </row>
     <row r="205" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="125" t="s">
+      <c r="A205" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="B205" s="125"/>
-      <c r="C205" s="125"/>
-      <c r="D205" s="125"/>
-      <c r="E205" s="125"/>
-      <c r="F205" s="125"/>
-      <c r="G205" s="125"/>
-      <c r="H205" s="125"/>
-      <c r="I205" s="125"/>
-      <c r="J205" s="125"/>
-      <c r="K205" s="125"/>
-      <c r="L205" s="125"/>
-      <c r="M205" s="125"/>
-      <c r="N205" s="125"/>
-      <c r="O205" s="125"/>
+      <c r="B205" s="130"/>
+      <c r="C205" s="130"/>
+      <c r="D205" s="130"/>
+      <c r="E205" s="130"/>
+      <c r="F205" s="130"/>
+      <c r="G205" s="130"/>
+      <c r="H205" s="130"/>
+      <c r="I205" s="130"/>
+      <c r="J205" s="130"/>
+      <c r="K205" s="130"/>
+      <c r="L205" s="130"/>
+      <c r="M205" s="130"/>
+      <c r="N205" s="130"/>
+      <c r="O205" s="130"/>
     </row>
     <row r="206" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K206" s="144"/>
-      <c r="L206" s="144"/>
-      <c r="M206" s="124"/>
-      <c r="N206" s="124"/>
+      <c r="K206" s="127"/>
+      <c r="L206" s="127"/>
+      <c r="M206" s="142"/>
+      <c r="N206" s="142"/>
     </row>
     <row r="207" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="29" t="s">
@@ -9738,8 +9743,8 @@
         <v>15</v>
       </c>
       <c r="I208" s="35"/>
-      <c r="K208" s="140"/>
-      <c r="L208" s="140"/>
+      <c r="K208" s="143"/>
+      <c r="L208" s="143"/>
       <c r="M208" s="34"/>
       <c r="N208" s="36"/>
     </row>
@@ -9774,8 +9779,8 @@
       </c>
     </row>
     <row r="213" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="124"/>
-      <c r="B213" s="124"/>
+      <c r="A213" s="142"/>
+      <c r="B213" s="142"/>
     </row>
     <row r="214" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="34"/>
@@ -9787,20 +9792,20 @@
     </row>
     <row r="216" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="219" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="125" t="s">
+      <c r="A219" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="B219" s="125"/>
-      <c r="C219" s="125"/>
-      <c r="D219" s="125"/>
-      <c r="E219" s="125"/>
-      <c r="F219" s="125"/>
-      <c r="G219" s="125"/>
-      <c r="H219" s="125"/>
-      <c r="I219" s="125"/>
-      <c r="J219" s="125"/>
-      <c r="K219" s="125"/>
-      <c r="L219" s="125"/>
+      <c r="B219" s="130"/>
+      <c r="C219" s="130"/>
+      <c r="D219" s="130"/>
+      <c r="E219" s="130"/>
+      <c r="F219" s="130"/>
+      <c r="G219" s="130"/>
+      <c r="H219" s="130"/>
+      <c r="I219" s="130"/>
+      <c r="J219" s="130"/>
+      <c r="K219" s="130"/>
+      <c r="L219" s="130"/>
     </row>
     <row r="220" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G220" s="79" t="s">
@@ -9812,10 +9817,10 @@
       <c r="I220" s="80"/>
     </row>
     <row r="221" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="124" t="s">
+      <c r="A221" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="124"/>
+      <c r="B221" s="142"/>
       <c r="G221" s="33">
         <v>100</v>
       </c>
@@ -9874,19 +9879,19 @@
       </c>
     </row>
     <row r="230" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="125" t="s">
+      <c r="A230" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B230" s="125"/>
-      <c r="C230" s="125"/>
-      <c r="D230" s="125"/>
-      <c r="E230" s="125"/>
-      <c r="F230" s="125"/>
-      <c r="G230" s="125"/>
-      <c r="H230" s="125"/>
-      <c r="I230" s="125"/>
-      <c r="J230" s="125"/>
-      <c r="K230" s="125"/>
+      <c r="B230" s="130"/>
+      <c r="C230" s="130"/>
+      <c r="D230" s="130"/>
+      <c r="E230" s="130"/>
+      <c r="F230" s="130"/>
+      <c r="G230" s="130"/>
+      <c r="H230" s="130"/>
+      <c r="I230" s="130"/>
+      <c r="J230" s="130"/>
+      <c r="K230" s="130"/>
     </row>
     <row r="231" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C231" s="10" t="s">
@@ -9943,10 +9948,10 @@
       <c r="E236" s="36"/>
     </row>
     <row r="237" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="124" t="s">
+      <c r="A237" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="124"/>
+      <c r="B237" s="142"/>
     </row>
     <row r="238" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="34" t="s">
@@ -9996,24 +10001,24 @@
     </row>
     <row r="243" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="245" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="125" t="s">
+      <c r="A245" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="B245" s="125"/>
-      <c r="C245" s="125"/>
-      <c r="D245" s="125"/>
-      <c r="E245" s="125"/>
-      <c r="F245" s="125"/>
-      <c r="G245" s="125"/>
-      <c r="H245" s="125"/>
-      <c r="I245" s="125"/>
-      <c r="J245" s="125"/>
-      <c r="K245" s="125"/>
-      <c r="L245" s="125"/>
-      <c r="M245" s="125"/>
-      <c r="N245" s="125"/>
-      <c r="O245" s="125"/>
-      <c r="P245" s="125"/>
+      <c r="B245" s="130"/>
+      <c r="C245" s="130"/>
+      <c r="D245" s="130"/>
+      <c r="E245" s="130"/>
+      <c r="F245" s="130"/>
+      <c r="G245" s="130"/>
+      <c r="H245" s="130"/>
+      <c r="I245" s="130"/>
+      <c r="J245" s="130"/>
+      <c r="K245" s="130"/>
+      <c r="L245" s="130"/>
+      <c r="M245" s="130"/>
+      <c r="N245" s="130"/>
+      <c r="O245" s="130"/>
+      <c r="P245" s="130"/>
     </row>
     <row r="247" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C247" s="10" t="s">
@@ -10058,10 +10063,10 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="124" t="s">
+      <c r="A254" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="124"/>
+      <c r="B254" s="142"/>
     </row>
     <row r="255" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="34" t="s">
@@ -10100,25 +10105,25 @@
       </c>
     </row>
     <row r="262" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="125" t="s">
+      <c r="A262" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="B262" s="125"/>
-      <c r="C262" s="125"/>
-      <c r="D262" s="125"/>
-      <c r="E262" s="125"/>
-      <c r="F262" s="125"/>
-      <c r="G262" s="125"/>
-      <c r="H262" s="125"/>
-      <c r="I262" s="125"/>
-      <c r="J262" s="125"/>
-      <c r="K262" s="125"/>
-      <c r="L262" s="125"/>
-      <c r="M262" s="125"/>
-      <c r="N262" s="125"/>
-      <c r="O262" s="125"/>
-      <c r="P262" s="125"/>
-      <c r="Q262" s="125"/>
+      <c r="B262" s="130"/>
+      <c r="C262" s="130"/>
+      <c r="D262" s="130"/>
+      <c r="E262" s="130"/>
+      <c r="F262" s="130"/>
+      <c r="G262" s="130"/>
+      <c r="H262" s="130"/>
+      <c r="I262" s="130"/>
+      <c r="J262" s="130"/>
+      <c r="K262" s="130"/>
+      <c r="L262" s="130"/>
+      <c r="M262" s="130"/>
+      <c r="N262" s="130"/>
+      <c r="O262" s="130"/>
+      <c r="P262" s="130"/>
+      <c r="Q262" s="130"/>
     </row>
     <row r="264" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C264" s="10" t="s">
@@ -10128,10 +10133,10 @@
         <v>7</v>
       </c>
       <c r="E264" s="81"/>
-      <c r="G264" s="124" t="s">
+      <c r="G264" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="H264" s="124"/>
+      <c r="H264" s="142"/>
     </row>
     <row r="265" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C265" s="34">
@@ -10201,6 +10206,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A92:S92"/>
+    <mergeCell ref="A108:Q108"/>
+    <mergeCell ref="A127:H129"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A155:O155"/>
+    <mergeCell ref="A152:Q152"/>
+    <mergeCell ref="A134:G135"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="I139:K139"/>
+    <mergeCell ref="M139:O139"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A230:K230"/>
+    <mergeCell ref="A190:N190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A205:O205"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A219:L219"/>
+    <mergeCell ref="A262:Q262"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="G264:H264"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A245:P245"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="K206:L206"/>
     <mergeCell ref="F30:G30"/>
@@ -10217,84 +10300,6 @@
     <mergeCell ref="A156:D156"/>
     <mergeCell ref="B158:C158"/>
     <mergeCell ref="A130:E130"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A262:Q262"/>
-    <mergeCell ref="C268:E268"/>
-    <mergeCell ref="G264:H264"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A245:P245"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A230:K230"/>
-    <mergeCell ref="A190:N190"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A205:O205"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A219:L219"/>
-    <mergeCell ref="A127:H129"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A155:O155"/>
-    <mergeCell ref="A152:Q152"/>
-    <mergeCell ref="A134:G135"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="I139:K139"/>
-    <mergeCell ref="M139:O139"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A92:S92"/>
-    <mergeCell ref="A108:Q108"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A38" r:id="rId1" display="https://rubraslet.ru/silicon/2-site/121-segmentatsiya-svirl-202kh12kh2.html?ml=1"/>
@@ -10419,29 +10424,29 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:21" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="125"/>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
-      <c r="S10" s="125"/>
-      <c r="T10" s="125"/>
-      <c r="U10" s="125"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -10707,48 +10712,48 @@
       <c r="G30" s="121"/>
     </row>
     <row r="31" spans="1:19" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="125" t="s">
+      <c r="A31" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="125"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="125"/>
-      <c r="R31" s="125"/>
-      <c r="S31" s="125"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="130"/>
     </row>
     <row r="32" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="125"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="125"/>
-      <c r="Q32" s="125"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="130"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="130"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="130"/>
     </row>
     <row r="33" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="15"/>
@@ -10764,9 +10769,9 @@
         <v>152</v>
       </c>
       <c r="K33" s="91"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
-      <c r="N33" s="149"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="152"/>
     </row>
     <row r="34" spans="1:16" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
@@ -11027,10 +11032,10 @@
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="150" t="s">
+      <c r="A44" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="150"/>
+      <c r="B44" s="153"/>
       <c r="C44" s="6"/>
       <c r="D44" s="5"/>
     </row>
@@ -11114,45 +11119,45 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="125" t="s">
+      <c r="A56" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="B56" s="125"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="125"/>
-      <c r="L56" s="125"/>
-      <c r="M56" s="125"/>
-      <c r="N56" s="125"/>
-      <c r="O56" s="125"/>
-      <c r="P56" s="125"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="130"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="130"/>
+      <c r="O56" s="130"/>
+      <c r="P56" s="130"/>
     </row>
     <row r="57" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="125" t="s">
+      <c r="A57" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="125"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="125"/>
-      <c r="G57" s="125"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="125"/>
-      <c r="J57" s="125"/>
-      <c r="K57" s="125"/>
-      <c r="L57" s="125"/>
-      <c r="M57" s="125"/>
-      <c r="N57" s="125"/>
-      <c r="O57" s="125"/>
-      <c r="P57" s="125"/>
-      <c r="Q57" s="125"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="130"/>
+      <c r="L57" s="130"/>
+      <c r="M57" s="130"/>
+      <c r="N57" s="130"/>
+      <c r="O57" s="130"/>
+      <c r="P57" s="130"/>
+      <c r="Q57" s="130"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
@@ -11283,10 +11288,10 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="148" t="s">
+      <c r="A64" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="B64" s="148"/>
+      <c r="B64" s="151"/>
       <c r="G64" s="47">
         <v>200</v>
       </c>
@@ -11510,12 +11515,12 @@
     </row>
     <row r="70" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D72" s="136"/>
-      <c r="E72" s="136"/>
-      <c r="F72" s="136"/>
-      <c r="H72" s="136"/>
-      <c r="I72" s="136"/>
-      <c r="J72" s="136"/>
+      <c r="D72" s="126"/>
+      <c r="E72" s="126"/>
+      <c r="F72" s="126"/>
+      <c r="H72" s="126"/>
+      <c r="I72" s="126"/>
+      <c r="J72" s="126"/>
     </row>
     <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="42"/>
@@ -11603,44 +11608,44 @@
       </c>
     </row>
     <row r="89" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="125" t="s">
+      <c r="A89" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="B89" s="125"/>
-      <c r="C89" s="125"/>
-      <c r="D89" s="125"/>
-      <c r="E89" s="125"/>
-      <c r="F89" s="125"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="125"/>
-      <c r="J89" s="125"/>
-      <c r="K89" s="125"/>
-      <c r="L89" s="125"/>
-      <c r="M89" s="125"/>
-      <c r="N89" s="125"/>
-      <c r="O89" s="125"/>
+      <c r="B89" s="130"/>
+      <c r="C89" s="130"/>
+      <c r="D89" s="130"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="130"/>
+      <c r="G89" s="130"/>
+      <c r="H89" s="130"/>
+      <c r="I89" s="130"/>
+      <c r="J89" s="130"/>
+      <c r="K89" s="130"/>
+      <c r="L89" s="130"/>
+      <c r="M89" s="130"/>
+      <c r="N89" s="130"/>
+      <c r="O89" s="130"/>
     </row>
     <row r="90" spans="1:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="125" t="s">
+      <c r="A90" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="B90" s="125"/>
-      <c r="C90" s="125"/>
-      <c r="D90" s="125"/>
-      <c r="E90" s="125"/>
-      <c r="F90" s="125"/>
-      <c r="G90" s="125"/>
-      <c r="H90" s="125"/>
-      <c r="I90" s="125"/>
-      <c r="J90" s="125"/>
-      <c r="K90" s="125"/>
-      <c r="L90" s="125"/>
-      <c r="M90" s="125"/>
-      <c r="N90" s="125"/>
-      <c r="O90" s="125"/>
-      <c r="P90" s="125"/>
-      <c r="Q90" s="125"/>
+      <c r="B90" s="130"/>
+      <c r="C90" s="130"/>
+      <c r="D90" s="130"/>
+      <c r="E90" s="130"/>
+      <c r="F90" s="130"/>
+      <c r="G90" s="130"/>
+      <c r="H90" s="130"/>
+      <c r="I90" s="130"/>
+      <c r="J90" s="130"/>
+      <c r="K90" s="130"/>
+      <c r="L90" s="130"/>
+      <c r="M90" s="130"/>
+      <c r="N90" s="130"/>
+      <c r="O90" s="130"/>
+      <c r="P90" s="130"/>
+      <c r="Q90" s="130"/>
     </row>
     <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="30"/>
@@ -11668,13 +11673,13 @@
       <c r="M91" s="30"/>
     </row>
     <row r="92" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F92" s="138"/>
-      <c r="G92" s="138"/>
-      <c r="H92" s="138"/>
+      <c r="F92" s="146"/>
+      <c r="G92" s="146"/>
+      <c r="H92" s="146"/>
       <c r="I92" s="68"/>
-      <c r="J92" s="138"/>
-      <c r="K92" s="138"/>
-      <c r="L92" s="138"/>
+      <c r="J92" s="146"/>
+      <c r="K92" s="146"/>
+      <c r="L92" s="146"/>
       <c r="M92" s="30"/>
     </row>
     <row r="93" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -11952,10 +11957,10 @@
       <c r="M102" s="30"/>
     </row>
     <row r="103" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="131" t="s">
+      <c r="B103" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="131"/>
+      <c r="C103" s="135"/>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
       <c r="F103" s="28" t="s">
@@ -12037,30 +12042,30 @@
     </row>
     <row r="108" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="125" t="s">
+      <c r="A113" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="B113" s="125"/>
-      <c r="C113" s="125"/>
-      <c r="D113" s="125"/>
-      <c r="E113" s="125"/>
-      <c r="F113" s="125"/>
-      <c r="G113" s="125"/>
-      <c r="H113" s="125"/>
-      <c r="I113" s="125"/>
-      <c r="J113" s="125"/>
-      <c r="K113" s="125"/>
-      <c r="L113" s="125"/>
-      <c r="M113" s="125"/>
-      <c r="N113" s="125"/>
+      <c r="B113" s="130"/>
+      <c r="C113" s="130"/>
+      <c r="D113" s="130"/>
+      <c r="E113" s="130"/>
+      <c r="F113" s="130"/>
+      <c r="G113" s="130"/>
+      <c r="H113" s="130"/>
+      <c r="I113" s="130"/>
+      <c r="J113" s="130"/>
+      <c r="K113" s="130"/>
+      <c r="L113" s="130"/>
+      <c r="M113" s="130"/>
+      <c r="N113" s="130"/>
     </row>
     <row r="114" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F114" s="136"/>
-      <c r="G114" s="136"/>
-      <c r="H114" s="136"/>
-      <c r="J114" s="136"/>
-      <c r="K114" s="136"/>
-      <c r="L114" s="136"/>
+      <c r="F114" s="126"/>
+      <c r="G114" s="126"/>
+      <c r="H114" s="126"/>
+      <c r="J114" s="126"/>
+      <c r="K114" s="126"/>
+      <c r="L114" s="126"/>
     </row>
     <row r="115" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F115" s="97"/>
@@ -12295,10 +12300,10 @@
       </c>
     </row>
     <row r="125" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="131" t="s">
+      <c r="B125" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C125" s="131"/>
+      <c r="C125" s="135"/>
       <c r="G125" s="21">
         <v>3000</v>
       </c>
@@ -12370,23 +12375,23 @@
     </row>
     <row r="130" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A132" s="135" t="s">
+      <c r="A132" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="B132" s="136"/>
-      <c r="C132" s="136"/>
-      <c r="D132" s="136"/>
-      <c r="E132" s="136"/>
-      <c r="F132" s="136"/>
-      <c r="G132" s="136"/>
-      <c r="H132" s="136"/>
-      <c r="I132" s="136"/>
-      <c r="J132" s="136"/>
-      <c r="K132" s="136"/>
-      <c r="L132" s="136"/>
-      <c r="M132" s="136"/>
-      <c r="N132" s="136"/>
-      <c r="O132" s="136"/>
+      <c r="B132" s="126"/>
+      <c r="C132" s="126"/>
+      <c r="D132" s="126"/>
+      <c r="E132" s="126"/>
+      <c r="F132" s="126"/>
+      <c r="G132" s="126"/>
+      <c r="H132" s="126"/>
+      <c r="I132" s="126"/>
+      <c r="J132" s="126"/>
+      <c r="K132" s="126"/>
+      <c r="L132" s="126"/>
+      <c r="M132" s="126"/>
+      <c r="N132" s="126"/>
+      <c r="O132" s="126"/>
     </row>
     <row r="133" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12538,10 +12543,10 @@
       </c>
     </row>
     <row r="143" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="131" t="s">
+      <c r="C143" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="D143" s="131"/>
+      <c r="D143" s="135"/>
     </row>
     <row r="144" spans="1:15" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C144" s="19" t="s">
@@ -12555,10 +12560,10 @@
       </c>
     </row>
     <row r="145" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="132" t="s">
+      <c r="C145" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="D145" s="132"/>
+      <c r="D145" s="148"/>
       <c r="F145" s="28" t="s">
         <v>174</v>
       </c>
@@ -12575,16 +12580,6 @@
     <row r="147" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A10:U10"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:Q57"/>
     <mergeCell ref="A132:O132"/>
     <mergeCell ref="C143:D143"/>
     <mergeCell ref="C145:D145"/>
@@ -12597,6 +12592,16 @@
     <mergeCell ref="A113:N113"/>
     <mergeCell ref="F114:H114"/>
     <mergeCell ref="J114:L114"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A10:U10"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:Q57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -12625,36 +12630,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -12772,10 +12777,10 @@
       <c r="T9" s="121"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="139"/>
+      <c r="B10" s="131"/>
       <c r="T10" s="121"/>
     </row>
     <row r="11" spans="1:28" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12803,10 +12808,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="134"/>
+      <c r="B14" s="132"/>
     </row>
     <row r="15" spans="1:28" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
@@ -12818,33 +12823,33 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="130" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="125"/>
-      <c r="W19" s="125"/>
-      <c r="X19" s="125"/>
-      <c r="Y19" s="125"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="130"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="130"/>
+      <c r="V19" s="130"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="130"/>
+      <c r="Y19" s="130"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83" t="s">
@@ -12951,10 +12956,10 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="139" t="s">
+      <c r="A29" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="139"/>
+      <c r="B29" s="131"/>
     </row>
     <row r="30" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
@@ -12973,10 +12978,10 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="134" t="s">
+      <c r="A32" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="134"/>
+      <c r="B32" s="132"/>
     </row>
     <row r="33" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
@@ -12988,27 +12993,27 @@
     </row>
     <row r="34" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="125" t="s">
+      <c r="A36" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="125"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
-      <c r="N36" s="125"/>
-      <c r="O36" s="125"/>
-      <c r="P36" s="125"/>
-      <c r="Q36" s="125"/>
-      <c r="R36" s="125"/>
-      <c r="S36" s="125"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="130"/>
+      <c r="Q36" s="130"/>
+      <c r="R36" s="130"/>
+      <c r="S36" s="130"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
@@ -13073,10 +13078,10 @@
     </row>
     <row r="42" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="139" t="s">
+      <c r="A43" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="139"/>
+      <c r="B43" s="131"/>
     </row>
     <row r="44" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34" t="s">
@@ -13087,10 +13092,10 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="134"/>
+      <c r="B45" s="132"/>
     </row>
     <row r="46" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34" t="s">
@@ -13141,30 +13146,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -13255,16 +13260,16 @@
     </row>
     <row r="8" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="139"/>
+      <c r="B9" s="131"/>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="152" t="s">
+      <c r="B10" s="154" t="s">
         <v>284</v>
       </c>
     </row>
@@ -13272,13 +13277,13 @@
       <c r="A11" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="153"/>
+      <c r="B11" s="155"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="156" t="s">
         <v>285</v>
       </c>
     </row>
@@ -13286,7 +13291,7 @@
       <c r="A13" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="153"/>
+      <c r="B13" s="155"/>
     </row>
     <row r="14" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
@@ -13318,28 +13323,28 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="125" t="s">
+      <c r="A22" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="125"/>
-      <c r="R22" s="125"/>
-      <c r="S22" s="125"/>
-      <c r="T22" s="125"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="130"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="83" t="s">
@@ -13415,10 +13420,10 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="139" t="s">
+      <c r="A30" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="139"/>
+      <c r="B30" s="131"/>
     </row>
     <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
@@ -13477,50 +13482,50 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="125" t="s">
+      <c r="A40" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="B40" s="125"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="125"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="125"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="125"/>
-      <c r="L40" s="125"/>
-      <c r="M40" s="125"/>
-      <c r="N40" s="125"/>
-      <c r="O40" s="125"/>
-      <c r="P40" s="125"/>
-      <c r="Q40" s="125"/>
-      <c r="R40" s="125"/>
-      <c r="S40" s="125"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="130"/>
+      <c r="M40" s="130"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="130"/>
+      <c r="Q40" s="130"/>
+      <c r="R40" s="130"/>
+      <c r="S40" s="130"/>
     </row>
     <row r="41" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="125" t="s">
+      <c r="A41" s="130" t="s">
         <v>297</v>
       </c>
-      <c r="B41" s="125"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="125"/>
-      <c r="E41" s="125"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="125"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="125"/>
-      <c r="M41" s="125"/>
-      <c r="N41" s="125"/>
-      <c r="O41" s="125"/>
-      <c r="P41" s="125"/>
-      <c r="Q41" s="125"/>
-      <c r="R41" s="125"/>
-      <c r="S41" s="125"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="130"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="130"/>
+      <c r="P41" s="130"/>
+      <c r="Q41" s="130"/>
+      <c r="R41" s="130"/>
+      <c r="S41" s="130"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D42" s="89" t="s">
@@ -13770,11 +13775,11 @@
       </c>
     </row>
     <row r="50" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="151" t="s">
+      <c r="C50" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="157"/>
       <c r="F50" s="101" t="s">
         <v>216</v>
       </c>
@@ -13782,12 +13787,12 @@
     </row>
     <row r="51" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="136"/>
-      <c r="I52" s="136"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
     </row>
     <row r="53" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="50"/>
@@ -13839,17 +13844,17 @@
       <c r="I59" s="36"/>
     </row>
     <row r="60" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="151"/>
-      <c r="D60" s="151"/>
-      <c r="E60" s="151"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="157"/>
       <c r="G60" s="101"/>
     </row>
     <row r="61" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="131" t="s">
+      <c r="C62" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="131"/>
+      <c r="D62" s="135"/>
     </row>
     <row r="63" spans="3:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="19" t="s">
@@ -13874,12 +13879,6 @@
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A22:T22"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="A40:S40"/>
     <mergeCell ref="A41:S41"/>
@@ -13887,6 +13886,12 @@
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="G52:I52"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A22:T22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" display="https://rubraslet.ru/bumaga.html"/>
@@ -13904,7 +13909,7 @@
   <dimension ref="A1:AC83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B82" sqref="A77:B82"/>
+      <selection activeCell="A30" sqref="A28:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13919,37 +13924,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125"/>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -14059,11 +14064,11 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="155" t="s">
+      <c r="A8" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="155"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
       <c r="U8" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$T$6&amp;",'"&amp;A35&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(439,'Светоотражающие брелки под нанесение логотипа');</v>
@@ -14076,10 +14081,10 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="139"/>
+      <c r="B10" s="131"/>
       <c r="U10" s="121"/>
     </row>
     <row r="11" spans="1:29" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14108,32 +14113,32 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="125"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="125"/>
-      <c r="S16" s="125"/>
-      <c r="T16" s="125"/>
-      <c r="U16" s="125"/>
-      <c r="V16" s="125"/>
-      <c r="W16" s="125"/>
-      <c r="X16" s="125"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
@@ -14237,10 +14242,10 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="139" t="s">
+      <c r="A27" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="139"/>
+      <c r="B27" s="131"/>
     </row>
     <row r="28" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
@@ -14267,10 +14272,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="134"/>
+      <c r="B31" s="132"/>
     </row>
     <row r="32" spans="1:9" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
@@ -14302,36 +14307,36 @@
       <c r="H34" s="121"/>
     </row>
     <row r="35" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="125" t="s">
+      <c r="A35" s="130" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="125"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="125"/>
-      <c r="F35" s="125"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="125"/>
-      <c r="L35" s="125"/>
-      <c r="M35" s="125"/>
-      <c r="N35" s="125"/>
-      <c r="O35" s="125"/>
-      <c r="P35" s="125"/>
-      <c r="Q35" s="125"/>
-      <c r="R35" s="125"/>
-      <c r="S35" s="125"/>
-      <c r="T35" s="125"/>
-      <c r="U35" s="125"/>
-      <c r="V35" s="125"/>
-      <c r="W35" s="125"/>
-      <c r="X35" s="125"/>
-      <c r="Y35" s="125"/>
-      <c r="Z35" s="125"/>
-      <c r="AA35" s="125"/>
-      <c r="AB35" s="125"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="130"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="130"/>
+      <c r="X35" s="130"/>
+      <c r="Y35" s="130"/>
+      <c r="Z35" s="130"/>
+      <c r="AA35" s="130"/>
+      <c r="AB35" s="130"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" s="102" t="s">
@@ -14349,9 +14354,9 @@
       <c r="H36" s="102"/>
       <c r="I36" s="102"/>
       <c r="J36" s="102"/>
-      <c r="L36" s="136"/>
-      <c r="M36" s="136"/>
-      <c r="N36" s="136"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="83" t="s">
@@ -14578,18 +14583,18 @@
       <c r="N43" s="36"/>
     </row>
     <row r="44" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="B44" s="155"/>
-      <c r="C44" s="155"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="158"/>
     </row>
     <row r="45" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="131" t="s">
+      <c r="A59" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="131"/>
+      <c r="B59" s="135"/>
     </row>
     <row r="60" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
@@ -14625,10 +14630,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="132" t="s">
+      <c r="A63" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="132"/>
+      <c r="B63" s="148"/>
     </row>
     <row r="64" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
@@ -14653,30 +14658,30 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="125" t="s">
+      <c r="A67" s="130" t="s">
         <v>241</v>
       </c>
-      <c r="B67" s="125"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="125"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="125"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="125"/>
-      <c r="J67" s="125"/>
-      <c r="K67" s="125"/>
-      <c r="L67" s="125"/>
-      <c r="M67" s="125"/>
-      <c r="N67" s="125"/>
-      <c r="O67" s="125"/>
-      <c r="P67" s="125"/>
-      <c r="Q67" s="125"/>
-      <c r="R67" s="125"/>
-      <c r="S67" s="125"/>
-      <c r="T67" s="125"/>
-      <c r="U67" s="125"/>
-      <c r="V67" s="125"/>
+      <c r="B67" s="130"/>
+      <c r="C67" s="130"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="130"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="130"/>
+      <c r="I67" s="130"/>
+      <c r="J67" s="130"/>
+      <c r="K67" s="130"/>
+      <c r="L67" s="130"/>
+      <c r="M67" s="130"/>
+      <c r="N67" s="130"/>
+      <c r="O67" s="130"/>
+      <c r="P67" s="130"/>
+      <c r="Q67" s="130"/>
+      <c r="R67" s="130"/>
+      <c r="S67" s="130"/>
+      <c r="T67" s="130"/>
+      <c r="U67" s="130"/>
+      <c r="V67" s="130"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="102" t="s">
@@ -14688,12 +14693,12 @@
       <c r="C68" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="E68" s="136"/>
-      <c r="F68" s="136"/>
-      <c r="G68" s="136"/>
-      <c r="H68" s="136"/>
-      <c r="I68" s="136"/>
-      <c r="J68" s="136"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50" t="s">
@@ -14713,8 +14718,8 @@
         <f>"delete price where catId="&amp;C69&amp;" and firma=10;"</f>
         <v>delete price where catId=574 and firma=10;</v>
       </c>
-      <c r="G69" s="157"/>
-      <c r="H69" s="157"/>
+      <c r="G69" s="123"/>
+      <c r="H69" s="123"/>
       <c r="J69" s="46"/>
     </row>
     <row r="70" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14851,13 +14856,13 @@
     </row>
     <row r="76" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="158" t="s">
+      <c r="A77" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="158"/>
-      <c r="C77" s="158"/>
-      <c r="D77" s="158"/>
-      <c r="E77" s="158"/>
+      <c r="B77" s="124"/>
+      <c r="C77" s="124"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="124"/>
     </row>
     <row r="78" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
@@ -14896,12 +14901,12 @@
       <c r="D80" s="19"/>
     </row>
     <row r="81" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="159" t="s">
+      <c r="A81" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="159"/>
-      <c r="C81" s="159"/>
-      <c r="D81" s="159"/>
+      <c r="B81" s="125"/>
+      <c r="C81" s="125"/>
+      <c r="D81" s="125"/>
     </row>
     <row r="82" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19" t="s">
@@ -14916,26 +14921,26 @@
     <row r="83" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A67:V67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A35:AB35"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="A59:B59"/>
     <mergeCell ref="A1:AC1"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A16:X16"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A35:AB35"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A67:V67"/>
-    <mergeCell ref="E68:J68"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://rubraslet.ru/reflectors/2-site/79-fasovka-svetootrazhayushchikh-nakleek.html?ml=1"/>
     <hyperlink ref="I5" r:id="rId2" display="https://rubraslet.ru/administrator/index.php?option=com_content&amp;view=article&amp;layout=edit&amp;id=79&amp;ml=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
 </file>
@@ -14944,8 +14949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14956,33 +14961,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="130" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="125"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
@@ -15092,11 +15097,11 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="156" t="s">
+      <c r="A8" s="159" t="s">
         <v>247</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
       <c r="F8" s="29" t="s">
         <v>255</v>
       </c>
@@ -15107,10 +15112,10 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="139"/>
+      <c r="B10" s="131"/>
       <c r="F10" s="29" t="s">
         <v>53</v>
       </c>
@@ -15140,10 +15145,10 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="134"/>
+      <c r="B14" s="132"/>
     </row>
     <row r="15" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
@@ -15155,32 +15160,32 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="130" t="s">
         <v>257</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="125"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="125"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="125"/>
-      <c r="V18" s="125"/>
-      <c r="W18" s="125"/>
-      <c r="X18" s="125"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="130"/>
+      <c r="V18" s="130"/>
+      <c r="W18" s="130"/>
+      <c r="X18" s="130"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
@@ -15286,18 +15291,18 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="156" t="s">
+      <c r="A27" s="159" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="139" t="s">
+      <c r="A29" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="139"/>
+      <c r="B29" s="131"/>
     </row>
     <row r="30" spans="1:24" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
@@ -15324,10 +15329,10 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="134"/>
+      <c r="B33" s="132"/>
     </row>
     <row r="34" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
@@ -15339,30 +15344,30 @@
     </row>
     <row r="35" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="125" t="s">
+      <c r="A39" s="130" t="s">
         <v>261</v>
       </c>
-      <c r="B39" s="125"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="125"/>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="125"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="125"/>
-      <c r="K39" s="125"/>
-      <c r="L39" s="125"/>
-      <c r="M39" s="125"/>
-      <c r="N39" s="125"/>
-      <c r="O39" s="125"/>
-      <c r="P39" s="125"/>
-      <c r="Q39" s="125"/>
-      <c r="R39" s="125"/>
-      <c r="S39" s="125"/>
-      <c r="T39" s="125"/>
-      <c r="U39" s="125"/>
-      <c r="V39" s="125"/>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="130"/>
+      <c r="M39" s="130"/>
+      <c r="N39" s="130"/>
+      <c r="O39" s="130"/>
+      <c r="P39" s="130"/>
+      <c r="Q39" s="130"/>
+      <c r="R39" s="130"/>
+      <c r="S39" s="130"/>
+      <c r="T39" s="130"/>
+      <c r="U39" s="130"/>
+      <c r="V39" s="130"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
@@ -15450,18 +15455,18 @@
       <c r="C46" s="141"/>
     </row>
     <row r="47" spans="1:22" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="156" t="s">
+      <c r="A47" s="159" t="s">
         <v>247</v>
       </c>
-      <c r="B47" s="156"/>
-      <c r="C47" s="156"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="159"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="139" t="s">
+      <c r="A49" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="139"/>
+      <c r="B49" s="131"/>
     </row>
     <row r="50" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
@@ -15497,10 +15502,10 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="134" t="s">
+      <c r="A53" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="134"/>
+      <c r="B53" s="132"/>
       <c r="E53" s="29" t="s">
         <v>266</v>
       </c>
@@ -15530,12 +15535,6 @@
     <row r="56" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:X18"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A27:C27"/>
@@ -15544,6 +15543,12 @@
     <mergeCell ref="A39:V39"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:X18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://rubraslet.ru/slap-watches.html?id=92&amp;ml=1"/>

--- a/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
+++ b/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KvotaSite\калькулятор 5 - блокноты, деколь\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="силиконовые браслеты" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="светоотражатели" sheetId="7" r:id="rId5"/>
     <sheet name="слэп-часы" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="301">
   <si>
     <t>Количество</t>
   </si>
@@ -3542,11 +3537,20 @@
       <t>) 561</t>
     </r>
   </si>
+  <si>
+    <t>полноцветное нанесение</t>
+  </si>
+  <si>
+    <t>цифровая печать</t>
+  </si>
+  <si>
+    <t>эконом-печать от 2500 шт.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4427,25 +4431,70 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4454,53 +4503,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4511,6 +4515,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4519,9 +4526,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4628,15 +4632,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>224646</xdr:colOff>
+      <xdr:colOff>278561</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>80872</xdr:rowOff>
+      <xdr:rowOff>62901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>661725</xdr:colOff>
+      <xdr:colOff>715640</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>47359</xdr:rowOff>
+      <xdr:rowOff>29388</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4653,7 +4657,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9740660" y="8204080"/>
+          <a:off x="10935778" y="8186109"/>
           <a:ext cx="2306136" cy="1943373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4703,16 +4707,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>112411</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292129</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>35943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>722976</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>107830</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246727</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152759</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4729,8 +4733,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8460265" y="12014080"/>
-          <a:ext cx="4771013" cy="1913986"/>
+          <a:off x="10419181" y="13263113"/>
+          <a:ext cx="4771013" cy="1527594"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5491,16 +5495,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2444151</xdr:colOff>
       <xdr:row>239</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>35943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>232913</xdr:colOff>
       <xdr:row>239</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>340743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5511,7 +5515,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1666875" y="64350900"/>
+          <a:off x="2444151" y="60933042"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6665,15 +6669,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>428273</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>161702</xdr:rowOff>
+      <xdr:colOff>152048</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6690,7 +6694,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638800" y="561975"/>
+          <a:off x="6086475" y="304800"/>
           <a:ext cx="2819048" cy="1780952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7462,7 +7466,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7472,8 +7476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X272"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="J268" sqref="J268"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7579,8 +7583,8 @@
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="150"/>
-      <c r="B16" s="150"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="126"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -7596,25 +7600,25 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="130"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="145" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
       <c r="F22" s="29" t="s">
         <v>268</v>
       </c>
@@ -7623,28 +7627,28 @@
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="129"/>
+      <c r="O22" s="129"/>
       <c r="V22" s="102"/>
     </row>
     <row r="23" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="138" t="s">
+      <c r="B23" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="138"/>
-      <c r="D23" s="138" t="s">
+      <c r="C23" s="129"/>
+      <c r="D23" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="138"/>
-      <c r="F23" s="138" t="s">
+      <c r="E23" s="129"/>
+      <c r="F23" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138" t="s">
+      <c r="G23" s="129"/>
+      <c r="H23" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="138"/>
+      <c r="I23" s="129"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="M23" s="23"/>
@@ -7655,22 +7659,22 @@
       <c r="A24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139" t="s">
+      <c r="C24" s="130"/>
+      <c r="D24" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139" t="s">
+      <c r="E24" s="130"/>
+      <c r="F24" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139" t="s">
+      <c r="G24" s="130"/>
+      <c r="H24" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="139"/>
+      <c r="I24" s="130"/>
       <c r="J24" s="22"/>
       <c r="K24" s="21"/>
       <c r="M24" s="21"/>
@@ -7681,22 +7685,22 @@
       <c r="A25" s="21">
         <v>100</v>
       </c>
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137" t="s">
+      <c r="C25" s="132"/>
+      <c r="D25" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137" t="s">
+      <c r="E25" s="132"/>
+      <c r="F25" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137" t="s">
+      <c r="G25" s="132"/>
+      <c r="H25" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="137"/>
+      <c r="I25" s="132"/>
       <c r="J25" s="22"/>
       <c r="K25" s="21"/>
       <c r="M25" s="21"/>
@@ -7707,22 +7711,22 @@
       <c r="A26" s="21">
         <v>200</v>
       </c>
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128" t="s">
+      <c r="C26" s="131"/>
+      <c r="D26" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128" t="s">
+      <c r="E26" s="131"/>
+      <c r="F26" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128" t="s">
+      <c r="G26" s="131"/>
+      <c r="H26" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="128"/>
+      <c r="I26" s="131"/>
       <c r="J26" s="22"/>
       <c r="K26" s="21"/>
       <c r="M26" s="21"/>
@@ -7733,22 +7737,22 @@
       <c r="A27" s="21">
         <v>300</v>
       </c>
-      <c r="B27" s="128" t="s">
+      <c r="B27" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128" t="s">
+      <c r="C27" s="131"/>
+      <c r="D27" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128" t="s">
+      <c r="E27" s="131"/>
+      <c r="F27" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128" t="s">
+      <c r="G27" s="131"/>
+      <c r="H27" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="128"/>
+      <c r="I27" s="131"/>
       <c r="J27" s="22"/>
       <c r="K27" s="21"/>
       <c r="M27" s="21"/>
@@ -7759,22 +7763,22 @@
       <c r="A28" s="21">
         <v>500</v>
       </c>
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128" t="s">
+      <c r="C28" s="131"/>
+      <c r="D28" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128" t="s">
+      <c r="E28" s="131"/>
+      <c r="F28" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128" t="s">
+      <c r="G28" s="131"/>
+      <c r="H28" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="128"/>
+      <c r="I28" s="131"/>
       <c r="J28" s="22"/>
       <c r="K28" s="21"/>
       <c r="M28" s="21"/>
@@ -7785,22 +7789,22 @@
       <c r="A29" s="21">
         <v>1000</v>
       </c>
-      <c r="B29" s="128" t="s">
+      <c r="B29" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128" t="s">
+      <c r="C29" s="131"/>
+      <c r="D29" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128" t="s">
+      <c r="E29" s="131"/>
+      <c r="F29" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128" t="s">
+      <c r="G29" s="131"/>
+      <c r="H29" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="128"/>
+      <c r="I29" s="131"/>
       <c r="J29" s="22"/>
       <c r="K29" s="21"/>
       <c r="M29" s="21"/>
@@ -7811,22 +7815,22 @@
       <c r="A30" s="21">
         <v>3000</v>
       </c>
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128" t="s">
+      <c r="C30" s="131"/>
+      <c r="D30" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128" t="s">
+      <c r="E30" s="131"/>
+      <c r="F30" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128" t="s">
+      <c r="G30" s="131"/>
+      <c r="H30" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="128"/>
+      <c r="I30" s="131"/>
       <c r="M30" s="21"/>
       <c r="N30" s="22"/>
       <c r="O30" s="21"/>
@@ -7835,39 +7839,39 @@
       <c r="A31" s="21">
         <v>5000</v>
       </c>
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="128"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="128" t="s">
+      <c r="C31" s="131"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="128"/>
+      <c r="I31" s="131"/>
     </row>
     <row r="32" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>10000</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
@@ -7937,21 +7941,21 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="130" t="s">
+      <c r="A46" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="130"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="130"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="128"/>
+      <c r="M46" s="128"/>
     </row>
     <row r="47" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
@@ -7963,13 +7967,13 @@
       <c r="D47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="138"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="138"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="138"/>
-      <c r="J47" s="138"/>
-      <c r="K47" s="138"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
+      <c r="K47" s="129"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
@@ -8138,10 +8142,10 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="135" t="s">
+      <c r="A59" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="135"/>
+      <c r="B59" s="134"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
@@ -8152,10 +8156,10 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="148" t="s">
+      <c r="A61" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="148"/>
+      <c r="B61" s="135"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -8223,8 +8227,8 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="142"/>
-      <c r="B70" s="142"/>
+      <c r="A70" s="127"/>
+      <c r="B70" s="127"/>
     </row>
     <row r="71" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
@@ -8235,25 +8239,25 @@
       <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:17" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="130" t="s">
+      <c r="A73" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="130"/>
-      <c r="C73" s="130"/>
-      <c r="D73" s="130"/>
-      <c r="E73" s="130"/>
-      <c r="F73" s="130"/>
-      <c r="G73" s="130"/>
-      <c r="H73" s="130"/>
-      <c r="I73" s="130"/>
-      <c r="J73" s="130"/>
-      <c r="K73" s="130"/>
-      <c r="L73" s="130"/>
-      <c r="M73" s="130"/>
-      <c r="N73" s="130"/>
-      <c r="O73" s="130"/>
-      <c r="P73" s="130"/>
-      <c r="Q73" s="130"/>
+      <c r="B73" s="128"/>
+      <c r="C73" s="128"/>
+      <c r="D73" s="128"/>
+      <c r="E73" s="128"/>
+      <c r="F73" s="128"/>
+      <c r="G73" s="128"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="128"/>
+      <c r="J73" s="128"/>
+      <c r="K73" s="128"/>
+      <c r="L73" s="128"/>
+      <c r="M73" s="128"/>
+      <c r="N73" s="128"/>
+      <c r="O73" s="128"/>
+      <c r="P73" s="128"/>
+      <c r="Q73" s="128"/>
     </row>
     <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
@@ -8272,10 +8276,10 @@
       <c r="G75" s="46"/>
     </row>
     <row r="76" spans="1:17" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="149" t="s">
+      <c r="A76" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="149"/>
+      <c r="B76" s="136"/>
       <c r="C76" s="36"/>
       <c r="E76" s="47">
         <v>100</v>
@@ -8302,10 +8306,10 @@
       <c r="G77" s="47"/>
     </row>
     <row r="78" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="132" t="s">
+      <c r="A78" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="132"/>
+      <c r="B78" s="137"/>
       <c r="C78" s="36"/>
       <c r="E78" s="47">
         <v>500</v>
@@ -8416,33 +8420,33 @@
       <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="130" t="s">
+      <c r="A92" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="130"/>
-      <c r="C92" s="130"/>
-      <c r="D92" s="130"/>
-      <c r="E92" s="130"/>
-      <c r="F92" s="130"/>
-      <c r="G92" s="130"/>
-      <c r="H92" s="130"/>
-      <c r="I92" s="130"/>
-      <c r="J92" s="130"/>
-      <c r="K92" s="130"/>
-      <c r="L92" s="130"/>
-      <c r="M92" s="130"/>
-      <c r="N92" s="130"/>
-      <c r="O92" s="130"/>
-      <c r="P92" s="130"/>
-      <c r="Q92" s="130"/>
-      <c r="R92" s="130"/>
-      <c r="S92" s="130"/>
+      <c r="B92" s="128"/>
+      <c r="C92" s="128"/>
+      <c r="D92" s="128"/>
+      <c r="E92" s="128"/>
+      <c r="F92" s="128"/>
+      <c r="G92" s="128"/>
+      <c r="H92" s="128"/>
+      <c r="I92" s="128"/>
+      <c r="J92" s="128"/>
+      <c r="K92" s="128"/>
+      <c r="L92" s="128"/>
+      <c r="M92" s="128"/>
+      <c r="N92" s="128"/>
+      <c r="O92" s="128"/>
+      <c r="P92" s="128"/>
+      <c r="Q92" s="128"/>
+      <c r="R92" s="128"/>
+      <c r="S92" s="128"/>
     </row>
     <row r="93" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="147" t="s">
+      <c r="A93" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="B93" s="147"/>
+      <c r="B93" s="133"/>
       <c r="E93" s="45" t="s">
         <v>0</v>
       </c>
@@ -8467,10 +8471,10 @@
       <c r="G94" s="36"/>
     </row>
     <row r="95" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="132" t="s">
+      <c r="A95" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="132"/>
+      <c r="B95" s="137"/>
       <c r="E95" s="34">
         <v>300</v>
       </c>
@@ -8567,25 +8571,25 @@
       <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:17" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="130" t="s">
+      <c r="A108" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="B108" s="130"/>
-      <c r="C108" s="130"/>
-      <c r="D108" s="130"/>
-      <c r="E108" s="130"/>
-      <c r="F108" s="130"/>
-      <c r="G108" s="130"/>
-      <c r="H108" s="130"/>
-      <c r="I108" s="130"/>
-      <c r="J108" s="130"/>
-      <c r="K108" s="130"/>
-      <c r="L108" s="130"/>
-      <c r="M108" s="130"/>
-      <c r="N108" s="130"/>
-      <c r="O108" s="130"/>
-      <c r="P108" s="130"/>
-      <c r="Q108" s="130"/>
+      <c r="B108" s="128"/>
+      <c r="C108" s="128"/>
+      <c r="D108" s="128"/>
+      <c r="E108" s="128"/>
+      <c r="F108" s="128"/>
+      <c r="G108" s="128"/>
+      <c r="H108" s="128"/>
+      <c r="I108" s="128"/>
+      <c r="J108" s="128"/>
+      <c r="K108" s="128"/>
+      <c r="L108" s="128"/>
+      <c r="M108" s="128"/>
+      <c r="N108" s="128"/>
+      <c r="O108" s="128"/>
+      <c r="P108" s="128"/>
+      <c r="Q108" s="128"/>
     </row>
     <row r="109" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
@@ -8605,10 +8609,10 @@
       <c r="O109" s="115"/>
     </row>
     <row r="110" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="147" t="s">
+      <c r="A110" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="B110" s="147"/>
+      <c r="B110" s="133"/>
       <c r="E110" s="23"/>
       <c r="F110" s="106" t="s">
         <v>276</v>
@@ -8654,10 +8658,10 @@
       <c r="P111" s="24"/>
     </row>
     <row r="112" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="132" t="s">
+      <c r="A112" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="B112" s="132"/>
+      <c r="B112" s="137"/>
       <c r="E112" s="23" t="s">
         <v>0</v>
       </c>
@@ -8805,71 +8809,71 @@
       <c r="A122" s="28"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="144"/>
-      <c r="B127" s="126"/>
-      <c r="C127" s="126"/>
-      <c r="D127" s="126"/>
-      <c r="E127" s="126"/>
-      <c r="F127" s="126"/>
-      <c r="G127" s="126"/>
-      <c r="H127" s="126"/>
+      <c r="A127" s="138"/>
+      <c r="B127" s="139"/>
+      <c r="C127" s="139"/>
+      <c r="D127" s="139"/>
+      <c r="E127" s="139"/>
+      <c r="F127" s="139"/>
+      <c r="G127" s="139"/>
+      <c r="H127" s="139"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="126"/>
-      <c r="B128" s="126"/>
-      <c r="C128" s="126"/>
-      <c r="D128" s="126"/>
-      <c r="E128" s="126"/>
-      <c r="F128" s="126"/>
-      <c r="G128" s="126"/>
-      <c r="H128" s="126"/>
+      <c r="A128" s="139"/>
+      <c r="B128" s="139"/>
+      <c r="C128" s="139"/>
+      <c r="D128" s="139"/>
+      <c r="E128" s="139"/>
+      <c r="F128" s="139"/>
+      <c r="G128" s="139"/>
+      <c r="H128" s="139"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="126"/>
-      <c r="B129" s="126"/>
-      <c r="C129" s="126"/>
-      <c r="D129" s="126"/>
-      <c r="E129" s="126"/>
-      <c r="F129" s="126"/>
-      <c r="G129" s="126"/>
-      <c r="H129" s="126"/>
+      <c r="A129" s="139"/>
+      <c r="B129" s="139"/>
+      <c r="C129" s="139"/>
+      <c r="D129" s="139"/>
+      <c r="E129" s="139"/>
+      <c r="F129" s="139"/>
+      <c r="G129" s="139"/>
+      <c r="H129" s="139"/>
     </row>
     <row r="130" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A130" s="136"/>
-      <c r="B130" s="136"/>
-      <c r="C130" s="136"/>
-      <c r="D130" s="136"/>
-      <c r="E130" s="136"/>
+      <c r="A130" s="150"/>
+      <c r="B130" s="150"/>
+      <c r="C130" s="150"/>
+      <c r="D130" s="150"/>
+      <c r="E130" s="150"/>
       <c r="R130" s="44"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="126"/>
-      <c r="B134" s="126"/>
-      <c r="C134" s="126"/>
-      <c r="D134" s="126"/>
-      <c r="E134" s="126"/>
-      <c r="F134" s="126"/>
-      <c r="G134" s="126"/>
+      <c r="A134" s="139"/>
+      <c r="B134" s="139"/>
+      <c r="C134" s="139"/>
+      <c r="D134" s="139"/>
+      <c r="E134" s="139"/>
+      <c r="F134" s="139"/>
+      <c r="G134" s="139"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A135" s="126"/>
-      <c r="B135" s="126"/>
-      <c r="C135" s="126"/>
-      <c r="D135" s="126"/>
-      <c r="E135" s="126"/>
-      <c r="F135" s="126"/>
-      <c r="G135" s="126"/>
+      <c r="A135" s="139"/>
+      <c r="B135" s="139"/>
+      <c r="C135" s="139"/>
+      <c r="D135" s="139"/>
+      <c r="E135" s="139"/>
+      <c r="F135" s="139"/>
+      <c r="G135" s="139"/>
     </row>
     <row r="137" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="130" t="s">
+      <c r="A137" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="B137" s="130"/>
-      <c r="C137" s="130"/>
-      <c r="D137" s="130"/>
-      <c r="E137" s="130"/>
-      <c r="F137" s="130"/>
-      <c r="G137" s="130"/>
+      <c r="B137" s="128"/>
+      <c r="C137" s="128"/>
+      <c r="D137" s="128"/>
+      <c r="E137" s="128"/>
+      <c r="F137" s="128"/>
+      <c r="G137" s="128"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F138" s="29" t="s">
@@ -8877,10 +8881,10 @@
       </c>
     </row>
     <row r="139" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="131" t="s">
+      <c r="A139" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B139" s="131"/>
+      <c r="B139" s="142"/>
       <c r="F139" s="86" t="s">
         <v>25</v>
       </c>
@@ -8890,13 +8894,13 @@
       <c r="H139" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="I139" s="146"/>
-      <c r="J139" s="146"/>
-      <c r="K139" s="146"/>
+      <c r="I139" s="141"/>
+      <c r="J139" s="141"/>
+      <c r="K139" s="141"/>
       <c r="L139" s="69"/>
-      <c r="M139" s="146"/>
-      <c r="N139" s="146"/>
-      <c r="O139" s="146"/>
+      <c r="M139" s="141"/>
+      <c r="N139" s="141"/>
+      <c r="O139" s="141"/>
     </row>
     <row r="140" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="34" t="s">
@@ -8947,10 +8951,10 @@
       <c r="O141" s="110"/>
     </row>
     <row r="142" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="132" t="s">
+      <c r="A142" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="B142" s="132"/>
+      <c r="B142" s="137"/>
       <c r="E142" s="55">
         <v>200</v>
       </c>
@@ -9106,50 +9110,50 @@
       <c r="N149" s="72"/>
     </row>
     <row r="152" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="145" t="s">
+      <c r="A152" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="B152" s="145"/>
-      <c r="C152" s="145"/>
-      <c r="D152" s="145"/>
-      <c r="E152" s="145"/>
-      <c r="F152" s="145"/>
-      <c r="G152" s="145"/>
-      <c r="H152" s="145"/>
-      <c r="I152" s="145"/>
-      <c r="J152" s="145"/>
-      <c r="K152" s="145"/>
-      <c r="L152" s="145"/>
-      <c r="M152" s="145"/>
-      <c r="N152" s="145"/>
-      <c r="O152" s="145"/>
-      <c r="P152" s="145"/>
-      <c r="Q152" s="145"/>
+      <c r="B152" s="140"/>
+      <c r="C152" s="140"/>
+      <c r="D152" s="140"/>
+      <c r="E152" s="140"/>
+      <c r="F152" s="140"/>
+      <c r="G152" s="140"/>
+      <c r="H152" s="140"/>
+      <c r="I152" s="140"/>
+      <c r="J152" s="140"/>
+      <c r="K152" s="140"/>
+      <c r="L152" s="140"/>
+      <c r="M152" s="140"/>
+      <c r="N152" s="140"/>
+      <c r="O152" s="140"/>
+      <c r="P152" s="140"/>
+      <c r="Q152" s="140"/>
     </row>
     <row r="155" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="130" t="s">
+      <c r="A155" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="B155" s="130"/>
-      <c r="C155" s="130"/>
-      <c r="D155" s="130"/>
-      <c r="E155" s="130"/>
-      <c r="F155" s="130"/>
-      <c r="G155" s="130"/>
-      <c r="H155" s="130"/>
-      <c r="I155" s="130"/>
-      <c r="J155" s="130"/>
-      <c r="K155" s="130"/>
-      <c r="L155" s="130"/>
-      <c r="M155" s="130"/>
-      <c r="N155" s="130"/>
-      <c r="O155" s="130"/>
+      <c r="B155" s="128"/>
+      <c r="C155" s="128"/>
+      <c r="D155" s="128"/>
+      <c r="E155" s="128"/>
+      <c r="F155" s="128"/>
+      <c r="G155" s="128"/>
+      <c r="H155" s="128"/>
+      <c r="I155" s="128"/>
+      <c r="J155" s="128"/>
+      <c r="K155" s="128"/>
+      <c r="L155" s="128"/>
+      <c r="M155" s="128"/>
+      <c r="N155" s="128"/>
+      <c r="O155" s="128"/>
     </row>
     <row r="156" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A156" s="133"/>
-      <c r="B156" s="134"/>
-      <c r="C156" s="134"/>
-      <c r="D156" s="134"/>
+      <c r="A156" s="148"/>
+      <c r="B156" s="149"/>
+      <c r="C156" s="149"/>
+      <c r="D156" s="149"/>
       <c r="E156" s="29" t="s">
         <v>71</v>
       </c>
@@ -9164,18 +9168,18 @@
       <c r="H157" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="I157" s="126"/>
-      <c r="J157" s="126"/>
-      <c r="K157" s="126"/>
-      <c r="M157" s="126"/>
-      <c r="N157" s="126"/>
-      <c r="O157" s="126"/>
+      <c r="I157" s="139"/>
+      <c r="J157" s="139"/>
+      <c r="K157" s="139"/>
+      <c r="M157" s="139"/>
+      <c r="N157" s="139"/>
+      <c r="O157" s="139"/>
     </row>
     <row r="158" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="135" t="s">
+      <c r="B158" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="C158" s="135"/>
+      <c r="C158" s="134"/>
       <c r="E158" s="74" t="s">
         <v>0</v>
       </c>
@@ -9436,30 +9440,30 @@
       </c>
     </row>
     <row r="175" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="130" t="s">
+      <c r="A175" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="B175" s="130"/>
-      <c r="C175" s="130"/>
-      <c r="D175" s="130"/>
-      <c r="E175" s="130"/>
-      <c r="F175" s="130"/>
-      <c r="G175" s="130"/>
-      <c r="H175" s="130"/>
-      <c r="I175" s="130"/>
-      <c r="J175" s="130"/>
-      <c r="K175" s="130"/>
-      <c r="L175" s="130"/>
-      <c r="M175" s="130"/>
-      <c r="N175" s="130"/>
-      <c r="O175" s="130"/>
-      <c r="P175" s="130"/>
+      <c r="B175" s="128"/>
+      <c r="C175" s="128"/>
+      <c r="D175" s="128"/>
+      <c r="E175" s="128"/>
+      <c r="F175" s="128"/>
+      <c r="G175" s="128"/>
+      <c r="H175" s="128"/>
+      <c r="I175" s="128"/>
+      <c r="J175" s="128"/>
+      <c r="K175" s="128"/>
+      <c r="L175" s="128"/>
+      <c r="M175" s="128"/>
+      <c r="N175" s="128"/>
+      <c r="O175" s="128"/>
+      <c r="P175" s="128"/>
     </row>
     <row r="176" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="131" t="s">
+      <c r="A176" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B176" s="131"/>
+      <c r="B176" s="142"/>
       <c r="E176" s="63" t="s">
         <v>0</v>
       </c>
@@ -9484,10 +9488,10 @@
       <c r="G177" s="65"/>
     </row>
     <row r="178" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="132" t="s">
+      <c r="A178" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="B178" s="132"/>
+      <c r="B178" s="137"/>
       <c r="E178" s="77">
         <v>300</v>
       </c>
@@ -9580,22 +9584,22 @@
       </c>
     </row>
     <row r="190" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="130" t="s">
+      <c r="A190" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="B190" s="130"/>
-      <c r="C190" s="130"/>
-      <c r="D190" s="130"/>
-      <c r="E190" s="130"/>
-      <c r="F190" s="130"/>
-      <c r="G190" s="130"/>
-      <c r="H190" s="130"/>
-      <c r="I190" s="130"/>
-      <c r="J190" s="130"/>
-      <c r="K190" s="130"/>
-      <c r="L190" s="130"/>
-      <c r="M190" s="130"/>
-      <c r="N190" s="130"/>
+      <c r="B190" s="128"/>
+      <c r="C190" s="128"/>
+      <c r="D190" s="128"/>
+      <c r="E190" s="128"/>
+      <c r="F190" s="128"/>
+      <c r="G190" s="128"/>
+      <c r="H190" s="128"/>
+      <c r="I190" s="128"/>
+      <c r="J190" s="128"/>
+      <c r="K190" s="128"/>
+      <c r="L190" s="128"/>
+      <c r="M190" s="128"/>
+      <c r="N190" s="128"/>
     </row>
     <row r="191" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D191" s="78" t="s">
@@ -9603,10 +9607,10 @@
       </c>
     </row>
     <row r="192" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="131" t="s">
+      <c r="A192" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="B192" s="131"/>
+      <c r="B192" s="142"/>
     </row>
     <row r="193" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="51" t="s">
@@ -9695,29 +9699,29 @@
       </c>
     </row>
     <row r="205" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="130" t="s">
+      <c r="A205" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="B205" s="130"/>
-      <c r="C205" s="130"/>
-      <c r="D205" s="130"/>
-      <c r="E205" s="130"/>
-      <c r="F205" s="130"/>
-      <c r="G205" s="130"/>
-      <c r="H205" s="130"/>
-      <c r="I205" s="130"/>
-      <c r="J205" s="130"/>
-      <c r="K205" s="130"/>
-      <c r="L205" s="130"/>
-      <c r="M205" s="130"/>
-      <c r="N205" s="130"/>
-      <c r="O205" s="130"/>
+      <c r="B205" s="128"/>
+      <c r="C205" s="128"/>
+      <c r="D205" s="128"/>
+      <c r="E205" s="128"/>
+      <c r="F205" s="128"/>
+      <c r="G205" s="128"/>
+      <c r="H205" s="128"/>
+      <c r="I205" s="128"/>
+      <c r="J205" s="128"/>
+      <c r="K205" s="128"/>
+      <c r="L205" s="128"/>
+      <c r="M205" s="128"/>
+      <c r="N205" s="128"/>
+      <c r="O205" s="128"/>
     </row>
     <row r="206" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K206" s="127"/>
-      <c r="L206" s="127"/>
-      <c r="M206" s="142"/>
-      <c r="N206" s="142"/>
+      <c r="K206" s="147"/>
+      <c r="L206" s="147"/>
+      <c r="M206" s="127"/>
+      <c r="N206" s="127"/>
     </row>
     <row r="207" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="29" t="s">
@@ -9779,8 +9783,8 @@
       </c>
     </row>
     <row r="213" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="142"/>
-      <c r="B213" s="142"/>
+      <c r="A213" s="127"/>
+      <c r="B213" s="127"/>
     </row>
     <row r="214" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="34"/>
@@ -9792,20 +9796,20 @@
     </row>
     <row r="216" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="219" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="130" t="s">
+      <c r="A219" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="B219" s="130"/>
-      <c r="C219" s="130"/>
-      <c r="D219" s="130"/>
-      <c r="E219" s="130"/>
-      <c r="F219" s="130"/>
-      <c r="G219" s="130"/>
-      <c r="H219" s="130"/>
-      <c r="I219" s="130"/>
-      <c r="J219" s="130"/>
-      <c r="K219" s="130"/>
-      <c r="L219" s="130"/>
+      <c r="B219" s="128"/>
+      <c r="C219" s="128"/>
+      <c r="D219" s="128"/>
+      <c r="E219" s="128"/>
+      <c r="F219" s="128"/>
+      <c r="G219" s="128"/>
+      <c r="H219" s="128"/>
+      <c r="I219" s="128"/>
+      <c r="J219" s="128"/>
+      <c r="K219" s="128"/>
+      <c r="L219" s="128"/>
     </row>
     <row r="220" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G220" s="79" t="s">
@@ -9817,10 +9821,10 @@
       <c r="I220" s="80"/>
     </row>
     <row r="221" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="142" t="s">
+      <c r="A221" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="142"/>
+      <c r="B221" s="127"/>
       <c r="G221" s="33">
         <v>100</v>
       </c>
@@ -9879,19 +9883,19 @@
       </c>
     </row>
     <row r="230" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="130" t="s">
+      <c r="A230" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="B230" s="130"/>
-      <c r="C230" s="130"/>
-      <c r="D230" s="130"/>
-      <c r="E230" s="130"/>
-      <c r="F230" s="130"/>
-      <c r="G230" s="130"/>
-      <c r="H230" s="130"/>
-      <c r="I230" s="130"/>
-      <c r="J230" s="130"/>
-      <c r="K230" s="130"/>
+      <c r="B230" s="128"/>
+      <c r="C230" s="128"/>
+      <c r="D230" s="128"/>
+      <c r="E230" s="128"/>
+      <c r="F230" s="128"/>
+      <c r="G230" s="128"/>
+      <c r="H230" s="128"/>
+      <c r="I230" s="128"/>
+      <c r="J230" s="128"/>
+      <c r="K230" s="128"/>
     </row>
     <row r="231" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C231" s="10" t="s">
@@ -9948,10 +9952,10 @@
       <c r="E236" s="36"/>
     </row>
     <row r="237" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="142" t="s">
+      <c r="A237" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="142"/>
+      <c r="B237" s="127"/>
     </row>
     <row r="238" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="34" t="s">
@@ -10001,24 +10005,24 @@
     </row>
     <row r="243" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="245" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="130" t="s">
+      <c r="A245" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="B245" s="130"/>
-      <c r="C245" s="130"/>
-      <c r="D245" s="130"/>
-      <c r="E245" s="130"/>
-      <c r="F245" s="130"/>
-      <c r="G245" s="130"/>
-      <c r="H245" s="130"/>
-      <c r="I245" s="130"/>
-      <c r="J245" s="130"/>
-      <c r="K245" s="130"/>
-      <c r="L245" s="130"/>
-      <c r="M245" s="130"/>
-      <c r="N245" s="130"/>
-      <c r="O245" s="130"/>
-      <c r="P245" s="130"/>
+      <c r="B245" s="128"/>
+      <c r="C245" s="128"/>
+      <c r="D245" s="128"/>
+      <c r="E245" s="128"/>
+      <c r="F245" s="128"/>
+      <c r="G245" s="128"/>
+      <c r="H245" s="128"/>
+      <c r="I245" s="128"/>
+      <c r="J245" s="128"/>
+      <c r="K245" s="128"/>
+      <c r="L245" s="128"/>
+      <c r="M245" s="128"/>
+      <c r="N245" s="128"/>
+      <c r="O245" s="128"/>
+      <c r="P245" s="128"/>
     </row>
     <row r="247" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C247" s="10" t="s">
@@ -10063,10 +10067,10 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="142" t="s">
+      <c r="A254" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="142"/>
+      <c r="B254" s="127"/>
     </row>
     <row r="255" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="34" t="s">
@@ -10105,25 +10109,25 @@
       </c>
     </row>
     <row r="262" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="130" t="s">
+      <c r="A262" s="128" t="s">
         <v>113</v>
       </c>
-      <c r="B262" s="130"/>
-      <c r="C262" s="130"/>
-      <c r="D262" s="130"/>
-      <c r="E262" s="130"/>
-      <c r="F262" s="130"/>
-      <c r="G262" s="130"/>
-      <c r="H262" s="130"/>
-      <c r="I262" s="130"/>
-      <c r="J262" s="130"/>
-      <c r="K262" s="130"/>
-      <c r="L262" s="130"/>
-      <c r="M262" s="130"/>
-      <c r="N262" s="130"/>
-      <c r="O262" s="130"/>
-      <c r="P262" s="130"/>
-      <c r="Q262" s="130"/>
+      <c r="B262" s="128"/>
+      <c r="C262" s="128"/>
+      <c r="D262" s="128"/>
+      <c r="E262" s="128"/>
+      <c r="F262" s="128"/>
+      <c r="G262" s="128"/>
+      <c r="H262" s="128"/>
+      <c r="I262" s="128"/>
+      <c r="J262" s="128"/>
+      <c r="K262" s="128"/>
+      <c r="L262" s="128"/>
+      <c r="M262" s="128"/>
+      <c r="N262" s="128"/>
+      <c r="O262" s="128"/>
+      <c r="P262" s="128"/>
+      <c r="Q262" s="128"/>
     </row>
     <row r="264" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C264" s="10" t="s">
@@ -10133,10 +10137,10 @@
         <v>7</v>
       </c>
       <c r="E264" s="81"/>
-      <c r="G264" s="142" t="s">
+      <c r="G264" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="H264" s="142"/>
+      <c r="H264" s="127"/>
     </row>
     <row r="265" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C265" s="34">
@@ -10182,11 +10186,11 @@
       </c>
     </row>
     <row r="268" spans="1:17" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C268" s="141" t="s">
+      <c r="C268" s="144" t="s">
         <v>106</v>
       </c>
-      <c r="D268" s="141"/>
-      <c r="E268" s="141"/>
+      <c r="D268" s="144"/>
+      <c r="E268" s="144"/>
     </row>
     <row r="269" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
@@ -10206,6 +10210,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A175:P175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="I157:K157"/>
+    <mergeCell ref="M157:O157"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A262:Q262"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="G264:H264"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A245:P245"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A230:K230"/>
+    <mergeCell ref="A190:N190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A205:O205"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A219:L219"/>
+    <mergeCell ref="A127:H129"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A155:O155"/>
+    <mergeCell ref="A152:Q152"/>
+    <mergeCell ref="A134:G135"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="I139:K139"/>
+    <mergeCell ref="M139:O139"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A92:S92"/>
+    <mergeCell ref="A108:Q108"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A21:I21"/>
@@ -10222,84 +10304,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A92:S92"/>
-    <mergeCell ref="A108:Q108"/>
-    <mergeCell ref="A127:H129"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A155:O155"/>
-    <mergeCell ref="A152:Q152"/>
-    <mergeCell ref="A134:G135"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="I139:K139"/>
-    <mergeCell ref="M139:O139"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A230:K230"/>
-    <mergeCell ref="A190:N190"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A205:O205"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A219:L219"/>
-    <mergeCell ref="A262:Q262"/>
-    <mergeCell ref="C268:E268"/>
-    <mergeCell ref="G264:H264"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A245:P245"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A175:P175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="I157:K157"/>
-    <mergeCell ref="M157:O157"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="A130:E130"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A38" r:id="rId1" display="https://rubraslet.ru/silicon/2-site/121-segmentatsiya-svirl-202kh12kh2.html?ml=1"/>
@@ -10324,8 +10328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N137" sqref="N137:N138"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10424,29 +10428,29 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:21" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130"/>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130"/>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -10712,48 +10716,48 @@
       <c r="G30" s="121"/>
     </row>
     <row r="31" spans="1:19" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="130" t="s">
+      <c r="A31" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="130"/>
-      <c r="L31" s="130"/>
-      <c r="M31" s="130"/>
-      <c r="N31" s="130"/>
-      <c r="O31" s="130"/>
-      <c r="P31" s="130"/>
-      <c r="Q31" s="130"/>
-      <c r="R31" s="130"/>
-      <c r="S31" s="130"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="128"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
     </row>
     <row r="32" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="130" t="s">
+      <c r="A32" s="128" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="130"/>
-      <c r="M32" s="130"/>
-      <c r="N32" s="130"/>
-      <c r="O32" s="130"/>
-      <c r="P32" s="130"/>
-      <c r="Q32" s="130"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="128"/>
     </row>
     <row r="33" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="15"/>
@@ -11119,45 +11123,45 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="130" t="s">
+      <c r="A56" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="B56" s="130"/>
-      <c r="C56" s="130"/>
-      <c r="D56" s="130"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="130"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="130"/>
-      <c r="K56" s="130"/>
-      <c r="L56" s="130"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="130"/>
-      <c r="O56" s="130"/>
-      <c r="P56" s="130"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="128"/>
+      <c r="M56" s="128"/>
+      <c r="N56" s="128"/>
+      <c r="O56" s="128"/>
+      <c r="P56" s="128"/>
     </row>
     <row r="57" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="130" t="s">
+      <c r="A57" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="130"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="130"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="130"/>
-      <c r="I57" s="130"/>
-      <c r="J57" s="130"/>
-      <c r="K57" s="130"/>
-      <c r="L57" s="130"/>
-      <c r="M57" s="130"/>
-      <c r="N57" s="130"/>
-      <c r="O57" s="130"/>
-      <c r="P57" s="130"/>
-      <c r="Q57" s="130"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="128"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="128"/>
+      <c r="M57" s="128"/>
+      <c r="N57" s="128"/>
+      <c r="O57" s="128"/>
+      <c r="P57" s="128"/>
+      <c r="Q57" s="128"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
@@ -11515,12 +11519,12 @@
     </row>
     <row r="70" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="126"/>
-      <c r="H72" s="126"/>
-      <c r="I72" s="126"/>
-      <c r="J72" s="126"/>
+      <c r="D72" s="139"/>
+      <c r="E72" s="139"/>
+      <c r="F72" s="139"/>
+      <c r="H72" s="139"/>
+      <c r="I72" s="139"/>
+      <c r="J72" s="139"/>
     </row>
     <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="42"/>
@@ -11608,44 +11612,44 @@
       </c>
     </row>
     <row r="89" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="130" t="s">
+      <c r="A89" s="128" t="s">
         <v>157</v>
       </c>
-      <c r="B89" s="130"/>
-      <c r="C89" s="130"/>
-      <c r="D89" s="130"/>
-      <c r="E89" s="130"/>
-      <c r="F89" s="130"/>
-      <c r="G89" s="130"/>
-      <c r="H89" s="130"/>
-      <c r="I89" s="130"/>
-      <c r="J89" s="130"/>
-      <c r="K89" s="130"/>
-      <c r="L89" s="130"/>
-      <c r="M89" s="130"/>
-      <c r="N89" s="130"/>
-      <c r="O89" s="130"/>
+      <c r="B89" s="128"/>
+      <c r="C89" s="128"/>
+      <c r="D89" s="128"/>
+      <c r="E89" s="128"/>
+      <c r="F89" s="128"/>
+      <c r="G89" s="128"/>
+      <c r="H89" s="128"/>
+      <c r="I89" s="128"/>
+      <c r="J89" s="128"/>
+      <c r="K89" s="128"/>
+      <c r="L89" s="128"/>
+      <c r="M89" s="128"/>
+      <c r="N89" s="128"/>
+      <c r="O89" s="128"/>
     </row>
     <row r="90" spans="1:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="130" t="s">
+      <c r="A90" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="B90" s="130"/>
-      <c r="C90" s="130"/>
-      <c r="D90" s="130"/>
-      <c r="E90" s="130"/>
-      <c r="F90" s="130"/>
-      <c r="G90" s="130"/>
-      <c r="H90" s="130"/>
-      <c r="I90" s="130"/>
-      <c r="J90" s="130"/>
-      <c r="K90" s="130"/>
-      <c r="L90" s="130"/>
-      <c r="M90" s="130"/>
-      <c r="N90" s="130"/>
-      <c r="O90" s="130"/>
-      <c r="P90" s="130"/>
-      <c r="Q90" s="130"/>
+      <c r="B90" s="128"/>
+      <c r="C90" s="128"/>
+      <c r="D90" s="128"/>
+      <c r="E90" s="128"/>
+      <c r="F90" s="128"/>
+      <c r="G90" s="128"/>
+      <c r="H90" s="128"/>
+      <c r="I90" s="128"/>
+      <c r="J90" s="128"/>
+      <c r="K90" s="128"/>
+      <c r="L90" s="128"/>
+      <c r="M90" s="128"/>
+      <c r="N90" s="128"/>
+      <c r="O90" s="128"/>
+      <c r="P90" s="128"/>
+      <c r="Q90" s="128"/>
     </row>
     <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="30"/>
@@ -11673,13 +11677,13 @@
       <c r="M91" s="30"/>
     </row>
     <row r="92" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F92" s="146"/>
-      <c r="G92" s="146"/>
-      <c r="H92" s="146"/>
+      <c r="F92" s="141"/>
+      <c r="G92" s="141"/>
+      <c r="H92" s="141"/>
       <c r="I92" s="68"/>
-      <c r="J92" s="146"/>
-      <c r="K92" s="146"/>
-      <c r="L92" s="146"/>
+      <c r="J92" s="141"/>
+      <c r="K92" s="141"/>
+      <c r="L92" s="141"/>
       <c r="M92" s="30"/>
     </row>
     <row r="93" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -11957,10 +11961,10 @@
       <c r="M102" s="30"/>
     </row>
     <row r="103" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="135" t="s">
+      <c r="B103" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="135"/>
+      <c r="C103" s="134"/>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
       <c r="F103" s="28" t="s">
@@ -12042,30 +12046,30 @@
     </row>
     <row r="108" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="130" t="s">
+      <c r="A113" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="B113" s="130"/>
-      <c r="C113" s="130"/>
-      <c r="D113" s="130"/>
-      <c r="E113" s="130"/>
-      <c r="F113" s="130"/>
-      <c r="G113" s="130"/>
-      <c r="H113" s="130"/>
-      <c r="I113" s="130"/>
-      <c r="J113" s="130"/>
-      <c r="K113" s="130"/>
-      <c r="L113" s="130"/>
-      <c r="M113" s="130"/>
-      <c r="N113" s="130"/>
+      <c r="B113" s="128"/>
+      <c r="C113" s="128"/>
+      <c r="D113" s="128"/>
+      <c r="E113" s="128"/>
+      <c r="F113" s="128"/>
+      <c r="G113" s="128"/>
+      <c r="H113" s="128"/>
+      <c r="I113" s="128"/>
+      <c r="J113" s="128"/>
+      <c r="K113" s="128"/>
+      <c r="L113" s="128"/>
+      <c r="M113" s="128"/>
+      <c r="N113" s="128"/>
     </row>
     <row r="114" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F114" s="126"/>
-      <c r="G114" s="126"/>
-      <c r="H114" s="126"/>
-      <c r="J114" s="126"/>
-      <c r="K114" s="126"/>
-      <c r="L114" s="126"/>
+      <c r="F114" s="139"/>
+      <c r="G114" s="139"/>
+      <c r="H114" s="139"/>
+      <c r="J114" s="139"/>
+      <c r="K114" s="139"/>
+      <c r="L114" s="139"/>
     </row>
     <row r="115" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F115" s="97"/>
@@ -12300,10 +12304,10 @@
       </c>
     </row>
     <row r="125" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="135" t="s">
+      <c r="B125" s="134" t="s">
         <v>48</v>
       </c>
-      <c r="C125" s="135"/>
+      <c r="C125" s="134"/>
       <c r="G125" s="21">
         <v>3000</v>
       </c>
@@ -12375,23 +12379,23 @@
     </row>
     <row r="130" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A132" s="144" t="s">
+      <c r="A132" s="138" t="s">
         <v>168</v>
       </c>
-      <c r="B132" s="126"/>
-      <c r="C132" s="126"/>
-      <c r="D132" s="126"/>
-      <c r="E132" s="126"/>
-      <c r="F132" s="126"/>
-      <c r="G132" s="126"/>
-      <c r="H132" s="126"/>
-      <c r="I132" s="126"/>
-      <c r="J132" s="126"/>
-      <c r="K132" s="126"/>
-      <c r="L132" s="126"/>
-      <c r="M132" s="126"/>
-      <c r="N132" s="126"/>
-      <c r="O132" s="126"/>
+      <c r="B132" s="139"/>
+      <c r="C132" s="139"/>
+      <c r="D132" s="139"/>
+      <c r="E132" s="139"/>
+      <c r="F132" s="139"/>
+      <c r="G132" s="139"/>
+      <c r="H132" s="139"/>
+      <c r="I132" s="139"/>
+      <c r="J132" s="139"/>
+      <c r="K132" s="139"/>
+      <c r="L132" s="139"/>
+      <c r="M132" s="139"/>
+      <c r="N132" s="139"/>
+      <c r="O132" s="139"/>
     </row>
     <row r="133" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12543,10 +12547,10 @@
       </c>
     </row>
     <row r="143" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="135" t="s">
+      <c r="C143" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="D143" s="135"/>
+      <c r="D143" s="134"/>
     </row>
     <row r="144" spans="1:15" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C144" s="19" t="s">
@@ -12560,10 +12564,10 @@
       </c>
     </row>
     <row r="145" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="148" t="s">
+      <c r="C145" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="D145" s="148"/>
+      <c r="D145" s="135"/>
       <c r="F145" s="28" t="s">
         <v>174</v>
       </c>
@@ -12580,6 +12584,16 @@
     <row r="147" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A10:U10"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:Q57"/>
     <mergeCell ref="A132:O132"/>
     <mergeCell ref="C143:D143"/>
     <mergeCell ref="C145:D145"/>
@@ -12592,16 +12606,6 @@
     <mergeCell ref="A113:N113"/>
     <mergeCell ref="F114:H114"/>
     <mergeCell ref="J114:L114"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A10:U10"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:Q57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -12618,8 +12622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12630,36 +12634,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="128" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -12777,10 +12781,10 @@
       <c r="T9" s="121"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="142"/>
       <c r="T10" s="121"/>
     </row>
     <row r="11" spans="1:28" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12808,10 +12812,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="132"/>
+      <c r="B14" s="137"/>
     </row>
     <row r="15" spans="1:28" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
@@ -12823,33 +12827,33 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="130" t="s">
+      <c r="A19" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="130"/>
-      <c r="S19" s="130"/>
-      <c r="T19" s="130"/>
-      <c r="U19" s="130"/>
-      <c r="V19" s="130"/>
-      <c r="W19" s="130"/>
-      <c r="X19" s="130"/>
-      <c r="Y19" s="130"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83" t="s">
@@ -12956,10 +12960,10 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="142"/>
     </row>
     <row r="30" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
@@ -12978,10 +12982,10 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="132" t="s">
+      <c r="A32" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="132"/>
+      <c r="B32" s="137"/>
     </row>
     <row r="33" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
@@ -12993,27 +12997,27 @@
     </row>
     <row r="34" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="130" t="s">
+      <c r="A36" s="128" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="130"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="130"/>
-      <c r="P36" s="130"/>
-      <c r="Q36" s="130"/>
-      <c r="R36" s="130"/>
-      <c r="S36" s="130"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="128"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
@@ -13078,10 +13082,10 @@
     </row>
     <row r="42" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="131" t="s">
+      <c r="A43" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="131"/>
+      <c r="B43" s="142"/>
     </row>
     <row r="44" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34" t="s">
@@ -13092,10 +13096,10 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="132" t="s">
+      <c r="A45" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="132"/>
+      <c r="B45" s="137"/>
     </row>
     <row r="46" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34" t="s">
@@ -13128,8 +13132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13146,30 +13150,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="128" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -13260,30 +13264,54 @@
     </row>
     <row r="8" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="131"/>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="142"/>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="155" t="s">
         <v>284</v>
+      </c>
+      <c r="F10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H10" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="B11" s="155"/>
+      <c r="B11" s="156"/>
+      <c r="E11" s="122">
+        <v>559</v>
+      </c>
+      <c r="F11" s="121" t="str">
+        <f>"insert into Category (parentId,tip) values("&amp;$E$11&amp;",'"&amp;F10&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(559,'эконом-печать от 2500 шт.');</v>
+      </c>
+      <c r="G11" s="121" t="str">
+        <f t="shared" ref="G11:H11" si="1">"insert into Category (parentId,tip) values("&amp;$E$11&amp;",'"&amp;G10&amp;"');"</f>
+        <v>insert into Category (parentId,tip) values(559,'цифровая печать');</v>
+      </c>
+      <c r="H11" s="121" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into Category (parentId,tip) values(559,'полноцветное нанесение');</v>
+      </c>
     </row>
     <row r="12" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="157" t="s">
         <v>285</v>
       </c>
     </row>
@@ -13291,7 +13319,7 @@
       <c r="A13" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="155"/>
+      <c r="B13" s="156"/>
     </row>
     <row r="14" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
@@ -13323,28 +13351,28 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="130" t="s">
+      <c r="A22" s="128" t="s">
         <v>204</v>
       </c>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="130"/>
-      <c r="O22" s="130"/>
-      <c r="P22" s="130"/>
-      <c r="Q22" s="130"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="130"/>
-      <c r="T22" s="130"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="83" t="s">
@@ -13378,7 +13406,7 @@
         <v>4.8</v>
       </c>
       <c r="C25" s="121" t="str">
-        <f t="shared" ref="C25:C28" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$23&amp;","&amp;A25&amp;","&amp;SUBSTITUTE(TEXT(B25,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="C25:C28" si="2">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$B$23&amp;","&amp;A25&amp;","&amp;SUBSTITUTE(TEXT(B25,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,560,1000,4.80);</v>
       </c>
     </row>
@@ -13390,7 +13418,7 @@
         <v>4.7</v>
       </c>
       <c r="C26" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,560,2500,4.70);</v>
       </c>
     </row>
@@ -13402,7 +13430,7 @@
         <v>4.5</v>
       </c>
       <c r="C27" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,560,5000,4.50);</v>
       </c>
     </row>
@@ -13414,16 +13442,16 @@
         <v>4.3</v>
       </c>
       <c r="C28" s="121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,560,10000,4.30);</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="131"/>
+      <c r="B30" s="142"/>
     </row>
     <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
@@ -13469,11 +13497,11 @@
         <v>insert into Category (parentId,tip) values(561,'Сублимация 12 мм');</v>
       </c>
       <c r="F39" s="121" t="str">
-        <f t="shared" ref="F39:G39" si="2">"insert into Category (parentId,tip) values("&amp;$D$39&amp;",'"&amp;E42&amp;"');"</f>
+        <f t="shared" ref="F39:G39" si="3">"insert into Category (parentId,tip) values("&amp;$D$39&amp;",'"&amp;E42&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(561,'Сублимация 15 мм');</v>
       </c>
       <c r="G39" s="121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>insert into Category (parentId,tip) values(561,'Вышивка  12мм');</v>
       </c>
       <c r="H39" s="121" t="str">
@@ -13482,50 +13510,50 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="130" t="s">
+      <c r="A40" s="128" t="s">
         <v>210</v>
       </c>
-      <c r="B40" s="130"/>
-      <c r="C40" s="130"/>
-      <c r="D40" s="130"/>
-      <c r="E40" s="130"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="130"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="130"/>
-      <c r="Q40" s="130"/>
-      <c r="R40" s="130"/>
-      <c r="S40" s="130"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="128"/>
+      <c r="M40" s="128"/>
+      <c r="N40" s="128"/>
+      <c r="O40" s="128"/>
+      <c r="P40" s="128"/>
+      <c r="Q40" s="128"/>
+      <c r="R40" s="128"/>
+      <c r="S40" s="128"/>
     </row>
     <row r="41" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="130" t="s">
+      <c r="A41" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="130"/>
-      <c r="I41" s="130"/>
-      <c r="J41" s="130"/>
-      <c r="K41" s="130"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="130"/>
-      <c r="N41" s="130"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="130"/>
-      <c r="Q41" s="130"/>
-      <c r="R41" s="130"/>
-      <c r="S41" s="130"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="128"/>
+      <c r="O41" s="128"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="128"/>
+      <c r="R41" s="128"/>
+      <c r="S41" s="128"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D42" s="89" t="s">
@@ -13564,11 +13592,11 @@
         <v>delete price where catId=562 and firma=10;</v>
       </c>
       <c r="J43" s="121" t="str">
-        <f t="shared" ref="J43:K43" si="3">"delete price where catId="&amp;E43&amp;" and firma=10;"</f>
+        <f t="shared" ref="J43:K43" si="4">"delete price where catId="&amp;E43&amp;" and firma=10;"</f>
         <v>delete price where catId=563 and firma=10;</v>
       </c>
       <c r="K43" s="121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>delete price where catId=564 and firma=10;</v>
       </c>
       <c r="L43" s="121" t="str">
@@ -13597,15 +13625,15 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,562,100,37.00);</v>
       </c>
       <c r="J44" s="121" t="str">
-        <f t="shared" ref="J44:L49" si="4">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;E$43&amp;","&amp;$C44&amp;","&amp;SUBSTITUTE(TEXT(E44,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="J44:L49" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;E$43&amp;","&amp;$C44&amp;","&amp;SUBSTITUTE(TEXT(E44,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,563,100,38.00);</v>
       </c>
       <c r="K44" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,564,100,46.00);</v>
       </c>
       <c r="L44" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,565,100,47.00);</v>
       </c>
     </row>
@@ -13626,19 +13654,19 @@
         <v>31</v>
       </c>
       <c r="I45" s="121" t="str">
-        <f t="shared" ref="I45:I48" si="5">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;D$43&amp;","&amp;$C45&amp;","&amp;SUBSTITUTE(TEXT(D45,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="I45:I48" si="6">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;D$43&amp;","&amp;$C45&amp;","&amp;SUBSTITUTE(TEXT(D45,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,562,300,30.00);</v>
       </c>
       <c r="J45" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,563,300,31.00);</v>
       </c>
       <c r="K45" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,564,300,29.00);</v>
       </c>
       <c r="L45" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,565,300,31.00);</v>
       </c>
     </row>
@@ -13659,19 +13687,19 @@
         <v>28</v>
       </c>
       <c r="I46" s="121" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,562,500,28.00);</v>
+      </c>
+      <c r="J46" s="121" t="str">
         <f t="shared" si="5"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,562,500,28.00);</v>
-      </c>
-      <c r="J46" s="121" t="str">
-        <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,563,500,29.00);</v>
       </c>
       <c r="K46" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,564,500,27.00);</v>
       </c>
       <c r="L46" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,565,500,28.00);</v>
       </c>
     </row>
@@ -13692,19 +13720,19 @@
         <v>25</v>
       </c>
       <c r="I47" s="121" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,562,1000,23.00);</v>
+      </c>
+      <c r="J47" s="121" t="str">
         <f t="shared" si="5"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,562,1000,23.00);</v>
-      </c>
-      <c r="J47" s="121" t="str">
-        <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,563,1000,25.00);</v>
       </c>
       <c r="K47" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,564,1000,25.00);</v>
       </c>
       <c r="L47" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,565,1000,25.00);</v>
       </c>
     </row>
@@ -13725,19 +13753,19 @@
         <v>23</v>
       </c>
       <c r="I48" s="121" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into price (firma,catId,tiraz,cena) values (10,562,3000,21.00);</v>
+      </c>
+      <c r="J48" s="121" t="str">
         <f t="shared" si="5"/>
-        <v>insert into price (firma,catId,tiraz,cena) values (10,562,3000,21.00);</v>
-      </c>
-      <c r="J48" s="121" t="str">
-        <f t="shared" si="4"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,563,3000,22.00);</v>
       </c>
       <c r="K48" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,564,3000,23.00);</v>
       </c>
       <c r="L48" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,565,3000,23.00);</v>
       </c>
     </row>
@@ -13762,24 +13790,24 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,562,5000,20.00);</v>
       </c>
       <c r="J49" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,563,5000,21.00);</v>
       </c>
       <c r="K49" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,564,5000,21.00);</v>
       </c>
       <c r="L49" s="121" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,565,5000,22.00);</v>
       </c>
     </row>
     <row r="50" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="157" t="s">
+      <c r="C50" s="154" t="s">
         <v>211</v>
       </c>
-      <c r="D50" s="157"/>
-      <c r="E50" s="157"/>
+      <c r="D50" s="154"/>
+      <c r="E50" s="154"/>
       <c r="F50" s="101" t="s">
         <v>216</v>
       </c>
@@ -13787,12 +13815,12 @@
     </row>
     <row r="51" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="139"/>
+      <c r="E52" s="139"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="139"/>
+      <c r="I52" s="139"/>
     </row>
     <row r="53" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="50"/>
@@ -13844,17 +13872,17 @@
       <c r="I59" s="36"/>
     </row>
     <row r="60" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="157"/>
-      <c r="D60" s="157"/>
-      <c r="E60" s="157"/>
+      <c r="C60" s="154"/>
+      <c r="D60" s="154"/>
+      <c r="E60" s="154"/>
       <c r="G60" s="101"/>
     </row>
     <row r="61" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="135" t="s">
+      <c r="C62" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="135"/>
+      <c r="D62" s="134"/>
     </row>
     <row r="63" spans="3:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="19" t="s">
@@ -13879,6 +13907,12 @@
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A22:T22"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="A40:S40"/>
     <mergeCell ref="A41:S41"/>
@@ -13886,12 +13920,6 @@
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="G52:I52"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A22:T22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" display="https://rubraslet.ru/bumaga.html"/>
@@ -13908,8 +13936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A28:A30"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13924,37 +13952,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="128"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -14081,10 +14109,10 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="142"/>
       <c r="U10" s="121"/>
     </row>
     <row r="11" spans="1:29" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14113,32 +14141,32 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="128" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="130"/>
-      <c r="N16" s="130"/>
-      <c r="O16" s="130"/>
-      <c r="P16" s="130"/>
-      <c r="Q16" s="130"/>
-      <c r="R16" s="130"/>
-      <c r="S16" s="130"/>
-      <c r="T16" s="130"/>
-      <c r="U16" s="130"/>
-      <c r="V16" s="130"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="130"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
@@ -14242,10 +14270,10 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="131" t="s">
+      <c r="A27" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="131"/>
+      <c r="B27" s="142"/>
     </row>
     <row r="28" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
@@ -14272,10 +14300,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="132" t="s">
+      <c r="A31" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="132"/>
+      <c r="B31" s="137"/>
     </row>
     <row r="32" spans="1:9" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
@@ -14307,36 +14335,36 @@
       <c r="H34" s="121"/>
     </row>
     <row r="35" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="130" t="s">
+      <c r="A35" s="128" t="s">
         <v>235</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="130"/>
-      <c r="M35" s="130"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="130"/>
-      <c r="Q35" s="130"/>
-      <c r="R35" s="130"/>
-      <c r="S35" s="130"/>
-      <c r="T35" s="130"/>
-      <c r="U35" s="130"/>
-      <c r="V35" s="130"/>
-      <c r="W35" s="130"/>
-      <c r="X35" s="130"/>
-      <c r="Y35" s="130"/>
-      <c r="Z35" s="130"/>
-      <c r="AA35" s="130"/>
-      <c r="AB35" s="130"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="128"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="128"/>
+      <c r="V35" s="128"/>
+      <c r="W35" s="128"/>
+      <c r="X35" s="128"/>
+      <c r="Y35" s="128"/>
+      <c r="Z35" s="128"/>
+      <c r="AA35" s="128"/>
+      <c r="AB35" s="128"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" s="102" t="s">
@@ -14354,9 +14382,9 @@
       <c r="H36" s="102"/>
       <c r="I36" s="102"/>
       <c r="J36" s="102"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="126"/>
-      <c r="N36" s="126"/>
+      <c r="L36" s="139"/>
+      <c r="M36" s="139"/>
+      <c r="N36" s="139"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="83" t="s">
@@ -14591,10 +14619,10 @@
     </row>
     <row r="45" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="135" t="s">
+      <c r="A59" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="135"/>
+      <c r="B59" s="134"/>
     </row>
     <row r="60" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
@@ -14630,10 +14658,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="148" t="s">
+      <c r="A63" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="148"/>
+      <c r="B63" s="135"/>
     </row>
     <row r="64" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
@@ -14658,30 +14686,30 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="130" t="s">
+      <c r="A67" s="128" t="s">
         <v>241</v>
       </c>
-      <c r="B67" s="130"/>
-      <c r="C67" s="130"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="130"/>
-      <c r="F67" s="130"/>
-      <c r="G67" s="130"/>
-      <c r="H67" s="130"/>
-      <c r="I67" s="130"/>
-      <c r="J67" s="130"/>
-      <c r="K67" s="130"/>
-      <c r="L67" s="130"/>
-      <c r="M67" s="130"/>
-      <c r="N67" s="130"/>
-      <c r="O67" s="130"/>
-      <c r="P67" s="130"/>
-      <c r="Q67" s="130"/>
-      <c r="R67" s="130"/>
-      <c r="S67" s="130"/>
-      <c r="T67" s="130"/>
-      <c r="U67" s="130"/>
-      <c r="V67" s="130"/>
+      <c r="B67" s="128"/>
+      <c r="C67" s="128"/>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128"/>
+      <c r="F67" s="128"/>
+      <c r="G67" s="128"/>
+      <c r="H67" s="128"/>
+      <c r="I67" s="128"/>
+      <c r="J67" s="128"/>
+      <c r="K67" s="128"/>
+      <c r="L67" s="128"/>
+      <c r="M67" s="128"/>
+      <c r="N67" s="128"/>
+      <c r="O67" s="128"/>
+      <c r="P67" s="128"/>
+      <c r="Q67" s="128"/>
+      <c r="R67" s="128"/>
+      <c r="S67" s="128"/>
+      <c r="T67" s="128"/>
+      <c r="U67" s="128"/>
+      <c r="V67" s="128"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="102" t="s">
@@ -14693,12 +14721,12 @@
       <c r="C68" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="126"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="126"/>
+      <c r="E68" s="139"/>
+      <c r="F68" s="139"/>
+      <c r="G68" s="139"/>
+      <c r="H68" s="139"/>
+      <c r="I68" s="139"/>
+      <c r="J68" s="139"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50" t="s">
@@ -14921,6 +14949,11 @@
     <row r="83" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:X16"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A67:V67"/>
     <mergeCell ref="E68:J68"/>
@@ -14929,11 +14962,6 @@
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="L36:N36"/>
     <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:X16"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://rubraslet.ru/reflectors/2-site/79-fasovka-svetootrazhayushchikh-nakleek.html?ml=1"/>
@@ -14949,7 +14977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -14961,33 +14989,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="128" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
@@ -15112,10 +15140,10 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="142"/>
       <c r="F10" s="29" t="s">
         <v>53</v>
       </c>
@@ -15145,10 +15173,10 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="132"/>
+      <c r="B14" s="137"/>
     </row>
     <row r="15" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
@@ -15160,32 +15188,32 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="128" t="s">
         <v>257</v>
       </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="130"/>
-      <c r="R18" s="130"/>
-      <c r="S18" s="130"/>
-      <c r="T18" s="130"/>
-      <c r="U18" s="130"/>
-      <c r="V18" s="130"/>
-      <c r="W18" s="130"/>
-      <c r="X18" s="130"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
@@ -15281,11 +15309,11 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="144" t="s">
         <v>258</v>
       </c>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
       <c r="F26" s="29" t="s">
         <v>256</v>
       </c>
@@ -15299,10 +15327,10 @@
     </row>
     <row r="28" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="131" t="s">
+      <c r="A29" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="142"/>
     </row>
     <row r="30" spans="1:24" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
@@ -15329,10 +15357,10 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="132" t="s">
+      <c r="A33" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="132"/>
+      <c r="B33" s="137"/>
     </row>
     <row r="34" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
@@ -15344,30 +15372,30 @@
     </row>
     <row r="35" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="130" t="s">
+      <c r="A39" s="128" t="s">
         <v>261</v>
       </c>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
-      <c r="K39" s="130"/>
-      <c r="L39" s="130"/>
-      <c r="M39" s="130"/>
-      <c r="N39" s="130"/>
-      <c r="O39" s="130"/>
-      <c r="P39" s="130"/>
-      <c r="Q39" s="130"/>
-      <c r="R39" s="130"/>
-      <c r="S39" s="130"/>
-      <c r="T39" s="130"/>
-      <c r="U39" s="130"/>
-      <c r="V39" s="130"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="128"/>
+      <c r="N39" s="128"/>
+      <c r="O39" s="128"/>
+      <c r="P39" s="128"/>
+      <c r="Q39" s="128"/>
+      <c r="R39" s="128"/>
+      <c r="S39" s="128"/>
+      <c r="T39" s="128"/>
+      <c r="U39" s="128"/>
+      <c r="V39" s="128"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
@@ -15448,11 +15476,11 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="141" t="s">
+      <c r="A46" s="144" t="s">
         <v>262</v>
       </c>
-      <c r="B46" s="141"/>
-      <c r="C46" s="141"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="144"/>
     </row>
     <row r="47" spans="1:22" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="159" t="s">
@@ -15463,10 +15491,10 @@
     </row>
     <row r="48" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="131" t="s">
+      <c r="A49" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="131"/>
+      <c r="B49" s="142"/>
     </row>
     <row r="50" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
@@ -15502,10 +15530,10 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="132" t="s">
+      <c r="A53" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="132"/>
+      <c r="B53" s="137"/>
       <c r="E53" s="29" t="s">
         <v>266</v>
       </c>
@@ -15535,6 +15563,12 @@
     <row r="56" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:X18"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A27:C27"/>
@@ -15543,12 +15577,6 @@
     <mergeCell ref="A39:V39"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:X18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://rubraslet.ru/slap-watches.html?id=92&amp;ml=1"/>

--- a/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
+++ b/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KvotaSite\калькулятор 5 - блокноты, деколь\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="силиконовые браслеты" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="светоотражатели" sheetId="7" r:id="rId5"/>
     <sheet name="слэп-часы" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="299">
   <si>
     <t>Количество</t>
   </si>
@@ -2451,36 +2456,6 @@
     <t>Тканевые слэп (slap) браслеты с логотипом</t>
   </si>
   <si>
-    <r>
-      <t>нанести полноцветный логотип (сублимация)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF3877"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>упаковать каждый браслет в отдельный пакетик</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF3877"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
     <t>— нанесение и упаковка включены в стоимость изготовления тиража. </t>
   </si>
   <si>
@@ -3550,7 +3525,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4431,13 +4406,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4446,16 +4448,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4464,47 +4478,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4515,9 +4490,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4526,6 +4498,9 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6587,16 +6562,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>609215</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>561669</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523490</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>56844</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6613,7 +6588,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5362575" y="7839075"/>
+          <a:off x="5886450" y="8115300"/>
           <a:ext cx="3076190" cy="2447619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6633,8 +6608,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>390142</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>666518</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66443</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7466,7 +7441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7476,7 +7451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X272"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
@@ -7583,8 +7558,8 @@
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="126"/>
-      <c r="B16" s="126"/>
+      <c r="A16" s="150"/>
+      <c r="B16" s="150"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -7600,55 +7575,55 @@
     </row>
     <row r="20" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="145" t="s">
-        <v>267</v>
-      </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
+      <c r="B22" s="140" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
       <c r="F22" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
       <c r="V22" s="102"/>
     </row>
     <row r="23" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129" t="s">
+      <c r="C23" s="138"/>
+      <c r="D23" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129" t="s">
+      <c r="E23" s="138"/>
+      <c r="F23" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129" t="s">
+      <c r="G23" s="138"/>
+      <c r="H23" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="129"/>
+      <c r="I23" s="138"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="M23" s="23"/>
@@ -7659,22 +7634,22 @@
       <c r="A24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130" t="s">
+      <c r="C24" s="139"/>
+      <c r="D24" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130" t="s">
+      <c r="E24" s="139"/>
+      <c r="F24" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130" t="s">
+      <c r="G24" s="139"/>
+      <c r="H24" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="130"/>
+      <c r="I24" s="139"/>
       <c r="J24" s="22"/>
       <c r="K24" s="21"/>
       <c r="M24" s="21"/>
@@ -7685,22 +7660,22 @@
       <c r="A25" s="21">
         <v>100</v>
       </c>
-      <c r="B25" s="132" t="s">
+      <c r="B25" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132" t="s">
+      <c r="C25" s="137"/>
+      <c r="D25" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132" t="s">
+      <c r="E25" s="137"/>
+      <c r="F25" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132" t="s">
+      <c r="G25" s="137"/>
+      <c r="H25" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="132"/>
+      <c r="I25" s="137"/>
       <c r="J25" s="22"/>
       <c r="K25" s="21"/>
       <c r="M25" s="21"/>
@@ -7711,22 +7686,22 @@
       <c r="A26" s="21">
         <v>200</v>
       </c>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131" t="s">
+      <c r="C26" s="128"/>
+      <c r="D26" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131" t="s">
+      <c r="E26" s="128"/>
+      <c r="F26" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131" t="s">
+      <c r="G26" s="128"/>
+      <c r="H26" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="131"/>
+      <c r="I26" s="128"/>
       <c r="J26" s="22"/>
       <c r="K26" s="21"/>
       <c r="M26" s="21"/>
@@ -7737,22 +7712,22 @@
       <c r="A27" s="21">
         <v>300</v>
       </c>
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131" t="s">
+      <c r="C27" s="128"/>
+      <c r="D27" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131" t="s">
+      <c r="E27" s="128"/>
+      <c r="F27" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131" t="s">
+      <c r="G27" s="128"/>
+      <c r="H27" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="131"/>
+      <c r="I27" s="128"/>
       <c r="J27" s="22"/>
       <c r="K27" s="21"/>
       <c r="M27" s="21"/>
@@ -7763,22 +7738,22 @@
       <c r="A28" s="21">
         <v>500</v>
       </c>
-      <c r="B28" s="131" t="s">
+      <c r="B28" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131" t="s">
+      <c r="C28" s="128"/>
+      <c r="D28" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131" t="s">
+      <c r="E28" s="128"/>
+      <c r="F28" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131" t="s">
+      <c r="G28" s="128"/>
+      <c r="H28" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="131"/>
+      <c r="I28" s="128"/>
       <c r="J28" s="22"/>
       <c r="K28" s="21"/>
       <c r="M28" s="21"/>
@@ -7789,22 +7764,22 @@
       <c r="A29" s="21">
         <v>1000</v>
       </c>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131" t="s">
+      <c r="C29" s="128"/>
+      <c r="D29" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131" t="s">
+      <c r="E29" s="128"/>
+      <c r="F29" s="128" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131" t="s">
+      <c r="G29" s="128"/>
+      <c r="H29" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="131"/>
+      <c r="I29" s="128"/>
       <c r="J29" s="22"/>
       <c r="K29" s="21"/>
       <c r="M29" s="21"/>
@@ -7815,22 +7790,22 @@
       <c r="A30" s="21">
         <v>3000</v>
       </c>
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131" t="s">
+      <c r="C30" s="128"/>
+      <c r="D30" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131" t="s">
+      <c r="E30" s="128"/>
+      <c r="F30" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="131"/>
-      <c r="H30" s="131" t="s">
+      <c r="G30" s="128"/>
+      <c r="H30" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="131"/>
+      <c r="I30" s="128"/>
       <c r="M30" s="21"/>
       <c r="N30" s="22"/>
       <c r="O30" s="21"/>
@@ -7839,39 +7814,39 @@
       <c r="A31" s="21">
         <v>5000</v>
       </c>
-      <c r="B31" s="131" t="s">
+      <c r="B31" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="131"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="131" t="s">
+      <c r="C31" s="128"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="131"/>
+      <c r="I31" s="128"/>
     </row>
     <row r="32" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <v>10000</v>
       </c>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="131"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
@@ -7941,21 +7916,21 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="128" t="s">
+      <c r="A46" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="128"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="128"/>
-      <c r="M46" s="128"/>
+      <c r="B46" s="130"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="130"/>
     </row>
     <row r="47" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
@@ -7967,13 +7942,13 @@
       <c r="D47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
+      <c r="E47" s="138"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
-      <c r="K47" s="129"/>
+      <c r="I47" s="138"/>
+      <c r="J47" s="138"/>
+      <c r="K47" s="138"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
@@ -8138,28 +8113,28 @@
     </row>
     <row r="57" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="134" t="s">
+      <c r="A59" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="134"/>
+      <c r="B59" s="135"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="135" t="s">
+      <c r="A61" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="135"/>
+      <c r="B61" s="148"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -8173,7 +8148,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -8196,7 +8171,7 @@
         <v>49</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8227,8 +8202,8 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="127"/>
-      <c r="B70" s="127"/>
+      <c r="A70" s="142"/>
+      <c r="B70" s="142"/>
     </row>
     <row r="71" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
@@ -8239,25 +8214,25 @@
       <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:17" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="128" t="s">
+      <c r="A73" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="128"/>
-      <c r="C73" s="128"/>
-      <c r="D73" s="128"/>
-      <c r="E73" s="128"/>
-      <c r="F73" s="128"/>
-      <c r="G73" s="128"/>
-      <c r="H73" s="128"/>
-      <c r="I73" s="128"/>
-      <c r="J73" s="128"/>
-      <c r="K73" s="128"/>
-      <c r="L73" s="128"/>
-      <c r="M73" s="128"/>
-      <c r="N73" s="128"/>
-      <c r="O73" s="128"/>
-      <c r="P73" s="128"/>
-      <c r="Q73" s="128"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="130"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="130"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="130"/>
+      <c r="I73" s="130"/>
+      <c r="J73" s="130"/>
+      <c r="K73" s="130"/>
+      <c r="L73" s="130"/>
+      <c r="M73" s="130"/>
+      <c r="N73" s="130"/>
+      <c r="O73" s="130"/>
+      <c r="P73" s="130"/>
+      <c r="Q73" s="130"/>
     </row>
     <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
@@ -8276,10 +8251,10 @@
       <c r="G75" s="46"/>
     </row>
     <row r="76" spans="1:17" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="136" t="s">
+      <c r="A76" s="149" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="136"/>
+      <c r="B76" s="149"/>
       <c r="C76" s="36"/>
       <c r="E76" s="47">
         <v>100</v>
@@ -8294,7 +8269,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C77" s="36"/>
       <c r="E77" s="47">
@@ -8306,10 +8281,10 @@
       <c r="G77" s="47"/>
     </row>
     <row r="78" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="137" t="s">
+      <c r="A78" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="137"/>
+      <c r="B78" s="132"/>
       <c r="C78" s="36"/>
       <c r="E78" s="47">
         <v>500</v>
@@ -8324,7 +8299,7 @@
         <v>8</v>
       </c>
       <c r="B79" s="49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C79" s="36"/>
       <c r="E79" s="47">
@@ -8340,7 +8315,7 @@
         <v>6</v>
       </c>
       <c r="B80" s="49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C80" s="36"/>
       <c r="E80" s="47">
@@ -8420,33 +8395,33 @@
       <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="128" t="s">
+      <c r="A92" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="128"/>
-      <c r="C92" s="128"/>
-      <c r="D92" s="128"/>
-      <c r="E92" s="128"/>
-      <c r="F92" s="128"/>
-      <c r="G92" s="128"/>
-      <c r="H92" s="128"/>
-      <c r="I92" s="128"/>
-      <c r="J92" s="128"/>
-      <c r="K92" s="128"/>
-      <c r="L92" s="128"/>
-      <c r="M92" s="128"/>
-      <c r="N92" s="128"/>
-      <c r="O92" s="128"/>
-      <c r="P92" s="128"/>
-      <c r="Q92" s="128"/>
-      <c r="R92" s="128"/>
-      <c r="S92" s="128"/>
+      <c r="B92" s="130"/>
+      <c r="C92" s="130"/>
+      <c r="D92" s="130"/>
+      <c r="E92" s="130"/>
+      <c r="F92" s="130"/>
+      <c r="G92" s="130"/>
+      <c r="H92" s="130"/>
+      <c r="I92" s="130"/>
+      <c r="J92" s="130"/>
+      <c r="K92" s="130"/>
+      <c r="L92" s="130"/>
+      <c r="M92" s="130"/>
+      <c r="N92" s="130"/>
+      <c r="O92" s="130"/>
+      <c r="P92" s="130"/>
+      <c r="Q92" s="130"/>
+      <c r="R92" s="130"/>
+      <c r="S92" s="130"/>
     </row>
     <row r="93" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="133" t="s">
+      <c r="A93" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="B93" s="133"/>
+      <c r="B93" s="147"/>
       <c r="E93" s="45" t="s">
         <v>0</v>
       </c>
@@ -8460,7 +8435,7 @@
         <v>4</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E94" s="34">
         <v>100</v>
@@ -8471,10 +8446,10 @@
       <c r="G94" s="36"/>
     </row>
     <row r="95" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="137" t="s">
+      <c r="A95" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B95" s="137"/>
+      <c r="B95" s="132"/>
       <c r="E95" s="34">
         <v>300</v>
       </c>
@@ -8488,7 +8463,7 @@
         <v>8</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E96" s="34">
         <v>500</v>
@@ -8571,25 +8546,25 @@
       <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:17" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="128" t="s">
+      <c r="A108" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="B108" s="128"/>
-      <c r="C108" s="128"/>
-      <c r="D108" s="128"/>
-      <c r="E108" s="128"/>
-      <c r="F108" s="128"/>
-      <c r="G108" s="128"/>
-      <c r="H108" s="128"/>
-      <c r="I108" s="128"/>
-      <c r="J108" s="128"/>
-      <c r="K108" s="128"/>
-      <c r="L108" s="128"/>
-      <c r="M108" s="128"/>
-      <c r="N108" s="128"/>
-      <c r="O108" s="128"/>
-      <c r="P108" s="128"/>
-      <c r="Q108" s="128"/>
+      <c r="B108" s="130"/>
+      <c r="C108" s="130"/>
+      <c r="D108" s="130"/>
+      <c r="E108" s="130"/>
+      <c r="F108" s="130"/>
+      <c r="G108" s="130"/>
+      <c r="H108" s="130"/>
+      <c r="I108" s="130"/>
+      <c r="J108" s="130"/>
+      <c r="K108" s="130"/>
+      <c r="L108" s="130"/>
+      <c r="M108" s="130"/>
+      <c r="N108" s="130"/>
+      <c r="O108" s="130"/>
+      <c r="P108" s="130"/>
+      <c r="Q108" s="130"/>
     </row>
     <row r="109" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
@@ -8609,19 +8584,19 @@
       <c r="O109" s="115"/>
     </row>
     <row r="110" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="133" t="s">
+      <c r="A110" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="B110" s="133"/>
+      <c r="B110" s="147"/>
       <c r="E110" s="23"/>
       <c r="F110" s="106" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G110" s="106" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H110" s="106" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I110" s="56"/>
       <c r="J110" s="56"/>
@@ -8637,7 +8612,7 @@
         <v>5</v>
       </c>
       <c r="B111" s="49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F111" s="107" t="s">
         <v>55</v>
@@ -8658,10 +8633,10 @@
       <c r="P111" s="24"/>
     </row>
     <row r="112" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="137" t="s">
+      <c r="A112" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B112" s="137"/>
+      <c r="B112" s="132"/>
       <c r="E112" s="23" t="s">
         <v>0</v>
       </c>
@@ -8809,71 +8784,71 @@
       <c r="A122" s="28"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="138"/>
-      <c r="B127" s="139"/>
-      <c r="C127" s="139"/>
-      <c r="D127" s="139"/>
-      <c r="E127" s="139"/>
-      <c r="F127" s="139"/>
-      <c r="G127" s="139"/>
-      <c r="H127" s="139"/>
+      <c r="A127" s="144"/>
+      <c r="B127" s="126"/>
+      <c r="C127" s="126"/>
+      <c r="D127" s="126"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="126"/>
+      <c r="G127" s="126"/>
+      <c r="H127" s="126"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="139"/>
-      <c r="B128" s="139"/>
-      <c r="C128" s="139"/>
-      <c r="D128" s="139"/>
-      <c r="E128" s="139"/>
-      <c r="F128" s="139"/>
-      <c r="G128" s="139"/>
-      <c r="H128" s="139"/>
+      <c r="A128" s="126"/>
+      <c r="B128" s="126"/>
+      <c r="C128" s="126"/>
+      <c r="D128" s="126"/>
+      <c r="E128" s="126"/>
+      <c r="F128" s="126"/>
+      <c r="G128" s="126"/>
+      <c r="H128" s="126"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="139"/>
-      <c r="B129" s="139"/>
-      <c r="C129" s="139"/>
-      <c r="D129" s="139"/>
-      <c r="E129" s="139"/>
-      <c r="F129" s="139"/>
-      <c r="G129" s="139"/>
-      <c r="H129" s="139"/>
+      <c r="A129" s="126"/>
+      <c r="B129" s="126"/>
+      <c r="C129" s="126"/>
+      <c r="D129" s="126"/>
+      <c r="E129" s="126"/>
+      <c r="F129" s="126"/>
+      <c r="G129" s="126"/>
+      <c r="H129" s="126"/>
     </row>
     <row r="130" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A130" s="150"/>
-      <c r="B130" s="150"/>
-      <c r="C130" s="150"/>
-      <c r="D130" s="150"/>
-      <c r="E130" s="150"/>
+      <c r="A130" s="136"/>
+      <c r="B130" s="136"/>
+      <c r="C130" s="136"/>
+      <c r="D130" s="136"/>
+      <c r="E130" s="136"/>
       <c r="R130" s="44"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="139"/>
-      <c r="B134" s="139"/>
-      <c r="C134" s="139"/>
-      <c r="D134" s="139"/>
-      <c r="E134" s="139"/>
-      <c r="F134" s="139"/>
-      <c r="G134" s="139"/>
+      <c r="A134" s="126"/>
+      <c r="B134" s="126"/>
+      <c r="C134" s="126"/>
+      <c r="D134" s="126"/>
+      <c r="E134" s="126"/>
+      <c r="F134" s="126"/>
+      <c r="G134" s="126"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A135" s="139"/>
-      <c r="B135" s="139"/>
-      <c r="C135" s="139"/>
-      <c r="D135" s="139"/>
-      <c r="E135" s="139"/>
-      <c r="F135" s="139"/>
-      <c r="G135" s="139"/>
+      <c r="A135" s="126"/>
+      <c r="B135" s="126"/>
+      <c r="C135" s="126"/>
+      <c r="D135" s="126"/>
+      <c r="E135" s="126"/>
+      <c r="F135" s="126"/>
+      <c r="G135" s="126"/>
     </row>
     <row r="137" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="128" t="s">
+      <c r="A137" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="B137" s="128"/>
-      <c r="C137" s="128"/>
-      <c r="D137" s="128"/>
-      <c r="E137" s="128"/>
-      <c r="F137" s="128"/>
-      <c r="G137" s="128"/>
+      <c r="B137" s="130"/>
+      <c r="C137" s="130"/>
+      <c r="D137" s="130"/>
+      <c r="E137" s="130"/>
+      <c r="F137" s="130"/>
+      <c r="G137" s="130"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F138" s="29" t="s">
@@ -8881,10 +8856,10 @@
       </c>
     </row>
     <row r="139" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="142" t="s">
+      <c r="A139" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B139" s="142"/>
+      <c r="B139" s="131"/>
       <c r="F139" s="86" t="s">
         <v>25</v>
       </c>
@@ -8894,13 +8869,13 @@
       <c r="H139" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="I139" s="141"/>
-      <c r="J139" s="141"/>
-      <c r="K139" s="141"/>
+      <c r="I139" s="146"/>
+      <c r="J139" s="146"/>
+      <c r="K139" s="146"/>
       <c r="L139" s="69"/>
-      <c r="M139" s="141"/>
-      <c r="N139" s="141"/>
-      <c r="O139" s="141"/>
+      <c r="M139" s="146"/>
+      <c r="N139" s="146"/>
+      <c r="O139" s="146"/>
     </row>
     <row r="140" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="34" t="s">
@@ -8951,10 +8926,10 @@
       <c r="O141" s="110"/>
     </row>
     <row r="142" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="137" t="s">
+      <c r="A142" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B142" s="137"/>
+      <c r="B142" s="132"/>
       <c r="E142" s="55">
         <v>200</v>
       </c>
@@ -8980,7 +8955,7 @@
         <v>5</v>
       </c>
       <c r="B143" s="49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E143" s="55">
         <v>300</v>
@@ -9007,7 +8982,7 @@
         <v>6</v>
       </c>
       <c r="B144" s="49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E144" s="55">
         <v>500</v>
@@ -9034,7 +9009,7 @@
         <v>49</v>
       </c>
       <c r="B145" s="49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E145" s="55">
         <v>1000</v>
@@ -9110,50 +9085,50 @@
       <c r="N149" s="72"/>
     </row>
     <row r="152" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="140" t="s">
+      <c r="A152" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="B152" s="140"/>
-      <c r="C152" s="140"/>
-      <c r="D152" s="140"/>
-      <c r="E152" s="140"/>
-      <c r="F152" s="140"/>
-      <c r="G152" s="140"/>
-      <c r="H152" s="140"/>
-      <c r="I152" s="140"/>
-      <c r="J152" s="140"/>
-      <c r="K152" s="140"/>
-      <c r="L152" s="140"/>
-      <c r="M152" s="140"/>
-      <c r="N152" s="140"/>
-      <c r="O152" s="140"/>
-      <c r="P152" s="140"/>
-      <c r="Q152" s="140"/>
+      <c r="B152" s="145"/>
+      <c r="C152" s="145"/>
+      <c r="D152" s="145"/>
+      <c r="E152" s="145"/>
+      <c r="F152" s="145"/>
+      <c r="G152" s="145"/>
+      <c r="H152" s="145"/>
+      <c r="I152" s="145"/>
+      <c r="J152" s="145"/>
+      <c r="K152" s="145"/>
+      <c r="L152" s="145"/>
+      <c r="M152" s="145"/>
+      <c r="N152" s="145"/>
+      <c r="O152" s="145"/>
+      <c r="P152" s="145"/>
+      <c r="Q152" s="145"/>
     </row>
     <row r="155" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="128" t="s">
+      <c r="A155" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="B155" s="128"/>
-      <c r="C155" s="128"/>
-      <c r="D155" s="128"/>
-      <c r="E155" s="128"/>
-      <c r="F155" s="128"/>
-      <c r="G155" s="128"/>
-      <c r="H155" s="128"/>
-      <c r="I155" s="128"/>
-      <c r="J155" s="128"/>
-      <c r="K155" s="128"/>
-      <c r="L155" s="128"/>
-      <c r="M155" s="128"/>
-      <c r="N155" s="128"/>
-      <c r="O155" s="128"/>
+      <c r="B155" s="130"/>
+      <c r="C155" s="130"/>
+      <c r="D155" s="130"/>
+      <c r="E155" s="130"/>
+      <c r="F155" s="130"/>
+      <c r="G155" s="130"/>
+      <c r="H155" s="130"/>
+      <c r="I155" s="130"/>
+      <c r="J155" s="130"/>
+      <c r="K155" s="130"/>
+      <c r="L155" s="130"/>
+      <c r="M155" s="130"/>
+      <c r="N155" s="130"/>
+      <c r="O155" s="130"/>
     </row>
     <row r="156" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A156" s="148"/>
-      <c r="B156" s="149"/>
-      <c r="C156" s="149"/>
-      <c r="D156" s="149"/>
+      <c r="A156" s="133"/>
+      <c r="B156" s="134"/>
+      <c r="C156" s="134"/>
+      <c r="D156" s="134"/>
       <c r="E156" s="29" t="s">
         <v>71</v>
       </c>
@@ -9168,29 +9143,29 @@
       <c r="H157" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="I157" s="139"/>
-      <c r="J157" s="139"/>
-      <c r="K157" s="139"/>
-      <c r="M157" s="139"/>
-      <c r="N157" s="139"/>
-      <c r="O157" s="139"/>
+      <c r="I157" s="126"/>
+      <c r="J157" s="126"/>
+      <c r="K157" s="126"/>
+      <c r="M157" s="126"/>
+      <c r="N157" s="126"/>
+      <c r="O157" s="126"/>
     </row>
     <row r="158" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="134" t="s">
+      <c r="B158" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C158" s="134"/>
+      <c r="C158" s="135"/>
       <c r="E158" s="74" t="s">
         <v>0</v>
       </c>
       <c r="F158" s="74" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G158" s="74" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H158" s="53" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I158" s="74"/>
       <c r="J158" s="74"/>
@@ -9230,7 +9205,7 @@
         <v>5</v>
       </c>
       <c r="C160" s="41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E160" s="76">
         <v>200</v>
@@ -9286,7 +9261,7 @@
         <v>49</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E162" s="76">
         <v>500</v>
@@ -9440,30 +9415,30 @@
       </c>
     </row>
     <row r="175" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="128" t="s">
+      <c r="A175" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="B175" s="128"/>
-      <c r="C175" s="128"/>
-      <c r="D175" s="128"/>
-      <c r="E175" s="128"/>
-      <c r="F175" s="128"/>
-      <c r="G175" s="128"/>
-      <c r="H175" s="128"/>
-      <c r="I175" s="128"/>
-      <c r="J175" s="128"/>
-      <c r="K175" s="128"/>
-      <c r="L175" s="128"/>
-      <c r="M175" s="128"/>
-      <c r="N175" s="128"/>
-      <c r="O175" s="128"/>
-      <c r="P175" s="128"/>
+      <c r="B175" s="130"/>
+      <c r="C175" s="130"/>
+      <c r="D175" s="130"/>
+      <c r="E175" s="130"/>
+      <c r="F175" s="130"/>
+      <c r="G175" s="130"/>
+      <c r="H175" s="130"/>
+      <c r="I175" s="130"/>
+      <c r="J175" s="130"/>
+      <c r="K175" s="130"/>
+      <c r="L175" s="130"/>
+      <c r="M175" s="130"/>
+      <c r="N175" s="130"/>
+      <c r="O175" s="130"/>
+      <c r="P175" s="130"/>
     </row>
     <row r="176" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="142" t="s">
+      <c r="A176" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B176" s="142"/>
+      <c r="B176" s="131"/>
       <c r="E176" s="63" t="s">
         <v>0</v>
       </c>
@@ -9488,10 +9463,10 @@
       <c r="G177" s="65"/>
     </row>
     <row r="178" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="137" t="s">
+      <c r="A178" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B178" s="137"/>
+      <c r="B178" s="132"/>
       <c r="E178" s="77">
         <v>300</v>
       </c>
@@ -9520,7 +9495,7 @@
         <v>6</v>
       </c>
       <c r="B180" s="49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E180" s="77">
         <v>1000</v>
@@ -9584,22 +9559,22 @@
       </c>
     </row>
     <row r="190" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="128" t="s">
+      <c r="A190" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="B190" s="128"/>
-      <c r="C190" s="128"/>
-      <c r="D190" s="128"/>
-      <c r="E190" s="128"/>
-      <c r="F190" s="128"/>
-      <c r="G190" s="128"/>
-      <c r="H190" s="128"/>
-      <c r="I190" s="128"/>
-      <c r="J190" s="128"/>
-      <c r="K190" s="128"/>
-      <c r="L190" s="128"/>
-      <c r="M190" s="128"/>
-      <c r="N190" s="128"/>
+      <c r="B190" s="130"/>
+      <c r="C190" s="130"/>
+      <c r="D190" s="130"/>
+      <c r="E190" s="130"/>
+      <c r="F190" s="130"/>
+      <c r="G190" s="130"/>
+      <c r="H190" s="130"/>
+      <c r="I190" s="130"/>
+      <c r="J190" s="130"/>
+      <c r="K190" s="130"/>
+      <c r="L190" s="130"/>
+      <c r="M190" s="130"/>
+      <c r="N190" s="130"/>
     </row>
     <row r="191" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D191" s="78" t="s">
@@ -9607,17 +9582,17 @@
       </c>
     </row>
     <row r="192" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="142" t="s">
+      <c r="A192" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="B192" s="142"/>
+      <c r="B192" s="131"/>
     </row>
     <row r="193" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B193" s="49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E193" s="83" t="s">
         <v>0</v>
@@ -9632,7 +9607,7 @@
         <v>6</v>
       </c>
       <c r="B194" s="49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E194" s="47">
         <v>100</v>
@@ -9699,29 +9674,29 @@
       </c>
     </row>
     <row r="205" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="128" t="s">
+      <c r="A205" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="B205" s="128"/>
-      <c r="C205" s="128"/>
-      <c r="D205" s="128"/>
-      <c r="E205" s="128"/>
-      <c r="F205" s="128"/>
-      <c r="G205" s="128"/>
-      <c r="H205" s="128"/>
-      <c r="I205" s="128"/>
-      <c r="J205" s="128"/>
-      <c r="K205" s="128"/>
-      <c r="L205" s="128"/>
-      <c r="M205" s="128"/>
-      <c r="N205" s="128"/>
-      <c r="O205" s="128"/>
+      <c r="B205" s="130"/>
+      <c r="C205" s="130"/>
+      <c r="D205" s="130"/>
+      <c r="E205" s="130"/>
+      <c r="F205" s="130"/>
+      <c r="G205" s="130"/>
+      <c r="H205" s="130"/>
+      <c r="I205" s="130"/>
+      <c r="J205" s="130"/>
+      <c r="K205" s="130"/>
+      <c r="L205" s="130"/>
+      <c r="M205" s="130"/>
+      <c r="N205" s="130"/>
+      <c r="O205" s="130"/>
     </row>
     <row r="206" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K206" s="147"/>
-      <c r="L206" s="147"/>
-      <c r="M206" s="127"/>
-      <c r="N206" s="127"/>
+      <c r="K206" s="127"/>
+      <c r="L206" s="127"/>
+      <c r="M206" s="142"/>
+      <c r="N206" s="142"/>
     </row>
     <row r="207" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="29" t="s">
@@ -9783,8 +9758,8 @@
       </c>
     </row>
     <row r="213" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="127"/>
-      <c r="B213" s="127"/>
+      <c r="A213" s="142"/>
+      <c r="B213" s="142"/>
     </row>
     <row r="214" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="34"/>
@@ -9796,20 +9771,20 @@
     </row>
     <row r="216" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="219" spans="1:15" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="128" t="s">
+      <c r="A219" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="B219" s="128"/>
-      <c r="C219" s="128"/>
-      <c r="D219" s="128"/>
-      <c r="E219" s="128"/>
-      <c r="F219" s="128"/>
-      <c r="G219" s="128"/>
-      <c r="H219" s="128"/>
-      <c r="I219" s="128"/>
-      <c r="J219" s="128"/>
-      <c r="K219" s="128"/>
-      <c r="L219" s="128"/>
+      <c r="B219" s="130"/>
+      <c r="C219" s="130"/>
+      <c r="D219" s="130"/>
+      <c r="E219" s="130"/>
+      <c r="F219" s="130"/>
+      <c r="G219" s="130"/>
+      <c r="H219" s="130"/>
+      <c r="I219" s="130"/>
+      <c r="J219" s="130"/>
+      <c r="K219" s="130"/>
+      <c r="L219" s="130"/>
     </row>
     <row r="220" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G220" s="79" t="s">
@@ -9821,10 +9796,10 @@
       <c r="I220" s="80"/>
     </row>
     <row r="221" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="127" t="s">
+      <c r="A221" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="127"/>
+      <c r="B221" s="142"/>
       <c r="G221" s="33">
         <v>100</v>
       </c>
@@ -9883,19 +9858,19 @@
       </c>
     </row>
     <row r="230" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="128" t="s">
+      <c r="A230" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="B230" s="128"/>
-      <c r="C230" s="128"/>
-      <c r="D230" s="128"/>
-      <c r="E230" s="128"/>
-      <c r="F230" s="128"/>
-      <c r="G230" s="128"/>
-      <c r="H230" s="128"/>
-      <c r="I230" s="128"/>
-      <c r="J230" s="128"/>
-      <c r="K230" s="128"/>
+      <c r="B230" s="130"/>
+      <c r="C230" s="130"/>
+      <c r="D230" s="130"/>
+      <c r="E230" s="130"/>
+      <c r="F230" s="130"/>
+      <c r="G230" s="130"/>
+      <c r="H230" s="130"/>
+      <c r="I230" s="130"/>
+      <c r="J230" s="130"/>
+      <c r="K230" s="130"/>
     </row>
     <row r="231" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C231" s="10" t="s">
@@ -9952,10 +9927,10 @@
       <c r="E236" s="36"/>
     </row>
     <row r="237" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="127" t="s">
+      <c r="A237" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="127"/>
+      <c r="B237" s="142"/>
     </row>
     <row r="238" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="34" t="s">
@@ -10005,24 +9980,24 @@
     </row>
     <row r="243" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="245" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="128" t="s">
+      <c r="A245" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="B245" s="128"/>
-      <c r="C245" s="128"/>
-      <c r="D245" s="128"/>
-      <c r="E245" s="128"/>
-      <c r="F245" s="128"/>
-      <c r="G245" s="128"/>
-      <c r="H245" s="128"/>
-      <c r="I245" s="128"/>
-      <c r="J245" s="128"/>
-      <c r="K245" s="128"/>
-      <c r="L245" s="128"/>
-      <c r="M245" s="128"/>
-      <c r="N245" s="128"/>
-      <c r="O245" s="128"/>
-      <c r="P245" s="128"/>
+      <c r="B245" s="130"/>
+      <c r="C245" s="130"/>
+      <c r="D245" s="130"/>
+      <c r="E245" s="130"/>
+      <c r="F245" s="130"/>
+      <c r="G245" s="130"/>
+      <c r="H245" s="130"/>
+      <c r="I245" s="130"/>
+      <c r="J245" s="130"/>
+      <c r="K245" s="130"/>
+      <c r="L245" s="130"/>
+      <c r="M245" s="130"/>
+      <c r="N245" s="130"/>
+      <c r="O245" s="130"/>
+      <c r="P245" s="130"/>
     </row>
     <row r="247" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C247" s="10" t="s">
@@ -10067,10 +10042,10 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="127" t="s">
+      <c r="A254" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="127"/>
+      <c r="B254" s="142"/>
     </row>
     <row r="255" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="34" t="s">
@@ -10109,25 +10084,25 @@
       </c>
     </row>
     <row r="262" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="128" t="s">
+      <c r="A262" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="B262" s="128"/>
-      <c r="C262" s="128"/>
-      <c r="D262" s="128"/>
-      <c r="E262" s="128"/>
-      <c r="F262" s="128"/>
-      <c r="G262" s="128"/>
-      <c r="H262" s="128"/>
-      <c r="I262" s="128"/>
-      <c r="J262" s="128"/>
-      <c r="K262" s="128"/>
-      <c r="L262" s="128"/>
-      <c r="M262" s="128"/>
-      <c r="N262" s="128"/>
-      <c r="O262" s="128"/>
-      <c r="P262" s="128"/>
-      <c r="Q262" s="128"/>
+      <c r="B262" s="130"/>
+      <c r="C262" s="130"/>
+      <c r="D262" s="130"/>
+      <c r="E262" s="130"/>
+      <c r="F262" s="130"/>
+      <c r="G262" s="130"/>
+      <c r="H262" s="130"/>
+      <c r="I262" s="130"/>
+      <c r="J262" s="130"/>
+      <c r="K262" s="130"/>
+      <c r="L262" s="130"/>
+      <c r="M262" s="130"/>
+      <c r="N262" s="130"/>
+      <c r="O262" s="130"/>
+      <c r="P262" s="130"/>
+      <c r="Q262" s="130"/>
     </row>
     <row r="264" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C264" s="10" t="s">
@@ -10137,10 +10112,10 @@
         <v>7</v>
       </c>
       <c r="E264" s="81"/>
-      <c r="G264" s="127" t="s">
+      <c r="G264" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="H264" s="127"/>
+      <c r="H264" s="142"/>
     </row>
     <row r="265" spans="1:17" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C265" s="34">
@@ -10186,11 +10161,11 @@
       </c>
     </row>
     <row r="268" spans="1:17" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C268" s="144" t="s">
+      <c r="C268" s="141" t="s">
         <v>106</v>
       </c>
-      <c r="D268" s="144"/>
-      <c r="E268" s="144"/>
+      <c r="D268" s="141"/>
+      <c r="E268" s="141"/>
     </row>
     <row r="269" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
@@ -10210,6 +10185,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A92:S92"/>
+    <mergeCell ref="A108:Q108"/>
+    <mergeCell ref="A127:H129"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A155:O155"/>
+    <mergeCell ref="A152:Q152"/>
+    <mergeCell ref="A134:G135"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="I139:K139"/>
+    <mergeCell ref="M139:O139"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A230:K230"/>
+    <mergeCell ref="A190:N190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A205:O205"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A219:L219"/>
+    <mergeCell ref="A262:Q262"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="G264:H264"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A245:P245"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="K206:L206"/>
     <mergeCell ref="F30:G30"/>
@@ -10226,84 +10279,6 @@
     <mergeCell ref="A156:D156"/>
     <mergeCell ref="B158:C158"/>
     <mergeCell ref="A130:E130"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A262:Q262"/>
-    <mergeCell ref="C268:E268"/>
-    <mergeCell ref="G264:H264"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A245:P245"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A230:K230"/>
-    <mergeCell ref="A190:N190"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A205:O205"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A219:L219"/>
-    <mergeCell ref="A127:H129"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A155:O155"/>
-    <mergeCell ref="A152:Q152"/>
-    <mergeCell ref="A134:G135"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="I139:K139"/>
-    <mergeCell ref="M139:O139"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A92:S92"/>
-    <mergeCell ref="A108:Q108"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A38" r:id="rId1" display="https://rubraslet.ru/silicon/2-site/121-segmentatsiya-svirl-202kh12kh2.html?ml=1"/>
@@ -10328,9 +10303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10428,29 +10401,29 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:21" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -10508,7 +10481,7 @@
       </c>
       <c r="I15" s="36"/>
       <c r="K15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M15" s="120">
         <v>18</v>
@@ -10716,48 +10689,48 @@
       <c r="G30" s="121"/>
     </row>
     <row r="31" spans="1:19" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="128" t="s">
+      <c r="A31" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="128"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="130"/>
+      <c r="K31" s="130"/>
+      <c r="L31" s="130"/>
+      <c r="M31" s="130"/>
+      <c r="N31" s="130"/>
+      <c r="O31" s="130"/>
+      <c r="P31" s="130"/>
+      <c r="Q31" s="130"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="130"/>
     </row>
     <row r="32" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="128" t="s">
+      <c r="A32" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="128"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="128"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="130"/>
+      <c r="M32" s="130"/>
+      <c r="N32" s="130"/>
+      <c r="O32" s="130"/>
+      <c r="P32" s="130"/>
+      <c r="Q32" s="130"/>
     </row>
     <row r="33" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="15"/>
@@ -11048,7 +11021,7 @@
         <v>141</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="5"/>
@@ -11061,7 +11034,7 @@
         <v>142</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -11074,7 +11047,7 @@
         <v>143</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -11123,45 +11096,45 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="128" t="s">
+      <c r="A56" s="130" t="s">
         <v>149</v>
       </c>
-      <c r="B56" s="128"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="128"/>
-      <c r="M56" s="128"/>
-      <c r="N56" s="128"/>
-      <c r="O56" s="128"/>
-      <c r="P56" s="128"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="130"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="130"/>
+      <c r="O56" s="130"/>
+      <c r="P56" s="130"/>
     </row>
     <row r="57" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="128" t="s">
+      <c r="A57" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="128"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="128"/>
-      <c r="G57" s="128"/>
-      <c r="H57" s="128"/>
-      <c r="I57" s="128"/>
-      <c r="J57" s="128"/>
-      <c r="K57" s="128"/>
-      <c r="L57" s="128"/>
-      <c r="M57" s="128"/>
-      <c r="N57" s="128"/>
-      <c r="O57" s="128"/>
-      <c r="P57" s="128"/>
-      <c r="Q57" s="128"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="130"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="130"/>
+      <c r="L57" s="130"/>
+      <c r="M57" s="130"/>
+      <c r="N57" s="130"/>
+      <c r="O57" s="130"/>
+      <c r="P57" s="130"/>
+      <c r="Q57" s="130"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
@@ -11333,7 +11306,7 @@
         <v>156</v>
       </c>
       <c r="B65" s="49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G65" s="47">
         <v>350</v>
@@ -11372,7 +11345,7 @@
         <v>142</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G66" s="47">
         <v>500</v>
@@ -11450,7 +11423,7 @@
         <v>144</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G68" s="47">
         <v>2000</v>
@@ -11519,12 +11492,12 @@
     </row>
     <row r="70" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D72" s="139"/>
-      <c r="E72" s="139"/>
-      <c r="F72" s="139"/>
-      <c r="H72" s="139"/>
-      <c r="I72" s="139"/>
-      <c r="J72" s="139"/>
+      <c r="D72" s="126"/>
+      <c r="E72" s="126"/>
+      <c r="F72" s="126"/>
+      <c r="H72" s="126"/>
+      <c r="I72" s="126"/>
+      <c r="J72" s="126"/>
     </row>
     <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="42"/>
@@ -11612,44 +11585,44 @@
       </c>
     </row>
     <row r="89" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="128" t="s">
+      <c r="A89" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="B89" s="128"/>
-      <c r="C89" s="128"/>
-      <c r="D89" s="128"/>
-      <c r="E89" s="128"/>
-      <c r="F89" s="128"/>
-      <c r="G89" s="128"/>
-      <c r="H89" s="128"/>
-      <c r="I89" s="128"/>
-      <c r="J89" s="128"/>
-      <c r="K89" s="128"/>
-      <c r="L89" s="128"/>
-      <c r="M89" s="128"/>
-      <c r="N89" s="128"/>
-      <c r="O89" s="128"/>
+      <c r="B89" s="130"/>
+      <c r="C89" s="130"/>
+      <c r="D89" s="130"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="130"/>
+      <c r="G89" s="130"/>
+      <c r="H89" s="130"/>
+      <c r="I89" s="130"/>
+      <c r="J89" s="130"/>
+      <c r="K89" s="130"/>
+      <c r="L89" s="130"/>
+      <c r="M89" s="130"/>
+      <c r="N89" s="130"/>
+      <c r="O89" s="130"/>
     </row>
     <row r="90" spans="1:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="128" t="s">
+      <c r="A90" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="B90" s="128"/>
-      <c r="C90" s="128"/>
-      <c r="D90" s="128"/>
-      <c r="E90" s="128"/>
-      <c r="F90" s="128"/>
-      <c r="G90" s="128"/>
-      <c r="H90" s="128"/>
-      <c r="I90" s="128"/>
-      <c r="J90" s="128"/>
-      <c r="K90" s="128"/>
-      <c r="L90" s="128"/>
-      <c r="M90" s="128"/>
-      <c r="N90" s="128"/>
-      <c r="O90" s="128"/>
-      <c r="P90" s="128"/>
-      <c r="Q90" s="128"/>
+      <c r="B90" s="130"/>
+      <c r="C90" s="130"/>
+      <c r="D90" s="130"/>
+      <c r="E90" s="130"/>
+      <c r="F90" s="130"/>
+      <c r="G90" s="130"/>
+      <c r="H90" s="130"/>
+      <c r="I90" s="130"/>
+      <c r="J90" s="130"/>
+      <c r="K90" s="130"/>
+      <c r="L90" s="130"/>
+      <c r="M90" s="130"/>
+      <c r="N90" s="130"/>
+      <c r="O90" s="130"/>
+      <c r="P90" s="130"/>
+      <c r="Q90" s="130"/>
     </row>
     <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="30"/>
@@ -11677,13 +11650,13 @@
       <c r="M91" s="30"/>
     </row>
     <row r="92" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F92" s="141"/>
-      <c r="G92" s="141"/>
-      <c r="H92" s="141"/>
+      <c r="F92" s="146"/>
+      <c r="G92" s="146"/>
+      <c r="H92" s="146"/>
       <c r="I92" s="68"/>
-      <c r="J92" s="141"/>
-      <c r="K92" s="141"/>
-      <c r="L92" s="141"/>
+      <c r="J92" s="146"/>
+      <c r="K92" s="146"/>
+      <c r="L92" s="146"/>
       <c r="M92" s="30"/>
     </row>
     <row r="93" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -11961,10 +11934,10 @@
       <c r="M102" s="30"/>
     </row>
     <row r="103" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="134" t="s">
+      <c r="B103" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C103" s="134"/>
+      <c r="C103" s="135"/>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
       <c r="F103" s="28" t="s">
@@ -11983,7 +11956,7 @@
         <v>141</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D104" s="30"/>
       <c r="E104" s="30"/>
@@ -12003,7 +11976,7 @@
         <v>142</v>
       </c>
       <c r="C105" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D105" s="30"/>
       <c r="E105" s="30"/>
@@ -12023,7 +11996,7 @@
         <v>143</v>
       </c>
       <c r="C106" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D106" s="30"/>
       <c r="E106" s="30"/>
@@ -12046,30 +12019,30 @@
     </row>
     <row r="108" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="128" t="s">
+      <c r="A113" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="B113" s="128"/>
-      <c r="C113" s="128"/>
-      <c r="D113" s="128"/>
-      <c r="E113" s="128"/>
-      <c r="F113" s="128"/>
-      <c r="G113" s="128"/>
-      <c r="H113" s="128"/>
-      <c r="I113" s="128"/>
-      <c r="J113" s="128"/>
-      <c r="K113" s="128"/>
-      <c r="L113" s="128"/>
-      <c r="M113" s="128"/>
-      <c r="N113" s="128"/>
+      <c r="B113" s="130"/>
+      <c r="C113" s="130"/>
+      <c r="D113" s="130"/>
+      <c r="E113" s="130"/>
+      <c r="F113" s="130"/>
+      <c r="G113" s="130"/>
+      <c r="H113" s="130"/>
+      <c r="I113" s="130"/>
+      <c r="J113" s="130"/>
+      <c r="K113" s="130"/>
+      <c r="L113" s="130"/>
+      <c r="M113" s="130"/>
+      <c r="N113" s="130"/>
     </row>
     <row r="114" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F114" s="139"/>
-      <c r="G114" s="139"/>
-      <c r="H114" s="139"/>
-      <c r="J114" s="139"/>
-      <c r="K114" s="139"/>
-      <c r="L114" s="139"/>
+      <c r="F114" s="126"/>
+      <c r="G114" s="126"/>
+      <c r="H114" s="126"/>
+      <c r="J114" s="126"/>
+      <c r="K114" s="126"/>
+      <c r="L114" s="126"/>
     </row>
     <row r="115" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F115" s="97"/>
@@ -12304,10 +12277,10 @@
       </c>
     </row>
     <row r="125" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="134" t="s">
+      <c r="B125" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C125" s="134"/>
+      <c r="C125" s="135"/>
       <c r="G125" s="21">
         <v>3000</v>
       </c>
@@ -12338,7 +12311,7 @@
         <v>141</v>
       </c>
       <c r="C126" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E126" s="28" t="s">
         <v>164</v>
@@ -12349,7 +12322,7 @@
         <v>142</v>
       </c>
       <c r="C127" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E127" s="28" t="s">
         <v>165</v>
@@ -12360,7 +12333,7 @@
         <v>143</v>
       </c>
       <c r="C128" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E128" s="28" t="s">
         <v>166</v>
@@ -12379,23 +12352,23 @@
     </row>
     <row r="130" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A132" s="138" t="s">
+      <c r="A132" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="B132" s="139"/>
-      <c r="C132" s="139"/>
-      <c r="D132" s="139"/>
-      <c r="E132" s="139"/>
-      <c r="F132" s="139"/>
-      <c r="G132" s="139"/>
-      <c r="H132" s="139"/>
-      <c r="I132" s="139"/>
-      <c r="J132" s="139"/>
-      <c r="K132" s="139"/>
-      <c r="L132" s="139"/>
-      <c r="M132" s="139"/>
-      <c r="N132" s="139"/>
-      <c r="O132" s="139"/>
+      <c r="B132" s="126"/>
+      <c r="C132" s="126"/>
+      <c r="D132" s="126"/>
+      <c r="E132" s="126"/>
+      <c r="F132" s="126"/>
+      <c r="G132" s="126"/>
+      <c r="H132" s="126"/>
+      <c r="I132" s="126"/>
+      <c r="J132" s="126"/>
+      <c r="K132" s="126"/>
+      <c r="L132" s="126"/>
+      <c r="M132" s="126"/>
+      <c r="N132" s="126"/>
+      <c r="O132" s="126"/>
     </row>
     <row r="133" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12547,10 +12520,10 @@
       </c>
     </row>
     <row r="143" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="134" t="s">
+      <c r="C143" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="D143" s="134"/>
+      <c r="D143" s="135"/>
     </row>
     <row r="144" spans="1:15" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C144" s="19" t="s">
@@ -12564,10 +12537,10 @@
       </c>
     </row>
     <row r="145" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="135" t="s">
+      <c r="C145" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="D145" s="135"/>
+      <c r="D145" s="148"/>
       <c r="F145" s="28" t="s">
         <v>174</v>
       </c>
@@ -12584,16 +12557,6 @@
     <row r="147" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A10:U10"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:Q57"/>
     <mergeCell ref="A132:O132"/>
     <mergeCell ref="C143:D143"/>
     <mergeCell ref="C145:D145"/>
@@ -12606,6 +12569,16 @@
     <mergeCell ref="A113:N113"/>
     <mergeCell ref="F114:H114"/>
     <mergeCell ref="J114:L114"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A10:U10"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:Q57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -12622,8 +12595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12634,36 +12607,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="130" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="128"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -12781,10 +12754,10 @@
       <c r="T9" s="121"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="142"/>
+      <c r="B10" s="131"/>
       <c r="T10" s="121"/>
     </row>
     <row r="11" spans="1:28" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12792,7 +12765,7 @@
         <v>180</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12800,7 +12773,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12812,48 +12785,48 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="137"/>
+      <c r="B14" s="132"/>
     </row>
     <row r="15" spans="1:28" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="128" t="s">
+      <c r="A19" s="130" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="130"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="130"/>
+      <c r="V19" s="130"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="130"/>
+      <c r="Y19" s="130"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83" t="s">
@@ -12960,17 +12933,17 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="142" t="s">
+      <c r="A29" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="142"/>
+      <c r="B29" s="131"/>
     </row>
     <row r="30" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>80</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12978,46 +12951,46 @@
         <v>4</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="137" t="s">
+      <c r="A32" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="137"/>
+      <c r="B32" s="132"/>
     </row>
     <row r="33" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="128" t="s">
+      <c r="A36" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="128"/>
-      <c r="O36" s="128"/>
-      <c r="P36" s="128"/>
-      <c r="Q36" s="128"/>
-      <c r="R36" s="128"/>
-      <c r="S36" s="128"/>
+      <c r="B36" s="130"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="130"/>
+      <c r="P36" s="130"/>
+      <c r="Q36" s="130"/>
+      <c r="R36" s="130"/>
+      <c r="S36" s="130"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
@@ -13045,7 +13018,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,555,1000,48.00);</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13061,7 +13034,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,555,1500,46.00);</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13077,37 +13050,27 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,555,2000,44.00);</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="142" t="s">
+      <c r="A43" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="142"/>
-    </row>
-    <row r="44" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="49" t="s">
-        <v>283</v>
-      </c>
+      <c r="B43" s="131"/>
+    </row>
+    <row r="44" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="34"/>
+      <c r="B44" s="49"/>
     </row>
     <row r="45" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="137" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="137"/>
-    </row>
-    <row r="46" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="49" t="s">
-        <v>283</v>
-      </c>
+      <c r="A45" s="132"/>
+      <c r="B45" s="132"/>
+    </row>
+    <row r="46" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="34"/>
+      <c r="B46" s="49"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -13132,8 +13095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13150,30 +13113,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
+      <c r="A1" s="130" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -13264,33 +13227,33 @@
     </row>
     <row r="8" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="142"/>
+      <c r="B9" s="131"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="155" t="s">
-        <v>284</v>
+        <v>194</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>282</v>
       </c>
       <c r="F10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="156"/>
+        <v>195</v>
+      </c>
+      <c r="B11" s="155"/>
       <c r="E11" s="122">
         <v>559</v>
       </c>
@@ -13309,70 +13272,70 @@
     </row>
     <row r="12" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="157" t="s">
-        <v>285</v>
+        <v>194</v>
+      </c>
+      <c r="B12" s="156" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="156"/>
+        <v>196</v>
+      </c>
+      <c r="B13" s="155"/>
     </row>
     <row r="14" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="128" t="s">
-        <v>204</v>
-      </c>
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="128"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
+      <c r="A22" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
+      <c r="M22" s="130"/>
+      <c r="N22" s="130"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="130"/>
+      <c r="Q22" s="130"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="130"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="83" t="s">
@@ -13448,43 +13411,43 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="142" t="s">
+      <c r="A30" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="142"/>
+      <c r="B30" s="131"/>
     </row>
     <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>80</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13510,63 +13473,63 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="128" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="128"/>
-      <c r="N40" s="128"/>
-      <c r="O40" s="128"/>
-      <c r="P40" s="128"/>
-      <c r="Q40" s="128"/>
-      <c r="R40" s="128"/>
-      <c r="S40" s="128"/>
+      <c r="A40" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="130"/>
+      <c r="M40" s="130"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="130"/>
+      <c r="Q40" s="130"/>
+      <c r="R40" s="130"/>
+      <c r="S40" s="130"/>
     </row>
     <row r="41" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="128" t="s">
-        <v>297</v>
-      </c>
-      <c r="B41" s="128"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
-      <c r="M41" s="128"/>
-      <c r="N41" s="128"/>
-      <c r="O41" s="128"/>
-      <c r="P41" s="128"/>
-      <c r="Q41" s="128"/>
-      <c r="R41" s="128"/>
-      <c r="S41" s="128"/>
+      <c r="A41" s="130" t="s">
+        <v>295</v>
+      </c>
+      <c r="B41" s="130"/>
+      <c r="C41" s="130"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
+      <c r="J41" s="130"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="130"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="130"/>
+      <c r="P41" s="130"/>
+      <c r="Q41" s="130"/>
+      <c r="R41" s="130"/>
+      <c r="S41" s="130"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D42" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="E42" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="E42" s="85" t="s">
+      <c r="G42" s="102" t="s">
         <v>213</v>
-      </c>
-      <c r="F42" s="85" t="s">
-        <v>214</v>
-      </c>
-      <c r="G42" s="102" t="s">
-        <v>215</v>
       </c>
       <c r="H42" s="102"/>
       <c r="I42" s="102"/>
@@ -13803,24 +13766,24 @@
       </c>
     </row>
     <row r="50" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="154" t="s">
-        <v>211</v>
-      </c>
-      <c r="D50" s="154"/>
-      <c r="E50" s="154"/>
+      <c r="C50" s="157" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="157"/>
+      <c r="E50" s="157"/>
       <c r="F50" s="101" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G50" s="101"/>
     </row>
     <row r="51" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="139"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="G52" s="126"/>
+      <c r="H52" s="126"/>
+      <c r="I52" s="126"/>
     </row>
     <row r="53" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="50"/>
@@ -13872,47 +13835,41 @@
       <c r="I59" s="36"/>
     </row>
     <row r="60" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="154"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="154"/>
+      <c r="C60" s="157"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="157"/>
       <c r="G60" s="101"/>
     </row>
     <row r="61" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="134" t="s">
+      <c r="C62" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="134"/>
+      <c r="D62" s="135"/>
     </row>
     <row r="63" spans="3:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="19" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D63" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="G63" s="28" t="s">
         <v>218</v>
-      </c>
-      <c r="G63" s="28" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="64" spans="3:12" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D64" s="92"/>
       <c r="G64" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A22:T22"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="A40:S40"/>
     <mergeCell ref="A41:S41"/>
@@ -13920,6 +13877,12 @@
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="G52:I52"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A22:T22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" display="https://rubraslet.ru/bumaga.html"/>
@@ -13936,8 +13899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13952,37 +13915,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="128"/>
-      <c r="AC1" s="128"/>
+      <c r="A1" s="130" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="130"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -14005,7 +13968,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="47"/>
       <c r="E3" s="121" t="str">
@@ -14016,7 +13979,7 @@
       <c r="G3" s="121"/>
       <c r="H3" s="121"/>
       <c r="I3" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14024,7 +13987,7 @@
         <v>304</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" s="47"/>
       <c r="E4" s="121" t="str">
@@ -14032,7 +13995,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,566,304, 18);</v>
       </c>
       <c r="I4" s="88" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14040,7 +14003,7 @@
         <v>504</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="47"/>
       <c r="E5" s="121" t="str">
@@ -14048,7 +14011,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,566,504, 16);</v>
       </c>
       <c r="I5" s="88" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14056,7 +14019,7 @@
         <v>1000</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" s="47"/>
       <c r="E6" s="121" t="str">
@@ -14079,7 +14042,7 @@
         <v>3000</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C7" s="47"/>
       <c r="E7" s="121" t="str">
@@ -14093,7 +14056,7 @@
     </row>
     <row r="8" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="158" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B8" s="158"/>
       <c r="C8" s="158"/>
@@ -14109,10 +14072,10 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="142"/>
+      <c r="B10" s="131"/>
       <c r="U10" s="121"/>
     </row>
     <row r="11" spans="1:29" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14120,7 +14083,7 @@
         <v>180</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14128,7 +14091,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14136,37 +14099,37 @@
         <v>181</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="128" t="s">
-        <v>232</v>
-      </c>
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
+      <c r="A16" s="130" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="130"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
@@ -14181,7 +14144,7 @@
         <v>delete price where catId=567 and firma=10;</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14197,7 +14160,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,567,50, 34);</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14270,17 +14233,17 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="142"/>
+      <c r="B27" s="131"/>
     </row>
     <row r="28" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>180</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14288,7 +14251,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14296,14 +14259,14 @@
         <v>181</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="137"/>
+      <c r="B31" s="132"/>
     </row>
     <row r="32" spans="1:9" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
@@ -14335,46 +14298,46 @@
       <c r="H34" s="121"/>
     </row>
     <row r="35" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="128" t="s">
-        <v>235</v>
-      </c>
-      <c r="B35" s="128"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="128"/>
-      <c r="Q35" s="128"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="128"/>
-      <c r="T35" s="128"/>
-      <c r="U35" s="128"/>
-      <c r="V35" s="128"/>
-      <c r="W35" s="128"/>
-      <c r="X35" s="128"/>
-      <c r="Y35" s="128"/>
-      <c r="Z35" s="128"/>
-      <c r="AA35" s="128"/>
-      <c r="AB35" s="128"/>
+      <c r="A35" s="130" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="130"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
+      <c r="W35" s="130"/>
+      <c r="X35" s="130"/>
+      <c r="Y35" s="130"/>
+      <c r="Z35" s="130"/>
+      <c r="AA35" s="130"/>
+      <c r="AB35" s="130"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" s="102" t="s">
         <v>169</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D36" s="102" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E36" s="102"/>
       <c r="F36" s="102"/>
@@ -14382,9 +14345,9 @@
       <c r="H36" s="102"/>
       <c r="I36" s="102"/>
       <c r="J36" s="102"/>
-      <c r="L36" s="139"/>
-      <c r="M36" s="139"/>
-      <c r="N36" s="139"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="126"/>
+      <c r="N36" s="126"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="83" t="s">
@@ -14519,13 +14482,13 @@
         <v>500</v>
       </c>
       <c r="B41" s="84" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C41" s="84" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D41" s="84" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E41" s="121" t="str">
         <f t="shared" si="4"/>
@@ -14551,13 +14514,13 @@
         <v>1000</v>
       </c>
       <c r="B42" s="84" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C42" s="84" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D42" s="84" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E42" s="121" t="str">
         <f t="shared" si="4"/>
@@ -14583,13 +14546,13 @@
         <v>3000</v>
       </c>
       <c r="B43" s="84" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C43" s="84" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D43" s="84" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E43" s="121" t="str">
         <f t="shared" si="4"/>
@@ -14612,27 +14575,27 @@
     </row>
     <row r="44" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="158" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B44" s="158"/>
       <c r="C44" s="158"/>
     </row>
     <row r="45" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="134" t="s">
+      <c r="A59" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="134"/>
+      <c r="B59" s="135"/>
     </row>
     <row r="60" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
         <v>180</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D60" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14643,7 +14606,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14651,24 +14614,24 @@
         <v>181</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="135" t="s">
+      <c r="A63" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="B63" s="135"/>
+      <c r="B63" s="148"/>
     </row>
     <row r="64" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -14686,47 +14649,47 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="128" t="s">
-        <v>241</v>
-      </c>
-      <c r="B67" s="128"/>
-      <c r="C67" s="128"/>
-      <c r="D67" s="128"/>
-      <c r="E67" s="128"/>
-      <c r="F67" s="128"/>
-      <c r="G67" s="128"/>
-      <c r="H67" s="128"/>
-      <c r="I67" s="128"/>
-      <c r="J67" s="128"/>
-      <c r="K67" s="128"/>
-      <c r="L67" s="128"/>
-      <c r="M67" s="128"/>
-      <c r="N67" s="128"/>
-      <c r="O67" s="128"/>
-      <c r="P67" s="128"/>
-      <c r="Q67" s="128"/>
-      <c r="R67" s="128"/>
-      <c r="S67" s="128"/>
-      <c r="T67" s="128"/>
-      <c r="U67" s="128"/>
-      <c r="V67" s="128"/>
+      <c r="A67" s="130" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" s="130"/>
+      <c r="C67" s="130"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="130"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="130"/>
+      <c r="I67" s="130"/>
+      <c r="J67" s="130"/>
+      <c r="K67" s="130"/>
+      <c r="L67" s="130"/>
+      <c r="M67" s="130"/>
+      <c r="N67" s="130"/>
+      <c r="O67" s="130"/>
+      <c r="P67" s="130"/>
+      <c r="Q67" s="130"/>
+      <c r="R67" s="130"/>
+      <c r="S67" s="130"/>
+      <c r="T67" s="130"/>
+      <c r="U67" s="130"/>
+      <c r="V67" s="130"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="102" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B68" s="85" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C68" s="85" t="s">
-        <v>293</v>
-      </c>
-      <c r="E68" s="139"/>
-      <c r="F68" s="139"/>
-      <c r="G68" s="139"/>
-      <c r="H68" s="139"/>
-      <c r="I68" s="139"/>
-      <c r="J68" s="139"/>
+        <v>291</v>
+      </c>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50" t="s">
@@ -14821,10 +14784,10 @@
         <v>500</v>
       </c>
       <c r="B73" s="82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C73" s="82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E73" s="121" t="str">
         <f t="shared" si="5"/>
@@ -14902,7 +14865,7 @@
       <c r="C78" s="19"/>
       <c r="D78" s="19"/>
       <c r="K78" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14910,7 +14873,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
@@ -14938,7 +14901,7 @@
     </row>
     <row r="82" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B82" s="41">
         <v>2</v>
@@ -14949,11 +14912,6 @@
     <row r="83" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:X16"/>
-    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A67:V67"/>
     <mergeCell ref="E68:J68"/>
@@ -14962,6 +14920,11 @@
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="L36:N36"/>
     <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:X16"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://rubraslet.ru/reflectors/2-site/79-fasovka-svetootrazhayushchikh-nakleek.html?ml=1"/>
@@ -14989,33 +14952,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="128"/>
-      <c r="Y1" s="128"/>
+      <c r="A1" s="130" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
@@ -15067,7 +15030,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,556,50,270.00);</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="T4" s="121" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$S$2&amp;",'"&amp;A39&amp;"');"</f>
@@ -15087,7 +15050,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,556,100,260.00);</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="T5" s="121"/>
     </row>
@@ -15104,7 +15067,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,556,300,250.00);</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T6" s="121"/>
     </row>
@@ -15126,94 +15089,94 @@
     </row>
     <row r="8" spans="1:25" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="159" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B8" s="159"/>
       <c r="C8" s="159"/>
       <c r="F8" s="29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F9" s="29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="142"/>
+      <c r="B10" s="131"/>
       <c r="F10" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="137"/>
+      <c r="B14" s="132"/>
     </row>
     <row r="15" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="128" t="s">
-        <v>257</v>
-      </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="128"/>
-      <c r="Q18" s="128"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
+      <c r="A18" s="130" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" s="130"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="130"/>
+      <c r="V18" s="130"/>
+      <c r="W18" s="130"/>
+      <c r="X18" s="130"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
@@ -15241,7 +15204,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,557,10,320.00);</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15257,7 +15220,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,557,50,270.00);</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15273,7 +15236,7 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,557,100,260.00);</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -15305,97 +15268,97 @@
         <v>insert into price (firma,catId,tiraz,cena) values (10,557,500,240.00);</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="144" t="s">
-        <v>258</v>
-      </c>
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
+      <c r="A26" s="141" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
       <c r="F26" s="29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B27" s="159"/>
       <c r="C27" s="159"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="142" t="s">
+      <c r="A29" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="142"/>
+      <c r="B29" s="131"/>
     </row>
     <row r="30" spans="1:24" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="137" t="s">
+      <c r="A33" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="137"/>
+      <c r="B33" s="132"/>
     </row>
     <row r="34" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="128" t="s">
-        <v>261</v>
-      </c>
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
-      <c r="M39" s="128"/>
-      <c r="N39" s="128"/>
-      <c r="O39" s="128"/>
-      <c r="P39" s="128"/>
-      <c r="Q39" s="128"/>
-      <c r="R39" s="128"/>
-      <c r="S39" s="128"/>
-      <c r="T39" s="128"/>
-      <c r="U39" s="128"/>
-      <c r="V39" s="128"/>
+      <c r="A39" s="130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B39" s="130"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
+      <c r="K39" s="130"/>
+      <c r="L39" s="130"/>
+      <c r="M39" s="130"/>
+      <c r="N39" s="130"/>
+      <c r="O39" s="130"/>
+      <c r="P39" s="130"/>
+      <c r="Q39" s="130"/>
+      <c r="R39" s="130"/>
+      <c r="S39" s="130"/>
+      <c r="T39" s="130"/>
+      <c r="U39" s="130"/>
+      <c r="V39" s="130"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
@@ -15476,99 +15439,93 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="144" t="s">
-        <v>262</v>
-      </c>
-      <c r="B46" s="144"/>
-      <c r="C46" s="144"/>
+      <c r="A46" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" s="141"/>
+      <c r="C46" s="141"/>
     </row>
     <row r="47" spans="1:22" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="159" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B47" s="159"/>
       <c r="C47" s="159"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="142" t="s">
+      <c r="A49" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="142"/>
+      <c r="B49" s="131"/>
     </row>
     <row r="50" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B50" s="49" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B51" s="49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B52" s="49">
         <v>40</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="137" t="s">
+      <c r="A53" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="137"/>
+      <c r="B53" s="132"/>
       <c r="E53" s="29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B54" s="49">
         <v>25</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="51" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:X18"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A27:C27"/>
@@ -15577,6 +15534,12 @@
     <mergeCell ref="A39:V39"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:X18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://rubraslet.ru/slap-watches.html?id=92&amp;ml=1"/>

--- a/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
+++ b/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KvotaSite\калькулятор 5 - блокноты, деколь\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <sheet name="светоотражатели" sheetId="7" r:id="rId5"/>
     <sheet name="слэп-часы" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3508,7 +3513,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4386,108 +4391,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4503,6 +4406,108 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7437,7 +7442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7447,8 +7452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7610,8 +7615,8 @@
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="125"/>
-      <c r="B16" s="125"/>
+      <c r="A16" s="155"/>
+      <c r="B16" s="155"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -7650,25 +7655,25 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="127" t="s">
+      <c r="A21" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="127"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="145" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
       <c r="F22" s="29" t="s">
         <v>262</v>
       </c>
@@ -7677,31 +7682,31 @@
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128" t="s">
+      <c r="C23" s="143"/>
+      <c r="D23" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128" t="s">
+      <c r="E23" s="143"/>
+      <c r="F23" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128" t="s">
+      <c r="G23" s="143"/>
+      <c r="H23" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="128"/>
+      <c r="I23" s="143"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
-      <c r="M23" s="159"/>
+      <c r="M23" s="125"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
     </row>
@@ -7709,22 +7714,22 @@
       <c r="A24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="129">
+      <c r="B24" s="144">
         <v>592</v>
       </c>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129">
+      <c r="C24" s="144"/>
+      <c r="D24" s="144">
         <v>593</v>
       </c>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129">
+      <c r="E24" s="144"/>
+      <c r="F24" s="144">
         <v>594</v>
       </c>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129">
+      <c r="G24" s="144"/>
+      <c r="H24" s="144">
         <v>595</v>
       </c>
-      <c r="I24" s="129"/>
+      <c r="I24" s="144"/>
       <c r="J24" s="22"/>
       <c r="K24" s="21"/>
       <c r="M24" s="119" t="str">
@@ -7751,22 +7756,22 @@
       <c r="A25" s="21">
         <v>100</v>
       </c>
-      <c r="B25" s="131" t="s">
+      <c r="B25" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131" t="s">
+      <c r="C25" s="142"/>
+      <c r="D25" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131" t="s">
+      <c r="E25" s="142"/>
+      <c r="F25" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131" t="s">
+      <c r="G25" s="142"/>
+      <c r="H25" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="131"/>
+      <c r="I25" s="142"/>
       <c r="J25" s="22"/>
       <c r="K25" s="21"/>
       <c r="M25" s="119" t="str">
@@ -7780,7 +7785,7 @@
       </c>
       <c r="P25" s="119"/>
       <c r="Q25" s="119" t="str">
-        <f t="shared" ref="Q25:Q32" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;F$24&amp;","&amp;$A25&amp;","&amp;SUBSTITUTE(TEXT(F25,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="Q25:Q30" si="1">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;F$24&amp;","&amp;$A25&amp;","&amp;SUBSTITUTE(TEXT(F25,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,594,100, 52);</v>
       </c>
       <c r="R25" s="119"/>
@@ -7793,26 +7798,26 @@
       <c r="A26" s="21">
         <v>200</v>
       </c>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130" t="s">
+      <c r="C26" s="133"/>
+      <c r="D26" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130" t="s">
+      <c r="E26" s="133"/>
+      <c r="F26" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130" t="s">
+      <c r="G26" s="133"/>
+      <c r="H26" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="130"/>
+      <c r="I26" s="133"/>
       <c r="J26" s="22"/>
       <c r="K26" s="21"/>
       <c r="M26" s="119" t="str">
-        <f t="shared" ref="M26:M33" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;B$24&amp;","&amp;$A26&amp;","&amp;SUBSTITUTE(TEXT(B26,"0,00"),",",".")&amp;");"</f>
+        <f t="shared" ref="M26:M31" si="3">"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;B$24&amp;","&amp;$A26&amp;","&amp;SUBSTITUTE(TEXT(B26,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,592,200, 22);</v>
       </c>
       <c r="N26" s="119"/>
@@ -7835,22 +7840,22 @@
       <c r="A27" s="21">
         <v>300</v>
       </c>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130" t="s">
+      <c r="C27" s="133"/>
+      <c r="D27" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130" t="s">
+      <c r="E27" s="133"/>
+      <c r="F27" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="130"/>
-      <c r="H27" s="130" t="s">
+      <c r="G27" s="133"/>
+      <c r="H27" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="130"/>
+      <c r="I27" s="133"/>
       <c r="J27" s="22"/>
       <c r="K27" s="21"/>
       <c r="M27" s="119" t="str">
@@ -7877,22 +7882,22 @@
       <c r="A28" s="21">
         <v>500</v>
       </c>
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="130" t="s">
+      <c r="C28" s="133"/>
+      <c r="D28" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130" t="s">
+      <c r="E28" s="133"/>
+      <c r="F28" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130" t="s">
+      <c r="G28" s="133"/>
+      <c r="H28" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="130"/>
+      <c r="I28" s="133"/>
       <c r="J28" s="22"/>
       <c r="K28" s="21"/>
       <c r="M28" s="119" t="str">
@@ -7919,22 +7924,22 @@
       <c r="A29" s="21">
         <v>1000</v>
       </c>
-      <c r="B29" s="130" t="s">
+      <c r="B29" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130" t="s">
+      <c r="C29" s="133"/>
+      <c r="D29" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130" t="s">
+      <c r="E29" s="133"/>
+      <c r="F29" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130" t="s">
+      <c r="G29" s="133"/>
+      <c r="H29" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="130"/>
+      <c r="I29" s="133"/>
       <c r="J29" s="22"/>
       <c r="K29" s="21"/>
       <c r="M29" s="119" t="str">
@@ -7961,22 +7966,22 @@
       <c r="A30" s="21">
         <v>3000</v>
       </c>
-      <c r="B30" s="130" t="s">
+      <c r="B30" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130" t="s">
+      <c r="C30" s="133"/>
+      <c r="D30" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130" t="s">
+      <c r="E30" s="133"/>
+      <c r="F30" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130" t="s">
+      <c r="G30" s="133"/>
+      <c r="H30" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="130"/>
+      <c r="I30" s="133"/>
       <c r="M30" s="119" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,592,3000, 13);</v>
@@ -8001,18 +8006,18 @@
       <c r="A31" s="21">
         <v>5000</v>
       </c>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="130" t="s">
+      <c r="C31" s="133"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="130"/>
+      <c r="I31" s="133"/>
       <c r="M31" s="119" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,592,5000, 11);</v>
@@ -8031,16 +8036,16 @@
       <c r="A32" s="21">
         <v>10000</v>
       </c>
-      <c r="B32" s="130" t="s">
+      <c r="B32" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="130"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
       <c r="M32" s="119" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;B$24&amp;","&amp;$A32&amp;","&amp;SUBSTITUTE(TEXT(B32,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,592,10000, 10);</v>
@@ -8053,10 +8058,10 @@
       <c r="S32" s="119"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="138"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
@@ -8144,21 +8149,21 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="127" t="s">
+      <c r="A46" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="127"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="127"/>
-      <c r="F46" s="127"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="127"/>
-      <c r="I46" s="127"/>
-      <c r="J46" s="127"/>
-      <c r="K46" s="127"/>
-      <c r="L46" s="127"/>
-      <c r="M46" s="127"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="135"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="135"/>
+      <c r="K46" s="135"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="135"/>
     </row>
     <row r="47" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
@@ -8170,13 +8175,13 @@
       <c r="D47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="143"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="128"/>
+      <c r="I47" s="143"/>
+      <c r="J47" s="143"/>
+      <c r="K47" s="143"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
@@ -8435,10 +8440,10 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="133" t="s">
+      <c r="A59" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="133"/>
+      <c r="B59" s="140"/>
     </row>
     <row r="60" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
@@ -8449,10 +8454,10 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="134" t="s">
+      <c r="A61" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="134"/>
+      <c r="B61" s="153"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -8520,8 +8525,8 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="126"/>
-      <c r="B70" s="126"/>
+      <c r="A70" s="147"/>
+      <c r="B70" s="147"/>
     </row>
     <row r="71" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
@@ -8532,25 +8537,25 @@
       <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:17" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="127" t="s">
+      <c r="A73" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="127"/>
-      <c r="C73" s="127"/>
-      <c r="D73" s="127"/>
-      <c r="E73" s="127"/>
-      <c r="F73" s="127"/>
-      <c r="G73" s="127"/>
-      <c r="H73" s="127"/>
-      <c r="I73" s="127"/>
-      <c r="J73" s="127"/>
-      <c r="K73" s="127"/>
-      <c r="L73" s="127"/>
-      <c r="M73" s="127"/>
-      <c r="N73" s="127"/>
-      <c r="O73" s="127"/>
-      <c r="P73" s="127"/>
-      <c r="Q73" s="127"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="135"/>
+      <c r="D73" s="135"/>
+      <c r="E73" s="135"/>
+      <c r="F73" s="135"/>
+      <c r="G73" s="135"/>
+      <c r="H73" s="135"/>
+      <c r="I73" s="135"/>
+      <c r="J73" s="135"/>
+      <c r="K73" s="135"/>
+      <c r="L73" s="135"/>
+      <c r="M73" s="135"/>
+      <c r="N73" s="135"/>
+      <c r="O73" s="135"/>
+      <c r="P73" s="135"/>
+      <c r="Q73" s="135"/>
     </row>
     <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
@@ -8573,10 +8578,10 @@
       </c>
     </row>
     <row r="76" spans="1:17" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="135" t="s">
+      <c r="A76" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="135"/>
+      <c r="B76" s="154"/>
       <c r="C76" s="36"/>
       <c r="E76" s="47">
         <v>100</v>
@@ -8611,10 +8616,10 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="136" t="s">
+      <c r="A78" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="136"/>
+      <c r="B78" s="137"/>
       <c r="C78" s="36"/>
       <c r="E78" s="47">
         <v>500</v>
@@ -8745,33 +8750,33 @@
       <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="127" t="s">
+      <c r="A92" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="B92" s="127"/>
-      <c r="C92" s="127"/>
-      <c r="D92" s="127"/>
-      <c r="E92" s="127"/>
-      <c r="F92" s="127"/>
-      <c r="G92" s="127"/>
-      <c r="H92" s="127"/>
-      <c r="I92" s="127"/>
-      <c r="J92" s="127"/>
-      <c r="K92" s="127"/>
-      <c r="L92" s="127"/>
-      <c r="M92" s="127"/>
-      <c r="N92" s="127"/>
-      <c r="O92" s="127"/>
-      <c r="P92" s="127"/>
-      <c r="Q92" s="127"/>
-      <c r="R92" s="127"/>
-      <c r="S92" s="127"/>
+      <c r="B92" s="135"/>
+      <c r="C92" s="135"/>
+      <c r="D92" s="135"/>
+      <c r="E92" s="135"/>
+      <c r="F92" s="135"/>
+      <c r="G92" s="135"/>
+      <c r="H92" s="135"/>
+      <c r="I92" s="135"/>
+      <c r="J92" s="135"/>
+      <c r="K92" s="135"/>
+      <c r="L92" s="135"/>
+      <c r="M92" s="135"/>
+      <c r="N92" s="135"/>
+      <c r="O92" s="135"/>
+      <c r="P92" s="135"/>
+      <c r="Q92" s="135"/>
+      <c r="R92" s="135"/>
+      <c r="S92" s="135"/>
     </row>
     <row r="93" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="132" t="s">
+      <c r="A93" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="B93" s="132"/>
+      <c r="B93" s="152"/>
       <c r="E93" s="45" t="s">
         <v>0</v>
       </c>
@@ -8804,10 +8809,10 @@
       </c>
     </row>
     <row r="95" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="136" t="s">
+      <c r="A95" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="136"/>
+      <c r="B95" s="137"/>
       <c r="E95" s="34">
         <v>300</v>
       </c>
@@ -8939,25 +8944,25 @@
       <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:17" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="127" t="s">
+      <c r="A108" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="B108" s="127"/>
-      <c r="C108" s="127"/>
-      <c r="D108" s="127"/>
-      <c r="E108" s="127"/>
-      <c r="F108" s="127"/>
-      <c r="G108" s="127"/>
-      <c r="H108" s="127"/>
-      <c r="I108" s="127"/>
-      <c r="J108" s="127"/>
-      <c r="K108" s="127"/>
-      <c r="L108" s="127"/>
-      <c r="M108" s="127"/>
-      <c r="N108" s="127"/>
-      <c r="O108" s="127"/>
-      <c r="P108" s="127"/>
-      <c r="Q108" s="127"/>
+      <c r="B108" s="135"/>
+      <c r="C108" s="135"/>
+      <c r="D108" s="135"/>
+      <c r="E108" s="135"/>
+      <c r="F108" s="135"/>
+      <c r="G108" s="135"/>
+      <c r="H108" s="135"/>
+      <c r="I108" s="135"/>
+      <c r="J108" s="135"/>
+      <c r="K108" s="135"/>
+      <c r="L108" s="135"/>
+      <c r="M108" s="135"/>
+      <c r="N108" s="135"/>
+      <c r="O108" s="135"/>
+      <c r="P108" s="135"/>
+      <c r="Q108" s="135"/>
     </row>
     <row r="109" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
@@ -8972,15 +8977,15 @@
       <c r="J109" s="113"/>
       <c r="K109" s="113"/>
       <c r="L109" s="44"/>
-      <c r="M109" s="160"/>
+      <c r="M109" s="126"/>
       <c r="N109" s="113"/>
       <c r="O109" s="113"/>
     </row>
     <row r="110" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="132" t="s">
+      <c r="A110" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="B110" s="132"/>
+      <c r="B110" s="152"/>
       <c r="E110" s="23" t="s">
         <v>291</v>
       </c>
@@ -8997,7 +9002,7 @@
       <c r="J110" s="56"/>
       <c r="K110" s="56"/>
       <c r="L110" s="24"/>
-      <c r="M110" s="161"/>
+      <c r="M110" s="127"/>
       <c r="N110" s="57"/>
       <c r="O110" s="57"/>
       <c r="P110" s="24"/>
@@ -9022,16 +9027,16 @@
       <c r="J111" s="61"/>
       <c r="K111" s="59"/>
       <c r="L111" s="53"/>
-      <c r="M111" s="162"/>
+      <c r="M111" s="128"/>
       <c r="N111" s="61"/>
       <c r="O111" s="59"/>
       <c r="P111" s="24"/>
     </row>
     <row r="112" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="136" t="s">
+      <c r="A112" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B112" s="136"/>
+      <c r="B112" s="137"/>
       <c r="E112" s="23" t="s">
         <v>0</v>
       </c>
@@ -9238,60 +9243,60 @@
       <c r="A122" s="28"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="137"/>
-      <c r="B127" s="138"/>
-      <c r="C127" s="138"/>
-      <c r="D127" s="138"/>
-      <c r="E127" s="138"/>
-      <c r="F127" s="138"/>
-      <c r="G127" s="138"/>
-      <c r="H127" s="138"/>
+      <c r="A127" s="149"/>
+      <c r="B127" s="131"/>
+      <c r="C127" s="131"/>
+      <c r="D127" s="131"/>
+      <c r="E127" s="131"/>
+      <c r="F127" s="131"/>
+      <c r="G127" s="131"/>
+      <c r="H127" s="131"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="138"/>
-      <c r="B128" s="138"/>
-      <c r="C128" s="138"/>
-      <c r="D128" s="138"/>
-      <c r="E128" s="138"/>
-      <c r="F128" s="138"/>
-      <c r="G128" s="138"/>
-      <c r="H128" s="138"/>
+      <c r="A128" s="131"/>
+      <c r="B128" s="131"/>
+      <c r="C128" s="131"/>
+      <c r="D128" s="131"/>
+      <c r="E128" s="131"/>
+      <c r="F128" s="131"/>
+      <c r="G128" s="131"/>
+      <c r="H128" s="131"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="138"/>
-      <c r="B129" s="138"/>
-      <c r="C129" s="138"/>
-      <c r="D129" s="138"/>
-      <c r="E129" s="138"/>
-      <c r="F129" s="138"/>
-      <c r="G129" s="138"/>
-      <c r="H129" s="138"/>
+      <c r="A129" s="131"/>
+      <c r="B129" s="131"/>
+      <c r="C129" s="131"/>
+      <c r="D129" s="131"/>
+      <c r="E129" s="131"/>
+      <c r="F129" s="131"/>
+      <c r="G129" s="131"/>
+      <c r="H129" s="131"/>
     </row>
     <row r="130" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A130" s="149"/>
-      <c r="B130" s="149"/>
-      <c r="C130" s="149"/>
-      <c r="D130" s="149"/>
-      <c r="E130" s="149"/>
+      <c r="A130" s="141"/>
+      <c r="B130" s="141"/>
+      <c r="C130" s="141"/>
+      <c r="D130" s="141"/>
+      <c r="E130" s="141"/>
       <c r="R130" s="44"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="138"/>
-      <c r="B134" s="138"/>
-      <c r="C134" s="138"/>
-      <c r="D134" s="138"/>
-      <c r="E134" s="138"/>
-      <c r="F134" s="138"/>
-      <c r="G134" s="138"/>
+      <c r="A134" s="131"/>
+      <c r="B134" s="131"/>
+      <c r="C134" s="131"/>
+      <c r="D134" s="131"/>
+      <c r="E134" s="131"/>
+      <c r="F134" s="131"/>
+      <c r="G134" s="131"/>
     </row>
     <row r="135" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="138"/>
-      <c r="B135" s="138"/>
-      <c r="C135" s="138"/>
-      <c r="D135" s="138"/>
-      <c r="E135" s="138"/>
-      <c r="F135" s="138"/>
-      <c r="G135" s="138"/>
+      <c r="A135" s="131"/>
+      <c r="B135" s="131"/>
+      <c r="C135" s="131"/>
+      <c r="D135" s="131"/>
+      <c r="E135" s="131"/>
+      <c r="F135" s="131"/>
+      <c r="G135" s="131"/>
     </row>
     <row r="136" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D136" s="120">
@@ -9311,15 +9316,15 @@
       </c>
     </row>
     <row r="137" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="127" t="s">
+      <c r="A137" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="B137" s="127"/>
-      <c r="C137" s="127"/>
-      <c r="D137" s="127"/>
-      <c r="E137" s="127"/>
-      <c r="F137" s="127"/>
-      <c r="G137" s="127"/>
+      <c r="B137" s="135"/>
+      <c r="C137" s="135"/>
+      <c r="D137" s="135"/>
+      <c r="E137" s="135"/>
+      <c r="F137" s="135"/>
+      <c r="G137" s="135"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F138" s="29" t="s">
@@ -9327,10 +9332,10 @@
       </c>
     </row>
     <row r="139" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="141" t="s">
+      <c r="A139" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B139" s="141"/>
+      <c r="B139" s="136"/>
       <c r="F139" s="85" t="s">
         <v>22</v>
       </c>
@@ -9340,13 +9345,13 @@
       <c r="H139" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I139" s="140"/>
-      <c r="J139" s="140"/>
-      <c r="K139" s="140"/>
+      <c r="I139" s="151"/>
+      <c r="J139" s="151"/>
+      <c r="K139" s="151"/>
       <c r="L139" s="68"/>
-      <c r="M139" s="140"/>
-      <c r="N139" s="140"/>
-      <c r="O139" s="140"/>
+      <c r="M139" s="151"/>
+      <c r="N139" s="151"/>
+      <c r="O139" s="151"/>
     </row>
     <row r="140" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="34" t="s">
@@ -9411,10 +9416,10 @@
       </c>
     </row>
     <row r="142" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="136" t="s">
+      <c r="A142" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B142" s="136"/>
+      <c r="B142" s="137"/>
       <c r="E142" s="55">
         <v>200</v>
       </c>
@@ -9601,7 +9606,7 @@
       <c r="J148" s="69"/>
       <c r="K148" s="20"/>
       <c r="L148" s="20"/>
-      <c r="M148" s="163"/>
+      <c r="M148" s="129"/>
       <c r="N148" s="69"/>
       <c r="O148" s="20"/>
     </row>
@@ -9612,25 +9617,25 @@
       <c r="N149" s="71"/>
     </row>
     <row r="152" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="139" t="s">
+      <c r="A152" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B152" s="139"/>
-      <c r="C152" s="139"/>
-      <c r="D152" s="139"/>
-      <c r="E152" s="139"/>
-      <c r="F152" s="139"/>
-      <c r="G152" s="139"/>
-      <c r="H152" s="139"/>
-      <c r="I152" s="139"/>
-      <c r="J152" s="139"/>
-      <c r="K152" s="139"/>
-      <c r="L152" s="139"/>
-      <c r="M152" s="139"/>
-      <c r="N152" s="139"/>
-      <c r="O152" s="139"/>
-      <c r="P152" s="139"/>
-      <c r="Q152" s="139"/>
+      <c r="B152" s="150"/>
+      <c r="C152" s="150"/>
+      <c r="D152" s="150"/>
+      <c r="E152" s="150"/>
+      <c r="F152" s="150"/>
+      <c r="G152" s="150"/>
+      <c r="H152" s="150"/>
+      <c r="I152" s="150"/>
+      <c r="J152" s="150"/>
+      <c r="K152" s="150"/>
+      <c r="L152" s="150"/>
+      <c r="M152" s="150"/>
+      <c r="N152" s="150"/>
+      <c r="O152" s="150"/>
+      <c r="P152" s="150"/>
+      <c r="Q152" s="150"/>
     </row>
     <row r="153" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="154" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9642,7 +9647,7 @@
         <v>insert into Category (parentId,tip) values(584,'202х12х2');</v>
       </c>
       <c r="F154" s="119" t="str">
-        <f t="shared" ref="F154:G154" si="17">"insert into Category (parentId,tip) values("&amp;$D$154&amp;",'"&amp;G157&amp;"');"</f>
+        <f t="shared" ref="F154" si="17">"insert into Category (parentId,tip) values("&amp;$D$154&amp;",'"&amp;G157&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(584,'202х20х2');</v>
       </c>
       <c r="G154" s="119" t="str">
@@ -9651,29 +9656,29 @@
       </c>
     </row>
     <row r="155" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="127" t="s">
+      <c r="A155" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="B155" s="127"/>
-      <c r="C155" s="127"/>
-      <c r="D155" s="127"/>
-      <c r="E155" s="127"/>
-      <c r="F155" s="127"/>
-      <c r="G155" s="127"/>
-      <c r="H155" s="127"/>
-      <c r="I155" s="127"/>
-      <c r="J155" s="127"/>
-      <c r="K155" s="127"/>
-      <c r="L155" s="127"/>
-      <c r="M155" s="127"/>
-      <c r="N155" s="127"/>
-      <c r="O155" s="127"/>
+      <c r="B155" s="135"/>
+      <c r="C155" s="135"/>
+      <c r="D155" s="135"/>
+      <c r="E155" s="135"/>
+      <c r="F155" s="135"/>
+      <c r="G155" s="135"/>
+      <c r="H155" s="135"/>
+      <c r="I155" s="135"/>
+      <c r="J155" s="135"/>
+      <c r="K155" s="135"/>
+      <c r="L155" s="135"/>
+      <c r="M155" s="135"/>
+      <c r="N155" s="135"/>
+      <c r="O155" s="135"/>
     </row>
     <row r="156" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A156" s="147"/>
-      <c r="B156" s="148"/>
-      <c r="C156" s="148"/>
-      <c r="D156" s="148"/>
+      <c r="A156" s="138"/>
+      <c r="B156" s="139"/>
+      <c r="C156" s="139"/>
+      <c r="D156" s="139"/>
       <c r="E156" s="29" t="s">
         <v>67</v>
       </c>
@@ -9688,18 +9693,18 @@
       <c r="H157" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="I157" s="138"/>
-      <c r="J157" s="138"/>
-      <c r="K157" s="138"/>
-      <c r="M157" s="138"/>
-      <c r="N157" s="138"/>
-      <c r="O157" s="138"/>
+      <c r="I157" s="131"/>
+      <c r="J157" s="131"/>
+      <c r="K157" s="131"/>
+      <c r="M157" s="131"/>
+      <c r="N157" s="131"/>
+      <c r="O157" s="131"/>
     </row>
     <row r="158" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="133" t="s">
+      <c r="B158" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C158" s="133"/>
+      <c r="C158" s="140"/>
       <c r="E158" s="73" t="s">
         <v>0</v>
       </c>
@@ -9956,7 +9961,7 @@
       <c r="J166" s="69"/>
       <c r="K166" s="53"/>
       <c r="L166" s="53"/>
-      <c r="M166" s="163"/>
+      <c r="M166" s="129"/>
       <c r="N166" s="69"/>
       <c r="O166" s="53"/>
       <c r="P166" s="20"/>
@@ -9970,7 +9975,7 @@
       <c r="J167" s="20"/>
       <c r="K167" s="20"/>
       <c r="L167" s="20"/>
-      <c r="M167" s="163"/>
+      <c r="M167" s="129"/>
       <c r="N167" s="20"/>
       <c r="O167" s="20"/>
       <c r="P167" s="20"/>
@@ -9987,7 +9992,7 @@
       <c r="J168" s="20"/>
       <c r="K168" s="20"/>
       <c r="L168" s="20"/>
-      <c r="M168" s="163"/>
+      <c r="M168" s="129"/>
       <c r="N168" s="20"/>
       <c r="O168" s="20"/>
       <c r="P168" s="20"/>
@@ -10004,7 +10009,7 @@
       <c r="J169" s="20"/>
       <c r="K169" s="20"/>
       <c r="L169" s="20"/>
-      <c r="M169" s="163"/>
+      <c r="M169" s="129"/>
       <c r="N169" s="20"/>
       <c r="O169" s="20"/>
       <c r="P169" s="20"/>
@@ -10020,30 +10025,30 @@
       </c>
     </row>
     <row r="175" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="127" t="s">
+      <c r="A175" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="B175" s="127"/>
-      <c r="C175" s="127"/>
-      <c r="D175" s="127"/>
-      <c r="E175" s="127"/>
-      <c r="F175" s="127"/>
-      <c r="G175" s="127"/>
-      <c r="H175" s="127"/>
-      <c r="I175" s="127"/>
-      <c r="J175" s="127"/>
-      <c r="K175" s="127"/>
-      <c r="L175" s="127"/>
-      <c r="M175" s="127"/>
-      <c r="N175" s="127"/>
-      <c r="O175" s="127"/>
-      <c r="P175" s="127"/>
+      <c r="B175" s="135"/>
+      <c r="C175" s="135"/>
+      <c r="D175" s="135"/>
+      <c r="E175" s="135"/>
+      <c r="F175" s="135"/>
+      <c r="G175" s="135"/>
+      <c r="H175" s="135"/>
+      <c r="I175" s="135"/>
+      <c r="J175" s="135"/>
+      <c r="K175" s="135"/>
+      <c r="L175" s="135"/>
+      <c r="M175" s="135"/>
+      <c r="N175" s="135"/>
+      <c r="O175" s="135"/>
+      <c r="P175" s="135"/>
     </row>
     <row r="176" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="141" t="s">
+      <c r="A176" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B176" s="141"/>
+      <c r="B176" s="136"/>
       <c r="C176" s="62" t="s">
         <v>0</v>
       </c>
@@ -10076,10 +10081,10 @@
       </c>
     </row>
     <row r="178" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="136" t="s">
+      <c r="A178" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B178" s="136"/>
+      <c r="B178" s="137"/>
       <c r="C178" s="76">
         <v>300</v>
       </c>
@@ -10174,7 +10179,7 @@
       <c r="J184" s="37"/>
       <c r="K184" s="37"/>
       <c r="L184" s="37"/>
-      <c r="M184" s="164"/>
+      <c r="M184" s="130"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="28" t="s">
@@ -10192,22 +10197,22 @@
       </c>
     </row>
     <row r="190" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="127" t="s">
+      <c r="A190" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="B190" s="127"/>
-      <c r="C190" s="127"/>
-      <c r="D190" s="127"/>
-      <c r="E190" s="127"/>
-      <c r="F190" s="127"/>
-      <c r="G190" s="127"/>
-      <c r="H190" s="127"/>
-      <c r="I190" s="127"/>
-      <c r="J190" s="127"/>
-      <c r="K190" s="127"/>
-      <c r="L190" s="127"/>
-      <c r="M190" s="127"/>
-      <c r="N190" s="127"/>
+      <c r="B190" s="135"/>
+      <c r="C190" s="135"/>
+      <c r="D190" s="135"/>
+      <c r="E190" s="135"/>
+      <c r="F190" s="135"/>
+      <c r="G190" s="135"/>
+      <c r="H190" s="135"/>
+      <c r="I190" s="135"/>
+      <c r="J190" s="135"/>
+      <c r="K190" s="135"/>
+      <c r="L190" s="135"/>
+      <c r="M190" s="135"/>
+      <c r="N190" s="135"/>
     </row>
     <row r="191" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D191" s="77" t="s">
@@ -10215,10 +10220,10 @@
       </c>
     </row>
     <row r="192" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="141" t="s">
+      <c r="A192" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="B192" s="141"/>
+      <c r="B192" s="136"/>
     </row>
     <row r="193" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="51" t="s">
@@ -10335,29 +10340,29 @@
       </c>
     </row>
     <row r="205" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="127" t="s">
+      <c r="A205" s="135" t="s">
         <v>75</v>
       </c>
-      <c r="B205" s="127"/>
-      <c r="C205" s="127"/>
-      <c r="D205" s="127"/>
-      <c r="E205" s="127"/>
-      <c r="F205" s="127"/>
-      <c r="G205" s="127"/>
-      <c r="H205" s="127"/>
-      <c r="I205" s="127"/>
-      <c r="J205" s="127"/>
-      <c r="K205" s="127"/>
-      <c r="L205" s="127"/>
-      <c r="M205" s="127"/>
-      <c r="N205" s="127"/>
-      <c r="O205" s="127"/>
+      <c r="B205" s="135"/>
+      <c r="C205" s="135"/>
+      <c r="D205" s="135"/>
+      <c r="E205" s="135"/>
+      <c r="F205" s="135"/>
+      <c r="G205" s="135"/>
+      <c r="H205" s="135"/>
+      <c r="I205" s="135"/>
+      <c r="J205" s="135"/>
+      <c r="K205" s="135"/>
+      <c r="L205" s="135"/>
+      <c r="M205" s="135"/>
+      <c r="N205" s="135"/>
+      <c r="O205" s="135"/>
     </row>
     <row r="206" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K206" s="146"/>
-      <c r="L206" s="146"/>
-      <c r="M206" s="126"/>
-      <c r="N206" s="126"/>
+      <c r="K206" s="132"/>
+      <c r="L206" s="132"/>
+      <c r="M206" s="147"/>
+      <c r="N206" s="147"/>
     </row>
     <row r="207" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="29" t="s">
@@ -10386,8 +10391,8 @@
         <v>15</v>
       </c>
       <c r="I208" s="35"/>
-      <c r="K208" s="142"/>
-      <c r="L208" s="142"/>
+      <c r="K208" s="148"/>
+      <c r="L208" s="148"/>
       <c r="M208" s="119" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;$D$207&amp;","&amp;C208&amp;","&amp;SUBSTITUTE(TEXT(D208,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,587,100,15.00);</v>
@@ -10434,8 +10439,8 @@
       </c>
     </row>
     <row r="213" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="126"/>
-      <c r="B213" s="126"/>
+      <c r="A213" s="147"/>
+      <c r="B213" s="147"/>
     </row>
     <row r="214" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="34"/>
@@ -10452,20 +10457,20 @@
       <c r="E218" s="119"/>
     </row>
     <row r="219" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="127" t="s">
+      <c r="A219" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="B219" s="127"/>
-      <c r="C219" s="127"/>
-      <c r="D219" s="127"/>
-      <c r="E219" s="127"/>
-      <c r="F219" s="127"/>
-      <c r="G219" s="127"/>
-      <c r="H219" s="127"/>
-      <c r="I219" s="127"/>
-      <c r="J219" s="127"/>
-      <c r="K219" s="127"/>
-      <c r="L219" s="127"/>
+      <c r="B219" s="135"/>
+      <c r="C219" s="135"/>
+      <c r="D219" s="135"/>
+      <c r="E219" s="135"/>
+      <c r="F219" s="135"/>
+      <c r="G219" s="135"/>
+      <c r="H219" s="135"/>
+      <c r="I219" s="135"/>
+      <c r="J219" s="135"/>
+      <c r="K219" s="135"/>
+      <c r="L219" s="135"/>
     </row>
     <row r="220" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C220" s="78" t="s">
@@ -10481,10 +10486,10 @@
       </c>
     </row>
     <row r="221" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="126" t="s">
+      <c r="A221" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="126"/>
+      <c r="B221" s="147"/>
       <c r="C221" s="33">
         <v>100</v>
       </c>
@@ -10555,19 +10560,19 @@
       </c>
     </row>
     <row r="230" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="127" t="s">
+      <c r="A230" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="B230" s="127"/>
-      <c r="C230" s="127"/>
-      <c r="D230" s="127"/>
-      <c r="E230" s="127"/>
-      <c r="F230" s="127"/>
-      <c r="G230" s="127"/>
-      <c r="H230" s="127"/>
-      <c r="I230" s="127"/>
-      <c r="J230" s="127"/>
-      <c r="K230" s="127"/>
+      <c r="B230" s="135"/>
+      <c r="C230" s="135"/>
+      <c r="D230" s="135"/>
+      <c r="E230" s="135"/>
+      <c r="F230" s="135"/>
+      <c r="G230" s="135"/>
+      <c r="H230" s="135"/>
+      <c r="I230" s="135"/>
+      <c r="J230" s="135"/>
+      <c r="K230" s="135"/>
     </row>
     <row r="231" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C231" s="10" t="s">
@@ -10648,10 +10653,10 @@
       </c>
     </row>
     <row r="237" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="126" t="s">
+      <c r="A237" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="126"/>
+      <c r="B237" s="147"/>
     </row>
     <row r="238" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="34" t="s">
@@ -10701,24 +10706,24 @@
     </row>
     <row r="243" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="245" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="127" t="s">
+      <c r="A245" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="B245" s="127"/>
-      <c r="C245" s="127"/>
-      <c r="D245" s="127"/>
-      <c r="E245" s="127"/>
-      <c r="F245" s="127"/>
-      <c r="G245" s="127"/>
-      <c r="H245" s="127"/>
-      <c r="I245" s="127"/>
-      <c r="J245" s="127"/>
-      <c r="K245" s="127"/>
-      <c r="L245" s="127"/>
-      <c r="M245" s="127"/>
-      <c r="N245" s="127"/>
-      <c r="O245" s="127"/>
-      <c r="P245" s="127"/>
+      <c r="B245" s="135"/>
+      <c r="C245" s="135"/>
+      <c r="D245" s="135"/>
+      <c r="E245" s="135"/>
+      <c r="F245" s="135"/>
+      <c r="G245" s="135"/>
+      <c r="H245" s="135"/>
+      <c r="I245" s="135"/>
+      <c r="J245" s="135"/>
+      <c r="K245" s="135"/>
+      <c r="L245" s="135"/>
+      <c r="M245" s="135"/>
+      <c r="N245" s="135"/>
+      <c r="O245" s="135"/>
+      <c r="P245" s="135"/>
     </row>
     <row r="247" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C247" s="10" t="s">
@@ -10779,10 +10784,10 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="126" t="s">
+      <c r="A254" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="126"/>
+      <c r="B254" s="147"/>
     </row>
     <row r="255" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="34" t="s">
@@ -10821,25 +10826,25 @@
       </c>
     </row>
     <row r="262" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="127" t="s">
+      <c r="A262" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="B262" s="127"/>
-      <c r="C262" s="127"/>
-      <c r="D262" s="127"/>
-      <c r="E262" s="127"/>
-      <c r="F262" s="127"/>
-      <c r="G262" s="127"/>
-      <c r="H262" s="127"/>
-      <c r="I262" s="127"/>
-      <c r="J262" s="127"/>
-      <c r="K262" s="127"/>
-      <c r="L262" s="127"/>
-      <c r="M262" s="127"/>
-      <c r="N262" s="127"/>
-      <c r="O262" s="127"/>
-      <c r="P262" s="127"/>
-      <c r="Q262" s="127"/>
+      <c r="B262" s="135"/>
+      <c r="C262" s="135"/>
+      <c r="D262" s="135"/>
+      <c r="E262" s="135"/>
+      <c r="F262" s="135"/>
+      <c r="G262" s="135"/>
+      <c r="H262" s="135"/>
+      <c r="I262" s="135"/>
+      <c r="J262" s="135"/>
+      <c r="K262" s="135"/>
+      <c r="L262" s="135"/>
+      <c r="M262" s="135"/>
+      <c r="N262" s="135"/>
+      <c r="O262" s="135"/>
+      <c r="P262" s="135"/>
+      <c r="Q262" s="135"/>
     </row>
     <row r="264" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C264" s="10" t="s">
@@ -10849,10 +10854,10 @@
         <v>591</v>
       </c>
       <c r="E264" s="80"/>
-      <c r="G264" s="126" t="s">
+      <c r="G264" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="H264" s="126"/>
+      <c r="H264" s="147"/>
       <c r="M264" s="119" t="str">
         <f>"delete price where catId="&amp;D264&amp;" and firma=10;"</f>
         <v>delete price where catId=591 and firma=10;</v>
@@ -10914,11 +10919,11 @@
       </c>
     </row>
     <row r="268" spans="1:17" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C268" s="143" t="s">
+      <c r="C268" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="D268" s="143"/>
-      <c r="E268" s="143"/>
+      <c r="D268" s="146"/>
+      <c r="E268" s="146"/>
     </row>
     <row r="269" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
@@ -10938,6 +10943,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A92:S92"/>
+    <mergeCell ref="A108:Q108"/>
+    <mergeCell ref="A127:H129"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A155:O155"/>
+    <mergeCell ref="A152:Q152"/>
+    <mergeCell ref="A134:G135"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="I139:K139"/>
+    <mergeCell ref="M139:O139"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A230:K230"/>
+    <mergeCell ref="A190:N190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A205:O205"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A219:L219"/>
+    <mergeCell ref="A262:Q262"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="G264:H264"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A245:P245"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="K206:L206"/>
     <mergeCell ref="F30:G30"/>
@@ -10954,84 +11037,6 @@
     <mergeCell ref="A156:D156"/>
     <mergeCell ref="B158:C158"/>
     <mergeCell ref="A130:E130"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A262:Q262"/>
-    <mergeCell ref="C268:E268"/>
-    <mergeCell ref="G264:H264"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A245:P245"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A230:K230"/>
-    <mergeCell ref="A190:N190"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A205:O205"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A219:L219"/>
-    <mergeCell ref="A127:H129"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A155:O155"/>
-    <mergeCell ref="A152:Q152"/>
-    <mergeCell ref="A134:G135"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="I139:K139"/>
-    <mergeCell ref="M139:O139"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A92:S92"/>
-    <mergeCell ref="A108:Q108"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A38" r:id="rId1" display="https://rubraslet.ru/silicon/2-site/121-segmentatsiya-svirl-202kh12kh2.html?ml=1"/>
@@ -11056,7 +11061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N14" sqref="N14:N15"/>
     </sheetView>
   </sheetViews>
@@ -11156,29 +11161,29 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:21" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -11444,48 +11449,48 @@
       <c r="G30" s="119"/>
     </row>
     <row r="31" spans="1:19" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="127" t="s">
+      <c r="A31" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
     </row>
     <row r="32" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="127" t="s">
+      <c r="A32" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="127"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="127"/>
-      <c r="Q32" s="127"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="135"/>
     </row>
     <row r="33" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="15"/>
@@ -11501,9 +11506,9 @@
         <v>148</v>
       </c>
       <c r="K33" s="90"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
-      <c r="N33" s="151"/>
+      <c r="L33" s="157"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="157"/>
     </row>
     <row r="34" spans="1:16" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
@@ -11764,10 +11769,10 @@
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="152" t="s">
+      <c r="A44" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="152"/>
+      <c r="B44" s="158"/>
       <c r="C44" s="6"/>
       <c r="D44" s="5"/>
     </row>
@@ -11851,45 +11856,45 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="127" t="s">
+      <c r="A56" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="127"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="127"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="127"/>
-      <c r="K56" s="127"/>
-      <c r="L56" s="127"/>
-      <c r="M56" s="127"/>
-      <c r="N56" s="127"/>
-      <c r="O56" s="127"/>
-      <c r="P56" s="127"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="135"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="135"/>
+      <c r="J56" s="135"/>
+      <c r="K56" s="135"/>
+      <c r="L56" s="135"/>
+      <c r="M56" s="135"/>
+      <c r="N56" s="135"/>
+      <c r="O56" s="135"/>
+      <c r="P56" s="135"/>
     </row>
     <row r="57" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="127" t="s">
+      <c r="A57" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="127"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="127"/>
-      <c r="K57" s="127"/>
-      <c r="L57" s="127"/>
-      <c r="M57" s="127"/>
-      <c r="N57" s="127"/>
-      <c r="O57" s="127"/>
-      <c r="P57" s="127"/>
-      <c r="Q57" s="127"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="135"/>
+      <c r="J57" s="135"/>
+      <c r="K57" s="135"/>
+      <c r="L57" s="135"/>
+      <c r="M57" s="135"/>
+      <c r="N57" s="135"/>
+      <c r="O57" s="135"/>
+      <c r="P57" s="135"/>
+      <c r="Q57" s="135"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
@@ -12020,10 +12025,10 @@
       </c>
     </row>
     <row r="64" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="150" t="s">
+      <c r="A64" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="150"/>
+      <c r="B64" s="156"/>
       <c r="G64" s="47">
         <v>200</v>
       </c>
@@ -12247,12 +12252,12 @@
     </row>
     <row r="70" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D72" s="138"/>
-      <c r="E72" s="138"/>
-      <c r="F72" s="138"/>
-      <c r="H72" s="138"/>
-      <c r="I72" s="138"/>
-      <c r="J72" s="138"/>
+      <c r="D72" s="131"/>
+      <c r="E72" s="131"/>
+      <c r="F72" s="131"/>
+      <c r="H72" s="131"/>
+      <c r="I72" s="131"/>
+      <c r="J72" s="131"/>
     </row>
     <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="42"/>
@@ -12340,44 +12345,44 @@
       </c>
     </row>
     <row r="89" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="127" t="s">
+      <c r="A89" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="127"/>
-      <c r="C89" s="127"/>
-      <c r="D89" s="127"/>
-      <c r="E89" s="127"/>
-      <c r="F89" s="127"/>
-      <c r="G89" s="127"/>
-      <c r="H89" s="127"/>
-      <c r="I89" s="127"/>
-      <c r="J89" s="127"/>
-      <c r="K89" s="127"/>
-      <c r="L89" s="127"/>
-      <c r="M89" s="127"/>
-      <c r="N89" s="127"/>
-      <c r="O89" s="127"/>
+      <c r="B89" s="135"/>
+      <c r="C89" s="135"/>
+      <c r="D89" s="135"/>
+      <c r="E89" s="135"/>
+      <c r="F89" s="135"/>
+      <c r="G89" s="135"/>
+      <c r="H89" s="135"/>
+      <c r="I89" s="135"/>
+      <c r="J89" s="135"/>
+      <c r="K89" s="135"/>
+      <c r="L89" s="135"/>
+      <c r="M89" s="135"/>
+      <c r="N89" s="135"/>
+      <c r="O89" s="135"/>
     </row>
     <row r="90" spans="1:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="127" t="s">
+      <c r="A90" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="B90" s="127"/>
-      <c r="C90" s="127"/>
-      <c r="D90" s="127"/>
-      <c r="E90" s="127"/>
-      <c r="F90" s="127"/>
-      <c r="G90" s="127"/>
-      <c r="H90" s="127"/>
-      <c r="I90" s="127"/>
-      <c r="J90" s="127"/>
-      <c r="K90" s="127"/>
-      <c r="L90" s="127"/>
-      <c r="M90" s="127"/>
-      <c r="N90" s="127"/>
-      <c r="O90" s="127"/>
-      <c r="P90" s="127"/>
-      <c r="Q90" s="127"/>
+      <c r="B90" s="135"/>
+      <c r="C90" s="135"/>
+      <c r="D90" s="135"/>
+      <c r="E90" s="135"/>
+      <c r="F90" s="135"/>
+      <c r="G90" s="135"/>
+      <c r="H90" s="135"/>
+      <c r="I90" s="135"/>
+      <c r="J90" s="135"/>
+      <c r="K90" s="135"/>
+      <c r="L90" s="135"/>
+      <c r="M90" s="135"/>
+      <c r="N90" s="135"/>
+      <c r="O90" s="135"/>
+      <c r="P90" s="135"/>
+      <c r="Q90" s="135"/>
     </row>
     <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="30"/>
@@ -12405,13 +12410,13 @@
       <c r="M91" s="30"/>
     </row>
     <row r="92" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F92" s="140"/>
-      <c r="G92" s="140"/>
-      <c r="H92" s="140"/>
+      <c r="F92" s="151"/>
+      <c r="G92" s="151"/>
+      <c r="H92" s="151"/>
       <c r="I92" s="67"/>
-      <c r="J92" s="140"/>
-      <c r="K92" s="140"/>
-      <c r="L92" s="140"/>
+      <c r="J92" s="151"/>
+      <c r="K92" s="151"/>
+      <c r="L92" s="151"/>
       <c r="M92" s="30"/>
     </row>
     <row r="93" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12689,10 +12694,10 @@
       <c r="M102" s="30"/>
     </row>
     <row r="103" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="133" t="s">
+      <c r="B103" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C103" s="133"/>
+      <c r="C103" s="140"/>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
       <c r="F103" s="28" t="s">
@@ -12774,30 +12779,30 @@
     </row>
     <row r="108" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="127" t="s">
+      <c r="A113" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="B113" s="127"/>
-      <c r="C113" s="127"/>
-      <c r="D113" s="127"/>
-      <c r="E113" s="127"/>
-      <c r="F113" s="127"/>
-      <c r="G113" s="127"/>
-      <c r="H113" s="127"/>
-      <c r="I113" s="127"/>
-      <c r="J113" s="127"/>
-      <c r="K113" s="127"/>
-      <c r="L113" s="127"/>
-      <c r="M113" s="127"/>
-      <c r="N113" s="127"/>
+      <c r="B113" s="135"/>
+      <c r="C113" s="135"/>
+      <c r="D113" s="135"/>
+      <c r="E113" s="135"/>
+      <c r="F113" s="135"/>
+      <c r="G113" s="135"/>
+      <c r="H113" s="135"/>
+      <c r="I113" s="135"/>
+      <c r="J113" s="135"/>
+      <c r="K113" s="135"/>
+      <c r="L113" s="135"/>
+      <c r="M113" s="135"/>
+      <c r="N113" s="135"/>
     </row>
     <row r="114" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F114" s="138"/>
-      <c r="G114" s="138"/>
-      <c r="H114" s="138"/>
-      <c r="J114" s="138"/>
-      <c r="K114" s="138"/>
-      <c r="L114" s="138"/>
+      <c r="F114" s="131"/>
+      <c r="G114" s="131"/>
+      <c r="H114" s="131"/>
+      <c r="J114" s="131"/>
+      <c r="K114" s="131"/>
+      <c r="L114" s="131"/>
     </row>
     <row r="115" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F115" s="96"/>
@@ -13032,10 +13037,10 @@
       </c>
     </row>
     <row r="125" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="133" t="s">
+      <c r="B125" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C125" s="133"/>
+      <c r="C125" s="140"/>
       <c r="G125" s="21">
         <v>3000</v>
       </c>
@@ -13107,23 +13112,23 @@
     </row>
     <row r="130" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A132" s="137" t="s">
+      <c r="A132" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="B132" s="138"/>
-      <c r="C132" s="138"/>
-      <c r="D132" s="138"/>
-      <c r="E132" s="138"/>
-      <c r="F132" s="138"/>
-      <c r="G132" s="138"/>
-      <c r="H132" s="138"/>
-      <c r="I132" s="138"/>
-      <c r="J132" s="138"/>
-      <c r="K132" s="138"/>
-      <c r="L132" s="138"/>
-      <c r="M132" s="138"/>
-      <c r="N132" s="138"/>
-      <c r="O132" s="138"/>
+      <c r="B132" s="131"/>
+      <c r="C132" s="131"/>
+      <c r="D132" s="131"/>
+      <c r="E132" s="131"/>
+      <c r="F132" s="131"/>
+      <c r="G132" s="131"/>
+      <c r="H132" s="131"/>
+      <c r="I132" s="131"/>
+      <c r="J132" s="131"/>
+      <c r="K132" s="131"/>
+      <c r="L132" s="131"/>
+      <c r="M132" s="131"/>
+      <c r="N132" s="131"/>
+      <c r="O132" s="131"/>
     </row>
     <row r="133" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13275,10 +13280,10 @@
       </c>
     </row>
     <row r="143" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="133" t="s">
+      <c r="C143" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="D143" s="133"/>
+      <c r="D143" s="140"/>
     </row>
     <row r="144" spans="1:15" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C144" s="19" t="s">
@@ -13292,10 +13297,10 @@
       </c>
     </row>
     <row r="145" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="134" t="s">
+      <c r="C145" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="D145" s="134"/>
+      <c r="D145" s="153"/>
       <c r="F145" s="28" t="s">
         <v>170</v>
       </c>
@@ -13312,16 +13317,6 @@
     <row r="147" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A10:U10"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:Q57"/>
     <mergeCell ref="A132:O132"/>
     <mergeCell ref="C143:D143"/>
     <mergeCell ref="C145:D145"/>
@@ -13334,6 +13329,16 @@
     <mergeCell ref="A113:N113"/>
     <mergeCell ref="F114:H114"/>
     <mergeCell ref="J114:L114"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A10:U10"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:Q57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -13362,36 +13367,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="135" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -13509,10 +13514,10 @@
       <c r="T9" s="119"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="141"/>
+      <c r="B10" s="136"/>
       <c r="T10" s="119"/>
     </row>
     <row r="11" spans="1:28" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13540,10 +13545,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="136"/>
+      <c r="B14" s="137"/>
     </row>
     <row r="15" spans="1:28" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
@@ -13555,33 +13560,33 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="127"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="127"/>
-      <c r="T19" s="127"/>
-      <c r="U19" s="127"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="127"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82" t="s">
@@ -13688,10 +13693,10 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="141"/>
+      <c r="B29" s="136"/>
     </row>
     <row r="30" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
@@ -13710,10 +13715,10 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="136" t="s">
+      <c r="A32" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="136"/>
+      <c r="B32" s="137"/>
     </row>
     <row r="33" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
@@ -13725,27 +13730,27 @@
     </row>
     <row r="34" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="127" t="s">
+      <c r="A36" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="127"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="127"/>
-      <c r="L36" s="127"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="127"/>
-      <c r="O36" s="127"/>
-      <c r="P36" s="127"/>
-      <c r="Q36" s="127"/>
-      <c r="R36" s="127"/>
-      <c r="S36" s="127"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="135"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="135"/>
+      <c r="N36" s="135"/>
+      <c r="O36" s="135"/>
+      <c r="P36" s="135"/>
+      <c r="Q36" s="135"/>
+      <c r="R36" s="135"/>
+      <c r="S36" s="135"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
@@ -13810,18 +13815,18 @@
     </row>
     <row r="42" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="141" t="s">
+      <c r="A43" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="141"/>
+      <c r="B43" s="136"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34"/>
       <c r="B44" s="49"/>
     </row>
     <row r="45" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="136"/>
-      <c r="B45" s="136"/>
+      <c r="A45" s="137"/>
+      <c r="B45" s="137"/>
     </row>
     <row r="46" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34"/>
@@ -13868,30 +13873,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -13982,16 +13987,16 @@
     </row>
     <row r="8" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="141"/>
+      <c r="B9" s="136"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="159" t="s">
         <v>274</v>
       </c>
       <c r="F10" t="s">
@@ -14008,7 +14013,7 @@
       <c r="A11" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="155"/>
+      <c r="B11" s="160"/>
       <c r="E11" s="120">
         <v>559</v>
       </c>
@@ -14029,7 +14034,7 @@
       <c r="A12" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="161" t="s">
         <v>275</v>
       </c>
     </row>
@@ -14037,7 +14042,7 @@
       <c r="A13" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="155"/>
+      <c r="B13" s="160"/>
     </row>
     <row r="14" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
@@ -14069,28 +14074,28 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="127" t="s">
+      <c r="A22" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="135"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="82" t="s">
@@ -14166,10 +14171,10 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="141"/>
+      <c r="B30" s="136"/>
     </row>
     <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
@@ -14228,50 +14233,50 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="127" t="s">
+      <c r="A40" s="135" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="127"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="127"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="127"/>
-      <c r="N40" s="127"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="127"/>
-      <c r="Q40" s="127"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="127"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="135"/>
+      <c r="N40" s="135"/>
+      <c r="O40" s="135"/>
+      <c r="P40" s="135"/>
+      <c r="Q40" s="135"/>
+      <c r="R40" s="135"/>
+      <c r="S40" s="135"/>
     </row>
     <row r="41" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="127" t="s">
+      <c r="A41" s="135" t="s">
         <v>287</v>
       </c>
-      <c r="B41" s="127"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="127"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="127"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="127"/>
-      <c r="P41" s="127"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="127"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
+      <c r="N41" s="135"/>
+      <c r="O41" s="135"/>
+      <c r="P41" s="135"/>
+      <c r="Q41" s="135"/>
+      <c r="R41" s="135"/>
+      <c r="S41" s="135"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D42" s="88" t="s">
@@ -14521,11 +14526,11 @@
       </c>
     </row>
     <row r="50" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="153" t="s">
+      <c r="C50" s="162" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="153"/>
-      <c r="E50" s="153"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="162"/>
       <c r="F50" s="100" t="s">
         <v>210</v>
       </c>
@@ -14533,12 +14538,12 @@
     </row>
     <row r="51" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="138"/>
-      <c r="D52" s="138"/>
-      <c r="E52" s="138"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="138"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
     </row>
     <row r="53" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="50"/>
@@ -14590,17 +14595,17 @@
       <c r="I59" s="36"/>
     </row>
     <row r="60" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="153"/>
-      <c r="D60" s="153"/>
-      <c r="E60" s="153"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="162"/>
+      <c r="E60" s="162"/>
       <c r="G60" s="100"/>
     </row>
     <row r="61" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="133" t="s">
+      <c r="C62" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="133"/>
+      <c r="D62" s="140"/>
     </row>
     <row r="63" spans="3:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="19" t="s">
@@ -14625,12 +14630,6 @@
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A22:T22"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="A40:S40"/>
     <mergeCell ref="A41:S41"/>
@@ -14638,6 +14637,12 @@
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="G52:I52"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A22:T22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" display="https://rubraslet.ru/bumaga.html"/>
@@ -14670,37 +14675,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -14810,11 +14815,11 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="157" t="s">
+      <c r="A8" s="163" t="s">
         <v>217</v>
       </c>
-      <c r="B8" s="157"/>
-      <c r="C8" s="157"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
       <c r="U8" s="119" t="str">
         <f>"insert into Category (parentId,tip) values("&amp;$T$6&amp;",'"&amp;A35&amp;"');"</f>
         <v>insert into Category (parentId,tip) values(439,'Светоотражающие брелки под нанесение логотипа');</v>
@@ -14827,10 +14832,10 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="141"/>
+      <c r="B10" s="136"/>
       <c r="U10" s="119"/>
     </row>
     <row r="11" spans="1:29" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14859,32 +14864,32 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="135" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
@@ -14988,10 +14993,10 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="141"/>
+      <c r="B27" s="136"/>
     </row>
     <row r="28" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
@@ -15018,10 +15023,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="136" t="s">
+      <c r="A31" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="136"/>
+      <c r="B31" s="137"/>
     </row>
     <row r="32" spans="1:9" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
@@ -15053,36 +15058,36 @@
       <c r="H34" s="119"/>
     </row>
     <row r="35" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="127" t="s">
+      <c r="A35" s="135" t="s">
         <v>229</v>
       </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="127"/>
-      <c r="M35" s="127"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="127"/>
-      <c r="P35" s="127"/>
-      <c r="Q35" s="127"/>
-      <c r="R35" s="127"/>
-      <c r="S35" s="127"/>
-      <c r="T35" s="127"/>
-      <c r="U35" s="127"/>
-      <c r="V35" s="127"/>
-      <c r="W35" s="127"/>
-      <c r="X35" s="127"/>
-      <c r="Y35" s="127"/>
-      <c r="Z35" s="127"/>
-      <c r="AA35" s="127"/>
-      <c r="AB35" s="127"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="135"/>
+      <c r="P35" s="135"/>
+      <c r="Q35" s="135"/>
+      <c r="R35" s="135"/>
+      <c r="S35" s="135"/>
+      <c r="T35" s="135"/>
+      <c r="U35" s="135"/>
+      <c r="V35" s="135"/>
+      <c r="W35" s="135"/>
+      <c r="X35" s="135"/>
+      <c r="Y35" s="135"/>
+      <c r="Z35" s="135"/>
+      <c r="AA35" s="135"/>
+      <c r="AB35" s="135"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" s="101" t="s">
@@ -15100,9 +15105,9 @@
       <c r="H36" s="101"/>
       <c r="I36" s="101"/>
       <c r="J36" s="101"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="138"/>
-      <c r="N36" s="138"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="82" t="s">
@@ -15329,18 +15334,18 @@
       <c r="N43" s="36"/>
     </row>
     <row r="44" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="157" t="s">
+      <c r="A44" s="163" t="s">
         <v>217</v>
       </c>
-      <c r="B44" s="157"/>
-      <c r="C44" s="157"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="163"/>
     </row>
     <row r="45" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="133" t="s">
+      <c r="A59" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="133"/>
+      <c r="B59" s="140"/>
     </row>
     <row r="60" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
@@ -15376,10 +15381,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="134" t="s">
+      <c r="A63" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="134"/>
+      <c r="B63" s="153"/>
     </row>
     <row r="64" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
@@ -15404,30 +15409,30 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="127" t="s">
+      <c r="A67" s="135" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="127"/>
-      <c r="C67" s="127"/>
-      <c r="D67" s="127"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="127"/>
-      <c r="H67" s="127"/>
-      <c r="I67" s="127"/>
-      <c r="J67" s="127"/>
-      <c r="K67" s="127"/>
-      <c r="L67" s="127"/>
-      <c r="M67" s="127"/>
-      <c r="N67" s="127"/>
-      <c r="O67" s="127"/>
-      <c r="P67" s="127"/>
-      <c r="Q67" s="127"/>
-      <c r="R67" s="127"/>
-      <c r="S67" s="127"/>
-      <c r="T67" s="127"/>
-      <c r="U67" s="127"/>
-      <c r="V67" s="127"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="135"/>
+      <c r="F67" s="135"/>
+      <c r="G67" s="135"/>
+      <c r="H67" s="135"/>
+      <c r="I67" s="135"/>
+      <c r="J67" s="135"/>
+      <c r="K67" s="135"/>
+      <c r="L67" s="135"/>
+      <c r="M67" s="135"/>
+      <c r="N67" s="135"/>
+      <c r="O67" s="135"/>
+      <c r="P67" s="135"/>
+      <c r="Q67" s="135"/>
+      <c r="R67" s="135"/>
+      <c r="S67" s="135"/>
+      <c r="T67" s="135"/>
+      <c r="U67" s="135"/>
+      <c r="V67" s="135"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="101" t="s">
@@ -15439,12 +15444,12 @@
       <c r="C68" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
-      <c r="G68" s="138"/>
-      <c r="H68" s="138"/>
-      <c r="I68" s="138"/>
-      <c r="J68" s="138"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="131"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="131"/>
+      <c r="J68" s="131"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50" t="s">
@@ -15667,11 +15672,6 @@
     <row r="83" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:X16"/>
-    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A67:V67"/>
     <mergeCell ref="E68:J68"/>
@@ -15680,6 +15680,11 @@
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="L36:N36"/>
     <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:X16"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://rubraslet.ru/reflectors/2-site/79-fasovka-svetootrazhayushchikh-nakleek.html?ml=1"/>
@@ -15707,33 +15712,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="135" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
@@ -15843,11 +15848,11 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="42.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="164" t="s">
         <v>241</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
       <c r="F8" s="29" t="s">
         <v>249</v>
       </c>
@@ -15858,10 +15863,10 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="141"/>
+      <c r="B10" s="136"/>
       <c r="F10" s="29" t="s">
         <v>50</v>
       </c>
@@ -15891,10 +15896,10 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="136"/>
+      <c r="B14" s="137"/>
     </row>
     <row r="15" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
@@ -15906,32 +15911,32 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="135" t="s">
         <v>251</v>
       </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="127"/>
-      <c r="W18" s="127"/>
-      <c r="X18" s="127"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
@@ -16027,28 +16032,28 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="146" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
       <c r="F26" s="29" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="158" t="s">
+      <c r="A27" s="164" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="164"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="141"/>
+      <c r="B29" s="136"/>
     </row>
     <row r="30" spans="1:24" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
@@ -16075,10 +16080,10 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="136" t="s">
+      <c r="A33" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="136"/>
+      <c r="B33" s="137"/>
     </row>
     <row r="34" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
@@ -16090,30 +16095,30 @@
     </row>
     <row r="35" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="127" t="s">
+      <c r="A39" s="135" t="s">
         <v>255</v>
       </c>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="127"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="127"/>
-      <c r="N39" s="127"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="127"/>
-      <c r="Q39" s="127"/>
-      <c r="R39" s="127"/>
-      <c r="S39" s="127"/>
-      <c r="T39" s="127"/>
-      <c r="U39" s="127"/>
-      <c r="V39" s="127"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="135"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="135"/>
+      <c r="N39" s="135"/>
+      <c r="O39" s="135"/>
+      <c r="P39" s="135"/>
+      <c r="Q39" s="135"/>
+      <c r="R39" s="135"/>
+      <c r="S39" s="135"/>
+      <c r="T39" s="135"/>
+      <c r="U39" s="135"/>
+      <c r="V39" s="135"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
@@ -16194,25 +16199,25 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="143" t="s">
+      <c r="A46" s="146" t="s">
         <v>256</v>
       </c>
-      <c r="B46" s="143"/>
-      <c r="C46" s="143"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="146"/>
     </row>
     <row r="47" spans="1:22" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="158" t="s">
+      <c r="A47" s="164" t="s">
         <v>241</v>
       </c>
-      <c r="B47" s="158"/>
-      <c r="C47" s="158"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
     </row>
     <row r="48" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="141" t="s">
+      <c r="A49" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="141"/>
+      <c r="B49" s="136"/>
     </row>
     <row r="50" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
@@ -16248,10 +16253,10 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="136" t="s">
+      <c r="A53" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="136"/>
+      <c r="B53" s="137"/>
       <c r="E53" s="29" t="s">
         <v>260</v>
       </c>
@@ -16281,12 +16286,6 @@
     <row r="56" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:X18"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A27:C27"/>
@@ -16295,6 +16294,12 @@
     <mergeCell ref="A39:V39"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:X18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://rubraslet.ru/slap-watches.html?id=92&amp;ml=1"/>

--- a/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
+++ b/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="силиконовые браслеты" sheetId="1" r:id="rId1"/>
@@ -4407,25 +4407,70 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4434,53 +4479,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4491,6 +4491,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4499,9 +4502,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4608,13 +4608,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>278561</xdr:colOff>
+      <xdr:colOff>260589</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>62901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>715640</xdr:colOff>
+      <xdr:colOff>697668</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>29387</xdr:rowOff>
     </xdr:to>
@@ -4633,7 +4633,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10935778" y="8186109"/>
+          <a:off x="10917806" y="8204080"/>
           <a:ext cx="2306136" cy="1943373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7452,8 +7452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A102" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7615,8 +7615,8 @@
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="155"/>
-      <c r="B16" s="155"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -7655,25 +7655,25 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="145" t="s">
+      <c r="B22" s="150" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="145"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
       <c r="F22" s="29" t="s">
         <v>262</v>
       </c>
@@ -7682,28 +7682,28 @@
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143" t="s">
+      <c r="C23" s="134"/>
+      <c r="D23" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143" t="s">
+      <c r="E23" s="134"/>
+      <c r="F23" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143" t="s">
+      <c r="G23" s="134"/>
+      <c r="H23" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="143"/>
+      <c r="I23" s="134"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="M23" s="125"/>
@@ -7714,22 +7714,22 @@
       <c r="A24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="144">
+      <c r="B24" s="135">
         <v>592</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144">
+      <c r="C24" s="135"/>
+      <c r="D24" s="135">
         <v>593</v>
       </c>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144">
+      <c r="E24" s="135"/>
+      <c r="F24" s="135">
         <v>594</v>
       </c>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144">
+      <c r="G24" s="135"/>
+      <c r="H24" s="135">
         <v>595</v>
       </c>
-      <c r="I24" s="144"/>
+      <c r="I24" s="135"/>
       <c r="J24" s="22"/>
       <c r="K24" s="21"/>
       <c r="M24" s="119" t="str">
@@ -7756,22 +7756,22 @@
       <c r="A25" s="21">
         <v>100</v>
       </c>
-      <c r="B25" s="142" t="s">
+      <c r="B25" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142" t="s">
+      <c r="C25" s="137"/>
+      <c r="D25" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142" t="s">
+      <c r="E25" s="137"/>
+      <c r="F25" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142" t="s">
+      <c r="G25" s="137"/>
+      <c r="H25" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="142"/>
+      <c r="I25" s="137"/>
       <c r="J25" s="22"/>
       <c r="K25" s="21"/>
       <c r="M25" s="119" t="str">
@@ -7798,22 +7798,22 @@
       <c r="A26" s="21">
         <v>200</v>
       </c>
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="133"/>
-      <c r="D26" s="133" t="s">
+      <c r="C26" s="136"/>
+      <c r="D26" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="133"/>
-      <c r="F26" s="133" t="s">
+      <c r="E26" s="136"/>
+      <c r="F26" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133" t="s">
+      <c r="G26" s="136"/>
+      <c r="H26" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="133"/>
+      <c r="I26" s="136"/>
       <c r="J26" s="22"/>
       <c r="K26" s="21"/>
       <c r="M26" s="119" t="str">
@@ -7840,22 +7840,22 @@
       <c r="A27" s="21">
         <v>300</v>
       </c>
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133" t="s">
+      <c r="C27" s="136"/>
+      <c r="D27" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133" t="s">
+      <c r="E27" s="136"/>
+      <c r="F27" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133" t="s">
+      <c r="G27" s="136"/>
+      <c r="H27" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="133"/>
+      <c r="I27" s="136"/>
       <c r="J27" s="22"/>
       <c r="K27" s="21"/>
       <c r="M27" s="119" t="str">
@@ -7882,22 +7882,22 @@
       <c r="A28" s="21">
         <v>500</v>
       </c>
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133" t="s">
+      <c r="C28" s="136"/>
+      <c r="D28" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133" t="s">
+      <c r="E28" s="136"/>
+      <c r="F28" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133" t="s">
+      <c r="G28" s="136"/>
+      <c r="H28" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="133"/>
+      <c r="I28" s="136"/>
       <c r="J28" s="22"/>
       <c r="K28" s="21"/>
       <c r="M28" s="119" t="str">
@@ -7924,22 +7924,22 @@
       <c r="A29" s="21">
         <v>1000</v>
       </c>
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133" t="s">
+      <c r="C29" s="136"/>
+      <c r="D29" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133" t="s">
+      <c r="E29" s="136"/>
+      <c r="F29" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133" t="s">
+      <c r="G29" s="136"/>
+      <c r="H29" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="133"/>
+      <c r="I29" s="136"/>
       <c r="J29" s="22"/>
       <c r="K29" s="21"/>
       <c r="M29" s="119" t="str">
@@ -7966,22 +7966,22 @@
       <c r="A30" s="21">
         <v>3000</v>
       </c>
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133" t="s">
+      <c r="C30" s="136"/>
+      <c r="D30" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133" t="s">
+      <c r="E30" s="136"/>
+      <c r="F30" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133" t="s">
+      <c r="G30" s="136"/>
+      <c r="H30" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="133"/>
+      <c r="I30" s="136"/>
       <c r="M30" s="119" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,592,3000, 13);</v>
@@ -8006,18 +8006,18 @@
       <c r="A31" s="21">
         <v>5000</v>
       </c>
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="133"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="133" t="s">
+      <c r="C31" s="136"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="133"/>
+      <c r="I31" s="136"/>
       <c r="M31" s="119" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,592,5000, 11);</v>
@@ -8036,16 +8036,16 @@
       <c r="A32" s="21">
         <v>10000</v>
       </c>
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="133"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
       <c r="M32" s="119" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;B$24&amp;","&amp;$A32&amp;","&amp;SUBSTITUTE(TEXT(B32,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,592,10000, 10);</v>
@@ -8058,10 +8058,10 @@
       <c r="S32" s="119"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
@@ -8149,21 +8149,21 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="135" t="s">
+      <c r="A46" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="135"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="135"/>
-      <c r="E46" s="135"/>
-      <c r="F46" s="135"/>
-      <c r="G46" s="135"/>
-      <c r="H46" s="135"/>
-      <c r="I46" s="135"/>
-      <c r="J46" s="135"/>
-      <c r="K46" s="135"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="135"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="133"/>
     </row>
     <row r="47" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
@@ -8175,13 +8175,13 @@
       <c r="D47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="143"/>
-      <c r="F47" s="143"/>
-      <c r="G47" s="143"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="143"/>
-      <c r="J47" s="143"/>
-      <c r="K47" s="143"/>
+      <c r="I47" s="134"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="134"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
@@ -8440,10 +8440,10 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="140" t="s">
+      <c r="A59" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="140"/>
+      <c r="B59" s="139"/>
     </row>
     <row r="60" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
@@ -8454,10 +8454,10 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="153" t="s">
+      <c r="A61" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="153"/>
+      <c r="B61" s="140"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -8525,8 +8525,8 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="147"/>
-      <c r="B70" s="147"/>
+      <c r="A70" s="132"/>
+      <c r="B70" s="132"/>
     </row>
     <row r="71" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
@@ -8537,25 +8537,25 @@
       <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:17" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="135" t="s">
+      <c r="A73" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="135"/>
-      <c r="C73" s="135"/>
-      <c r="D73" s="135"/>
-      <c r="E73" s="135"/>
-      <c r="F73" s="135"/>
-      <c r="G73" s="135"/>
-      <c r="H73" s="135"/>
-      <c r="I73" s="135"/>
-      <c r="J73" s="135"/>
-      <c r="K73" s="135"/>
-      <c r="L73" s="135"/>
-      <c r="M73" s="135"/>
-      <c r="N73" s="135"/>
-      <c r="O73" s="135"/>
-      <c r="P73" s="135"/>
-      <c r="Q73" s="135"/>
+      <c r="B73" s="133"/>
+      <c r="C73" s="133"/>
+      <c r="D73" s="133"/>
+      <c r="E73" s="133"/>
+      <c r="F73" s="133"/>
+      <c r="G73" s="133"/>
+      <c r="H73" s="133"/>
+      <c r="I73" s="133"/>
+      <c r="J73" s="133"/>
+      <c r="K73" s="133"/>
+      <c r="L73" s="133"/>
+      <c r="M73" s="133"/>
+      <c r="N73" s="133"/>
+      <c r="O73" s="133"/>
+      <c r="P73" s="133"/>
+      <c r="Q73" s="133"/>
     </row>
     <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
@@ -8578,10 +8578,10 @@
       </c>
     </row>
     <row r="76" spans="1:17" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="154" t="s">
+      <c r="A76" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="154"/>
+      <c r="B76" s="141"/>
       <c r="C76" s="36"/>
       <c r="E76" s="47">
         <v>100</v>
@@ -8616,10 +8616,10 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="137" t="s">
+      <c r="A78" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="137"/>
+      <c r="B78" s="142"/>
       <c r="C78" s="36"/>
       <c r="E78" s="47">
         <v>500</v>
@@ -8750,33 +8750,33 @@
       <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="135" t="s">
+      <c r="A92" s="133" t="s">
         <v>59</v>
       </c>
-      <c r="B92" s="135"/>
-      <c r="C92" s="135"/>
-      <c r="D92" s="135"/>
-      <c r="E92" s="135"/>
-      <c r="F92" s="135"/>
-      <c r="G92" s="135"/>
-      <c r="H92" s="135"/>
-      <c r="I92" s="135"/>
-      <c r="J92" s="135"/>
-      <c r="K92" s="135"/>
-      <c r="L92" s="135"/>
-      <c r="M92" s="135"/>
-      <c r="N92" s="135"/>
-      <c r="O92" s="135"/>
-      <c r="P92" s="135"/>
-      <c r="Q92" s="135"/>
-      <c r="R92" s="135"/>
-      <c r="S92" s="135"/>
+      <c r="B92" s="133"/>
+      <c r="C92" s="133"/>
+      <c r="D92" s="133"/>
+      <c r="E92" s="133"/>
+      <c r="F92" s="133"/>
+      <c r="G92" s="133"/>
+      <c r="H92" s="133"/>
+      <c r="I92" s="133"/>
+      <c r="J92" s="133"/>
+      <c r="K92" s="133"/>
+      <c r="L92" s="133"/>
+      <c r="M92" s="133"/>
+      <c r="N92" s="133"/>
+      <c r="O92" s="133"/>
+      <c r="P92" s="133"/>
+      <c r="Q92" s="133"/>
+      <c r="R92" s="133"/>
+      <c r="S92" s="133"/>
     </row>
     <row r="93" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="152" t="s">
+      <c r="A93" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="B93" s="152"/>
+      <c r="B93" s="138"/>
       <c r="E93" s="45" t="s">
         <v>0</v>
       </c>
@@ -8809,10 +8809,10 @@
       </c>
     </row>
     <row r="95" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="137" t="s">
+      <c r="A95" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="137"/>
+      <c r="B95" s="142"/>
       <c r="E95" s="34">
         <v>300</v>
       </c>
@@ -8944,25 +8944,25 @@
       <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:17" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="135" t="s">
+      <c r="A108" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="B108" s="135"/>
-      <c r="C108" s="135"/>
-      <c r="D108" s="135"/>
-      <c r="E108" s="135"/>
-      <c r="F108" s="135"/>
-      <c r="G108" s="135"/>
-      <c r="H108" s="135"/>
-      <c r="I108" s="135"/>
-      <c r="J108" s="135"/>
-      <c r="K108" s="135"/>
-      <c r="L108" s="135"/>
-      <c r="M108" s="135"/>
-      <c r="N108" s="135"/>
-      <c r="O108" s="135"/>
-      <c r="P108" s="135"/>
-      <c r="Q108" s="135"/>
+      <c r="B108" s="133"/>
+      <c r="C108" s="133"/>
+      <c r="D108" s="133"/>
+      <c r="E108" s="133"/>
+      <c r="F108" s="133"/>
+      <c r="G108" s="133"/>
+      <c r="H108" s="133"/>
+      <c r="I108" s="133"/>
+      <c r="J108" s="133"/>
+      <c r="K108" s="133"/>
+      <c r="L108" s="133"/>
+      <c r="M108" s="133"/>
+      <c r="N108" s="133"/>
+      <c r="O108" s="133"/>
+      <c r="P108" s="133"/>
+      <c r="Q108" s="133"/>
     </row>
     <row r="109" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
@@ -8982,10 +8982,10 @@
       <c r="O109" s="113"/>
     </row>
     <row r="110" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="152" t="s">
+      <c r="A110" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="B110" s="152"/>
+      <c r="B110" s="138"/>
       <c r="E110" s="23" t="s">
         <v>291</v>
       </c>
@@ -9033,10 +9033,10 @@
       <c r="P111" s="24"/>
     </row>
     <row r="112" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="137" t="s">
+      <c r="A112" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B112" s="137"/>
+      <c r="B112" s="142"/>
       <c r="E112" s="23" t="s">
         <v>0</v>
       </c>
@@ -9243,60 +9243,60 @@
       <c r="A122" s="28"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="149"/>
-      <c r="B127" s="131"/>
-      <c r="C127" s="131"/>
-      <c r="D127" s="131"/>
-      <c r="E127" s="131"/>
-      <c r="F127" s="131"/>
-      <c r="G127" s="131"/>
-      <c r="H127" s="131"/>
+      <c r="A127" s="143"/>
+      <c r="B127" s="144"/>
+      <c r="C127" s="144"/>
+      <c r="D127" s="144"/>
+      <c r="E127" s="144"/>
+      <c r="F127" s="144"/>
+      <c r="G127" s="144"/>
+      <c r="H127" s="144"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="131"/>
-      <c r="B128" s="131"/>
-      <c r="C128" s="131"/>
-      <c r="D128" s="131"/>
-      <c r="E128" s="131"/>
-      <c r="F128" s="131"/>
-      <c r="G128" s="131"/>
-      <c r="H128" s="131"/>
+      <c r="A128" s="144"/>
+      <c r="B128" s="144"/>
+      <c r="C128" s="144"/>
+      <c r="D128" s="144"/>
+      <c r="E128" s="144"/>
+      <c r="F128" s="144"/>
+      <c r="G128" s="144"/>
+      <c r="H128" s="144"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="131"/>
-      <c r="B129" s="131"/>
-      <c r="C129" s="131"/>
-      <c r="D129" s="131"/>
-      <c r="E129" s="131"/>
-      <c r="F129" s="131"/>
-      <c r="G129" s="131"/>
-      <c r="H129" s="131"/>
+      <c r="A129" s="144"/>
+      <c r="B129" s="144"/>
+      <c r="C129" s="144"/>
+      <c r="D129" s="144"/>
+      <c r="E129" s="144"/>
+      <c r="F129" s="144"/>
+      <c r="G129" s="144"/>
+      <c r="H129" s="144"/>
     </row>
     <row r="130" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A130" s="141"/>
-      <c r="B130" s="141"/>
-      <c r="C130" s="141"/>
-      <c r="D130" s="141"/>
-      <c r="E130" s="141"/>
+      <c r="A130" s="155"/>
+      <c r="B130" s="155"/>
+      <c r="C130" s="155"/>
+      <c r="D130" s="155"/>
+      <c r="E130" s="155"/>
       <c r="R130" s="44"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="131"/>
-      <c r="B134" s="131"/>
-      <c r="C134" s="131"/>
-      <c r="D134" s="131"/>
-      <c r="E134" s="131"/>
-      <c r="F134" s="131"/>
-      <c r="G134" s="131"/>
+      <c r="A134" s="144"/>
+      <c r="B134" s="144"/>
+      <c r="C134" s="144"/>
+      <c r="D134" s="144"/>
+      <c r="E134" s="144"/>
+      <c r="F134" s="144"/>
+      <c r="G134" s="144"/>
     </row>
     <row r="135" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="131"/>
-      <c r="B135" s="131"/>
-      <c r="C135" s="131"/>
-      <c r="D135" s="131"/>
-      <c r="E135" s="131"/>
-      <c r="F135" s="131"/>
-      <c r="G135" s="131"/>
+      <c r="A135" s="144"/>
+      <c r="B135" s="144"/>
+      <c r="C135" s="144"/>
+      <c r="D135" s="144"/>
+      <c r="E135" s="144"/>
+      <c r="F135" s="144"/>
+      <c r="G135" s="144"/>
     </row>
     <row r="136" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D136" s="120">
@@ -9316,15 +9316,15 @@
       </c>
     </row>
     <row r="137" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="135" t="s">
+      <c r="A137" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="B137" s="135"/>
-      <c r="C137" s="135"/>
-      <c r="D137" s="135"/>
-      <c r="E137" s="135"/>
-      <c r="F137" s="135"/>
-      <c r="G137" s="135"/>
+      <c r="B137" s="133"/>
+      <c r="C137" s="133"/>
+      <c r="D137" s="133"/>
+      <c r="E137" s="133"/>
+      <c r="F137" s="133"/>
+      <c r="G137" s="133"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F138" s="29" t="s">
@@ -9332,10 +9332,10 @@
       </c>
     </row>
     <row r="139" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="136" t="s">
+      <c r="A139" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B139" s="136"/>
+      <c r="B139" s="147"/>
       <c r="F139" s="85" t="s">
         <v>22</v>
       </c>
@@ -9345,13 +9345,13 @@
       <c r="H139" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I139" s="151"/>
-      <c r="J139" s="151"/>
-      <c r="K139" s="151"/>
+      <c r="I139" s="146"/>
+      <c r="J139" s="146"/>
+      <c r="K139" s="146"/>
       <c r="L139" s="68"/>
-      <c r="M139" s="151"/>
-      <c r="N139" s="151"/>
-      <c r="O139" s="151"/>
+      <c r="M139" s="146"/>
+      <c r="N139" s="146"/>
+      <c r="O139" s="146"/>
     </row>
     <row r="140" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="34" t="s">
@@ -9416,10 +9416,10 @@
       </c>
     </row>
     <row r="142" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="137" t="s">
+      <c r="A142" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B142" s="137"/>
+      <c r="B142" s="142"/>
       <c r="E142" s="55">
         <v>200</v>
       </c>
@@ -9617,25 +9617,25 @@
       <c r="N149" s="71"/>
     </row>
     <row r="152" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="150" t="s">
+      <c r="A152" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="B152" s="150"/>
-      <c r="C152" s="150"/>
-      <c r="D152" s="150"/>
-      <c r="E152" s="150"/>
-      <c r="F152" s="150"/>
-      <c r="G152" s="150"/>
-      <c r="H152" s="150"/>
-      <c r="I152" s="150"/>
-      <c r="J152" s="150"/>
-      <c r="K152" s="150"/>
-      <c r="L152" s="150"/>
-      <c r="M152" s="150"/>
-      <c r="N152" s="150"/>
-      <c r="O152" s="150"/>
-      <c r="P152" s="150"/>
-      <c r="Q152" s="150"/>
+      <c r="B152" s="145"/>
+      <c r="C152" s="145"/>
+      <c r="D152" s="145"/>
+      <c r="E152" s="145"/>
+      <c r="F152" s="145"/>
+      <c r="G152" s="145"/>
+      <c r="H152" s="145"/>
+      <c r="I152" s="145"/>
+      <c r="J152" s="145"/>
+      <c r="K152" s="145"/>
+      <c r="L152" s="145"/>
+      <c r="M152" s="145"/>
+      <c r="N152" s="145"/>
+      <c r="O152" s="145"/>
+      <c r="P152" s="145"/>
+      <c r="Q152" s="145"/>
     </row>
     <row r="153" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="154" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9656,29 +9656,29 @@
       </c>
     </row>
     <row r="155" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="135" t="s">
+      <c r="A155" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="B155" s="135"/>
-      <c r="C155" s="135"/>
-      <c r="D155" s="135"/>
-      <c r="E155" s="135"/>
-      <c r="F155" s="135"/>
-      <c r="G155" s="135"/>
-      <c r="H155" s="135"/>
-      <c r="I155" s="135"/>
-      <c r="J155" s="135"/>
-      <c r="K155" s="135"/>
-      <c r="L155" s="135"/>
-      <c r="M155" s="135"/>
-      <c r="N155" s="135"/>
-      <c r="O155" s="135"/>
+      <c r="B155" s="133"/>
+      <c r="C155" s="133"/>
+      <c r="D155" s="133"/>
+      <c r="E155" s="133"/>
+      <c r="F155" s="133"/>
+      <c r="G155" s="133"/>
+      <c r="H155" s="133"/>
+      <c r="I155" s="133"/>
+      <c r="J155" s="133"/>
+      <c r="K155" s="133"/>
+      <c r="L155" s="133"/>
+      <c r="M155" s="133"/>
+      <c r="N155" s="133"/>
+      <c r="O155" s="133"/>
     </row>
     <row r="156" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A156" s="138"/>
-      <c r="B156" s="139"/>
-      <c r="C156" s="139"/>
-      <c r="D156" s="139"/>
+      <c r="A156" s="153"/>
+      <c r="B156" s="154"/>
+      <c r="C156" s="154"/>
+      <c r="D156" s="154"/>
       <c r="E156" s="29" t="s">
         <v>67</v>
       </c>
@@ -9693,18 +9693,18 @@
       <c r="H157" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="I157" s="131"/>
-      <c r="J157" s="131"/>
-      <c r="K157" s="131"/>
-      <c r="M157" s="131"/>
-      <c r="N157" s="131"/>
-      <c r="O157" s="131"/>
+      <c r="I157" s="144"/>
+      <c r="J157" s="144"/>
+      <c r="K157" s="144"/>
+      <c r="M157" s="144"/>
+      <c r="N157" s="144"/>
+      <c r="O157" s="144"/>
     </row>
     <row r="158" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="140" t="s">
+      <c r="B158" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="C158" s="140"/>
+      <c r="C158" s="139"/>
       <c r="E158" s="73" t="s">
         <v>0</v>
       </c>
@@ -10025,30 +10025,30 @@
       </c>
     </row>
     <row r="175" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="135" t="s">
+      <c r="A175" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="B175" s="135"/>
-      <c r="C175" s="135"/>
-      <c r="D175" s="135"/>
-      <c r="E175" s="135"/>
-      <c r="F175" s="135"/>
-      <c r="G175" s="135"/>
-      <c r="H175" s="135"/>
-      <c r="I175" s="135"/>
-      <c r="J175" s="135"/>
-      <c r="K175" s="135"/>
-      <c r="L175" s="135"/>
-      <c r="M175" s="135"/>
-      <c r="N175" s="135"/>
-      <c r="O175" s="135"/>
-      <c r="P175" s="135"/>
+      <c r="B175" s="133"/>
+      <c r="C175" s="133"/>
+      <c r="D175" s="133"/>
+      <c r="E175" s="133"/>
+      <c r="F175" s="133"/>
+      <c r="G175" s="133"/>
+      <c r="H175" s="133"/>
+      <c r="I175" s="133"/>
+      <c r="J175" s="133"/>
+      <c r="K175" s="133"/>
+      <c r="L175" s="133"/>
+      <c r="M175" s="133"/>
+      <c r="N175" s="133"/>
+      <c r="O175" s="133"/>
+      <c r="P175" s="133"/>
     </row>
     <row r="176" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="136" t="s">
+      <c r="A176" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B176" s="136"/>
+      <c r="B176" s="147"/>
       <c r="C176" s="62" t="s">
         <v>0</v>
       </c>
@@ -10081,10 +10081,10 @@
       </c>
     </row>
     <row r="178" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="137" t="s">
+      <c r="A178" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B178" s="137"/>
+      <c r="B178" s="142"/>
       <c r="C178" s="76">
         <v>300</v>
       </c>
@@ -10197,22 +10197,22 @@
       </c>
     </row>
     <row r="190" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="135" t="s">
+      <c r="A190" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="B190" s="135"/>
-      <c r="C190" s="135"/>
-      <c r="D190" s="135"/>
-      <c r="E190" s="135"/>
-      <c r="F190" s="135"/>
-      <c r="G190" s="135"/>
-      <c r="H190" s="135"/>
-      <c r="I190" s="135"/>
-      <c r="J190" s="135"/>
-      <c r="K190" s="135"/>
-      <c r="L190" s="135"/>
-      <c r="M190" s="135"/>
-      <c r="N190" s="135"/>
+      <c r="B190" s="133"/>
+      <c r="C190" s="133"/>
+      <c r="D190" s="133"/>
+      <c r="E190" s="133"/>
+      <c r="F190" s="133"/>
+      <c r="G190" s="133"/>
+      <c r="H190" s="133"/>
+      <c r="I190" s="133"/>
+      <c r="J190" s="133"/>
+      <c r="K190" s="133"/>
+      <c r="L190" s="133"/>
+      <c r="M190" s="133"/>
+      <c r="N190" s="133"/>
     </row>
     <row r="191" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D191" s="77" t="s">
@@ -10220,10 +10220,10 @@
       </c>
     </row>
     <row r="192" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="136" t="s">
+      <c r="A192" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="B192" s="136"/>
+      <c r="B192" s="147"/>
     </row>
     <row r="193" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="51" t="s">
@@ -10340,29 +10340,29 @@
       </c>
     </row>
     <row r="205" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="135" t="s">
+      <c r="A205" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="B205" s="135"/>
-      <c r="C205" s="135"/>
-      <c r="D205" s="135"/>
-      <c r="E205" s="135"/>
-      <c r="F205" s="135"/>
-      <c r="G205" s="135"/>
-      <c r="H205" s="135"/>
-      <c r="I205" s="135"/>
-      <c r="J205" s="135"/>
-      <c r="K205" s="135"/>
-      <c r="L205" s="135"/>
-      <c r="M205" s="135"/>
-      <c r="N205" s="135"/>
-      <c r="O205" s="135"/>
+      <c r="B205" s="133"/>
+      <c r="C205" s="133"/>
+      <c r="D205" s="133"/>
+      <c r="E205" s="133"/>
+      <c r="F205" s="133"/>
+      <c r="G205" s="133"/>
+      <c r="H205" s="133"/>
+      <c r="I205" s="133"/>
+      <c r="J205" s="133"/>
+      <c r="K205" s="133"/>
+      <c r="L205" s="133"/>
+      <c r="M205" s="133"/>
+      <c r="N205" s="133"/>
+      <c r="O205" s="133"/>
     </row>
     <row r="206" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K206" s="132"/>
-      <c r="L206" s="132"/>
-      <c r="M206" s="147"/>
-      <c r="N206" s="147"/>
+      <c r="K206" s="152"/>
+      <c r="L206" s="152"/>
+      <c r="M206" s="132"/>
+      <c r="N206" s="132"/>
     </row>
     <row r="207" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="29" t="s">
@@ -10439,8 +10439,8 @@
       </c>
     </row>
     <row r="213" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="147"/>
-      <c r="B213" s="147"/>
+      <c r="A213" s="132"/>
+      <c r="B213" s="132"/>
     </row>
     <row r="214" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="34"/>
@@ -10457,20 +10457,20 @@
       <c r="E218" s="119"/>
     </row>
     <row r="219" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="135" t="s">
+      <c r="A219" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="B219" s="135"/>
-      <c r="C219" s="135"/>
-      <c r="D219" s="135"/>
-      <c r="E219" s="135"/>
-      <c r="F219" s="135"/>
-      <c r="G219" s="135"/>
-      <c r="H219" s="135"/>
-      <c r="I219" s="135"/>
-      <c r="J219" s="135"/>
-      <c r="K219" s="135"/>
-      <c r="L219" s="135"/>
+      <c r="B219" s="133"/>
+      <c r="C219" s="133"/>
+      <c r="D219" s="133"/>
+      <c r="E219" s="133"/>
+      <c r="F219" s="133"/>
+      <c r="G219" s="133"/>
+      <c r="H219" s="133"/>
+      <c r="I219" s="133"/>
+      <c r="J219" s="133"/>
+      <c r="K219" s="133"/>
+      <c r="L219" s="133"/>
     </row>
     <row r="220" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C220" s="78" t="s">
@@ -10486,10 +10486,10 @@
       </c>
     </row>
     <row r="221" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="147" t="s">
+      <c r="A221" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="147"/>
+      <c r="B221" s="132"/>
       <c r="C221" s="33">
         <v>100</v>
       </c>
@@ -10560,19 +10560,19 @@
       </c>
     </row>
     <row r="230" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="135" t="s">
+      <c r="A230" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="B230" s="135"/>
-      <c r="C230" s="135"/>
-      <c r="D230" s="135"/>
-      <c r="E230" s="135"/>
-      <c r="F230" s="135"/>
-      <c r="G230" s="135"/>
-      <c r="H230" s="135"/>
-      <c r="I230" s="135"/>
-      <c r="J230" s="135"/>
-      <c r="K230" s="135"/>
+      <c r="B230" s="133"/>
+      <c r="C230" s="133"/>
+      <c r="D230" s="133"/>
+      <c r="E230" s="133"/>
+      <c r="F230" s="133"/>
+      <c r="G230" s="133"/>
+      <c r="H230" s="133"/>
+      <c r="I230" s="133"/>
+      <c r="J230" s="133"/>
+      <c r="K230" s="133"/>
     </row>
     <row r="231" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C231" s="10" t="s">
@@ -10653,10 +10653,10 @@
       </c>
     </row>
     <row r="237" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="147" t="s">
+      <c r="A237" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="147"/>
+      <c r="B237" s="132"/>
     </row>
     <row r="238" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="34" t="s">
@@ -10706,24 +10706,24 @@
     </row>
     <row r="243" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="245" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="135" t="s">
+      <c r="A245" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="B245" s="135"/>
-      <c r="C245" s="135"/>
-      <c r="D245" s="135"/>
-      <c r="E245" s="135"/>
-      <c r="F245" s="135"/>
-      <c r="G245" s="135"/>
-      <c r="H245" s="135"/>
-      <c r="I245" s="135"/>
-      <c r="J245" s="135"/>
-      <c r="K245" s="135"/>
-      <c r="L245" s="135"/>
-      <c r="M245" s="135"/>
-      <c r="N245" s="135"/>
-      <c r="O245" s="135"/>
-      <c r="P245" s="135"/>
+      <c r="B245" s="133"/>
+      <c r="C245" s="133"/>
+      <c r="D245" s="133"/>
+      <c r="E245" s="133"/>
+      <c r="F245" s="133"/>
+      <c r="G245" s="133"/>
+      <c r="H245" s="133"/>
+      <c r="I245" s="133"/>
+      <c r="J245" s="133"/>
+      <c r="K245" s="133"/>
+      <c r="L245" s="133"/>
+      <c r="M245" s="133"/>
+      <c r="N245" s="133"/>
+      <c r="O245" s="133"/>
+      <c r="P245" s="133"/>
     </row>
     <row r="247" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C247" s="10" t="s">
@@ -10784,10 +10784,10 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="147" t="s">
+      <c r="A254" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="147"/>
+      <c r="B254" s="132"/>
     </row>
     <row r="255" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="34" t="s">
@@ -10826,25 +10826,25 @@
       </c>
     </row>
     <row r="262" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="135" t="s">
+      <c r="A262" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="B262" s="135"/>
-      <c r="C262" s="135"/>
-      <c r="D262" s="135"/>
-      <c r="E262" s="135"/>
-      <c r="F262" s="135"/>
-      <c r="G262" s="135"/>
-      <c r="H262" s="135"/>
-      <c r="I262" s="135"/>
-      <c r="J262" s="135"/>
-      <c r="K262" s="135"/>
-      <c r="L262" s="135"/>
-      <c r="M262" s="135"/>
-      <c r="N262" s="135"/>
-      <c r="O262" s="135"/>
-      <c r="P262" s="135"/>
-      <c r="Q262" s="135"/>
+      <c r="B262" s="133"/>
+      <c r="C262" s="133"/>
+      <c r="D262" s="133"/>
+      <c r="E262" s="133"/>
+      <c r="F262" s="133"/>
+      <c r="G262" s="133"/>
+      <c r="H262" s="133"/>
+      <c r="I262" s="133"/>
+      <c r="J262" s="133"/>
+      <c r="K262" s="133"/>
+      <c r="L262" s="133"/>
+      <c r="M262" s="133"/>
+      <c r="N262" s="133"/>
+      <c r="O262" s="133"/>
+      <c r="P262" s="133"/>
+      <c r="Q262" s="133"/>
     </row>
     <row r="264" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C264" s="10" t="s">
@@ -10854,10 +10854,10 @@
         <v>591</v>
       </c>
       <c r="E264" s="80"/>
-      <c r="G264" s="147" t="s">
+      <c r="G264" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="H264" s="147"/>
+      <c r="H264" s="132"/>
       <c r="M264" s="119" t="str">
         <f>"delete price where catId="&amp;D264&amp;" and firma=10;"</f>
         <v>delete price where catId=591 and firma=10;</v>
@@ -10919,11 +10919,11 @@
       </c>
     </row>
     <row r="268" spans="1:17" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C268" s="146" t="s">
+      <c r="C268" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="D268" s="146"/>
-      <c r="E268" s="146"/>
+      <c r="D268" s="149"/>
+      <c r="E268" s="149"/>
     </row>
     <row r="269" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
@@ -10943,6 +10943,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A175:P175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="I157:K157"/>
+    <mergeCell ref="M157:O157"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A262:Q262"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="G264:H264"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A245:P245"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A230:K230"/>
+    <mergeCell ref="A190:N190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A205:O205"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A219:L219"/>
+    <mergeCell ref="A127:H129"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A155:O155"/>
+    <mergeCell ref="A152:Q152"/>
+    <mergeCell ref="A134:G135"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="I139:K139"/>
+    <mergeCell ref="M139:O139"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A92:S92"/>
+    <mergeCell ref="A108:Q108"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A21:I21"/>
@@ -10959,84 +11037,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A92:S92"/>
-    <mergeCell ref="A108:Q108"/>
-    <mergeCell ref="A127:H129"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A155:O155"/>
-    <mergeCell ref="A152:Q152"/>
-    <mergeCell ref="A134:G135"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="I139:K139"/>
-    <mergeCell ref="M139:O139"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A230:K230"/>
-    <mergeCell ref="A190:N190"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A205:O205"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A219:L219"/>
-    <mergeCell ref="A262:Q262"/>
-    <mergeCell ref="C268:E268"/>
-    <mergeCell ref="G264:H264"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A245:P245"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A175:P175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="I157:K157"/>
-    <mergeCell ref="M157:O157"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="A130:E130"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A38" r:id="rId1" display="https://rubraslet.ru/silicon/2-site/121-segmentatsiya-svirl-202kh12kh2.html?ml=1"/>
@@ -11061,7 +11061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N14" sqref="N14:N15"/>
     </sheetView>
   </sheetViews>
@@ -11161,29 +11161,29 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:21" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="135"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
+      <c r="L10" s="133"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -11449,48 +11449,48 @@
       <c r="G30" s="119"/>
     </row>
     <row r="31" spans="1:19" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="135" t="s">
+      <c r="A31" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="135"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="135"/>
-      <c r="Q31" s="135"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="135"/>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="133"/>
+      <c r="N31" s="133"/>
+      <c r="O31" s="133"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="133"/>
+      <c r="R31" s="133"/>
+      <c r="S31" s="133"/>
     </row>
     <row r="32" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="135" t="s">
+      <c r="A32" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="135"/>
-      <c r="C32" s="135"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="135"/>
-      <c r="O32" s="135"/>
-      <c r="P32" s="135"/>
-      <c r="Q32" s="135"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="133"/>
+      <c r="O32" s="133"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="133"/>
     </row>
     <row r="33" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="15"/>
@@ -11856,45 +11856,45 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="135" t="s">
+      <c r="A56" s="133" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="135"/>
-      <c r="C56" s="135"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="135"/>
-      <c r="K56" s="135"/>
-      <c r="L56" s="135"/>
-      <c r="M56" s="135"/>
-      <c r="N56" s="135"/>
-      <c r="O56" s="135"/>
-      <c r="P56" s="135"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="133"/>
+      <c r="M56" s="133"/>
+      <c r="N56" s="133"/>
+      <c r="O56" s="133"/>
+      <c r="P56" s="133"/>
     </row>
     <row r="57" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="135" t="s">
+      <c r="A57" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="135"/>
-      <c r="C57" s="135"/>
-      <c r="D57" s="135"/>
-      <c r="E57" s="135"/>
-      <c r="F57" s="135"/>
-      <c r="G57" s="135"/>
-      <c r="H57" s="135"/>
-      <c r="I57" s="135"/>
-      <c r="J57" s="135"/>
-      <c r="K57" s="135"/>
-      <c r="L57" s="135"/>
-      <c r="M57" s="135"/>
-      <c r="N57" s="135"/>
-      <c r="O57" s="135"/>
-      <c r="P57" s="135"/>
-      <c r="Q57" s="135"/>
+      <c r="B57" s="133"/>
+      <c r="C57" s="133"/>
+      <c r="D57" s="133"/>
+      <c r="E57" s="133"/>
+      <c r="F57" s="133"/>
+      <c r="G57" s="133"/>
+      <c r="H57" s="133"/>
+      <c r="I57" s="133"/>
+      <c r="J57" s="133"/>
+      <c r="K57" s="133"/>
+      <c r="L57" s="133"/>
+      <c r="M57" s="133"/>
+      <c r="N57" s="133"/>
+      <c r="O57" s="133"/>
+      <c r="P57" s="133"/>
+      <c r="Q57" s="133"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
@@ -12252,12 +12252,12 @@
     </row>
     <row r="70" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D72" s="131"/>
-      <c r="E72" s="131"/>
-      <c r="F72" s="131"/>
-      <c r="H72" s="131"/>
-      <c r="I72" s="131"/>
-      <c r="J72" s="131"/>
+      <c r="D72" s="144"/>
+      <c r="E72" s="144"/>
+      <c r="F72" s="144"/>
+      <c r="H72" s="144"/>
+      <c r="I72" s="144"/>
+      <c r="J72" s="144"/>
     </row>
     <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="42"/>
@@ -12345,44 +12345,44 @@
       </c>
     </row>
     <row r="89" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="135" t="s">
+      <c r="A89" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="135"/>
-      <c r="C89" s="135"/>
-      <c r="D89" s="135"/>
-      <c r="E89" s="135"/>
-      <c r="F89" s="135"/>
-      <c r="G89" s="135"/>
-      <c r="H89" s="135"/>
-      <c r="I89" s="135"/>
-      <c r="J89" s="135"/>
-      <c r="K89" s="135"/>
-      <c r="L89" s="135"/>
-      <c r="M89" s="135"/>
-      <c r="N89" s="135"/>
-      <c r="O89" s="135"/>
+      <c r="B89" s="133"/>
+      <c r="C89" s="133"/>
+      <c r="D89" s="133"/>
+      <c r="E89" s="133"/>
+      <c r="F89" s="133"/>
+      <c r="G89" s="133"/>
+      <c r="H89" s="133"/>
+      <c r="I89" s="133"/>
+      <c r="J89" s="133"/>
+      <c r="K89" s="133"/>
+      <c r="L89" s="133"/>
+      <c r="M89" s="133"/>
+      <c r="N89" s="133"/>
+      <c r="O89" s="133"/>
     </row>
     <row r="90" spans="1:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="135" t="s">
+      <c r="A90" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="B90" s="135"/>
-      <c r="C90" s="135"/>
-      <c r="D90" s="135"/>
-      <c r="E90" s="135"/>
-      <c r="F90" s="135"/>
-      <c r="G90" s="135"/>
-      <c r="H90" s="135"/>
-      <c r="I90" s="135"/>
-      <c r="J90" s="135"/>
-      <c r="K90" s="135"/>
-      <c r="L90" s="135"/>
-      <c r="M90" s="135"/>
-      <c r="N90" s="135"/>
-      <c r="O90" s="135"/>
-      <c r="P90" s="135"/>
-      <c r="Q90" s="135"/>
+      <c r="B90" s="133"/>
+      <c r="C90" s="133"/>
+      <c r="D90" s="133"/>
+      <c r="E90" s="133"/>
+      <c r="F90" s="133"/>
+      <c r="G90" s="133"/>
+      <c r="H90" s="133"/>
+      <c r="I90" s="133"/>
+      <c r="J90" s="133"/>
+      <c r="K90" s="133"/>
+      <c r="L90" s="133"/>
+      <c r="M90" s="133"/>
+      <c r="N90" s="133"/>
+      <c r="O90" s="133"/>
+      <c r="P90" s="133"/>
+      <c r="Q90" s="133"/>
     </row>
     <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="30"/>
@@ -12410,13 +12410,13 @@
       <c r="M91" s="30"/>
     </row>
     <row r="92" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F92" s="151"/>
-      <c r="G92" s="151"/>
-      <c r="H92" s="151"/>
+      <c r="F92" s="146"/>
+      <c r="G92" s="146"/>
+      <c r="H92" s="146"/>
       <c r="I92" s="67"/>
-      <c r="J92" s="151"/>
-      <c r="K92" s="151"/>
-      <c r="L92" s="151"/>
+      <c r="J92" s="146"/>
+      <c r="K92" s="146"/>
+      <c r="L92" s="146"/>
       <c r="M92" s="30"/>
     </row>
     <row r="93" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12694,10 +12694,10 @@
       <c r="M102" s="30"/>
     </row>
     <row r="103" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="140" t="s">
+      <c r="B103" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="C103" s="140"/>
+      <c r="C103" s="139"/>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
       <c r="F103" s="28" t="s">
@@ -12779,30 +12779,30 @@
     </row>
     <row r="108" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="135" t="s">
+      <c r="A113" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="B113" s="135"/>
-      <c r="C113" s="135"/>
-      <c r="D113" s="135"/>
-      <c r="E113" s="135"/>
-      <c r="F113" s="135"/>
-      <c r="G113" s="135"/>
-      <c r="H113" s="135"/>
-      <c r="I113" s="135"/>
-      <c r="J113" s="135"/>
-      <c r="K113" s="135"/>
-      <c r="L113" s="135"/>
-      <c r="M113" s="135"/>
-      <c r="N113" s="135"/>
+      <c r="B113" s="133"/>
+      <c r="C113" s="133"/>
+      <c r="D113" s="133"/>
+      <c r="E113" s="133"/>
+      <c r="F113" s="133"/>
+      <c r="G113" s="133"/>
+      <c r="H113" s="133"/>
+      <c r="I113" s="133"/>
+      <c r="J113" s="133"/>
+      <c r="K113" s="133"/>
+      <c r="L113" s="133"/>
+      <c r="M113" s="133"/>
+      <c r="N113" s="133"/>
     </row>
     <row r="114" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F114" s="131"/>
-      <c r="G114" s="131"/>
-      <c r="H114" s="131"/>
-      <c r="J114" s="131"/>
-      <c r="K114" s="131"/>
-      <c r="L114" s="131"/>
+      <c r="F114" s="144"/>
+      <c r="G114" s="144"/>
+      <c r="H114" s="144"/>
+      <c r="J114" s="144"/>
+      <c r="K114" s="144"/>
+      <c r="L114" s="144"/>
     </row>
     <row r="115" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F115" s="96"/>
@@ -13037,10 +13037,10 @@
       </c>
     </row>
     <row r="125" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="140" t="s">
+      <c r="B125" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="C125" s="140"/>
+      <c r="C125" s="139"/>
       <c r="G125" s="21">
         <v>3000</v>
       </c>
@@ -13112,23 +13112,23 @@
     </row>
     <row r="130" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A132" s="149" t="s">
+      <c r="A132" s="143" t="s">
         <v>164</v>
       </c>
-      <c r="B132" s="131"/>
-      <c r="C132" s="131"/>
-      <c r="D132" s="131"/>
-      <c r="E132" s="131"/>
-      <c r="F132" s="131"/>
-      <c r="G132" s="131"/>
-      <c r="H132" s="131"/>
-      <c r="I132" s="131"/>
-      <c r="J132" s="131"/>
-      <c r="K132" s="131"/>
-      <c r="L132" s="131"/>
-      <c r="M132" s="131"/>
-      <c r="N132" s="131"/>
-      <c r="O132" s="131"/>
+      <c r="B132" s="144"/>
+      <c r="C132" s="144"/>
+      <c r="D132" s="144"/>
+      <c r="E132" s="144"/>
+      <c r="F132" s="144"/>
+      <c r="G132" s="144"/>
+      <c r="H132" s="144"/>
+      <c r="I132" s="144"/>
+      <c r="J132" s="144"/>
+      <c r="K132" s="144"/>
+      <c r="L132" s="144"/>
+      <c r="M132" s="144"/>
+      <c r="N132" s="144"/>
+      <c r="O132" s="144"/>
     </row>
     <row r="133" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13280,10 +13280,10 @@
       </c>
     </row>
     <row r="143" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="140" t="s">
+      <c r="C143" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="D143" s="140"/>
+      <c r="D143" s="139"/>
     </row>
     <row r="144" spans="1:15" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C144" s="19" t="s">
@@ -13297,10 +13297,10 @@
       </c>
     </row>
     <row r="145" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="153" t="s">
+      <c r="C145" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="D145" s="153"/>
+      <c r="D145" s="140"/>
       <c r="F145" s="28" t="s">
         <v>170</v>
       </c>
@@ -13317,6 +13317,16 @@
     <row r="147" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A10:U10"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:Q57"/>
     <mergeCell ref="A132:O132"/>
     <mergeCell ref="C143:D143"/>
     <mergeCell ref="C145:D145"/>
@@ -13329,16 +13339,6 @@
     <mergeCell ref="A113:N113"/>
     <mergeCell ref="F114:H114"/>
     <mergeCell ref="J114:L114"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A10:U10"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:Q57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -13355,7 +13355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -13367,36 +13367,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -13514,10 +13514,10 @@
       <c r="T9" s="119"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="136"/>
+      <c r="B10" s="147"/>
       <c r="T10" s="119"/>
     </row>
     <row r="11" spans="1:28" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13545,10 +13545,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="137"/>
+      <c r="B14" s="142"/>
     </row>
     <row r="15" spans="1:28" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
@@ -13560,33 +13560,33 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="133" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="133"/>
+      <c r="R19" s="133"/>
+      <c r="S19" s="133"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="133"/>
+      <c r="V19" s="133"/>
+      <c r="W19" s="133"/>
+      <c r="X19" s="133"/>
+      <c r="Y19" s="133"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82" t="s">
@@ -13693,10 +13693,10 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="136"/>
+      <c r="B29" s="147"/>
     </row>
     <row r="30" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
@@ -13715,10 +13715,10 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="137" t="s">
+      <c r="A32" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="137"/>
+      <c r="B32" s="142"/>
     </row>
     <row r="33" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
@@ -13730,27 +13730,27 @@
     </row>
     <row r="34" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="135" t="s">
+      <c r="A36" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="135"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="135"/>
-      <c r="N36" s="135"/>
-      <c r="O36" s="135"/>
-      <c r="P36" s="135"/>
-      <c r="Q36" s="135"/>
-      <c r="R36" s="135"/>
-      <c r="S36" s="135"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="133"/>
+      <c r="N36" s="133"/>
+      <c r="O36" s="133"/>
+      <c r="P36" s="133"/>
+      <c r="Q36" s="133"/>
+      <c r="R36" s="133"/>
+      <c r="S36" s="133"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
@@ -13815,18 +13815,18 @@
     </row>
     <row r="42" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="136" t="s">
+      <c r="A43" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="136"/>
+      <c r="B43" s="147"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34"/>
       <c r="B44" s="49"/>
     </row>
     <row r="45" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="137"/>
-      <c r="B45" s="137"/>
+      <c r="A45" s="142"/>
+      <c r="B45" s="142"/>
     </row>
     <row r="46" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34"/>
@@ -13855,7 +13855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -13873,30 +13873,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -13987,16 +13987,16 @@
     </row>
     <row r="8" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="136" t="s">
+      <c r="A9" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="136"/>
+      <c r="B9" s="147"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="160" t="s">
         <v>274</v>
       </c>
       <c r="F10" t="s">
@@ -14013,7 +14013,7 @@
       <c r="A11" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="160"/>
+      <c r="B11" s="161"/>
       <c r="E11" s="120">
         <v>559</v>
       </c>
@@ -14034,7 +14034,7 @@
       <c r="A12" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="161" t="s">
+      <c r="B12" s="162" t="s">
         <v>275</v>
       </c>
     </row>
@@ -14042,7 +14042,7 @@
       <c r="A13" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="160"/>
+      <c r="B13" s="161"/>
     </row>
     <row r="14" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
@@ -14074,28 +14074,28 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="135" t="s">
+      <c r="A22" s="133" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="135"/>
-      <c r="Q22" s="135"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="133"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="133"/>
+      <c r="R22" s="133"/>
+      <c r="S22" s="133"/>
+      <c r="T22" s="133"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="82" t="s">
@@ -14171,10 +14171,10 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="136" t="s">
+      <c r="A30" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="136"/>
+      <c r="B30" s="147"/>
     </row>
     <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
@@ -14233,50 +14233,50 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="135" t="s">
+      <c r="A40" s="133" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="135"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="135"/>
-      <c r="J40" s="135"/>
-      <c r="K40" s="135"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135"/>
-      <c r="N40" s="135"/>
-      <c r="O40" s="135"/>
-      <c r="P40" s="135"/>
-      <c r="Q40" s="135"/>
-      <c r="R40" s="135"/>
-      <c r="S40" s="135"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="133"/>
+      <c r="O40" s="133"/>
+      <c r="P40" s="133"/>
+      <c r="Q40" s="133"/>
+      <c r="R40" s="133"/>
+      <c r="S40" s="133"/>
     </row>
     <row r="41" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="135" t="s">
+      <c r="A41" s="133" t="s">
         <v>287</v>
       </c>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="135"/>
-      <c r="K41" s="135"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
-      <c r="N41" s="135"/>
-      <c r="O41" s="135"/>
-      <c r="P41" s="135"/>
-      <c r="Q41" s="135"/>
-      <c r="R41" s="135"/>
-      <c r="S41" s="135"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="133"/>
+      <c r="N41" s="133"/>
+      <c r="O41" s="133"/>
+      <c r="P41" s="133"/>
+      <c r="Q41" s="133"/>
+      <c r="R41" s="133"/>
+      <c r="S41" s="133"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D42" s="88" t="s">
@@ -14526,11 +14526,11 @@
       </c>
     </row>
     <row r="50" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="162" t="s">
+      <c r="C50" s="159" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="162"/>
-      <c r="E50" s="162"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="159"/>
       <c r="F50" s="100" t="s">
         <v>210</v>
       </c>
@@ -14538,12 +14538,12 @@
     </row>
     <row r="51" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="131"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="G52" s="144"/>
+      <c r="H52" s="144"/>
+      <c r="I52" s="144"/>
     </row>
     <row r="53" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="50"/>
@@ -14595,17 +14595,17 @@
       <c r="I59" s="36"/>
     </row>
     <row r="60" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="162"/>
-      <c r="D60" s="162"/>
-      <c r="E60" s="162"/>
+      <c r="C60" s="159"/>
+      <c r="D60" s="159"/>
+      <c r="E60" s="159"/>
       <c r="G60" s="100"/>
     </row>
     <row r="61" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="140" t="s">
+      <c r="C62" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="140"/>
+      <c r="D62" s="139"/>
     </row>
     <row r="63" spans="3:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="19" t="s">
@@ -14630,6 +14630,12 @@
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A22:T22"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="A40:S40"/>
     <mergeCell ref="A41:S41"/>
@@ -14637,12 +14643,6 @@
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="G52:I52"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A22:T22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" display="https://rubraslet.ru/bumaga.html"/>
@@ -14659,7 +14659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -14675,37 +14675,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="133"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -14832,10 +14832,10 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="136"/>
+      <c r="B10" s="147"/>
       <c r="U10" s="119"/>
     </row>
     <row r="11" spans="1:29" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14864,32 +14864,32 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="133" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="135"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="133"/>
+      <c r="R16" s="133"/>
+      <c r="S16" s="133"/>
+      <c r="T16" s="133"/>
+      <c r="U16" s="133"/>
+      <c r="V16" s="133"/>
+      <c r="W16" s="133"/>
+      <c r="X16" s="133"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
@@ -14993,10 +14993,10 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="136"/>
+      <c r="B27" s="147"/>
     </row>
     <row r="28" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
@@ -15023,10 +15023,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="137" t="s">
+      <c r="A31" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="137"/>
+      <c r="B31" s="142"/>
     </row>
     <row r="32" spans="1:9" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
@@ -15058,36 +15058,36 @@
       <c r="H34" s="119"/>
     </row>
     <row r="35" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="135" t="s">
+      <c r="A35" s="133" t="s">
         <v>229</v>
       </c>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="135"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="135"/>
-      <c r="N35" s="135"/>
-      <c r="O35" s="135"/>
-      <c r="P35" s="135"/>
-      <c r="Q35" s="135"/>
-      <c r="R35" s="135"/>
-      <c r="S35" s="135"/>
-      <c r="T35" s="135"/>
-      <c r="U35" s="135"/>
-      <c r="V35" s="135"/>
-      <c r="W35" s="135"/>
-      <c r="X35" s="135"/>
-      <c r="Y35" s="135"/>
-      <c r="Z35" s="135"/>
-      <c r="AA35" s="135"/>
-      <c r="AB35" s="135"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="133"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="133"/>
+      <c r="M35" s="133"/>
+      <c r="N35" s="133"/>
+      <c r="O35" s="133"/>
+      <c r="P35" s="133"/>
+      <c r="Q35" s="133"/>
+      <c r="R35" s="133"/>
+      <c r="S35" s="133"/>
+      <c r="T35" s="133"/>
+      <c r="U35" s="133"/>
+      <c r="V35" s="133"/>
+      <c r="W35" s="133"/>
+      <c r="X35" s="133"/>
+      <c r="Y35" s="133"/>
+      <c r="Z35" s="133"/>
+      <c r="AA35" s="133"/>
+      <c r="AB35" s="133"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" s="101" t="s">
@@ -15105,9 +15105,9 @@
       <c r="H36" s="101"/>
       <c r="I36" s="101"/>
       <c r="J36" s="101"/>
-      <c r="L36" s="131"/>
-      <c r="M36" s="131"/>
-      <c r="N36" s="131"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="82" t="s">
@@ -15342,10 +15342,10 @@
     </row>
     <row r="45" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="140" t="s">
+      <c r="A59" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="140"/>
+      <c r="B59" s="139"/>
     </row>
     <row r="60" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
@@ -15381,10 +15381,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="153" t="s">
+      <c r="A63" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="153"/>
+      <c r="B63" s="140"/>
     </row>
     <row r="64" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
@@ -15409,30 +15409,30 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="135" t="s">
+      <c r="A67" s="133" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="135"/>
-      <c r="C67" s="135"/>
-      <c r="D67" s="135"/>
-      <c r="E67" s="135"/>
-      <c r="F67" s="135"/>
-      <c r="G67" s="135"/>
-      <c r="H67" s="135"/>
-      <c r="I67" s="135"/>
-      <c r="J67" s="135"/>
-      <c r="K67" s="135"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
-      <c r="N67" s="135"/>
-      <c r="O67" s="135"/>
-      <c r="P67" s="135"/>
-      <c r="Q67" s="135"/>
-      <c r="R67" s="135"/>
-      <c r="S67" s="135"/>
-      <c r="T67" s="135"/>
-      <c r="U67" s="135"/>
-      <c r="V67" s="135"/>
+      <c r="B67" s="133"/>
+      <c r="C67" s="133"/>
+      <c r="D67" s="133"/>
+      <c r="E67" s="133"/>
+      <c r="F67" s="133"/>
+      <c r="G67" s="133"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="133"/>
+      <c r="J67" s="133"/>
+      <c r="K67" s="133"/>
+      <c r="L67" s="133"/>
+      <c r="M67" s="133"/>
+      <c r="N67" s="133"/>
+      <c r="O67" s="133"/>
+      <c r="P67" s="133"/>
+      <c r="Q67" s="133"/>
+      <c r="R67" s="133"/>
+      <c r="S67" s="133"/>
+      <c r="T67" s="133"/>
+      <c r="U67" s="133"/>
+      <c r="V67" s="133"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="101" t="s">
@@ -15444,12 +15444,12 @@
       <c r="C68" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="E68" s="131"/>
-      <c r="F68" s="131"/>
-      <c r="G68" s="131"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="131"/>
-      <c r="J68" s="131"/>
+      <c r="E68" s="144"/>
+      <c r="F68" s="144"/>
+      <c r="G68" s="144"/>
+      <c r="H68" s="144"/>
+      <c r="I68" s="144"/>
+      <c r="J68" s="144"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50" t="s">
@@ -15672,6 +15672,11 @@
     <row r="83" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:X16"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A67:V67"/>
     <mergeCell ref="E68:J68"/>
@@ -15680,11 +15685,6 @@
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="L36:N36"/>
     <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:X16"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://rubraslet.ru/reflectors/2-site/79-fasovka-svetootrazhayushchikh-nakleek.html?ml=1"/>
@@ -15700,7 +15700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B52" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -15712,33 +15712,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="133" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
@@ -15863,10 +15863,10 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="136"/>
+      <c r="B10" s="147"/>
       <c r="F10" s="29" t="s">
         <v>50</v>
       </c>
@@ -15896,10 +15896,10 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="137" t="s">
+      <c r="A14" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="137"/>
+      <c r="B14" s="142"/>
     </row>
     <row r="15" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
@@ -15911,32 +15911,32 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="133" t="s">
         <v>251</v>
       </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="133"/>
+      <c r="O18" s="133"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="133"/>
+      <c r="R18" s="133"/>
+      <c r="S18" s="133"/>
+      <c r="T18" s="133"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="133"/>
+      <c r="W18" s="133"/>
+      <c r="X18" s="133"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
@@ -16032,11 +16032,11 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="146" t="s">
+      <c r="A26" s="149" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
       <c r="F26" s="29" t="s">
         <v>250</v>
       </c>
@@ -16050,10 +16050,10 @@
     </row>
     <row r="28" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="136"/>
+      <c r="B29" s="147"/>
     </row>
     <row r="30" spans="1:24" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
@@ -16080,10 +16080,10 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="137" t="s">
+      <c r="A33" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="137"/>
+      <c r="B33" s="142"/>
     </row>
     <row r="34" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
@@ -16095,30 +16095,30 @@
     </row>
     <row r="35" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="135" t="s">
+      <c r="A39" s="133" t="s">
         <v>255</v>
       </c>
-      <c r="B39" s="135"/>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="135"/>
-      <c r="H39" s="135"/>
-      <c r="I39" s="135"/>
-      <c r="J39" s="135"/>
-      <c r="K39" s="135"/>
-      <c r="L39" s="135"/>
-      <c r="M39" s="135"/>
-      <c r="N39" s="135"/>
-      <c r="O39" s="135"/>
-      <c r="P39" s="135"/>
-      <c r="Q39" s="135"/>
-      <c r="R39" s="135"/>
-      <c r="S39" s="135"/>
-      <c r="T39" s="135"/>
-      <c r="U39" s="135"/>
-      <c r="V39" s="135"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="133"/>
+      <c r="O39" s="133"/>
+      <c r="P39" s="133"/>
+      <c r="Q39" s="133"/>
+      <c r="R39" s="133"/>
+      <c r="S39" s="133"/>
+      <c r="T39" s="133"/>
+      <c r="U39" s="133"/>
+      <c r="V39" s="133"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
@@ -16199,11 +16199,11 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="146" t="s">
+      <c r="A46" s="149" t="s">
         <v>256</v>
       </c>
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
+      <c r="B46" s="149"/>
+      <c r="C46" s="149"/>
     </row>
     <row r="47" spans="1:22" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="164" t="s">
@@ -16214,10 +16214,10 @@
     </row>
     <row r="48" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="136" t="s">
+      <c r="A49" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="136"/>
+      <c r="B49" s="147"/>
     </row>
     <row r="50" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
@@ -16253,10 +16253,10 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="137" t="s">
+      <c r="A53" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="137"/>
+      <c r="B53" s="142"/>
       <c r="E53" s="29" t="s">
         <v>260</v>
       </c>
@@ -16286,6 +16286,12 @@
     <row r="56" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:X18"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A27:C27"/>
@@ -16294,12 +16300,6 @@
     <mergeCell ref="A39:V39"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:X18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://rubraslet.ru/slap-watches.html?id=92&amp;ml=1"/>

--- a/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
+++ b/калькулятор 5 - блокноты, деколь/прайс рубраслет.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KvotaSite\калькулятор 5 - блокноты, деколь\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="силиконовые браслеты" sheetId="1" r:id="rId1"/>
@@ -3513,7 +3508,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4407,13 +4402,40 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4422,16 +4444,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4440,47 +4474,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4491,9 +4486,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -4502,6 +4494,9 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7442,7 +7437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7615,8 +7610,8 @@
       <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="131"/>
-      <c r="B16" s="131"/>
+      <c r="A16" s="155"/>
+      <c r="B16" s="155"/>
     </row>
     <row r="17" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -7655,25 +7650,25 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="133" t="s">
+      <c r="A21" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="150" t="s">
+      <c r="B22" s="145" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
       <c r="F22" s="29" t="s">
         <v>262</v>
       </c>
@@ -7682,28 +7677,28 @@
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="38"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
       <c r="V22" s="101"/>
     </row>
     <row r="23" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134" t="s">
+      <c r="C23" s="143"/>
+      <c r="D23" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134" t="s">
+      <c r="E23" s="143"/>
+      <c r="F23" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134" t="s">
+      <c r="G23" s="143"/>
+      <c r="H23" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="134"/>
+      <c r="I23" s="143"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="M23" s="125"/>
@@ -7714,22 +7709,22 @@
       <c r="A24" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="135">
+      <c r="B24" s="144">
         <v>592</v>
       </c>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135">
+      <c r="C24" s="144"/>
+      <c r="D24" s="144">
         <v>593</v>
       </c>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135">
+      <c r="E24" s="144"/>
+      <c r="F24" s="144">
         <v>594</v>
       </c>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135">
+      <c r="G24" s="144"/>
+      <c r="H24" s="144">
         <v>595</v>
       </c>
-      <c r="I24" s="135"/>
+      <c r="I24" s="144"/>
       <c r="J24" s="22"/>
       <c r="K24" s="21"/>
       <c r="M24" s="119" t="str">
@@ -7756,22 +7751,22 @@
       <c r="A25" s="21">
         <v>100</v>
       </c>
-      <c r="B25" s="137" t="s">
+      <c r="B25" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137" t="s">
+      <c r="C25" s="142"/>
+      <c r="D25" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137" t="s">
+      <c r="E25" s="142"/>
+      <c r="F25" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137" t="s">
+      <c r="G25" s="142"/>
+      <c r="H25" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="137"/>
+      <c r="I25" s="142"/>
       <c r="J25" s="22"/>
       <c r="K25" s="21"/>
       <c r="M25" s="119" t="str">
@@ -7798,22 +7793,22 @@
       <c r="A26" s="21">
         <v>200</v>
       </c>
-      <c r="B26" s="136" t="s">
+      <c r="B26" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136" t="s">
+      <c r="C26" s="133"/>
+      <c r="D26" s="133" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136" t="s">
+      <c r="E26" s="133"/>
+      <c r="F26" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136" t="s">
+      <c r="G26" s="133"/>
+      <c r="H26" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="136"/>
+      <c r="I26" s="133"/>
       <c r="J26" s="22"/>
       <c r="K26" s="21"/>
       <c r="M26" s="119" t="str">
@@ -7840,22 +7835,22 @@
       <c r="A27" s="21">
         <v>300</v>
       </c>
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136" t="s">
+      <c r="C27" s="133"/>
+      <c r="D27" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136" t="s">
+      <c r="E27" s="133"/>
+      <c r="F27" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136" t="s">
+      <c r="G27" s="133"/>
+      <c r="H27" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="I27" s="136"/>
+      <c r="I27" s="133"/>
       <c r="J27" s="22"/>
       <c r="K27" s="21"/>
       <c r="M27" s="119" t="str">
@@ -7882,22 +7877,22 @@
       <c r="A28" s="21">
         <v>500</v>
       </c>
-      <c r="B28" s="136" t="s">
+      <c r="B28" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136" t="s">
+      <c r="C28" s="133"/>
+      <c r="D28" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136" t="s">
+      <c r="E28" s="133"/>
+      <c r="F28" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136" t="s">
+      <c r="G28" s="133"/>
+      <c r="H28" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="136"/>
+      <c r="I28" s="133"/>
       <c r="J28" s="22"/>
       <c r="K28" s="21"/>
       <c r="M28" s="119" t="str">
@@ -7924,22 +7919,22 @@
       <c r="A29" s="21">
         <v>1000</v>
       </c>
-      <c r="B29" s="136" t="s">
+      <c r="B29" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136" t="s">
+      <c r="C29" s="133"/>
+      <c r="D29" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136" t="s">
+      <c r="E29" s="133"/>
+      <c r="F29" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136" t="s">
+      <c r="G29" s="133"/>
+      <c r="H29" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="136"/>
+      <c r="I29" s="133"/>
       <c r="J29" s="22"/>
       <c r="K29" s="21"/>
       <c r="M29" s="119" t="str">
@@ -7966,22 +7961,22 @@
       <c r="A30" s="21">
         <v>3000</v>
       </c>
-      <c r="B30" s="136" t="s">
+      <c r="B30" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136" t="s">
+      <c r="C30" s="133"/>
+      <c r="D30" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136" t="s">
+      <c r="E30" s="133"/>
+      <c r="F30" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136" t="s">
+      <c r="G30" s="133"/>
+      <c r="H30" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="136"/>
+      <c r="I30" s="133"/>
       <c r="M30" s="119" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,592,3000, 13);</v>
@@ -8006,18 +8001,18 @@
       <c r="A31" s="21">
         <v>5000</v>
       </c>
-      <c r="B31" s="136" t="s">
+      <c r="B31" s="133" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="136" t="s">
+      <c r="C31" s="133"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="136"/>
+      <c r="I31" s="133"/>
       <c r="M31" s="119" t="str">
         <f t="shared" si="3"/>
         <v>insert into price (firma,catId,tiraz,cena) values (10,592,5000, 11);</v>
@@ -8036,16 +8031,16 @@
       <c r="A32" s="21">
         <v>10000</v>
       </c>
-      <c r="B32" s="136" t="s">
+      <c r="B32" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="136"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
       <c r="M32" s="119" t="str">
         <f>"insert into price (firma,catId,tiraz,cena) values ("&amp;10&amp;","&amp;B$24&amp;","&amp;$A32&amp;","&amp;SUBSTITUTE(TEXT(B32,"0,00"),",",".")&amp;");"</f>
         <v>insert into price (firma,catId,tiraz,cena) values (10,592,10000, 10);</v>
@@ -8058,10 +8053,10 @@
       <c r="S32" s="119"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
@@ -8149,21 +8144,21 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="133" t="s">
+      <c r="A46" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="133"/>
-      <c r="C46" s="133"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
-      <c r="L46" s="133"/>
-      <c r="M46" s="133"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="135"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="135"/>
+      <c r="K46" s="135"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="135"/>
     </row>
     <row r="47" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
@@ -8175,13 +8170,13 @@
       <c r="D47" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
+      <c r="G47" s="143"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="134"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="134"/>
+      <c r="I47" s="143"/>
+      <c r="J47" s="143"/>
+      <c r="K47" s="143"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
@@ -8440,10 +8435,10 @@
       </c>
     </row>
     <row r="59" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="139" t="s">
+      <c r="A59" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="139"/>
+      <c r="B59" s="140"/>
     </row>
     <row r="60" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
@@ -8454,10 +8449,10 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="140" t="s">
+      <c r="A61" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="B61" s="140"/>
+      <c r="B61" s="153"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -8525,8 +8520,8 @@
       </c>
     </row>
     <row r="70" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="132"/>
-      <c r="B70" s="132"/>
+      <c r="A70" s="147"/>
+      <c r="B70" s="147"/>
     </row>
     <row r="71" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
@@ -8537,25 +8532,25 @@
       <c r="B72" s="5"/>
     </row>
     <row r="73" spans="1:17" ht="47.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="133" t="s">
+      <c r="A73" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="B73" s="133"/>
-      <c r="C73" s="133"/>
-      <c r="D73" s="133"/>
-      <c r="E73" s="133"/>
-      <c r="F73" s="133"/>
-      <c r="G73" s="133"/>
-      <c r="H73" s="133"/>
-      <c r="I73" s="133"/>
-      <c r="J73" s="133"/>
-      <c r="K73" s="133"/>
-      <c r="L73" s="133"/>
-      <c r="M73" s="133"/>
-      <c r="N73" s="133"/>
-      <c r="O73" s="133"/>
-      <c r="P73" s="133"/>
-      <c r="Q73" s="133"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="135"/>
+      <c r="D73" s="135"/>
+      <c r="E73" s="135"/>
+      <c r="F73" s="135"/>
+      <c r="G73" s="135"/>
+      <c r="H73" s="135"/>
+      <c r="I73" s="135"/>
+      <c r="J73" s="135"/>
+      <c r="K73" s="135"/>
+      <c r="L73" s="135"/>
+      <c r="M73" s="135"/>
+      <c r="N73" s="135"/>
+      <c r="O73" s="135"/>
+      <c r="P73" s="135"/>
+      <c r="Q73" s="135"/>
     </row>
     <row r="74" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
@@ -8578,10 +8573,10 @@
       </c>
     </row>
     <row r="76" spans="1:17" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="141" t="s">
+      <c r="A76" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="141"/>
+      <c r="B76" s="154"/>
       <c r="C76" s="36"/>
       <c r="E76" s="47">
         <v>100</v>
@@ -8616,10 +8611,10 @@
       </c>
     </row>
     <row r="78" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="142" t="s">
+      <c r="A78" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="142"/>
+      <c r="B78" s="137"/>
       <c r="C78" s="36"/>
       <c r="E78" s="47">
         <v>500</v>
@@ -8750,33 +8745,33 @@
       <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:19" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="133" t="s">
+      <c r="A92" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="B92" s="133"/>
-      <c r="C92" s="133"/>
-      <c r="D92" s="133"/>
-      <c r="E92" s="133"/>
-      <c r="F92" s="133"/>
-      <c r="G92" s="133"/>
-      <c r="H92" s="133"/>
-      <c r="I92" s="133"/>
-      <c r="J92" s="133"/>
-      <c r="K92" s="133"/>
-      <c r="L92" s="133"/>
-      <c r="M92" s="133"/>
-      <c r="N92" s="133"/>
-      <c r="O92" s="133"/>
-      <c r="P92" s="133"/>
-      <c r="Q92" s="133"/>
-      <c r="R92" s="133"/>
-      <c r="S92" s="133"/>
+      <c r="B92" s="135"/>
+      <c r="C92" s="135"/>
+      <c r="D92" s="135"/>
+      <c r="E92" s="135"/>
+      <c r="F92" s="135"/>
+      <c r="G92" s="135"/>
+      <c r="H92" s="135"/>
+      <c r="I92" s="135"/>
+      <c r="J92" s="135"/>
+      <c r="K92" s="135"/>
+      <c r="L92" s="135"/>
+      <c r="M92" s="135"/>
+      <c r="N92" s="135"/>
+      <c r="O92" s="135"/>
+      <c r="P92" s="135"/>
+      <c r="Q92" s="135"/>
+      <c r="R92" s="135"/>
+      <c r="S92" s="135"/>
     </row>
     <row r="93" spans="1:19" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="138" t="s">
+      <c r="A93" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="B93" s="138"/>
+      <c r="B93" s="152"/>
       <c r="E93" s="45" t="s">
         <v>0</v>
       </c>
@@ -8809,10 +8804,10 @@
       </c>
     </row>
     <row r="95" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="142" t="s">
+      <c r="A95" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B95" s="142"/>
+      <c r="B95" s="137"/>
       <c r="E95" s="34">
         <v>300</v>
       </c>
@@ -8944,25 +8939,25 @@
       <c r="B107" s="5"/>
     </row>
     <row r="108" spans="1:17" ht="63" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="133" t="s">
+      <c r="A108" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="B108" s="133"/>
-      <c r="C108" s="133"/>
-      <c r="D108" s="133"/>
-      <c r="E108" s="133"/>
-      <c r="F108" s="133"/>
-      <c r="G108" s="133"/>
-      <c r="H108" s="133"/>
-      <c r="I108" s="133"/>
-      <c r="J108" s="133"/>
-      <c r="K108" s="133"/>
-      <c r="L108" s="133"/>
-      <c r="M108" s="133"/>
-      <c r="N108" s="133"/>
-      <c r="O108" s="133"/>
-      <c r="P108" s="133"/>
-      <c r="Q108" s="133"/>
+      <c r="B108" s="135"/>
+      <c r="C108" s="135"/>
+      <c r="D108" s="135"/>
+      <c r="E108" s="135"/>
+      <c r="F108" s="135"/>
+      <c r="G108" s="135"/>
+      <c r="H108" s="135"/>
+      <c r="I108" s="135"/>
+      <c r="J108" s="135"/>
+      <c r="K108" s="135"/>
+      <c r="L108" s="135"/>
+      <c r="M108" s="135"/>
+      <c r="N108" s="135"/>
+      <c r="O108" s="135"/>
+      <c r="P108" s="135"/>
+      <c r="Q108" s="135"/>
     </row>
     <row r="109" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
@@ -8982,10 +8977,10 @@
       <c r="O109" s="113"/>
     </row>
     <row r="110" spans="1:17" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="138" t="s">
+      <c r="A110" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="B110" s="138"/>
+      <c r="B110" s="152"/>
       <c r="E110" s="23" t="s">
         <v>291</v>
       </c>
@@ -9033,10 +9028,10 @@
       <c r="P111" s="24"/>
     </row>
     <row r="112" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="142" t="s">
+      <c r="A112" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B112" s="142"/>
+      <c r="B112" s="137"/>
       <c r="E112" s="23" t="s">
         <v>0</v>
       </c>
@@ -9243,60 +9238,60 @@
       <c r="A122" s="28"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="143"/>
-      <c r="B127" s="144"/>
-      <c r="C127" s="144"/>
-      <c r="D127" s="144"/>
-      <c r="E127" s="144"/>
-      <c r="F127" s="144"/>
-      <c r="G127" s="144"/>
-      <c r="H127" s="144"/>
+      <c r="A127" s="149"/>
+      <c r="B127" s="131"/>
+      <c r="C127" s="131"/>
+      <c r="D127" s="131"/>
+      <c r="E127" s="131"/>
+      <c r="F127" s="131"/>
+      <c r="G127" s="131"/>
+      <c r="H127" s="131"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="144"/>
-      <c r="B128" s="144"/>
-      <c r="C128" s="144"/>
-      <c r="D128" s="144"/>
-      <c r="E128" s="144"/>
-      <c r="F128" s="144"/>
-      <c r="G128" s="144"/>
-      <c r="H128" s="144"/>
+      <c r="A128" s="131"/>
+      <c r="B128" s="131"/>
+      <c r="C128" s="131"/>
+      <c r="D128" s="131"/>
+      <c r="E128" s="131"/>
+      <c r="F128" s="131"/>
+      <c r="G128" s="131"/>
+      <c r="H128" s="131"/>
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A129" s="144"/>
-      <c r="B129" s="144"/>
-      <c r="C129" s="144"/>
-      <c r="D129" s="144"/>
-      <c r="E129" s="144"/>
-      <c r="F129" s="144"/>
-      <c r="G129" s="144"/>
-      <c r="H129" s="144"/>
+      <c r="A129" s="131"/>
+      <c r="B129" s="131"/>
+      <c r="C129" s="131"/>
+      <c r="D129" s="131"/>
+      <c r="E129" s="131"/>
+      <c r="F129" s="131"/>
+      <c r="G129" s="131"/>
+      <c r="H129" s="131"/>
     </row>
     <row r="130" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A130" s="155"/>
-      <c r="B130" s="155"/>
-      <c r="C130" s="155"/>
-      <c r="D130" s="155"/>
-      <c r="E130" s="155"/>
+      <c r="A130" s="141"/>
+      <c r="B130" s="141"/>
+      <c r="C130" s="141"/>
+      <c r="D130" s="141"/>
+      <c r="E130" s="141"/>
       <c r="R130" s="44"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="144"/>
-      <c r="B134" s="144"/>
-      <c r="C134" s="144"/>
-      <c r="D134" s="144"/>
-      <c r="E134" s="144"/>
-      <c r="F134" s="144"/>
-      <c r="G134" s="144"/>
+      <c r="A134" s="131"/>
+      <c r="B134" s="131"/>
+      <c r="C134" s="131"/>
+      <c r="D134" s="131"/>
+      <c r="E134" s="131"/>
+      <c r="F134" s="131"/>
+      <c r="G134" s="131"/>
     </row>
     <row r="135" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="144"/>
-      <c r="B135" s="144"/>
-      <c r="C135" s="144"/>
-      <c r="D135" s="144"/>
-      <c r="E135" s="144"/>
-      <c r="F135" s="144"/>
-      <c r="G135" s="144"/>
+      <c r="A135" s="131"/>
+      <c r="B135" s="131"/>
+      <c r="C135" s="131"/>
+      <c r="D135" s="131"/>
+      <c r="E135" s="131"/>
+      <c r="F135" s="131"/>
+      <c r="G135" s="131"/>
     </row>
     <row r="136" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D136" s="120">
@@ -9316,15 +9311,15 @@
       </c>
     </row>
     <row r="137" spans="1:18" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="133" t="s">
+      <c r="A137" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="B137" s="133"/>
-      <c r="C137" s="133"/>
-      <c r="D137" s="133"/>
-      <c r="E137" s="133"/>
-      <c r="F137" s="133"/>
-      <c r="G137" s="133"/>
+      <c r="B137" s="135"/>
+      <c r="C137" s="135"/>
+      <c r="D137" s="135"/>
+      <c r="E137" s="135"/>
+      <c r="F137" s="135"/>
+      <c r="G137" s="135"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F138" s="29" t="s">
@@ -9332,10 +9327,10 @@
       </c>
     </row>
     <row r="139" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="147" t="s">
+      <c r="A139" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B139" s="147"/>
+      <c r="B139" s="136"/>
       <c r="F139" s="85" t="s">
         <v>22</v>
       </c>
@@ -9345,13 +9340,13 @@
       <c r="H139" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="I139" s="146"/>
-      <c r="J139" s="146"/>
-      <c r="K139" s="146"/>
+      <c r="I139" s="151"/>
+      <c r="J139" s="151"/>
+      <c r="K139" s="151"/>
       <c r="L139" s="68"/>
-      <c r="M139" s="146"/>
-      <c r="N139" s="146"/>
-      <c r="O139" s="146"/>
+      <c r="M139" s="151"/>
+      <c r="N139" s="151"/>
+      <c r="O139" s="151"/>
     </row>
     <row r="140" spans="1:18" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="34" t="s">
@@ -9416,10 +9411,10 @@
       </c>
     </row>
     <row r="142" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="142" t="s">
+      <c r="A142" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B142" s="142"/>
+      <c r="B142" s="137"/>
       <c r="E142" s="55">
         <v>200</v>
       </c>
@@ -9617,25 +9612,25 @@
       <c r="N149" s="71"/>
     </row>
     <row r="152" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="145" t="s">
+      <c r="A152" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="B152" s="145"/>
-      <c r="C152" s="145"/>
-      <c r="D152" s="145"/>
-      <c r="E152" s="145"/>
-      <c r="F152" s="145"/>
-      <c r="G152" s="145"/>
-      <c r="H152" s="145"/>
-      <c r="I152" s="145"/>
-      <c r="J152" s="145"/>
-      <c r="K152" s="145"/>
-      <c r="L152" s="145"/>
-      <c r="M152" s="145"/>
-      <c r="N152" s="145"/>
-      <c r="O152" s="145"/>
-      <c r="P152" s="145"/>
-      <c r="Q152" s="145"/>
+      <c r="B152" s="150"/>
+      <c r="C152" s="150"/>
+      <c r="D152" s="150"/>
+      <c r="E152" s="150"/>
+      <c r="F152" s="150"/>
+      <c r="G152" s="150"/>
+      <c r="H152" s="150"/>
+      <c r="I152" s="150"/>
+      <c r="J152" s="150"/>
+      <c r="K152" s="150"/>
+      <c r="L152" s="150"/>
+      <c r="M152" s="150"/>
+      <c r="N152" s="150"/>
+      <c r="O152" s="150"/>
+      <c r="P152" s="150"/>
+      <c r="Q152" s="150"/>
     </row>
     <row r="153" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="154" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9656,29 +9651,29 @@
       </c>
     </row>
     <row r="155" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="133" t="s">
+      <c r="A155" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="B155" s="133"/>
-      <c r="C155" s="133"/>
-      <c r="D155" s="133"/>
-      <c r="E155" s="133"/>
-      <c r="F155" s="133"/>
-      <c r="G155" s="133"/>
-      <c r="H155" s="133"/>
-      <c r="I155" s="133"/>
-      <c r="J155" s="133"/>
-      <c r="K155" s="133"/>
-      <c r="L155" s="133"/>
-      <c r="M155" s="133"/>
-      <c r="N155" s="133"/>
-      <c r="O155" s="133"/>
+      <c r="B155" s="135"/>
+      <c r="C155" s="135"/>
+      <c r="D155" s="135"/>
+      <c r="E155" s="135"/>
+      <c r="F155" s="135"/>
+      <c r="G155" s="135"/>
+      <c r="H155" s="135"/>
+      <c r="I155" s="135"/>
+      <c r="J155" s="135"/>
+      <c r="K155" s="135"/>
+      <c r="L155" s="135"/>
+      <c r="M155" s="135"/>
+      <c r="N155" s="135"/>
+      <c r="O155" s="135"/>
     </row>
     <row r="156" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A156" s="153"/>
-      <c r="B156" s="154"/>
-      <c r="C156" s="154"/>
-      <c r="D156" s="154"/>
+      <c r="A156" s="138"/>
+      <c r="B156" s="139"/>
+      <c r="C156" s="139"/>
+      <c r="D156" s="139"/>
       <c r="E156" s="29" t="s">
         <v>67</v>
       </c>
@@ -9693,18 +9688,18 @@
       <c r="H157" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="I157" s="144"/>
-      <c r="J157" s="144"/>
-      <c r="K157" s="144"/>
-      <c r="M157" s="144"/>
-      <c r="N157" s="144"/>
-      <c r="O157" s="144"/>
+      <c r="I157" s="131"/>
+      <c r="J157" s="131"/>
+      <c r="K157" s="131"/>
+      <c r="M157" s="131"/>
+      <c r="N157" s="131"/>
+      <c r="O157" s="131"/>
     </row>
     <row r="158" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="139" t="s">
+      <c r="B158" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C158" s="139"/>
+      <c r="C158" s="140"/>
       <c r="E158" s="73" t="s">
         <v>0</v>
       </c>
@@ -10025,30 +10020,30 @@
       </c>
     </row>
     <row r="175" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="133" t="s">
+      <c r="A175" s="135" t="s">
         <v>68</v>
       </c>
-      <c r="B175" s="133"/>
-      <c r="C175" s="133"/>
-      <c r="D175" s="133"/>
-      <c r="E175" s="133"/>
-      <c r="F175" s="133"/>
-      <c r="G175" s="133"/>
-      <c r="H175" s="133"/>
-      <c r="I175" s="133"/>
-      <c r="J175" s="133"/>
-      <c r="K175" s="133"/>
-      <c r="L175" s="133"/>
-      <c r="M175" s="133"/>
-      <c r="N175" s="133"/>
-      <c r="O175" s="133"/>
-      <c r="P175" s="133"/>
+      <c r="B175" s="135"/>
+      <c r="C175" s="135"/>
+      <c r="D175" s="135"/>
+      <c r="E175" s="135"/>
+      <c r="F175" s="135"/>
+      <c r="G175" s="135"/>
+      <c r="H175" s="135"/>
+      <c r="I175" s="135"/>
+      <c r="J175" s="135"/>
+      <c r="K175" s="135"/>
+      <c r="L175" s="135"/>
+      <c r="M175" s="135"/>
+      <c r="N175" s="135"/>
+      <c r="O175" s="135"/>
+      <c r="P175" s="135"/>
     </row>
     <row r="176" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="147" t="s">
+      <c r="A176" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B176" s="147"/>
+      <c r="B176" s="136"/>
       <c r="C176" s="62" t="s">
         <v>0</v>
       </c>
@@ -10081,10 +10076,10 @@
       </c>
     </row>
     <row r="178" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="142" t="s">
+      <c r="A178" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B178" s="142"/>
+      <c r="B178" s="137"/>
       <c r="C178" s="76">
         <v>300</v>
       </c>
@@ -10197,22 +10192,22 @@
       </c>
     </row>
     <row r="190" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="133" t="s">
+      <c r="A190" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="B190" s="133"/>
-      <c r="C190" s="133"/>
-      <c r="D190" s="133"/>
-      <c r="E190" s="133"/>
-      <c r="F190" s="133"/>
-      <c r="G190" s="133"/>
-      <c r="H190" s="133"/>
-      <c r="I190" s="133"/>
-      <c r="J190" s="133"/>
-      <c r="K190" s="133"/>
-      <c r="L190" s="133"/>
-      <c r="M190" s="133"/>
-      <c r="N190" s="133"/>
+      <c r="B190" s="135"/>
+      <c r="C190" s="135"/>
+      <c r="D190" s="135"/>
+      <c r="E190" s="135"/>
+      <c r="F190" s="135"/>
+      <c r="G190" s="135"/>
+      <c r="H190" s="135"/>
+      <c r="I190" s="135"/>
+      <c r="J190" s="135"/>
+      <c r="K190" s="135"/>
+      <c r="L190" s="135"/>
+      <c r="M190" s="135"/>
+      <c r="N190" s="135"/>
     </row>
     <row r="191" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D191" s="77" t="s">
@@ -10220,10 +10215,10 @@
       </c>
     </row>
     <row r="192" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="147" t="s">
+      <c r="A192" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="B192" s="147"/>
+      <c r="B192" s="136"/>
     </row>
     <row r="193" spans="1:15" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="51" t="s">
@@ -10340,29 +10335,29 @@
       </c>
     </row>
     <row r="205" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="133" t="s">
+      <c r="A205" s="135" t="s">
         <v>75</v>
       </c>
-      <c r="B205" s="133"/>
-      <c r="C205" s="133"/>
-      <c r="D205" s="133"/>
-      <c r="E205" s="133"/>
-      <c r="F205" s="133"/>
-      <c r="G205" s="133"/>
-      <c r="H205" s="133"/>
-      <c r="I205" s="133"/>
-      <c r="J205" s="133"/>
-      <c r="K205" s="133"/>
-      <c r="L205" s="133"/>
-      <c r="M205" s="133"/>
-      <c r="N205" s="133"/>
-      <c r="O205" s="133"/>
+      <c r="B205" s="135"/>
+      <c r="C205" s="135"/>
+      <c r="D205" s="135"/>
+      <c r="E205" s="135"/>
+      <c r="F205" s="135"/>
+      <c r="G205" s="135"/>
+      <c r="H205" s="135"/>
+      <c r="I205" s="135"/>
+      <c r="J205" s="135"/>
+      <c r="K205" s="135"/>
+      <c r="L205" s="135"/>
+      <c r="M205" s="135"/>
+      <c r="N205" s="135"/>
+      <c r="O205" s="135"/>
     </row>
     <row r="206" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K206" s="152"/>
-      <c r="L206" s="152"/>
-      <c r="M206" s="132"/>
-      <c r="N206" s="132"/>
+      <c r="K206" s="132"/>
+      <c r="L206" s="132"/>
+      <c r="M206" s="147"/>
+      <c r="N206" s="147"/>
     </row>
     <row r="207" spans="1:15" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="29" t="s">
@@ -10439,8 +10434,8 @@
       </c>
     </row>
     <row r="213" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="132"/>
-      <c r="B213" s="132"/>
+      <c r="A213" s="147"/>
+      <c r="B213" s="147"/>
     </row>
     <row r="214" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="34"/>
@@ -10457,20 +10452,20 @@
       <c r="E218" s="119"/>
     </row>
     <row r="219" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="133" t="s">
+      <c r="A219" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="B219" s="133"/>
-      <c r="C219" s="133"/>
-      <c r="D219" s="133"/>
-      <c r="E219" s="133"/>
-      <c r="F219" s="133"/>
-      <c r="G219" s="133"/>
-      <c r="H219" s="133"/>
-      <c r="I219" s="133"/>
-      <c r="J219" s="133"/>
-      <c r="K219" s="133"/>
-      <c r="L219" s="133"/>
+      <c r="B219" s="135"/>
+      <c r="C219" s="135"/>
+      <c r="D219" s="135"/>
+      <c r="E219" s="135"/>
+      <c r="F219" s="135"/>
+      <c r="G219" s="135"/>
+      <c r="H219" s="135"/>
+      <c r="I219" s="135"/>
+      <c r="J219" s="135"/>
+      <c r="K219" s="135"/>
+      <c r="L219" s="135"/>
     </row>
     <row r="220" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C220" s="78" t="s">
@@ -10486,10 +10481,10 @@
       </c>
     </row>
     <row r="221" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="132" t="s">
+      <c r="A221" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B221" s="132"/>
+      <c r="B221" s="147"/>
       <c r="C221" s="33">
         <v>100</v>
       </c>
@@ -10560,19 +10555,19 @@
       </c>
     </row>
     <row r="230" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="133" t="s">
+      <c r="A230" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="B230" s="133"/>
-      <c r="C230" s="133"/>
-      <c r="D230" s="133"/>
-      <c r="E230" s="133"/>
-      <c r="F230" s="133"/>
-      <c r="G230" s="133"/>
-      <c r="H230" s="133"/>
-      <c r="I230" s="133"/>
-      <c r="J230" s="133"/>
-      <c r="K230" s="133"/>
+      <c r="B230" s="135"/>
+      <c r="C230" s="135"/>
+      <c r="D230" s="135"/>
+      <c r="E230" s="135"/>
+      <c r="F230" s="135"/>
+      <c r="G230" s="135"/>
+      <c r="H230" s="135"/>
+      <c r="I230" s="135"/>
+      <c r="J230" s="135"/>
+      <c r="K230" s="135"/>
     </row>
     <row r="231" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C231" s="10" t="s">
@@ -10653,10 +10648,10 @@
       </c>
     </row>
     <row r="237" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="132" t="s">
+      <c r="A237" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B237" s="132"/>
+      <c r="B237" s="147"/>
     </row>
     <row r="238" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="34" t="s">
@@ -10706,24 +10701,24 @@
     </row>
     <row r="243" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="245" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="133" t="s">
+      <c r="A245" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="B245" s="133"/>
-      <c r="C245" s="133"/>
-      <c r="D245" s="133"/>
-      <c r="E245" s="133"/>
-      <c r="F245" s="133"/>
-      <c r="G245" s="133"/>
-      <c r="H245" s="133"/>
-      <c r="I245" s="133"/>
-      <c r="J245" s="133"/>
-      <c r="K245" s="133"/>
-      <c r="L245" s="133"/>
-      <c r="M245" s="133"/>
-      <c r="N245" s="133"/>
-      <c r="O245" s="133"/>
-      <c r="P245" s="133"/>
+      <c r="B245" s="135"/>
+      <c r="C245" s="135"/>
+      <c r="D245" s="135"/>
+      <c r="E245" s="135"/>
+      <c r="F245" s="135"/>
+      <c r="G245" s="135"/>
+      <c r="H245" s="135"/>
+      <c r="I245" s="135"/>
+      <c r="J245" s="135"/>
+      <c r="K245" s="135"/>
+      <c r="L245" s="135"/>
+      <c r="M245" s="135"/>
+      <c r="N245" s="135"/>
+      <c r="O245" s="135"/>
+      <c r="P245" s="135"/>
     </row>
     <row r="247" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C247" s="10" t="s">
@@ -10784,10 +10779,10 @@
       </c>
     </row>
     <row r="254" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="132" t="s">
+      <c r="A254" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="B254" s="132"/>
+      <c r="B254" s="147"/>
     </row>
     <row r="255" spans="1:16" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="34" t="s">
@@ -10826,25 +10821,25 @@
       </c>
     </row>
     <row r="262" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="133" t="s">
+      <c r="A262" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="B262" s="133"/>
-      <c r="C262" s="133"/>
-      <c r="D262" s="133"/>
-      <c r="E262" s="133"/>
-      <c r="F262" s="133"/>
-      <c r="G262" s="133"/>
-      <c r="H262" s="133"/>
-      <c r="I262" s="133"/>
-      <c r="J262" s="133"/>
-      <c r="K262" s="133"/>
-      <c r="L262" s="133"/>
-      <c r="M262" s="133"/>
-      <c r="N262" s="133"/>
-      <c r="O262" s="133"/>
-      <c r="P262" s="133"/>
-      <c r="Q262" s="133"/>
+      <c r="B262" s="135"/>
+      <c r="C262" s="135"/>
+      <c r="D262" s="135"/>
+      <c r="E262" s="135"/>
+      <c r="F262" s="135"/>
+      <c r="G262" s="135"/>
+      <c r="H262" s="135"/>
+      <c r="I262" s="135"/>
+      <c r="J262" s="135"/>
+      <c r="K262" s="135"/>
+      <c r="L262" s="135"/>
+      <c r="M262" s="135"/>
+      <c r="N262" s="135"/>
+      <c r="O262" s="135"/>
+      <c r="P262" s="135"/>
+      <c r="Q262" s="135"/>
     </row>
     <row r="264" spans="1:17" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C264" s="10" t="s">
@@ -10854,10 +10849,10 @@
         <v>591</v>
       </c>
       <c r="E264" s="80"/>
-      <c r="G264" s="132" t="s">
+      <c r="G264" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="H264" s="132"/>
+      <c r="H264" s="147"/>
       <c r="M264" s="119" t="str">
         <f>"delete price where catId="&amp;D264&amp;" and firma=10;"</f>
         <v>delete price where catId=591 and firma=10;</v>
@@ -10919,11 +10914,11 @@
       </c>
     </row>
     <row r="268" spans="1:17" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C268" s="149" t="s">
+      <c r="C268" s="146" t="s">
         <v>102</v>
       </c>
-      <c r="D268" s="149"/>
-      <c r="E268" s="149"/>
+      <c r="D268" s="146"/>
+      <c r="E268" s="146"/>
     </row>
     <row r="269" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="270" spans="1:17" x14ac:dyDescent="0.25">
@@ -10943,6 +10938,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A73:Q73"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A92:S92"/>
+    <mergeCell ref="A108:Q108"/>
+    <mergeCell ref="A127:H129"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A155:O155"/>
+    <mergeCell ref="A152:Q152"/>
+    <mergeCell ref="A134:G135"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="I139:K139"/>
+    <mergeCell ref="M139:O139"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A230:K230"/>
+    <mergeCell ref="A190:N190"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A205:O205"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A219:L219"/>
+    <mergeCell ref="A262:Q262"/>
+    <mergeCell ref="C268:E268"/>
+    <mergeCell ref="G264:H264"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A245:P245"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="K206:L206"/>
     <mergeCell ref="F30:G30"/>
@@ -10959,84 +11032,6 @@
     <mergeCell ref="A156:D156"/>
     <mergeCell ref="B158:C158"/>
     <mergeCell ref="A130:E130"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A262:Q262"/>
-    <mergeCell ref="C268:E268"/>
-    <mergeCell ref="G264:H264"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A245:P245"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A230:K230"/>
-    <mergeCell ref="A190:N190"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A205:O205"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A219:L219"/>
-    <mergeCell ref="A127:H129"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A155:O155"/>
-    <mergeCell ref="A152:Q152"/>
-    <mergeCell ref="A134:G135"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="I139:K139"/>
-    <mergeCell ref="M139:O139"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A73:Q73"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A92:S92"/>
-    <mergeCell ref="A108:Q108"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="A46:M46"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A38" r:id="rId1" display="https://rubraslet.ru/silicon/2-site/121-segmentatsiya-svirl-202kh12kh2.html?ml=1"/>
@@ -11061,7 +11056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N14" sqref="N14:N15"/>
     </sheetView>
   </sheetViews>
@@ -11161,29 +11156,29 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:21" ht="54.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -11449,48 +11444,48 @@
       <c r="G30" s="119"/>
     </row>
     <row r="31" spans="1:19" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="133" t="s">
+      <c r="A31" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="133"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="133"/>
-      <c r="N31" s="133"/>
-      <c r="O31" s="133"/>
-      <c r="P31" s="133"/>
-      <c r="Q31" s="133"/>
-      <c r="R31" s="133"/>
-      <c r="S31" s="133"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
     </row>
     <row r="32" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="133" t="s">
+      <c r="A32" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="133"/>
-      <c r="C32" s="133"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="133"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="133"/>
-      <c r="O32" s="133"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="133"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="135"/>
     </row>
     <row r="33" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="15"/>
@@ -11856,45 +11851,45 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:17" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="133" t="s">
+      <c r="A56" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="133"/>
-      <c r="M56" s="133"/>
-      <c r="N56" s="133"/>
-      <c r="O56" s="133"/>
-      <c r="P56" s="133"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="135"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="135"/>
+      <c r="J56" s="135"/>
+      <c r="K56" s="135"/>
+      <c r="L56" s="135"/>
+      <c r="M56" s="135"/>
+      <c r="N56" s="135"/>
+      <c r="O56" s="135"/>
+      <c r="P56" s="135"/>
     </row>
     <row r="57" spans="1:17" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="133" t="s">
+      <c r="A57" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="133"/>
-      <c r="C57" s="133"/>
-      <c r="D57" s="133"/>
-      <c r="E57" s="133"/>
-      <c r="F57" s="133"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="133"/>
-      <c r="M57" s="133"/>
-      <c r="N57" s="133"/>
-      <c r="O57" s="133"/>
-      <c r="P57" s="133"/>
-      <c r="Q57" s="133"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="135"/>
+      <c r="J57" s="135"/>
+      <c r="K57" s="135"/>
+      <c r="L57" s="135"/>
+      <c r="M57" s="135"/>
+      <c r="N57" s="135"/>
+      <c r="O57" s="135"/>
+      <c r="P57" s="135"/>
+      <c r="Q57" s="135"/>
     </row>
     <row r="58" spans="1:17" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
@@ -12252,12 +12247,12 @@
     </row>
     <row r="70" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D72" s="144"/>
-      <c r="E72" s="144"/>
-      <c r="F72" s="144"/>
-      <c r="H72" s="144"/>
-      <c r="I72" s="144"/>
-      <c r="J72" s="144"/>
+      <c r="D72" s="131"/>
+      <c r="E72" s="131"/>
+      <c r="F72" s="131"/>
+      <c r="H72" s="131"/>
+      <c r="I72" s="131"/>
+      <c r="J72" s="131"/>
     </row>
     <row r="73" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="42"/>
@@ -12345,44 +12340,44 @@
       </c>
     </row>
     <row r="89" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="133" t="s">
+      <c r="A89" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="133"/>
-      <c r="C89" s="133"/>
-      <c r="D89" s="133"/>
-      <c r="E89" s="133"/>
-      <c r="F89" s="133"/>
-      <c r="G89" s="133"/>
-      <c r="H89" s="133"/>
-      <c r="I89" s="133"/>
-      <c r="J89" s="133"/>
-      <c r="K89" s="133"/>
-      <c r="L89" s="133"/>
-      <c r="M89" s="133"/>
-      <c r="N89" s="133"/>
-      <c r="O89" s="133"/>
+      <c r="B89" s="135"/>
+      <c r="C89" s="135"/>
+      <c r="D89" s="135"/>
+      <c r="E89" s="135"/>
+      <c r="F89" s="135"/>
+      <c r="G89" s="135"/>
+      <c r="H89" s="135"/>
+      <c r="I89" s="135"/>
+      <c r="J89" s="135"/>
+      <c r="K89" s="135"/>
+      <c r="L89" s="135"/>
+      <c r="M89" s="135"/>
+      <c r="N89" s="135"/>
+      <c r="O89" s="135"/>
     </row>
     <row r="90" spans="1:17" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="133" t="s">
+      <c r="A90" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="B90" s="133"/>
-      <c r="C90" s="133"/>
-      <c r="D90" s="133"/>
-      <c r="E90" s="133"/>
-      <c r="F90" s="133"/>
-      <c r="G90" s="133"/>
-      <c r="H90" s="133"/>
-      <c r="I90" s="133"/>
-      <c r="J90" s="133"/>
-      <c r="K90" s="133"/>
-      <c r="L90" s="133"/>
-      <c r="M90" s="133"/>
-      <c r="N90" s="133"/>
-      <c r="O90" s="133"/>
-      <c r="P90" s="133"/>
-      <c r="Q90" s="133"/>
+      <c r="B90" s="135"/>
+      <c r="C90" s="135"/>
+      <c r="D90" s="135"/>
+      <c r="E90" s="135"/>
+      <c r="F90" s="135"/>
+      <c r="G90" s="135"/>
+      <c r="H90" s="135"/>
+      <c r="I90" s="135"/>
+      <c r="J90" s="135"/>
+      <c r="K90" s="135"/>
+      <c r="L90" s="135"/>
+      <c r="M90" s="135"/>
+      <c r="N90" s="135"/>
+      <c r="O90" s="135"/>
+      <c r="P90" s="135"/>
+      <c r="Q90" s="135"/>
     </row>
     <row r="91" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="30"/>
@@ -12410,13 +12405,13 @@
       <c r="M91" s="30"/>
     </row>
     <row r="92" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F92" s="146"/>
-      <c r="G92" s="146"/>
-      <c r="H92" s="146"/>
+      <c r="F92" s="151"/>
+      <c r="G92" s="151"/>
+      <c r="H92" s="151"/>
       <c r="I92" s="67"/>
-      <c r="J92" s="146"/>
-      <c r="K92" s="146"/>
-      <c r="L92" s="146"/>
+      <c r="J92" s="151"/>
+      <c r="K92" s="151"/>
+      <c r="L92" s="151"/>
       <c r="M92" s="30"/>
     </row>
     <row r="93" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12694,10 +12689,10 @@
       <c r="M102" s="30"/>
     </row>
     <row r="103" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="139" t="s">
+      <c r="B103" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C103" s="139"/>
+      <c r="C103" s="140"/>
       <c r="D103" s="30"/>
       <c r="E103" s="30"/>
       <c r="F103" s="28" t="s">
@@ -12779,30 +12774,30 @@
     </row>
     <row r="108" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="133" t="s">
+      <c r="A113" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="B113" s="133"/>
-      <c r="C113" s="133"/>
-      <c r="D113" s="133"/>
-      <c r="E113" s="133"/>
-      <c r="F113" s="133"/>
-      <c r="G113" s="133"/>
-      <c r="H113" s="133"/>
-      <c r="I113" s="133"/>
-      <c r="J113" s="133"/>
-      <c r="K113" s="133"/>
-      <c r="L113" s="133"/>
-      <c r="M113" s="133"/>
-      <c r="N113" s="133"/>
+      <c r="B113" s="135"/>
+      <c r="C113" s="135"/>
+      <c r="D113" s="135"/>
+      <c r="E113" s="135"/>
+      <c r="F113" s="135"/>
+      <c r="G113" s="135"/>
+      <c r="H113" s="135"/>
+      <c r="I113" s="135"/>
+      <c r="J113" s="135"/>
+      <c r="K113" s="135"/>
+      <c r="L113" s="135"/>
+      <c r="M113" s="135"/>
+      <c r="N113" s="135"/>
     </row>
     <row r="114" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F114" s="144"/>
-      <c r="G114" s="144"/>
-      <c r="H114" s="144"/>
-      <c r="J114" s="144"/>
-      <c r="K114" s="144"/>
-      <c r="L114" s="144"/>
+      <c r="F114" s="131"/>
+      <c r="G114" s="131"/>
+      <c r="H114" s="131"/>
+      <c r="J114" s="131"/>
+      <c r="K114" s="131"/>
+      <c r="L114" s="131"/>
     </row>
     <row r="115" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F115" s="96"/>
@@ -13037,10 +13032,10 @@
       </c>
     </row>
     <row r="125" spans="1:16" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="139" t="s">
+      <c r="B125" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="C125" s="139"/>
+      <c r="C125" s="140"/>
       <c r="G125" s="21">
         <v>3000</v>
       </c>
@@ -13112,23 +13107,23 @@
     </row>
     <row r="130" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A132" s="143" t="s">
+      <c r="A132" s="149" t="s">
         <v>164</v>
       </c>
-      <c r="B132" s="144"/>
-      <c r="C132" s="144"/>
-      <c r="D132" s="144"/>
-      <c r="E132" s="144"/>
-      <c r="F132" s="144"/>
-      <c r="G132" s="144"/>
-      <c r="H132" s="144"/>
-      <c r="I132" s="144"/>
-      <c r="J132" s="144"/>
-      <c r="K132" s="144"/>
-      <c r="L132" s="144"/>
-      <c r="M132" s="144"/>
-      <c r="N132" s="144"/>
-      <c r="O132" s="144"/>
+      <c r="B132" s="131"/>
+      <c r="C132" s="131"/>
+      <c r="D132" s="131"/>
+      <c r="E132" s="131"/>
+      <c r="F132" s="131"/>
+      <c r="G132" s="131"/>
+      <c r="H132" s="131"/>
+      <c r="I132" s="131"/>
+      <c r="J132" s="131"/>
+      <c r="K132" s="131"/>
+      <c r="L132" s="131"/>
+      <c r="M132" s="131"/>
+      <c r="N132" s="131"/>
+      <c r="O132" s="131"/>
     </row>
     <row r="133" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13280,10 +13275,10 @@
       </c>
     </row>
     <row r="143" spans="1:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="139" t="s">
+      <c r="C143" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="D143" s="139"/>
+      <c r="D143" s="140"/>
     </row>
     <row r="144" spans="1:15" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C144" s="19" t="s">
@@ -13297,10 +13292,10 @@
       </c>
     </row>
     <row r="145" spans="3:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="140" t="s">
+      <c r="C145" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="D145" s="140"/>
+      <c r="D145" s="153"/>
       <c r="F145" s="28" t="s">
         <v>170</v>
       </c>
@@ -13317,16 +13312,6 @@
     <row r="147" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A10:U10"/>
-    <mergeCell ref="A31:S31"/>
-    <mergeCell ref="A32:Q32"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A56:P56"/>
-    <mergeCell ref="A57:Q57"/>
     <mergeCell ref="A132:O132"/>
     <mergeCell ref="C143:D143"/>
     <mergeCell ref="C145:D145"/>
@@ -13339,6 +13324,16 @@
     <mergeCell ref="A113:N113"/>
     <mergeCell ref="F114:H114"/>
     <mergeCell ref="J114:L114"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A10:U10"/>
+    <mergeCell ref="A31:S31"/>
+    <mergeCell ref="A32:Q32"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A56:P56"/>
+    <mergeCell ref="A57:Q57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
@@ -13355,7 +13350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="B24" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -13367,36 +13362,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="135" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -13514,10 +13509,10 @@
       <c r="T9" s="119"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="147"/>
+      <c r="B10" s="136"/>
       <c r="T10" s="119"/>
     </row>
     <row r="11" spans="1:28" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13545,10 +13540,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="142"/>
+      <c r="B14" s="137"/>
     </row>
     <row r="15" spans="1:28" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
@@ -13560,33 +13555,33 @@
     </row>
     <row r="16" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="133"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="133"/>
-      <c r="R19" s="133"/>
-      <c r="S19" s="133"/>
-      <c r="T19" s="133"/>
-      <c r="U19" s="133"/>
-      <c r="V19" s="133"/>
-      <c r="W19" s="133"/>
-      <c r="X19" s="133"/>
-      <c r="Y19" s="133"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="82" t="s">
@@ -13693,10 +13688,10 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="147"/>
+      <c r="B29" s="136"/>
     </row>
     <row r="30" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
@@ -13715,10 +13710,10 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="142" t="s">
+      <c r="A32" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="142"/>
+      <c r="B32" s="137"/>
     </row>
     <row r="33" spans="1:19" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="s">
@@ -13730,27 +13725,27 @@
     </row>
     <row r="34" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="133" t="s">
+      <c r="A36" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="133"/>
-      <c r="O36" s="133"/>
-      <c r="P36" s="133"/>
-      <c r="Q36" s="133"/>
-      <c r="R36" s="133"/>
-      <c r="S36" s="133"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="135"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="135"/>
+      <c r="N36" s="135"/>
+      <c r="O36" s="135"/>
+      <c r="P36" s="135"/>
+      <c r="Q36" s="135"/>
+      <c r="R36" s="135"/>
+      <c r="S36" s="135"/>
     </row>
     <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="50" t="s">
@@ -13815,18 +13810,18 @@
     </row>
     <row r="42" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="147" t="s">
+      <c r="A43" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="147"/>
+      <c r="B43" s="136"/>
     </row>
     <row r="44" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="34"/>
       <c r="B44" s="49"/>
     </row>
     <row r="45" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="142"/>
-      <c r="B45" s="142"/>
+      <c r="A45" s="137"/>
+      <c r="B45" s="137"/>
     </row>
     <row r="46" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34"/>
@@ -13855,7 +13850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -13873,30 +13868,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -13987,16 +13982,16 @@
     </row>
     <row r="8" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="147"/>
+      <c r="B9" s="136"/>
     </row>
     <row r="10" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="160" t="s">
+      <c r="B10" s="159" t="s">
         <v>274</v>
       </c>
       <c r="F10" t="s">
@@ -14013,7 +14008,7 @@
       <c r="A11" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="161"/>
+      <c r="B11" s="160"/>
       <c r="E11" s="120">
         <v>559</v>
       </c>
@@ -14034,7 +14029,7 @@
       <c r="A12" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="161" t="s">
         <v>275</v>
       </c>
     </row>
@@ -14042,7 +14037,7 @@
       <c r="A13" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="161"/>
+      <c r="B13" s="160"/>
     </row>
     <row r="14" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
@@ -14074,28 +14069,28 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="135" t="s">
         <v>198</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="133"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="133"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="133"/>
-      <c r="S22" s="133"/>
-      <c r="T22" s="133"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
+      <c r="Q22" s="135"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="82" t="s">
@@ -14171,10 +14166,10 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="147" t="s">
+      <c r="A30" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="147"/>
+      <c r="B30" s="136"/>
     </row>
     <row r="31" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
@@ -14233,50 +14228,50 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="133" t="s">
+      <c r="A40" s="135" t="s">
         <v>204</v>
       </c>
-      <c r="B40" s="133"/>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-      <c r="E40" s="133"/>
-      <c r="F40" s="133"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="133"/>
-      <c r="M40" s="133"/>
-      <c r="N40" s="133"/>
-      <c r="O40" s="133"/>
-      <c r="P40" s="133"/>
-      <c r="Q40" s="133"/>
-      <c r="R40" s="133"/>
-      <c r="S40" s="133"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="135"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="135"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="135"/>
+      <c r="N40" s="135"/>
+      <c r="O40" s="135"/>
+      <c r="P40" s="135"/>
+      <c r="Q40" s="135"/>
+      <c r="R40" s="135"/>
+      <c r="S40" s="135"/>
     </row>
     <row r="41" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="135" t="s">
         <v>287</v>
       </c>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="133"/>
-      <c r="M41" s="133"/>
-      <c r="N41" s="133"/>
-      <c r="O41" s="133"/>
-      <c r="P41" s="133"/>
-      <c r="Q41" s="133"/>
-      <c r="R41" s="133"/>
-      <c r="S41" s="133"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
+      <c r="N41" s="135"/>
+      <c r="O41" s="135"/>
+      <c r="P41" s="135"/>
+      <c r="Q41" s="135"/>
+      <c r="R41" s="135"/>
+      <c r="S41" s="135"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D42" s="88" t="s">
@@ -14526,11 +14521,11 @@
       </c>
     </row>
     <row r="50" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="159" t="s">
+      <c r="C50" s="162" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
+      <c r="D50" s="162"/>
+      <c r="E50" s="162"/>
       <c r="F50" s="100" t="s">
         <v>210</v>
       </c>
@@ -14538,12 +14533,12 @@
     </row>
     <row r="51" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="144"/>
-      <c r="I52" s="144"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
     </row>
     <row r="53" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C53" s="50"/>
@@ -14595,17 +14590,17 @@
       <c r="I59" s="36"/>
     </row>
     <row r="60" spans="3:12" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="159"/>
-      <c r="D60" s="159"/>
-      <c r="E60" s="159"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="162"/>
+      <c r="E60" s="162"/>
       <c r="G60" s="100"/>
     </row>
     <row r="61" spans="3:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="139" t="s">
+      <c r="C62" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="139"/>
+      <c r="D62" s="140"/>
     </row>
     <row r="63" spans="3:12" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C63" s="19" t="s">
@@ -14630,12 +14625,6 @@
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A22:T22"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="A40:S40"/>
     <mergeCell ref="A41:S41"/>
@@ -14643,6 +14632,12 @@
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="G52:I52"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A22:T22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" display="https://rubraslet.ru/bumaga.html"/>
@@ -14659,7 +14654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC83"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -14675,37 +14670,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="133"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="82" t="s">
@@ -14832,10 +14827,10 @@
       </c>
     </row>
     <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="147"/>
+      <c r="B10" s="136"/>
       <c r="U10" s="119"/>
     </row>
     <row r="11" spans="1:29" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14864,32 +14859,32 @@
     </row>
     <row r="14" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:29" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="135" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="133"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="133"/>
-      <c r="R16" s="133"/>
-      <c r="S16" s="133"/>
-      <c r="T16" s="133"/>
-      <c r="U16" s="133"/>
-      <c r="V16" s="133"/>
-      <c r="W16" s="133"/>
-      <c r="X16" s="133"/>
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
@@ -14993,10 +14988,10 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="147" t="s">
+      <c r="A27" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="147"/>
+      <c r="B27" s="136"/>
     </row>
     <row r="28" spans="1:9" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
@@ -15023,10 +15018,10 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="142" t="s">
+      <c r="A31" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="142"/>
+      <c r="B31" s="137"/>
     </row>
     <row r="32" spans="1:9" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
@@ -15058,36 +15053,36 @@
       <c r="H34" s="119"/>
     </row>
     <row r="35" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="133" t="s">
+      <c r="A35" s="135" t="s">
         <v>229</v>
       </c>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
-      <c r="N35" s="133"/>
-      <c r="O35" s="133"/>
-      <c r="P35" s="133"/>
-      <c r="Q35" s="133"/>
-      <c r="R35" s="133"/>
-      <c r="S35" s="133"/>
-      <c r="T35" s="133"/>
-      <c r="U35" s="133"/>
-      <c r="V35" s="133"/>
-      <c r="W35" s="133"/>
-      <c r="X35" s="133"/>
-      <c r="Y35" s="133"/>
-      <c r="Z35" s="133"/>
-      <c r="AA35" s="133"/>
-      <c r="AB35" s="133"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="135"/>
+      <c r="P35" s="135"/>
+      <c r="Q35" s="135"/>
+      <c r="R35" s="135"/>
+      <c r="S35" s="135"/>
+      <c r="T35" s="135"/>
+      <c r="U35" s="135"/>
+      <c r="V35" s="135"/>
+      <c r="W35" s="135"/>
+      <c r="X35" s="135"/>
+      <c r="Y35" s="135"/>
+      <c r="Z35" s="135"/>
+      <c r="AA35" s="135"/>
+      <c r="AB35" s="135"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" s="101" t="s">
@@ -15105,9 +15100,9 @@
       <c r="H36" s="101"/>
       <c r="I36" s="101"/>
       <c r="J36" s="101"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
     </row>
     <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="82" t="s">
@@ -15342,10 +15337,10 @@
     </row>
     <row r="45" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="139" t="s">
+      <c r="A59" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="139"/>
+      <c r="B59" s="140"/>
     </row>
     <row r="60" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
@@ -15381,10 +15376,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="140" t="s">
+      <c r="A63" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="140"/>
+      <c r="B63" s="153"/>
     </row>
     <row r="64" spans="1:4" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
@@ -15409,30 +15404,30 @@
       </c>
     </row>
     <row r="67" spans="1:22" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="133" t="s">
+      <c r="A67" s="135" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="133"/>
-      <c r="C67" s="133"/>
-      <c r="D67" s="133"/>
-      <c r="E67" s="133"/>
-      <c r="F67" s="133"/>
-      <c r="G67" s="133"/>
-      <c r="H67" s="133"/>
-      <c r="I67" s="133"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="133"/>
-      <c r="M67" s="133"/>
-      <c r="N67" s="133"/>
-      <c r="O67" s="133"/>
-      <c r="P67" s="133"/>
-      <c r="Q67" s="133"/>
-      <c r="R67" s="133"/>
-      <c r="S67" s="133"/>
-      <c r="T67" s="133"/>
-      <c r="U67" s="133"/>
-      <c r="V67" s="133"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="135"/>
+      <c r="F67" s="135"/>
+      <c r="G67" s="135"/>
+      <c r="H67" s="135"/>
+      <c r="I67" s="135"/>
+      <c r="J67" s="135"/>
+      <c r="K67" s="135"/>
+      <c r="L67" s="135"/>
+      <c r="M67" s="135"/>
+      <c r="N67" s="135"/>
+      <c r="O67" s="135"/>
+      <c r="P67" s="135"/>
+      <c r="Q67" s="135"/>
+      <c r="R67" s="135"/>
+      <c r="S67" s="135"/>
+      <c r="T67" s="135"/>
+      <c r="U67" s="135"/>
+      <c r="V67" s="135"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="101" t="s">
@@ -15444,12 +15439,12 @@
       <c r="C68" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="E68" s="144"/>
-      <c r="F68" s="144"/>
-      <c r="G68" s="144"/>
-      <c r="H68" s="144"/>
-      <c r="I68" s="144"/>
-      <c r="J68" s="144"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="131"/>
+      <c r="H68" s="131"/>
+      <c r="I68" s="131"/>
+      <c r="J68" s="131"/>
     </row>
     <row r="69" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="50" t="s">
@@ -15672,11 +15667,6 @@
     <row r="83" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:X16"/>
-    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A67:V67"/>
     <mergeCell ref="E68:J68"/>
@@ -15685,6 +15675,11 @@
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="L36:N36"/>
     <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:X16"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" display="https://rubraslet.ru/reflectors/2-site/79-fasovka-svetootrazhayushchikh-nakleek.html?ml=1"/>
@@ -15700,7 +15695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
@@ -15712,33 +15707,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="135" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="133"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
@@ -15863,10 +15858,10 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="147"/>
+      <c r="B10" s="136"/>
       <c r="F10" s="29" t="s">
         <v>50</v>
       </c>
@@ -15896,10 +15891,10 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="142"/>
+      <c r="B14" s="137"/>
     </row>
     <row r="15" spans="1:25" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
@@ -15911,32 +15906,32 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="135" t="s">
         <v>251</v>
       </c>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="133"/>
-      <c r="R18" s="133"/>
-      <c r="S18" s="133"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="133"/>
-      <c r="W18" s="133"/>
-      <c r="X18" s="133"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50" t="s">
@@ -16032,11 +16027,11 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="149" t="s">
+      <c r="A26" s="146" t="s">
         <v>252</v>
       </c>
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
       <c r="F26" s="29" t="s">
         <v>250</v>
       </c>
@@ -16050,10 +16045,10 @@
     </row>
     <row r="28" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="147"/>
+      <c r="B29" s="136"/>
     </row>
     <row r="30" spans="1:24" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
@@ -16080,10 +16075,10 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="142" t="s">
+      <c r="A33" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="142"/>
+      <c r="B33" s="137"/>
     </row>
     <row r="34" spans="1:22" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="51" t="s">
@@ -16095,30 +16090,30 @@
     </row>
     <row r="35" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="133" t="s">
+      <c r="A39" s="135" t="s">
         <v>255</v>
       </c>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="133"/>
-      <c r="S39" s="133"/>
-      <c r="T39" s="133"/>
-      <c r="U39" s="133"/>
-      <c r="V39" s="133"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="135"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="135"/>
+      <c r="N39" s="135"/>
+      <c r="O39" s="135"/>
+      <c r="P39" s="135"/>
+      <c r="Q39" s="135"/>
+      <c r="R39" s="135"/>
+      <c r="S39" s="135"/>
+      <c r="T39" s="135"/>
+      <c r="U39" s="135"/>
+      <c r="V39" s="135"/>
     </row>
     <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="50" t="s">
@@ -16199,11 +16194,11 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="149" t="s">
+      <c r="A46" s="146" t="s">
         <v>256</v>
       </c>
-      <c r="B46" s="149"/>
-      <c r="C46" s="149"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="146"/>
     </row>
     <row r="47" spans="1:22" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="164" t="s">
@@ -16214,10 +16209,10 @@
     </row>
     <row r="48" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="147" t="s">
+      <c r="A49" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="147"/>
+      <c r="B49" s="136"/>
     </row>
     <row r="50" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
@@ -16253,10 +16248,10 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="142" t="s">
+      <c r="A53" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="142"/>
+      <c r="B53" s="137"/>
       <c r="E53" s="29" t="s">
         <v>260</v>
       </c>
@@ -16286,12 +16281,6 @@
     <row r="56" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:X18"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="A27:C27"/>
@@ -16300,6 +16289,12 @@
     <mergeCell ref="A39:V39"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:X18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="https://rubraslet.ru/slap-watches.html?id=92&amp;ml=1"/>
